--- a/dcomtestcasegeneration/Source/dcom/bin/Debug/Testcase/Testcase_SAIC_AS28_R1.0_DCOM.xlsx
+++ b/dcomtestcasegeneration/Source/dcom/bin/Debug/Testcase/Testcase_SAIC_AS28_R1.0_DCOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BGSV_EDA2_Automation_Tool_LOCALREPO\dcomtestcasegeneration\DCOMTestcaseGenerationR1.1\Source\dcom\bin\Debug\Testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2747FCA8-C05D-4BAA-9C04-A7A732BF98E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E5F0B9-1583-4663-9D92-D4E8B7949854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="540" windowWidth="24855" windowHeight="15315" xr2:uid="{21A86AB3-DC83-4198-BD8E-E0E807486B70}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{21A86AB3-DC83-4198-BD8E-E0E807486B70}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="376">
   <si>
     <t>ID</t>
   </si>
@@ -425,58 +425,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1) Positive response is received: 0x50 01
-2) -
-3) Positive response is received: 0x 62 F1 FD 01
-4) -
-5) Positive response is received: 0x50 03
-6) -
-7) Positive response is received: 0x 62 F1 FD 03
-8) Positive response is received: 0x50 02
-9) -
-10) Positive response is received: 0x 62 F1 FD 02
-11) Positive response is received: 0x50 01
-12) -
-13) Positive response is received: 0x 62 F1 FD 01
-14) Positive response is received: 0x50 03
-15) -
-16) Positive response is received: 0x 62 F1 FD 03
-17) Positive response is received: 0x50 02
-18) -
-19) Positive response is received: 0x 62 F1 FD 02
-20) Positive response is received: 0x50 01
-21) -
-22) Positive response is received: 0x 62 F1 FD 01
-23) -
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) FunctionalMessage(1001, 5001, Equal)
-2) wait(1000)
-3) RequestResponse(22f1fd, 62f1fd01, Equal)
-4) envvar(EnvTesterPresentOnOff(1; 0))
-5) FunctionalMessage(1003, 5003, Equal)
-6) wait(1000)
-7) RequestResponse(22f1fd, 62f1fd03, Equal)
-8) FunctionalMessage(1002, 5002, Equal)
-9) wait(1000)
-10) RequestResponse(22f1fd, 62f1fd02, Equal)
-11) FunctionalMessage(1001, 5001, Equal)
-12) wait(1000)
-13) RequestResponse(22f1fd, 62f1fd01, Equal)
-14) RequestResponse(1003, 5003, Equal)
-15) wait(1000)
-16) RequestResponse(22f1fd, 62f1fd03, Equal)
-17) RequestResponse(1002, 5002, Equal)
-18) wait(1000)
-19) RequestResponse(22f1fd, 62f1fd02, Equal)
-20) RequestResponse(1001, 5001, Equal)
-21) wait(1000)
-22) RequestResponse(22f1fd, 62f1fd01, Equal)
-23) envvar(EnvTesterPresentOnOff(0; 0))
-</t>
-  </si>
-  <si>
     <t>Testcase_SAIC_AS28_R1.0_DCOM_11</t>
   </si>
   <si>
@@ -509,58 +457,6 @@
 35) Wait 1000 ms
 36) Read active session with service 0x22 F1 FD
 37) Tester present OFF wait 0
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) No response is received
-2) -
-3) Positive response is received: 0x 62 F1 FD 01
-4) -
-5) No response is received
-6) -
-7) Positive response is received: 0x 62 F1 FD 03
-8) No response is received
-9) -
-10) Positive response is received: 0x 62 F1 FD 02
-11) No response is received
-12) -
-13) Positive response is received: 0x 62 F1 FD 01
-28) No response is received
-29) -
-30) Positive response is received: 0x 62 F1 FD 03
-31) No response is received
-32) -
-33) Positive response is received: 0x 62 F1 FD 02
-34) No response is received
-35) -
-36) Positive response is received: 0x 62 F1 FD 01
-37) -
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) FunctionalMessage(1081, , None)
-2) wait(1000)
-3) RequestResponse(22f1fd, 62f1fd01, Equal)
-4) envvar(EnvTesterPresentOnOff(1; 0))
-5) FunctionalMessage(1083, , None)
-6) wait(1000)
-7) RequestResponse(22f1fd, 62f1fd03, Equal)
-8) FunctionalMessage(1082, , None)
-9) wait(1000)
-10) RequestResponse(22f1fd, 62f1fd02, Equal)
-11) FunctionalMessage(1081, , None)
-12) wait(1000)
-13) RequestResponse(22f1fd, 62f1fd01, Equal)
-28) RequestResponse(1083, , None)
-29) wait(1000)
-30) RequestResponse(22f1fd, 62f1fd03, Equal)
-31) RequestResponse(1082, , None)
-32) wait(1000)
-33) RequestResponse(22f1fd, 62f1fd02, Equal)
-34) RequestResponse(1081, , None)
-35) wait(1000)
-36) RequestResponse(22f1fd, 62f1fd01, Equal)
-37) envvar(EnvTesterPresentOnOff(0; 0))
 </t>
   </si>
   <si>
@@ -623,106 +519,6 @@
 45) Wait 7000 ms
 46) Read active session with service 0x22 F1 FD
 47) Tester present OFF wait 100
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) -
-2) -
-3) Positive response is received: 0x 62 F1 FD 01
-4) No response is received
-5) -
-6) Positive response is received: 0x 62 F1 FD 01
-7) -
-8) Positive response is received: 0x 62 F1 FD 03
-9) No response is received
-10) -
-11) Positive response is received: 0x 62 F1 FD 01
-12) -
-13) Positive response is received: 0x 62 F1 FD 02
-14) No response is received
-15) -
-16) Positive response is received: 0x 62 F1 FD 01
-17) -
-18) Positive response is received: 0x 62 F1 FD 01
-19) No response is received
-20) -
-21) Positive response is received: 0x 62 F1 FD 01
-22) -
-23) Positive response is received: 0x 62 F1 FD 03
-24) No response is received
-25) -
-26) Positive response is received: 0x 62 F1 FD 01
-27) -
-28) Positive response is received: 0x 62 F1 FD 02
-29) No response is received
-30) -
-31) Positive response is received: 0x 62 F1 FD 01
-32) -
-33) Positive response is received: 0x 62 F1 FD 01
-34) No response is received
-35) -
-36) Positive response is received: 0x 62 F1 FD 01
-37) -
-38) Positive response is received: 0x 62 F1 FD 03
-39) No response is received
-40) -
-41) Positive response is received: 0x 62 F1 FD 01
-42) -
-43) Positive response is received: 0x 62 F1 FD 02
-44) No response is received
-45) -
-46) Positive response is received: 0x 62 F1 FD 01
-47) -
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
-2) DiagSessionCtrl(Default)
-3) RequestResponse(22f1fd, 62f1fd01, Equal)
-4) RequestResponse(1101, , None)
-5) wait(7000)
-6) RequestResponse(22f1fd, 62f1fd01, Equal)
-7) DiagSessionCtrl(Extended)
-8) RequestResponse(22f1fd, 62f1fd03, Equal)
-9) RequestResponse(1101, , None)
-10) wait(7000)
-11) RequestResponse(22f1fd, 62f1fd01, Equal)
-12) DiagSessionCtrl(Programming)
-13) RequestResponse(22f1fd, 62f1fd02, Equal)
-14) RequestResponse(1101, , None)
-15) wait(7000)
-16) RequestResponse(22f1fd, 62f1fd01, Equal)
-17) DiagSessionCtrl(Default)
-18) RequestResponse(22f1fd, 62f1fd01, Equal)
-19) RequestResponse(1102, , None)
-20) wait(7000)
-21) RequestResponse(22f1fd, 62f1fd01, Equal)
-22) DiagSessionCtrl(Extended)
-23) RequestResponse(22f1fd, 62f1fd03, Equal)
-24) RequestResponse(1102, , None)
-25) wait(7000)
-26) RequestResponse(22f1fd, 62f1fd01, Equal)
-27) DiagSessionCtrl(Programming)
-28) RequestResponse(22f1fd, 62f1fd02, Equal)
-29) RequestResponse(1102, , None)
-30) wait(7000)
-31) RequestResponse(22f1fd, 62f1fd01, Equal)
-32) DiagSessionCtrl(Default)
-33) RequestResponse(22f1fd, 62f1fd01, Equal)
-34) RequestResponse(1103, , None)
-35) wait(7000)
-36) RequestResponse(22f1fd, 62f1fd01, Equal)
-37) DiagSessionCtrl(Extended)
-38) RequestResponse(22f1fd, 62f1fd03, Equal)
-39) RequestResponse(1103, , None)
-40) wait(7000)
-41) RequestResponse(22f1fd, 62f1fd01, Equal)
-42) DiagSessionCtrl(Programming)
-43) RequestResponse(22f1fd, 62f1fd02, Equal)
-44) RequestResponse(1103, , None)
-45) wait(7000)
-46) RequestResponse(22f1fd, 62f1fd01, Equal)
-47) envvar(EnvTesterPresentOnOff(0; 100))
 </t>
   </si>
   <si>
@@ -829,200 +625,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1) -
-2) -
-3) Positive response is received: 0x 62 F1 FD 01
-4) No response is received
-5) -
-6) Positive response is received: 0x 62 F1 FD 01
-7) -
-8) Positive response is received: 0x 62 F1 FD 03
-9) No response is received
-10) -
-11) Positive response is received: 0x 62 F1 FD 01
-12) -
-13) Positive response is received: 0x 62 F1 FD 02
-14) No response is received
-15) -
-16) Positive response is received: 0x 62 F1 FD 01
-17) -
-18) Positive response is received: 0x 62 F1 FD 01
-19) No response is received
-20) -
-21) Positive response is received: 0x 62 F1 FD 01
-22) -
-23) Positive response is received: 0x 62 F1 FD 03
-24) No response is received
-25) -
-26) Positive response is received: 0x 62 F1 FD 01
-27) -
-28) Positive response is received: 0x 62 F1 FD 02
-29) No response is received
-30) -
-31) Positive response is received: 0x 62 F1 FD 01
-32) -
-33) Positive response is received: 0x 62 F1 FD 01
-34) No response is received
-35) -
-36) Positive response is received: 0x 62 F1 FD 01
-37) -
-38) Positive response is received: 0x 62 F1 FD 03
-39) No response is received
-40) -
-41) Positive response is received: 0x 62 F1 FD 01
-42) -
-43) Positive response is received: 0x 62 F1 FD 02
-44) No response is received
-45) -
-46) Positive response is received: 0x 62 F1 FD 01
-47) -
-48) -
-49) -
-50) Positive response is received: 0x 62 F1 FD 01
-51) No response is received
-52) -
-53) Positive response is received: 0x 62 F1 FD 01
-54) -
-55) Positive response is received: 0x 62 F1 FD 03
-56) No response is received
-57) -
-58) Positive response is received: 0x 62 F1 FD 01
-59) -
-60) Positive response is received: 0x 62 F1 FD 02
-61) No response is received
-62) -
-63) Positive response is received: 0x 62 F1 FD 01
-64) -
-65) Positive response is received: 0x 62 F1 FD 01
-66) No response is received
-67) -
-68) Positive response is received: 0x 62 F1 FD 01
-69) -
-70) Positive response is received: 0x 62 F1 FD 03
-71) No response is received
-72) -
-73) Positive response is received: 0x 62 F1 FD 01
-74) -
-75) Positive response is received: 0x 62 F1 FD 02
-76) No response is received
-77) -
-78) Positive response is received: 0x 62 F1 FD 01
-79) -
-80) Positive response is received: 0x 62 F1 FD 01
-81) No response is received
-82) -
-83) Positive response is received: 0x 62 F1 FD 01
-84) -
-85) Positive response is received: 0x 62 F1 FD 03
-86) No response is received
-87) -
-88) Positive response is received: 0x 62 F1 FD 01
-89) -
-90) Positive response is received: 0x 62 F1 FD 02
-91) No response is received
-92) -
-93) Positive response is received: 0x 62 F1 FD 01
-94) -
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 0))
-2) DiagSessionCtrl(Default)
-3) RequestResponse(22f1fd, 62f1fd01, Equal)
-4) FunctionalMessage(1101, , None)
-5) wait(7000)
-6) RequestResponse(22f1fd, 62f1fd01, Equal)
-7) DiagSessionCtrl(Extended)
-8) RequestResponse(22f1fd, 62f1fd03, Equal)
-9) FunctionalMessage(1101, , None)
-10) wait(7000)
-11) RequestResponse(22f1fd, 62f1fd01, Equal)
-12) DiagSessionCtrl(Programming)
-13) RequestResponse(22f1fd, 62f1fd02, Equal)
-14) FunctionalMessage(1101, , None)
-15) wait(7000)
-16) RequestResponse(22f1fd, 62f1fd01, Equal)
-17) DiagSessionCtrl(Default)
-18) RequestResponse(22f1fd, 62f1fd01, Equal)
-19) FunctionalMessage(1102, , None)
-20) wait(7000)
-21) RequestResponse(22f1fd, 62f1fd01, Equal)
-22) DiagSessionCtrl(Extended)
-23) RequestResponse(22f1fd, 62f1fd03, Equal)
-24) FunctionalMessage(1102, , None)
-25) wait(7000)
-26) RequestResponse(22f1fd, 62f1fd01, Equal)
-27) DiagSessionCtrl(Programming)
-28) RequestResponse(22f1fd, 62f1fd02, Equal)
-29) FunctionalMessage(1102, , None)
-30) wait(7000)
-31) RequestResponse(22f1fd, 62f1fd01, Equal)
-32) DiagSessionCtrl(Default)
-33) RequestResponse(22f1fd, 62f1fd01, Equal)
-34) FunctionalMessage(1103, , None)
-35) wait(7000)
-36) RequestResponse(22f1fd, 62f1fd01, Equal)
-37) DiagSessionCtrl(Extended)
-38) RequestResponse(22f1fd, 62f1fd03, Equal)
-39) FunctionalMessage(1103, , None)
-40) wait(7000)
-41) RequestResponse(22f1fd, 62f1fd01, Equal)
-42) DiagSessionCtrl(Programming)
-43) RequestResponse(22f1fd, 62f1fd02, Equal)
-44) FunctionalMessage(1103, , None)
-45) wait(7000)
-46) RequestResponse(22f1fd, 62f1fd01, Equal)
-47) envvar(EnvTesterPresentOnOff(0; 0))
-48) envvar(EnvTesterPresentOnOff(1; 0))
-49) DiagSessionCtrl(Default)
-50) RequestResponse(22f1fd, 62f1fd01, Equal)
-51) RequestResponse(1101, , None)
-52) wait(7000)
-53) RequestResponse(22f1fd, 62f1fd01, Equal)
-54) DiagSessionCtrl(Extended)
-55) RequestResponse(22f1fd, 62f1fd03, Equal)
-56) RequestResponse(1101, , None)
-57) wait(7000)
-58) RequestResponse(22f1fd, 62f1fd01, Equal)
-59) DiagSessionCtrl(Programming)
-60) RequestResponse(22f1fd, 62f1fd02, Equal)
-61) RequestResponse(1101, , None)
-62) wait(7000)
-63) RequestResponse(22f1fd, 62f1fd01, Equal)
-64) DiagSessionCtrl(Default)
-65) RequestResponse(22f1fd, 62f1fd01, Equal)
-66) RequestResponse(1102, , None)
-67) wait(7000)
-68) RequestResponse(22f1fd, 62f1fd01, Equal)
-69) DiagSessionCtrl(Extended)
-70) RequestResponse(22f1fd, 62f1fd03, Equal)
-71) RequestResponse(1102, , None)
-72) wait(7000)
-73) RequestResponse(22f1fd, 62f1fd01, Equal)
-74) DiagSessionCtrl(Programming)
-75) RequestResponse(22f1fd, 62f1fd02, Equal)
-76) RequestResponse(1102, , None)
-77) wait(7000)
-78) RequestResponse(22f1fd, 62f1fd01, Equal)
-79) DiagSessionCtrl(Default)
-80) RequestResponse(22f1fd, 62f1fd01, Equal)
-81) RequestResponse(1103, , None)
-82) wait(7000)
-83) RequestResponse(22f1fd, 62f1fd01, Equal)
-84) DiagSessionCtrl(Extended)
-85) RequestResponse(22f1fd, 62f1fd03, Equal)
-86) RequestResponse(1103, , None)
-87) wait(7000)
-88) RequestResponse(22f1fd, 62f1fd01, Equal)
-89) DiagSessionCtrl(Programming)
-90) RequestResponse(22f1fd, 62f1fd02, Equal)
-91) RequestResponse(1103, , None)
-92) wait(7000)
-93) RequestResponse(22f1fd, 62f1fd01, Equal)
-94) envvar(EnvTesterPresentOnOff(0; 0))
-</t>
-  </si>
-  <si>
     <t>Testcase_SAIC_AS28_R1.0_DCOM_15</t>
   </si>
   <si>
@@ -1126,103 +728,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 0))
-2) DiagSessionCtrl(Default)
-3) RequestResponse(22f1fd, 62f1fd01, Equal)
-4) FunctionalMessage(1181, , None)
-5) wait(7000)
-6) RequestResponse(22f1fd, 62f1fd01, Equal)
-7) DiagSessionCtrl(Extended)
-8) RequestResponse(22f1fd, 62f1fd03, Equal)
-9) FunctionalMessage(1181, , None)
-10) wait(7000)
-11) RequestResponse(22f1fd, 62f1fd01, Equal)
-12) DiagSessionCtrl(Programming)
-13) RequestResponse(22f1fd, 62f1fd02, Equal)
-14) FunctionalMessage(1181, , None)
-15) wait(7000)
-16) RequestResponse(22f1fd, 62f1fd01, Equal)
-17) DiagSessionCtrl(Default)
-18) RequestResponse(22f1fd, 62f1fd01, Equal)
-19) FunctionalMessage(1182, , None)
-20) wait(7000)
-21) RequestResponse(22f1fd, 62f1fd01, Equal)
-22) DiagSessionCtrl(Extended)
-23) RequestResponse(22f1fd, 62f1fd03, Equal)
-24) FunctionalMessage(1182, , None)
-25) wait(7000)
-26) RequestResponse(22f1fd, 62f1fd01, Equal)
-27) DiagSessionCtrl(Programming)
-28) RequestResponse(22f1fd, 62f1fd02, Equal)
-29) FunctionalMessage(1182, , None)
-30) wait(7000)
-31) RequestResponse(22f1fd, 62f1fd01, Equal)
-32) DiagSessionCtrl(Default)
-33) RequestResponse(22f1fd, 62f1fd01, Equal)
-34) FunctionalMessage(1183, , None)
-35) wait(7000)
-36) RequestResponse(22f1fd, 62f1fd01, Equal)
-37) DiagSessionCtrl(Extended)
-38) RequestResponse(22f1fd, 62f1fd03, Equal)
-39) FunctionalMessage(1183, , None)
-40) wait(7000)
-41) RequestResponse(22f1fd, 62f1fd01, Equal)
-42) DiagSessionCtrl(Programming)
-43) RequestResponse(22f1fd, 62f1fd02, Equal)
-44) FunctionalMessage(1183, , None)
-45) wait(7000)
-46) RequestResponse(22f1fd, 62f1fd01, Equal)
-47) envvar(EnvTesterPresentOnOff(0; 0))
-48) envvar(EnvTesterPresentOnOff(1; 0))
-49) DiagSessionCtrl(Default)
-50) RequestResponse(22f1fd, 62f1fd01, Equal)
-51) RequestResponse(1181, , None)
-52) wait(7000)
-53) RequestResponse(22f1fd, 62f1fd01, Equal)
-54) DiagSessionCtrl(Extended)
-55) RequestResponse(22f1fd, 62f1fd03, Equal)
-56) RequestResponse(1181, , None)
-57) wait(7000)
-58) RequestResponse(22f1fd, 62f1fd01, Equal)
-59) DiagSessionCtrl(Programming)
-60) RequestResponse(22f1fd, 62f1fd02, Equal)
-61) RequestResponse(1181, , None)
-62) wait(7000)
-63) RequestResponse(22f1fd, 62f1fd01, Equal)
-64) DiagSessionCtrl(Default)
-65) RequestResponse(22f1fd, 62f1fd01, Equal)
-66) RequestResponse(1182, , None)
-67) wait(7000)
-68) RequestResponse(22f1fd, 62f1fd01, Equal)
-69) DiagSessionCtrl(Extended)
-70) RequestResponse(22f1fd, 62f1fd03, Equal)
-71) RequestResponse(1182, , None)
-72) wait(7000)
-73) RequestResponse(22f1fd, 62f1fd01, Equal)
-74) DiagSessionCtrl(Programming)
-75) RequestResponse(22f1fd, 62f1fd02, Equal)
-76) RequestResponse(1182, , None)
-77) wait(7000)
-78) RequestResponse(22f1fd, 62f1fd01, Equal)
-79) DiagSessionCtrl(Default)
-80) RequestResponse(22f1fd, 62f1fd01, Equal)
-81) RequestResponse(1183, , None)
-82) wait(7000)
-83) RequestResponse(22f1fd, 62f1fd01, Equal)
-84) DiagSessionCtrl(Extended)
-85) RequestResponse(22f1fd, 62f1fd03, Equal)
-86) RequestResponse(1183, , None)
-87) wait(7000)
-88) RequestResponse(22f1fd, 62f1fd01, Equal)
-89) DiagSessionCtrl(Programming)
-90) RequestResponse(22f1fd, 62f1fd02, Equal)
-91) RequestResponse(1183, , None)
-92) wait(7000)
-93) RequestResponse(22f1fd, 62f1fd01, Equal)
-94) envvar(EnvTesterPresentOnOff(0; 0))
-</t>
-  </si>
-  <si>
     <t>Testcase_SAIC_AS28_R1.0_DCOM_16</t>
   </si>
   <si>
@@ -2321,57 +1826,6 @@
     <t>2.10.1 Check all allowed diagnostic sessions in service 0x3E</t>
   </si>
   <si>
-    <t xml:space="preserve">1) Change to Default session with service 0x10 01
-2) Wait 1000 ms
-3) Read active session with service 0x22 F1 FD
-4) Request tester present with service 0x3E 80 in Physical Addressing Mode
-5) Change to Extended session with service 0x10 03
-6) Wait 1000 ms
-7) Read active session with service 0x22 F1 FD
-8) Request tester present with service 0x3E 80 in Physical Addressing Mode
-9) Change to Programming session with service 0x10 02
-10) Wait 1000 ms
-11) Read active session with service 0x22 F1 FD
-12) Request tester present with service 0x3E 80 in Physical Addressing Mode
-13) Change to Default session with service 0x10 01
-14) Read active session with service 0x22 F1 FD
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) -
-2) -
-3) Positive response is received: 0x 62 F1 FD 01
-4) Positive response is received: 0x7E 80
-5) -
-6) -
-7) Positive response is received: 0x 62 F1 FD 03
-8) Positive response is received: 0x7E 80
-9) -
-10) -
-11) Positive response is received: 0x 62 F1 FD 02
-12) Positive response is received: 0x7E 80
-13) -
-14) Positive response is received: 0x 62 F1 FD 01
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) DiagSessionCtrl(Default)
-2) wait(1000)
-3) RequestResponse(22f1fd, 62f1fd01, Equal)
-4) RequestResponse(3e80, 7e80, Equal)
-5) DiagSessionCtrl(Extended)
-6) wait(1000)
-7) RequestResponse(22f1fd, 62f1fd03, Equal)
-8) RequestResponse(3e80, 7e80, Equal)
-9) DiagSessionCtrl(Programming)
-10) wait(1000)
-11) RequestResponse(22f1fd, 62f1fd02, Equal)
-12) RequestResponse(3e80, 7e80, Equal)
-13) DiagSessionCtrl(Default)
-14) RequestResponse(22f1fd, 62f1fd01, Equal)
-</t>
-  </si>
-  <si>
     <t>Testcase_SAIC_AS28_R1.0_DCOM_27</t>
   </si>
   <si>
@@ -2407,64 +1861,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1) -
-2) -
-3) Positive response is received: 0x 62 F1 FD 01
-4) Positive response is received: 0x7E 00
-5) -
-6) -
-7) Positive response is received: 0x 62 F1 FD 03
-8) Positive response is received: 0x7E 00
-9) -
-10) -
-11) Positive response is received: 0x 62 F1 FD 02
-12) Positive response is received: 0x7E 00
-13) -
-14) -
-15) Positive response is received: 0x 62 F1 FD 01
-16) Positive response is received: 0x7E 00
-17) -
-18) -
-19) Positive response is received: 0x 62 F1 FD 03
-20) Positive response is received: 0x7E 00
-21) -
-22) -
-23) Positive response is received: 0x 62 F1 FD 02
-24) Positive response is received: 0x7E 00
-25) -
-26) Positive response is received: 0x 62 F1 FD 01
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) DiagSessionCtrl(Default)
-2) wait(1000)
-3) RequestResponse(22f1fd, 62f1fd01, Equal)
-4) FunctionalMessage(3e00, 7e00, Equal)
-5) DiagSessionCtrl(Extended)
-6) wait(1000)
-7) RequestResponse(22f1fd, 62f1fd03, Equal)
-8) FunctionalMessage(3e00, 7e00, Equal)
-9) DiagSessionCtrl(Programming)
-10) wait(1000)
-11) RequestResponse(22f1fd, 62f1fd02, Equal)
-12) FunctionalMessage(3e00, 7e00, Equal)
-13) DiagSessionCtrl(Default)
-14) wait(1000)
-15) RequestResponse(22f1fd, 62f1fd01, Equal)
-16) RequestResponse(3e00, 7e00, Equal)
-17) DiagSessionCtrl(Extended)
-18) wait(1000)
-19) RequestResponse(22f1fd, 62f1fd03, Equal)
-20) RequestResponse(3e00, 7e00, Equal)
-21) DiagSessionCtrl(Programming)
-22) wait(1000)
-23) RequestResponse(22f1fd, 62f1fd02, Equal)
-24) RequestResponse(3e00, 7e00, Equal)
-25) DiagSessionCtrl(Default)
-26) RequestResponse(22f1fd, 62f1fd01, Equal)
-</t>
-  </si>
-  <si>
     <t>Testcase_SAIC_AS28_R1.0_DCOM_28</t>
   </si>
   <si>
@@ -2491,21 +1887,5254 @@
 </t>
   </si>
   <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_29</t>
+  </si>
+  <si>
+    <t>This testcase check all supported condition</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) -
+2) Positive response is received: 0x7E 00
+3) Positive response is received: 0x7E 00
+4) Positive response is received: 0x7E 80
+5) Positive response is received: 0x7E 80
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Positive response is received: 0x50 01
+2) -
+3) Positive response is received: 0x 62 F1 FD 01
+4) -
+5) Positive response is received: 0x50 03
+6) -
+7) Positive response is received: 0x 62 F1 FD 03
+8) No response is received
+9) -
+10) Positive response is received: 0x 62 F1 FD 02
+11) Positive response is received: 0x50 01
+12) -
+13) Positive response is received: 0x 62 F1 FD 01
+14) Positive response is received: 0x50 03
+15) -
+16) Positive response is received: 0x 62 F1 FD 03
+17) Negative response is received: 0x7F 50 7F
+18) -
+19) Positive response is received: 0x 62 F1 FD 02
+20) Negative response is received: 0x7F 50 7F
+21) -
+22) Positive response is received: 0x 62 F1 FD 01
+23) -
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) FunctionalMessage(1001, 5001, Equal)
+2) wait(1000)
+3) RequestResponse(22f1fd, 62f1fd01, Equal)
+4) envvar(EnvTesterPresentOnOff(1; 0))
+5) FunctionalMessage(1003, 5003, Equal)
+6) wait(1000)
+7) RequestResponse(22f1fd, 62f1fd03, Equal)
+8) FunctionalMessage(1002, , None)
+9) wait(1000)
+10) RequestResponse(22f1fd, 62f1fd02, Equal)
+11) FunctionalMessage(1001, 5001, Equal)
+12) wait(1000)
+13) RequestResponse(22f1fd, 62f1fd01, Equal)
+14) RequestResponse(1003, 5003, Equal)
+15) wait(1000)
+16) RequestResponse(22f1fd, 62f1fd03, Equal)
+17) RequestResponse(1002, 7f507f, Equal)
+18) wait(1000)
+19) RequestResponse(22f1fd, 62f1fd02, Equal)
+20) RequestResponse(1001, 7f507f, Equal)
+21) wait(1000)
+22) RequestResponse(22f1fd, 62f1fd01, Equal)
+23) envvar(EnvTesterPresentOnOff(0; 0))
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) No response is received
+2) -
+3) Positive response is received: 0x 62 F1 FD 01
+4) -
+5) No response is received
+6) -
+7) Positive response is received: 0x 62 F1 FD 03
+8) No response is received
+9) -
+10) Positive response is received: 0x 62 F1 FD 02
+11) No response is received
+12) -
+13) Positive response is received: 0x 62 F1 FD 01
+28) No response is received
+29) -
+30) Positive response is received: 0x 62 F1 FD 03
+31) Negative response is received: 0x7F 50 7F
+32) -
+33) Positive response is received: 0x 62 F1 FD 02
+34) Negative response is received: 0x7F 50 7F
+35) -
+36) Positive response is received: 0x 62 F1 FD 01
+37) -
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) FunctionalMessage(1081, , None)
+2) wait(1000)
+3) RequestResponse(22f1fd, 62f1fd01, Equal)
+4) envvar(EnvTesterPresentOnOff(1; 0))
+5) FunctionalMessage(1083, , None)
+6) wait(1000)
+7) RequestResponse(22f1fd, 62f1fd03, Equal)
+8) FunctionalMessage(1082, , None)
+9) wait(1000)
+10) RequestResponse(22f1fd, 62f1fd02, Equal)
+11) FunctionalMessage(1081, , None)
+12) wait(1000)
+13) RequestResponse(22f1fd, 62f1fd01, Equal)
+28) RequestResponse(1083, , None)
+29) wait(1000)
+30) RequestResponse(22f1fd, 62f1fd03, Equal)
+31) RequestResponse(1082, 7f507f, Equal)
+32) wait(1000)
+33) RequestResponse(22f1fd, 62f1fd02, Equal)
+34) RequestResponse(1081, 7f507f, Equal)
+35) wait(1000)
+36) RequestResponse(22f1fd, 62f1fd01, Equal)
+37) envvar(EnvTesterPresentOnOff(0; 0))
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) -
+2) -
+3) Positive response is received: 0x 62 F1 FD 01
+4) No response is received
+5) -
+6) Positive response is received: 0x 62 F1 FD 01
+7) -
+8) Positive response is received: 0x 62 F1 FD 03
+9) No response is received
+10) -
+11) Positive response is received: 0x 62 F1 FD 01
+12) -
+13) Positive response is received: 0x 62 F1 FD 02
+14) Negative response is received: 0x7F 51 7F
+15) -
+16) Positive response is received: 0x 62 F1 FD 01
+17) -
+18) Positive response is received: 0x 62 F1 FD 01
+19) No response is received
+20) -
+21) Positive response is received: 0x 62 F1 FD 01
+22) -
+23) Positive response is received: 0x 62 F1 FD 03
+24) No response is received
+25) -
+26) Positive response is received: 0x 62 F1 FD 01
+27) -
+28) Positive response is received: 0x 62 F1 FD 02
+29) Negative response is received: 0x7F 51 7F
+30) -
+31) Positive response is received: 0x 62 F1 FD 01
+32) -
+33) Positive response is received: 0x 62 F1 FD 01
+34) No response is received
+35) -
+36) Positive response is received: 0x 62 F1 FD 01
+37) -
+38) Positive response is received: 0x 62 F1 FD 03
+39) No response is received
+40) -
+41) Positive response is received: 0x 62 F1 FD 01
+42) -
+43) Positive response is received: 0x 62 F1 FD 02
+44) Negative response is received: 0x7F 51 7F
+45) -
+46) Positive response is received: 0x 62 F1 FD 01
+47) -
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
+2) DiagSessionCtrl(Default)
+3) RequestResponse(22f1fd, 62f1fd01, Equal)
+4) RequestResponse(1101, , None)
+5) wait(7000)
+6) RequestResponse(22f1fd, 62f1fd01, Equal)
+7) DiagSessionCtrl(Extended)
+8) RequestResponse(22f1fd, 62f1fd03, Equal)
+9) RequestResponse(1101, , None)
+10) wait(7000)
+11) RequestResponse(22f1fd, 62f1fd01, Equal)
+12) DiagSessionCtrl(Programming)
+13) RequestResponse(22f1fd, 62f1fd02, Equal)
+14) RequestResponse(1101, 7f517f, Equal)
+15) wait(7000)
+16) RequestResponse(22f1fd, 62f1fd01, Equal)
+17) DiagSessionCtrl(Default)
+18) RequestResponse(22f1fd, 62f1fd01, Equal)
+19) RequestResponse(1102, , None)
+20) wait(7000)
+21) RequestResponse(22f1fd, 62f1fd01, Equal)
+22) DiagSessionCtrl(Extended)
+23) RequestResponse(22f1fd, 62f1fd03, Equal)
+24) RequestResponse(1102, , None)
+25) wait(7000)
+26) RequestResponse(22f1fd, 62f1fd01, Equal)
+27) DiagSessionCtrl(Programming)
+28) RequestResponse(22f1fd, 62f1fd02, Equal)
+29) RequestResponse(1102, 7f517f, Equal)
+30) wait(7000)
+31) RequestResponse(22f1fd, 62f1fd01, Equal)
+32) DiagSessionCtrl(Default)
+33) RequestResponse(22f1fd, 62f1fd01, Equal)
+34) RequestResponse(1103, , None)
+35) wait(7000)
+36) RequestResponse(22f1fd, 62f1fd01, Equal)
+37) DiagSessionCtrl(Extended)
+38) RequestResponse(22f1fd, 62f1fd03, Equal)
+39) RequestResponse(1103, , None)
+40) wait(7000)
+41) RequestResponse(22f1fd, 62f1fd01, Equal)
+42) DiagSessionCtrl(Programming)
+43) RequestResponse(22f1fd, 62f1fd02, Equal)
+44) RequestResponse(1103, 7f517f, Equal)
+45) wait(7000)
+46) RequestResponse(22f1fd, 62f1fd01, Equal)
+47) envvar(EnvTesterPresentOnOff(0; 100))
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) -
+2) -
+3) Positive response is received: 0x 62 F1 FD 01
+4) No response is received
+5) -
+6) Positive response is received: 0x 62 F1 FD 01
+7) -
+8) Positive response is received: 0x 62 F1 FD 03
+9) No response is received
+10) -
+11) Positive response is received: 0x 62 F1 FD 01
+12) -
+13) Positive response is received: 0x 62 F1 FD 02
+14) No response is received
+15) -
+16) Positive response is received: 0x 62 F1 FD 01
+17) -
+18) Positive response is received: 0x 62 F1 FD 01
+19) No response is received
+20) -
+21) Positive response is received: 0x 62 F1 FD 01
+22) -
+23) Positive response is received: 0x 62 F1 FD 03
+24) No response is received
+25) -
+26) Positive response is received: 0x 62 F1 FD 01
+27) -
+28) Positive response is received: 0x 62 F1 FD 02
+29) No response is received
+30) -
+31) Positive response is received: 0x 62 F1 FD 01
+32) -
+33) Positive response is received: 0x 62 F1 FD 01
+34) No response is received
+35) -
+36) Positive response is received: 0x 62 F1 FD 01
+37) -
+38) Positive response is received: 0x 62 F1 FD 03
+39) No response is received
+40) -
+41) Positive response is received: 0x 62 F1 FD 01
+42) -
+43) Positive response is received: 0x 62 F1 FD 02
+44) No response is received
+45) -
+46) Positive response is received: 0x 62 F1 FD 01
+47) -
+48) -
+49) -
+50) Positive response is received: 0x 62 F1 FD 01
+51) No response is received
+52) -
+53) Positive response is received: 0x 62 F1 FD 01
+54) -
+55) Positive response is received: 0x 62 F1 FD 03
+56) No response is received
+57) -
+58) Positive response is received: 0x 62 F1 FD 01
+59) -
+60) Positive response is received: 0x 62 F1 FD 02
+61) Negative response is received: 0x7F 51 7F
+62) -
+63) Positive response is received: 0x 62 F1 FD 01
+64) -
+65) Positive response is received: 0x 62 F1 FD 01
+66) No response is received
+67) -
+68) Positive response is received: 0x 62 F1 FD 01
+69) -
+70) Positive response is received: 0x 62 F1 FD 03
+71) No response is received
+72) -
+73) Positive response is received: 0x 62 F1 FD 01
+74) -
+75) Positive response is received: 0x 62 F1 FD 02
+76) Negative response is received: 0x7F 51 7F
+77) -
+78) Positive response is received: 0x 62 F1 FD 01
+79) -
+80) Positive response is received: 0x 62 F1 FD 01
+81) No response is received
+82) -
+83) Positive response is received: 0x 62 F1 FD 01
+84) -
+85) Positive response is received: 0x 62 F1 FD 03
+86) No response is received
+87) -
+88) Positive response is received: 0x 62 F1 FD 01
+89) -
+90) Positive response is received: 0x 62 F1 FD 02
+91) Negative response is received: 0x7F 51 7F
+92) -
+93) Positive response is received: 0x 62 F1 FD 01
+94) -
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 0))
+2) DiagSessionCtrl(Default)
+3) RequestResponse(22f1fd, 62f1fd01, Equal)
+4) FunctionalMessage(1101, , None)
+5) wait(7000)
+6) RequestResponse(22f1fd, 62f1fd01, Equal)
+7) DiagSessionCtrl(Extended)
+8) RequestResponse(22f1fd, 62f1fd03, Equal)
+9) FunctionalMessage(1101, , None)
+10) wait(7000)
+11) RequestResponse(22f1fd, 62f1fd01, Equal)
+12) DiagSessionCtrl(Programming)
+13) RequestResponse(22f1fd, 62f1fd02, Equal)
+14) FunctionalMessage(1101, , None)
+15) wait(7000)
+16) RequestResponse(22f1fd, 62f1fd01, Equal)
+17) DiagSessionCtrl(Default)
+18) RequestResponse(22f1fd, 62f1fd01, Equal)
+19) FunctionalMessage(1102, , None)
+20) wait(7000)
+21) RequestResponse(22f1fd, 62f1fd01, Equal)
+22) DiagSessionCtrl(Extended)
+23) RequestResponse(22f1fd, 62f1fd03, Equal)
+24) FunctionalMessage(1102, , None)
+25) wait(7000)
+26) RequestResponse(22f1fd, 62f1fd01, Equal)
+27) DiagSessionCtrl(Programming)
+28) RequestResponse(22f1fd, 62f1fd02, Equal)
+29) FunctionalMessage(1102, , None)
+30) wait(7000)
+31) RequestResponse(22f1fd, 62f1fd01, Equal)
+32) DiagSessionCtrl(Default)
+33) RequestResponse(22f1fd, 62f1fd01, Equal)
+34) FunctionalMessage(1103, , None)
+35) wait(7000)
+36) RequestResponse(22f1fd, 62f1fd01, Equal)
+37) DiagSessionCtrl(Extended)
+38) RequestResponse(22f1fd, 62f1fd03, Equal)
+39) FunctionalMessage(1103, , None)
+40) wait(7000)
+41) RequestResponse(22f1fd, 62f1fd01, Equal)
+42) DiagSessionCtrl(Programming)
+43) RequestResponse(22f1fd, 62f1fd02, Equal)
+44) FunctionalMessage(1103, , None)
+45) wait(7000)
+46) RequestResponse(22f1fd, 62f1fd01, Equal)
+47) envvar(EnvTesterPresentOnOff(0; 0))
+48) envvar(EnvTesterPresentOnOff(1; 0))
+49) DiagSessionCtrl(Default)
+50) RequestResponse(22f1fd, 62f1fd01, Equal)
+51) RequestResponse(1101, , None)
+52) wait(7000)
+53) RequestResponse(22f1fd, 62f1fd01, Equal)
+54) DiagSessionCtrl(Extended)
+55) RequestResponse(22f1fd, 62f1fd03, Equal)
+56) RequestResponse(1101, , None)
+57) wait(7000)
+58) RequestResponse(22f1fd, 62f1fd01, Equal)
+59) DiagSessionCtrl(Programming)
+60) RequestResponse(22f1fd, 62f1fd02, Equal)
+61) RequestResponse(1101, 7f517f, Equal)
+62) wait(7000)
+63) RequestResponse(22f1fd, 62f1fd01, Equal)
+64) DiagSessionCtrl(Default)
+65) RequestResponse(22f1fd, 62f1fd01, Equal)
+66) RequestResponse(1102, , None)
+67) wait(7000)
+68) RequestResponse(22f1fd, 62f1fd01, Equal)
+69) DiagSessionCtrl(Extended)
+70) RequestResponse(22f1fd, 62f1fd03, Equal)
+71) RequestResponse(1102, , None)
+72) wait(7000)
+73) RequestResponse(22f1fd, 62f1fd01, Equal)
+74) DiagSessionCtrl(Programming)
+75) RequestResponse(22f1fd, 62f1fd02, Equal)
+76) RequestResponse(1102, 7f517f, Equal)
+77) wait(7000)
+78) RequestResponse(22f1fd, 62f1fd01, Equal)
+79) DiagSessionCtrl(Default)
+80) RequestResponse(22f1fd, 62f1fd01, Equal)
+81) RequestResponse(1103, , None)
+82) wait(7000)
+83) RequestResponse(22f1fd, 62f1fd01, Equal)
+84) DiagSessionCtrl(Extended)
+85) RequestResponse(22f1fd, 62f1fd03, Equal)
+86) RequestResponse(1103, , None)
+87) wait(7000)
+88) RequestResponse(22f1fd, 62f1fd01, Equal)
+89) DiagSessionCtrl(Programming)
+90) RequestResponse(22f1fd, 62f1fd02, Equal)
+91) RequestResponse(1103, 7f517f, Equal)
+92) wait(7000)
+93) RequestResponse(22f1fd, 62f1fd01, Equal)
+94) envvar(EnvTesterPresentOnOff(0; 0))
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 0))
+2) DiagSessionCtrl(Default)
+3) RequestResponse(22f1fd, 62f1fd01, Equal)
+4) FunctionalMessage(1181, , None)
+5) wait(7000)
+6) RequestResponse(22f1fd, 62f1fd01, Equal)
+7) DiagSessionCtrl(Extended)
+8) RequestResponse(22f1fd, 62f1fd03, Equal)
+9) FunctionalMessage(1181, , None)
+10) wait(7000)
+11) RequestResponse(22f1fd, 62f1fd01, Equal)
+12) DiagSessionCtrl(Programming)
+13) RequestResponse(22f1fd, 62f1fd02, Equal)
+14) FunctionalMessage(1181, , None)
+15) wait(7000)
+16) RequestResponse(22f1fd, 62f1fd01, Equal)
+17) DiagSessionCtrl(Default)
+18) RequestResponse(22f1fd, 62f1fd01, Equal)
+19) FunctionalMessage(1182, , None)
+20) wait(7000)
+21) RequestResponse(22f1fd, 62f1fd01, Equal)
+22) DiagSessionCtrl(Extended)
+23) RequestResponse(22f1fd, 62f1fd03, Equal)
+24) FunctionalMessage(1182, , None)
+25) wait(7000)
+26) RequestResponse(22f1fd, 62f1fd01, Equal)
+27) DiagSessionCtrl(Programming)
+28) RequestResponse(22f1fd, 62f1fd02, Equal)
+29) FunctionalMessage(1182, , None)
+30) wait(7000)
+31) RequestResponse(22f1fd, 62f1fd01, Equal)
+32) DiagSessionCtrl(Default)
+33) RequestResponse(22f1fd, 62f1fd01, Equal)
+34) FunctionalMessage(1183, , None)
+35) wait(7000)
+36) RequestResponse(22f1fd, 62f1fd01, Equal)
+37) DiagSessionCtrl(Extended)
+38) RequestResponse(22f1fd, 62f1fd03, Equal)
+39) FunctionalMessage(1183, , None)
+40) wait(7000)
+41) RequestResponse(22f1fd, 62f1fd01, Equal)
+42) DiagSessionCtrl(Programming)
+43) RequestResponse(22f1fd, 62f1fd02, Equal)
+44) FunctionalMessage(1183, , None)
+45) wait(7000)
+46) RequestResponse(22f1fd, 62f1fd01, Equal)
+47) envvar(EnvTesterPresentOnOff(0; 0))
+48) envvar(EnvTesterPresentOnOff(1; 0))
+49) DiagSessionCtrl(Default)
+50) RequestResponse(22f1fd, 62f1fd01, Equal)
+51) RequestResponse(1181, , None)
+52) wait(7000)
+53) RequestResponse(22f1fd, 62f1fd01, Equal)
+54) DiagSessionCtrl(Extended)
+55) RequestResponse(22f1fd, 62f1fd03, Equal)
+56) RequestResponse(1181, , None)
+57) wait(7000)
+58) RequestResponse(22f1fd, 62f1fd01, Equal)
+59) DiagSessionCtrl(Programming)
+60) RequestResponse(22f1fd, 62f1fd02, Equal)
+61) RequestResponse(1181, 7f517f, Equal)
+62) wait(7000)
+63) RequestResponse(22f1fd, 62f1fd01, Equal)
+64) DiagSessionCtrl(Default)
+65) RequestResponse(22f1fd, 62f1fd01, Equal)
+66) RequestResponse(1182, , None)
+67) wait(7000)
+68) RequestResponse(22f1fd, 62f1fd01, Equal)
+69) DiagSessionCtrl(Extended)
+70) RequestResponse(22f1fd, 62f1fd03, Equal)
+71) RequestResponse(1182, , None)
+72) wait(7000)
+73) RequestResponse(22f1fd, 62f1fd01, Equal)
+74) DiagSessionCtrl(Programming)
+75) RequestResponse(22f1fd, 62f1fd02, Equal)
+76) RequestResponse(1182, 7f517f, Equal)
+77) wait(7000)
+78) RequestResponse(22f1fd, 62f1fd01, Equal)
+79) DiagSessionCtrl(Default)
+80) RequestResponse(22f1fd, 62f1fd01, Equal)
+81) RequestResponse(1183, , None)
+82) wait(7000)
+83) RequestResponse(22f1fd, 62f1fd01, Equal)
+84) DiagSessionCtrl(Extended)
+85) RequestResponse(22f1fd, 62f1fd03, Equal)
+86) RequestResponse(1183, , None)
+87) wait(7000)
+88) RequestResponse(22f1fd, 62f1fd01, Equal)
+89) DiagSessionCtrl(Programming)
+90) RequestResponse(22f1fd, 62f1fd02, Equal)
+91) RequestResponse(1183, 7f517f, Equal)
+92) wait(7000)
+93) RequestResponse(22f1fd, 62f1fd01, Equal)
+94) envvar(EnvTesterPresentOnOff(0; 0))
+</t>
+  </si>
+  <si>
+    <t>2.4 Service 19h - ReadDTCInformation</t>
+  </si>
+  <si>
+    <t>2.4.1 Check all allowed diagnostic sessions in service 0x19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 100
+2) Change to Default session with service 0x10 01
+3) Read active session with service 0x22 F1 FD
+4) Request read DTC with service 0x19 01 in Physical Addressing Mode
+5) Wait 7000 ms
+6) Read active session with service 0x22 F1 FD
+7) Change to Extended session with service 0x10 03
+8) Read active session with service 0x22 F1 FD
+9) Request read DTC with service 0x19 01 in Physical Addressing Mode
+10) Wait 7000 ms
+11) Read active session with service 0x22 F1 FD
+12) Change to Programming session with service 0x10 02
+13) Read active session with service 0x22 F1 FD
+14) Request read DTC with service 0x19 01 in Physical Addressing Mode
+15) Wait 7000 ms
+16) Read active session with service 0x22 F1 FD
+17) Change to Default session with service 0x10 01
+18) Read active session with service 0x22 F1 FD
+19) Request read DTC with service 0x19 02 in Physical Addressing Mode
+20) Wait 7000 ms
+21) Read active session with service 0x22 F1 FD
+22) Change to Extended session with service 0x10 03
+23) Read active session with service 0x22 F1 FD
+24) Request read DTC with service 0x19 02 in Physical Addressing Mode
+25) Wait 7000 ms
+26) Read active session with service 0x22 F1 FD
+27) Change to Programming session with service 0x10 02
+28) Read active session with service 0x22 F1 FD
+29) Request read DTC with service 0x19 02 in Physical Addressing Mode
+30) Wait 7000 ms
+31) Read active session with service 0x22 F1 FD
+32) Change to Default session with service 0x10 01
+33) Read active session with service 0x22 F1 FD
+34) Request read DTC with service 0x19 04 in Physical Addressing Mode
+35) Wait 7000 ms
+36) Read active session with service 0x22 F1 FD
+37) Change to Extended session with service 0x10 03
+38) Read active session with service 0x22 F1 FD
+39) Request read DTC with service 0x19 04 in Physical Addressing Mode
+40) Wait 7000 ms
+41) Read active session with service 0x22 F1 FD
+42) Change to Programming session with service 0x10 02
+43) Read active session with service 0x22 F1 FD
+44) Request read DTC with service 0x19 04 in Physical Addressing Mode
+45) Wait 7000 ms
+46) Read active session with service 0x22 F1 FD
+47) Change to Default session with service 0x10 01
+48) Read active session with service 0x22 F1 FD
+49) Request read DTC with service 0x19 06 in Physical Addressing Mode
+50) Wait 7000 ms
+51) Read active session with service 0x22 F1 FD
+52) Change to Extended session with service 0x10 03
+53) Read active session with service 0x22 F1 FD
+54) Request read DTC with service 0x19 06 in Physical Addressing Mode
+55) Wait 7000 ms
+56) Read active session with service 0x22 F1 FD
+57) Change to Programming session with service 0x10 02
+58) Read active session with service 0x22 F1 FD
+59) Request read DTC with service 0x19 06 in Physical Addressing Mode
+60) Wait 7000 ms
+61) Read active session with service 0x22 F1 FD
+62) Change to Default session with service 0x10 01
+63) Read active session with service 0x22 F1 FD
+64) Request read DTC with service 0x19 0A in Physical Addressing Mode
+65) Wait 7000 ms
+66) Read active session with service 0x22 F1 FD
+67) Change to Extended session with service 0x10 03
+68) Read active session with service 0x22 F1 FD
+69) Request read DTC with service 0x19 0A in Physical Addressing Mode
+70) Wait 7000 ms
+71) Read active session with service 0x22 F1 FD
+72) Change to Programming session with service 0x10 02
+73) Read active session with service 0x22 F1 FD
+74) Request read DTC with service 0x19 0A in Physical Addressing Mode
+75) Wait 7000 ms
+76) Read active session with service 0x22 F1 FD
+77) Tester present OFF wait 100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) -
+2) -
+3) Positive response is received: 0x 62 F1 FD 01
+4) Negative response is received: 0x7F 59 7F
+5) -
+6) Positive response is received: 0x 62 F1 FD 01
+7) -
+8) Positive response is received: 0x 62 F1 FD 03
+9) Negative response is received: 0x7F 59 7F
+10) -
+11) Positive response is received: 0x 62 F1 FD 01
+12) -
+13) Positive response is received: 0x 62 F1 FD 02
+14) Negative response is received: 0x7F 59 7F
+15) -
+16) Positive response is received: 0x 62 F1 FD 01
+17) -
+18) Positive response is received: 0x 62 F1 FD 01
+19) Negative response is received: 0x7F 59 7F
+20) -
+21) Positive response is received: 0x 62 F1 FD 01
+22) -
+23) Positive response is received: 0x 62 F1 FD 03
+24) Negative response is received: 0x7F 59 7F
+25) -
+26) Positive response is received: 0x 62 F1 FD 01
+27) -
+28) Positive response is received: 0x 62 F1 FD 02
+29) Negative response is received: 0x7F 59 7F
+30) -
+31) Positive response is received: 0x 62 F1 FD 01
+32) -
+33) Positive response is received: 0x 62 F1 FD 01
+34) Negative response is received: 0x7F 59 7F
+35) -
+36) Positive response is received: 0x 62 F1 FD 01
+37) -
+38) Positive response is received: 0x 62 F1 FD 03
+39) Negative response is received: 0x7F 59 7F
+40) -
+41) Positive response is received: 0x 62 F1 FD 01
+42) -
+43) Positive response is received: 0x 62 F1 FD 02
+44) Negative response is received: 0x7F 59 7F
+45) -
+46) Positive response is received: 0x 62 F1 FD 01
+47) -
+48) Positive response is received: 0x 62 F1 FD 01
+49) Negative response is received: 0x7F 59 7F
+50) -
+51) Positive response is received: 0x 62 F1 FD 01
+52) -
+53) Positive response is received: 0x 62 F1 FD 03
+54) Negative response is received: 0x7F 59 7F
+55) -
+56) Positive response is received: 0x 62 F1 FD 01
+57) -
+58) Positive response is received: 0x 62 F1 FD 02
+59) Negative response is received: 0x7F 59 7F
+60) -
+61) Positive response is received: 0x 62 F1 FD 01
+62) -
+63) Positive response is received: 0x 62 F1 FD 01
+64) Negative response is received: 0x7F 59 7F
+65) -
+66) Positive response is received: 0x 62 F1 FD 01
+67) -
+68) Positive response is received: 0x 62 F1 FD 03
+69) Negative response is received: 0x7F 59 7F
+70) -
+71) Positive response is received: 0x 62 F1 FD 01
+72) -
+73) Positive response is received: 0x 62 F1 FD 02
+74) Negative response is received: 0x7F 59 7F
+75) -
+76) Positive response is received: 0x 62 F1 FD 01
+77) -
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
+2) DiagSessionCtrl(Default)
+3) RequestResponse(22f1fd, 62f1fd01, Equal)
+4) RequestResponse(1901, 7f597f, Equal)
+5) wait(7000)
+6) RequestResponse(22f1fd, 62f1fd01, Equal)
+7) DiagSessionCtrl(Extended)
+8) RequestResponse(22f1fd, 62f1fd03, Equal)
+9) RequestResponse(1901, 7f597f, Equal)
+10) wait(7000)
+11) RequestResponse(22f1fd, 62f1fd01, Equal)
+12) DiagSessionCtrl(Programming)
+13) RequestResponse(22f1fd, 62f1fd02, Equal)
+14) RequestResponse(1901, 7f597f, Equal)
+15) wait(7000)
+16) RequestResponse(22f1fd, 62f1fd01, Equal)
+17) DiagSessionCtrl(Default)
+18) RequestResponse(22f1fd, 62f1fd01, Equal)
+19) RequestResponse(1902, 7f597f, Equal)
+20) wait(7000)
+21) RequestResponse(22f1fd, 62f1fd01, Equal)
+22) DiagSessionCtrl(Extended)
+23) RequestResponse(22f1fd, 62f1fd03, Equal)
+24) RequestResponse(1902, 7f597f, Equal)
+25) wait(7000)
+26) RequestResponse(22f1fd, 62f1fd01, Equal)
+27) DiagSessionCtrl(Programming)
+28) RequestResponse(22f1fd, 62f1fd02, Equal)
+29) RequestResponse(1902, 7f597f, Equal)
+30) wait(7000)
+31) RequestResponse(22f1fd, 62f1fd01, Equal)
+32) DiagSessionCtrl(Default)
+33) RequestResponse(22f1fd, 62f1fd01, Equal)
+34) RequestResponse(1904, 7f597f, Equal)
+35) wait(7000)
+36) RequestResponse(22f1fd, 62f1fd01, Equal)
+37) DiagSessionCtrl(Extended)
+38) RequestResponse(22f1fd, 62f1fd03, Equal)
+39) RequestResponse(1904, 7f597f, Equal)
+40) wait(7000)
+41) RequestResponse(22f1fd, 62f1fd01, Equal)
+42) DiagSessionCtrl(Programming)
+43) RequestResponse(22f1fd, 62f1fd02, Equal)
+44) RequestResponse(1904, 7f597f, Equal)
+45) wait(7000)
+46) RequestResponse(22f1fd, 62f1fd01, Equal)
+47) DiagSessionCtrl(Default)
+48) RequestResponse(22f1fd, 62f1fd01, Equal)
+49) RequestResponse(1906, 7f597f, Equal)
+50) wait(7000)
+51) RequestResponse(22f1fd, 62f1fd01, Equal)
+52) DiagSessionCtrl(Extended)
+53) RequestResponse(22f1fd, 62f1fd03, Equal)
+54) RequestResponse(1906, 7f597f, Equal)
+55) wait(7000)
+56) RequestResponse(22f1fd, 62f1fd01, Equal)
+57) DiagSessionCtrl(Programming)
+58) RequestResponse(22f1fd, 62f1fd02, Equal)
+59) RequestResponse(1906, 7f597f, Equal)
+60) wait(7000)
+61) RequestResponse(22f1fd, 62f1fd01, Equal)
+62) DiagSessionCtrl(Default)
+63) RequestResponse(22f1fd, 62f1fd01, Equal)
+64) RequestResponse(190a, 7f597f, Equal)
+65) wait(7000)
+66) RequestResponse(22f1fd, 62f1fd01, Equal)
+67) DiagSessionCtrl(Extended)
+68) RequestResponse(22f1fd, 62f1fd03, Equal)
+69) RequestResponse(190a, 7f597f, Equal)
+70) wait(7000)
+71) RequestResponse(22f1fd, 62f1fd01, Equal)
+72) DiagSessionCtrl(Programming)
+73) RequestResponse(22f1fd, 62f1fd02, Equal)
+74) RequestResponse(190a, 7f597f, Equal)
+75) wait(7000)
+76) RequestResponse(22f1fd, 62f1fd01, Equal)
+77) envvar(EnvTesterPresentOnOff(0; 100))
+</t>
+  </si>
+  <si>
+    <t>2.4.2 Check all supported addressing mode in service 0x19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 0
+2) Change to Default session with service 0x10 01
+3) Read active session with service 0x22 F1 FD
+4) Request read DTC with service 0x19 01 in Functional Addressing Mode
+5) Wait 7000 ms
+6) Read active session with service 0x22 F1 FD
+7) Change to Extended session with service 0x10 03
+8) Read active session with service 0x22 F1 FD
+9) Request read DTC with service 0x19 01 in Functional Addressing Mode
+10) Wait 7000 ms
+11) Read active session with service 0x22 F1 FD
+12) Change to Programming session with service 0x10 02
+13) Read active session with service 0x22 F1 FD
+14) Request read DTC with service 0x19 01 in Functional Addressing Mode
+15) Wait 7000 ms
+16) Read active session with service 0x22 F1 FD
+17) Change to Default session with service 0x10 01
+18) Read active session with service 0x22 F1 FD
+19) Request read DTC with service 0x19 02 in Functional Addressing Mode
+20) Wait 7000 ms
+21) Read active session with service 0x22 F1 FD
+22) Change to Extended session with service 0x10 03
+23) Read active session with service 0x22 F1 FD
+24) Request read DTC with service 0x19 02 in Functional Addressing Mode
+25) Wait 7000 ms
+26) Read active session with service 0x22 F1 FD
+27) Change to Programming session with service 0x10 02
+28) Read active session with service 0x22 F1 FD
+29) Request read DTC with service 0x19 02 in Functional Addressing Mode
+30) Wait 7000 ms
+31) Read active session with service 0x22 F1 FD
+32) Change to Default session with service 0x10 01
+33) Read active session with service 0x22 F1 FD
+34) Request read DTC with service 0x19 04 in Functional Addressing Mode
+35) Wait 7000 ms
+36) Read active session with service 0x22 F1 FD
+37) Change to Extended session with service 0x10 03
+38) Read active session with service 0x22 F1 FD
+39) Request read DTC with service 0x19 04 in Functional Addressing Mode
+40) Wait 7000 ms
+41) Read active session with service 0x22 F1 FD
+42) Change to Programming session with service 0x10 02
+43) Read active session with service 0x22 F1 FD
+44) Request read DTC with service 0x19 04 in Functional Addressing Mode
+45) Wait 7000 ms
+46) Read active session with service 0x22 F1 FD
+47) Change to Default session with service 0x10 01
+48) Read active session with service 0x22 F1 FD
+49) Request read DTC with service 0x19 06 in Functional Addressing Mode
+50) Wait 7000 ms
+51) Read active session with service 0x22 F1 FD
+52) Change to Extended session with service 0x10 03
+53) Read active session with service 0x22 F1 FD
+54) Request read DTC with service 0x19 06 in Functional Addressing Mode
+55) Wait 7000 ms
+56) Read active session with service 0x22 F1 FD
+57) Change to Programming session with service 0x10 02
+58) Read active session with service 0x22 F1 FD
+59) Request read DTC with service 0x19 06 in Functional Addressing Mode
+60) Wait 7000 ms
+61) Read active session with service 0x22 F1 FD
+62) Change to Default session with service 0x10 01
+63) Read active session with service 0x22 F1 FD
+64) Request read DTC with service 0x19 0A in Functional Addressing Mode
+65) Wait 7000 ms
+66) Read active session with service 0x22 F1 FD
+67) Change to Extended session with service 0x10 03
+68) Read active session with service 0x22 F1 FD
+69) Request read DTC with service 0x19 0A in Functional Addressing Mode
+70) Wait 7000 ms
+71) Read active session with service 0x22 F1 FD
+72) Change to Programming session with service 0x10 02
+73) Read active session with service 0x22 F1 FD
+74) Request read DTC with service 0x19 0A in Functional Addressing Mode
+75) Wait 7000 ms
+76) Read active session with service 0x22 F1 FD
+77) Tester present OFF wait 0
+78) Tester present ON wait 0
+79) Change to Default session with service 0x10 01
+80) Read active session with service 0x22 F1 FD
+81) Request read DTC with service 0x19 01 in Physical Addressing Mode
+82) Wait 7000 ms
+83) Read active session with service 0x22 F1 FD
+84) Change to Extended session with service 0x10 03
+85) Read active session with service 0x22 F1 FD
+86) Request read DTC with service 0x19 01 in Physical Addressing Mode
+87) Wait 7000 ms
+88) Read active session with service 0x22 F1 FD
+89) Change to Programming session with service 0x10 02
+90) Read active session with service 0x22 F1 FD
+91) Request read DTC with service 0x19 01 in Physical Addressing Mode
+92) Wait 7000 ms
+93) Read active session with service 0x22 F1 FD
+94) Change to Default session with service 0x10 01
+95) Read active session with service 0x22 F1 FD
+96) Request read DTC with service 0x19 02 in Physical Addressing Mode
+97) Wait 7000 ms
+98) Read active session with service 0x22 F1 FD
+99) Change to Extended session with service 0x10 03
+100) Read active session with service 0x22 F1 FD
+101) Request read DTC with service 0x19 02 in Physical Addressing Mode
+102) Wait 7000 ms
+103) Read active session with service 0x22 F1 FD
+104) Change to Programming session with service 0x10 02
+105) Read active session with service 0x22 F1 FD
+106) Request read DTC with service 0x19 02 in Physical Addressing Mode
+107) Wait 7000 ms
+108) Read active session with service 0x22 F1 FD
+109) Change to Default session with service 0x10 01
+110) Read active session with service 0x22 F1 FD
+111) Request read DTC with service 0x19 04 in Physical Addressing Mode
+112) Wait 7000 ms
+113) Read active session with service 0x22 F1 FD
+114) Change to Extended session with service 0x10 03
+115) Read active session with service 0x22 F1 FD
+116) Request read DTC with service 0x19 04 in Physical Addressing Mode
+117) Wait 7000 ms
+118) Read active session with service 0x22 F1 FD
+119) Change to Programming session with service 0x10 02
+120) Read active session with service 0x22 F1 FD
+121) Request read DTC with service 0x19 04 in Physical Addressing Mode
+122) Wait 7000 ms
+123) Read active session with service 0x22 F1 FD
+124) Change to Default session with service 0x10 01
+125) Read active session with service 0x22 F1 FD
+126) Request read DTC with service 0x19 06 in Physical Addressing Mode
+127) Wait 7000 ms
+128) Read active session with service 0x22 F1 FD
+129) Change to Extended session with service 0x10 03
+130) Read active session with service 0x22 F1 FD
+131) Request read DTC with service 0x19 06 in Physical Addressing Mode
+132) Wait 7000 ms
+133) Read active session with service 0x22 F1 FD
+134) Change to Programming session with service 0x10 02
+135) Read active session with service 0x22 F1 FD
+136) Request read DTC with service 0x19 06 in Physical Addressing Mode
+137) Wait 7000 ms
+138) Read active session with service 0x22 F1 FD
+139) Change to Default session with service 0x10 01
+140) Read active session with service 0x22 F1 FD
+141) Request read DTC with service 0x19 0A in Physical Addressing Mode
+142) Wait 7000 ms
+143) Read active session with service 0x22 F1 FD
+144) Change to Extended session with service 0x10 03
+145) Read active session with service 0x22 F1 FD
+146) Request read DTC with service 0x19 0A in Physical Addressing Mode
+147) Wait 7000 ms
+148) Read active session with service 0x22 F1 FD
+149) Change to Programming session with service 0x10 02
+150) Read active session with service 0x22 F1 FD
+151) Request read DTC with service 0x19 0A in Physical Addressing Mode
+152) Wait 7000 ms
+153) Read active session with service 0x22 F1 FD
+154) Tester present OFF wait 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) -
+2) -
+3) Positive response is received: 0x 62 F1 FD 01
+4) No response is received
+5) -
+6) Positive response is received: 0x 62 F1 FD 01
+7) -
+8) Positive response is received: 0x 62 F1 FD 03
+9) No response is received
+10) -
+11) Positive response is received: 0x 62 F1 FD 01
+12) -
+13) Positive response is received: 0x 62 F1 FD 02
+14) No response is received
+15) -
+16) Positive response is received: 0x 62 F1 FD 01
+17) -
+18) Positive response is received: 0x 62 F1 FD 01
+19) No response is received
+20) -
+21) Positive response is received: 0x 62 F1 FD 01
+22) -
+23) Positive response is received: 0x 62 F1 FD 03
+24) No response is received
+25) -
+26) Positive response is received: 0x 62 F1 FD 01
+27) -
+28) Positive response is received: 0x 62 F1 FD 02
+29) No response is received
+30) -
+31) Positive response is received: 0x 62 F1 FD 01
+32) -
+33) Positive response is received: 0x 62 F1 FD 01
+34) No response is received
+35) -
+36) Positive response is received: 0x 62 F1 FD 01
+37) -
+38) Positive response is received: 0x 62 F1 FD 03
+39) No response is received
+40) -
+41) Positive response is received: 0x 62 F1 FD 01
+42) -
+43) Positive response is received: 0x 62 F1 FD 02
+44) No response is received
+45) -
+46) Positive response is received: 0x 62 F1 FD 01
+47) -
+48) Positive response is received: 0x 62 F1 FD 01
+49) No response is received
+50) -
+51) Positive response is received: 0x 62 F1 FD 01
+52) -
+53) Positive response is received: 0x 62 F1 FD 03
+54) No response is received
+55) -
+56) Positive response is received: 0x 62 F1 FD 01
+57) -
+58) Positive response is received: 0x 62 F1 FD 02
+59) No response is received
+60) -
+61) Positive response is received: 0x 62 F1 FD 01
+62) -
+63) Positive response is received: 0x 62 F1 FD 01
+64) No response is received
+65) -
+66) Positive response is received: 0x 62 F1 FD 01
+67) -
+68) Positive response is received: 0x 62 F1 FD 03
+69) No response is received
+70) -
+71) Positive response is received: 0x 62 F1 FD 01
+72) -
+73) Positive response is received: 0x 62 F1 FD 02
+74) No response is received
+75) -
+76) Positive response is received: 0x 62 F1 FD 01
+77) -
+78) -
+79) -
+80) Positive response is received: 0x 62 F1 FD 01
+81) Negative response is received: 0x7F 59 7F
+82) -
+83) Positive response is received: 0x 62 F1 FD 01
+84) -
+85) Positive response is received: 0x 62 F1 FD 03
+86) Negative response is received: 0x7F 59 7F
+87) -
+88) Positive response is received: 0x 62 F1 FD 01
+89) -
+90) Positive response is received: 0x 62 F1 FD 02
+91) Negative response is received: 0x7F 59 7F
+92) -
+93) Positive response is received: 0x 62 F1 FD 01
+94) -
+95) Positive response is received: 0x 62 F1 FD 01
+96) Negative response is received: 0x7F 59 7F
+97) -
+98) Positive response is received: 0x 62 F1 FD 01
+99) -
+100) Positive response is received: 0x 62 F1 FD 03
+101) Negative response is received: 0x7F 59 7F
+102) -
+103) Positive response is received: 0x 62 F1 FD 01
+104) -
+105) Positive response is received: 0x 62 F1 FD 02
+106) Negative response is received: 0x7F 59 7F
+107) -
+108) Positive response is received: 0x 62 F1 FD 01
+109) -
+110) Positive response is received: 0x 62 F1 FD 01
+111) Negative response is received: 0x7F 59 7F
+112) -
+113) Positive response is received: 0x 62 F1 FD 01
+114) -
+115) Positive response is received: 0x 62 F1 FD 03
+116) Negative response is received: 0x7F 59 7F
+117) -
+118) Positive response is received: 0x 62 F1 FD 01
+119) -
+120) Positive response is received: 0x 62 F1 FD 02
+121) Negative response is received: 0x7F 59 7F
+122) -
+123) Positive response is received: 0x 62 F1 FD 01
+124) -
+125) Positive response is received: 0x 62 F1 FD 01
+126) Negative response is received: 0x7F 59 7F
+127) -
+128) Positive response is received: 0x 62 F1 FD 01
+129) -
+130) Positive response is received: 0x 62 F1 FD 03
+131) Negative response is received: 0x7F 59 7F
+132) -
+133) Positive response is received: 0x 62 F1 FD 01
+134) -
+135) Positive response is received: 0x 62 F1 FD 02
+136) Negative response is received: 0x7F 59 7F
+137) -
+138) Positive response is received: 0x 62 F1 FD 01
+139) -
+140) Positive response is received: 0x 62 F1 FD 01
+141) Negative response is received: 0x7F 59 7F
+142) -
+143) Positive response is received: 0x 62 F1 FD 01
+144) -
+145) Positive response is received: 0x 62 F1 FD 03
+146) Negative response is received: 0x7F 59 7F
+147) -
+148) Positive response is received: 0x 62 F1 FD 01
+149) -
+150) Positive response is received: 0x 62 F1 FD 02
+151) Negative response is received: 0x7F 59 7F
+152) -
+153) Positive response is received: 0x 62 F1 FD 01
+154) -
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 0))
+2) DiagSessionCtrl(Default)
+3) RequestResponse(22f1fd, 62f1fd01, Equal)
+4) FunctionalMessage(1901, , None)
+5) wait(7000)
+6) RequestResponse(22f1fd, 62f1fd01, Equal)
+7) DiagSessionCtrl(Extended)
+8) RequestResponse(22f1fd, 62f1fd03, Equal)
+9) FunctionalMessage(1901, , None)
+10) wait(7000)
+11) RequestResponse(22f1fd, 62f1fd01, Equal)
+12) DiagSessionCtrl(Programming)
+13) RequestResponse(22f1fd, 62f1fd02, Equal)
+14) FunctionalMessage(1901, , None)
+15) wait(7000)
+16) RequestResponse(22f1fd, 62f1fd01, Equal)
+17) DiagSessionCtrl(Default)
+18) RequestResponse(22f1fd, 62f1fd01, Equal)
+19) FunctionalMessage(1902, , None)
+20) wait(7000)
+21) RequestResponse(22f1fd, 62f1fd01, Equal)
+22) DiagSessionCtrl(Extended)
+23) RequestResponse(22f1fd, 62f1fd03, Equal)
+24) FunctionalMessage(1902, , None)
+25) wait(7000)
+26) RequestResponse(22f1fd, 62f1fd01, Equal)
+27) DiagSessionCtrl(Programming)
+28) RequestResponse(22f1fd, 62f1fd02, Equal)
+29) FunctionalMessage(1902, , None)
+30) wait(7000)
+31) RequestResponse(22f1fd, 62f1fd01, Equal)
+32) DiagSessionCtrl(Default)
+33) RequestResponse(22f1fd, 62f1fd01, Equal)
+34) FunctionalMessage(1904, , None)
+35) wait(7000)
+36) RequestResponse(22f1fd, 62f1fd01, Equal)
+37) DiagSessionCtrl(Extended)
+38) RequestResponse(22f1fd, 62f1fd03, Equal)
+39) FunctionalMessage(1904, , None)
+40) wait(7000)
+41) RequestResponse(22f1fd, 62f1fd01, Equal)
+42) DiagSessionCtrl(Programming)
+43) RequestResponse(22f1fd, 62f1fd02, Equal)
+44) FunctionalMessage(1904, , None)
+45) wait(7000)
+46) RequestResponse(22f1fd, 62f1fd01, Equal)
+47) DiagSessionCtrl(Default)
+48) RequestResponse(22f1fd, 62f1fd01, Equal)
+49) FunctionalMessage(1906, , None)
+50) wait(7000)
+51) RequestResponse(22f1fd, 62f1fd01, Equal)
+52) DiagSessionCtrl(Extended)
+53) RequestResponse(22f1fd, 62f1fd03, Equal)
+54) FunctionalMessage(1906, , None)
+55) wait(7000)
+56) RequestResponse(22f1fd, 62f1fd01, Equal)
+57) DiagSessionCtrl(Programming)
+58) RequestResponse(22f1fd, 62f1fd02, Equal)
+59) FunctionalMessage(1906, , None)
+60) wait(7000)
+61) RequestResponse(22f1fd, 62f1fd01, Equal)
+62) DiagSessionCtrl(Default)
+63) RequestResponse(22f1fd, 62f1fd01, Equal)
+64) FunctionalMessage(190a, , None)
+65) wait(7000)
+66) RequestResponse(22f1fd, 62f1fd01, Equal)
+67) DiagSessionCtrl(Extended)
+68) RequestResponse(22f1fd, 62f1fd03, Equal)
+69) FunctionalMessage(190a, , None)
+70) wait(7000)
+71) RequestResponse(22f1fd, 62f1fd01, Equal)
+72) DiagSessionCtrl(Programming)
+73) RequestResponse(22f1fd, 62f1fd02, Equal)
+74) FunctionalMessage(190a, , None)
+75) wait(7000)
+76) RequestResponse(22f1fd, 62f1fd01, Equal)
+77) envvar(EnvTesterPresentOnOff(0; 0))
+78) envvar(EnvTesterPresentOnOff(1; 0))
+79) DiagSessionCtrl(Default)
+80) RequestResponse(22f1fd, 62f1fd01, Equal)
+81) RequestResponse(1901, 7f597f, Equal)
+82) wait(7000)
+83) RequestResponse(22f1fd, 62f1fd01, Equal)
+84) DiagSessionCtrl(Extended)
+85) RequestResponse(22f1fd, 62f1fd03, Equal)
+86) RequestResponse(1901, 7f597f, Equal)
+87) wait(7000)
+88) RequestResponse(22f1fd, 62f1fd01, Equal)
+89) DiagSessionCtrl(Programming)
+90) RequestResponse(22f1fd, 62f1fd02, Equal)
+91) RequestResponse(1901, 7f597f, Equal)
+92) wait(7000)
+93) RequestResponse(22f1fd, 62f1fd01, Equal)
+94) DiagSessionCtrl(Default)
+95) RequestResponse(22f1fd, 62f1fd01, Equal)
+96) RequestResponse(1902, 7f597f, Equal)
+97) wait(7000)
+98) RequestResponse(22f1fd, 62f1fd01, Equal)
+99) DiagSessionCtrl(Extended)
+100) RequestResponse(22f1fd, 62f1fd03, Equal)
+101) RequestResponse(1902, 7f597f, Equal)
+102) wait(7000)
+103) RequestResponse(22f1fd, 62f1fd01, Equal)
+104) DiagSessionCtrl(Programming)
+105) RequestResponse(22f1fd, 62f1fd02, Equal)
+106) RequestResponse(1902, 7f597f, Equal)
+107) wait(7000)
+108) RequestResponse(22f1fd, 62f1fd01, Equal)
+109) DiagSessionCtrl(Default)
+110) RequestResponse(22f1fd, 62f1fd01, Equal)
+111) RequestResponse(1904, 7f597f, Equal)
+112) wait(7000)
+113) RequestResponse(22f1fd, 62f1fd01, Equal)
+114) DiagSessionCtrl(Extended)
+115) RequestResponse(22f1fd, 62f1fd03, Equal)
+116) RequestResponse(1904, 7f597f, Equal)
+117) wait(7000)
+118) RequestResponse(22f1fd, 62f1fd01, Equal)
+119) DiagSessionCtrl(Programming)
+120) RequestResponse(22f1fd, 62f1fd02, Equal)
+121) RequestResponse(1904, 7f597f, Equal)
+122) wait(7000)
+123) RequestResponse(22f1fd, 62f1fd01, Equal)
+124) DiagSessionCtrl(Default)
+125) RequestResponse(22f1fd, 62f1fd01, Equal)
+126) RequestResponse(1906, 7f597f, Equal)
+127) wait(7000)
+128) RequestResponse(22f1fd, 62f1fd01, Equal)
+129) DiagSessionCtrl(Extended)
+130) RequestResponse(22f1fd, 62f1fd03, Equal)
+131) RequestResponse(1906, 7f597f, Equal)
+132) wait(7000)
+133) RequestResponse(22f1fd, 62f1fd01, Equal)
+134) DiagSessionCtrl(Programming)
+135) RequestResponse(22f1fd, 62f1fd02, Equal)
+136) RequestResponse(1906, 7f597f, Equal)
+137) wait(7000)
+138) RequestResponse(22f1fd, 62f1fd01, Equal)
+139) DiagSessionCtrl(Default)
+140) RequestResponse(22f1fd, 62f1fd01, Equal)
+141) RequestResponse(190a, 7f597f, Equal)
+142) wait(7000)
+143) RequestResponse(22f1fd, 62f1fd01, Equal)
+144) DiagSessionCtrl(Extended)
+145) RequestResponse(22f1fd, 62f1fd03, Equal)
+146) RequestResponse(190a, 7f597f, Equal)
+147) wait(7000)
+148) RequestResponse(22f1fd, 62f1fd01, Equal)
+149) DiagSessionCtrl(Programming)
+150) RequestResponse(22f1fd, 62f1fd02, Equal)
+151) RequestResponse(190a, 7f597f, Equal)
+152) wait(7000)
+153) RequestResponse(22f1fd, 62f1fd01, Equal)
+154) envvar(EnvTesterPresentOnOff(0; 0))
+</t>
+  </si>
+  <si>
+    <t>2.4.3 Check suppress bit in service 0x19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 0
+2) Change to Default session with service 0x10 01
+3) Read active session with service 0x22 F1 FD
+4) Request read DTC with service 0x19 81 in Functional Addressing Mode
+5) Wait 7000 ms
+6) Read active session with service 0x22 F1 FD
+7) Change to Extended session with service 0x10 03
+8) Read active session with service 0x22 F1 FD
+9) Request read DTC with service 0x19 81 in Functional Addressing Mode
+10) Wait 7000 ms
+11) Read active session with service 0x22 F1 FD
+12) Change to Programming session with service 0x10 02
+13) Read active session with service 0x22 F1 FD
+14) Request read DTC with service 0x19 81 in Functional Addressing Mode
+15) Wait 7000 ms
+16) Read active session with service 0x22 F1 FD
+17) Change to Default session with service 0x10 01
+18) Read active session with service 0x22 F1 FD
+19) Request read DTC with service 0x19 82 in Functional Addressing Mode
+20) Wait 7000 ms
+21) Read active session with service 0x22 F1 FD
+22) Change to Extended session with service 0x10 03
+23) Read active session with service 0x22 F1 FD
+24) Request read DTC with service 0x19 82 in Functional Addressing Mode
+25) Wait 7000 ms
+26) Read active session with service 0x22 F1 FD
+27) Change to Programming session with service 0x10 02
+28) Read active session with service 0x22 F1 FD
+29) Request read DTC with service 0x19 82 in Functional Addressing Mode
+30) Wait 7000 ms
+31) Read active session with service 0x22 F1 FD
+32) Change to Default session with service 0x10 01
+33) Read active session with service 0x22 F1 FD
+34) Request read DTC with service 0x19 84 in Functional Addressing Mode
+35) Wait 7000 ms
+36) Read active session with service 0x22 F1 FD
+37) Change to Extended session with service 0x10 03
+38) Read active session with service 0x22 F1 FD
+39) Request read DTC with service 0x19 84 in Functional Addressing Mode
+40) Wait 7000 ms
+41) Read active session with service 0x22 F1 FD
+42) Change to Programming session with service 0x10 02
+43) Read active session with service 0x22 F1 FD
+44) Request read DTC with service 0x19 84 in Functional Addressing Mode
+45) Wait 7000 ms
+46) Read active session with service 0x22 F1 FD
+47) Change to Default session with service 0x10 01
+48) Read active session with service 0x22 F1 FD
+49) Request read DTC with service 0x19 86 in Functional Addressing Mode
+50) Wait 7000 ms
+51) Read active session with service 0x22 F1 FD
+52) Change to Extended session with service 0x10 03
+53) Read active session with service 0x22 F1 FD
+54) Request read DTC with service 0x19 86 in Functional Addressing Mode
+55) Wait 7000 ms
+56) Read active session with service 0x22 F1 FD
+57) Change to Programming session with service 0x10 02
+58) Read active session with service 0x22 F1 FD
+59) Request read DTC with service 0x19 86 in Functional Addressing Mode
+60) Wait 7000 ms
+61) Read active session with service 0x22 F1 FD
+62) Change to Default session with service 0x10 01
+63) Read active session with service 0x22 F1 FD
+64) Request read DTC with service 0x19 8A in Functional Addressing Mode
+65) Wait 7000 ms
+66) Read active session with service 0x22 F1 FD
+67) Change to Extended session with service 0x10 03
+68) Read active session with service 0x22 F1 FD
+69) Request read DTC with service 0x19 8A in Functional Addressing Mode
+70) Wait 7000 ms
+71) Read active session with service 0x22 F1 FD
+72) Change to Programming session with service 0x10 02
+73) Read active session with service 0x22 F1 FD
+74) Request read DTC with service 0x19 8A in Functional Addressing Mode
+75) Wait 7000 ms
+76) Read active session with service 0x22 F1 FD
+77) Tester present OFF wait 0
+78) Tester present ON wait 0
+79) Change to Default session with service 0x10 01
+80) Read active session with service 0x22 F1 FD
+81) Request read DTC with service 0x19 81 in Physical Addressing Mode
+82) Wait 7000 ms
+83) Read active session with service 0x22 F1 FD
+84) Change to Extended session with service 0x10 03
+85) Read active session with service 0x22 F1 FD
+86) Request read DTC with service 0x19 81 in Physical Addressing Mode
+87) Wait 7000 ms
+88) Read active session with service 0x22 F1 FD
+89) Change to Programming session with service 0x10 02
+90) Read active session with service 0x22 F1 FD
+91) Request read DTC with service 0x19 81 in Physical Addressing Mode
+92) Wait 7000 ms
+93) Read active session with service 0x22 F1 FD
+94) Change to Default session with service 0x10 01
+95) Read active session with service 0x22 F1 FD
+96) Request read DTC with service 0x19 82 in Physical Addressing Mode
+97) Wait 7000 ms
+98) Read active session with service 0x22 F1 FD
+99) Change to Extended session with service 0x10 03
+100) Read active session with service 0x22 F1 FD
+101) Request read DTC with service 0x19 82 in Physical Addressing Mode
+102) Wait 7000 ms
+103) Read active session with service 0x22 F1 FD
+104) Change to Programming session with service 0x10 02
+105) Read active session with service 0x22 F1 FD
+106) Request read DTC with service 0x19 82 in Physical Addressing Mode
+107) Wait 7000 ms
+108) Read active session with service 0x22 F1 FD
+109) Change to Default session with service 0x10 01
+110) Read active session with service 0x22 F1 FD
+111) Request read DTC with service 0x19 84 in Physical Addressing Mode
+112) Wait 7000 ms
+113) Read active session with service 0x22 F1 FD
+114) Change to Extended session with service 0x10 03
+115) Read active session with service 0x22 F1 FD
+116) Request read DTC with service 0x19 84 in Physical Addressing Mode
+117) Wait 7000 ms
+118) Read active session with service 0x22 F1 FD
+119) Change to Programming session with service 0x10 02
+120) Read active session with service 0x22 F1 FD
+121) Request read DTC with service 0x19 84 in Physical Addressing Mode
+122) Wait 7000 ms
+123) Read active session with service 0x22 F1 FD
+124) Change to Default session with service 0x10 01
+125) Read active session with service 0x22 F1 FD
+126) Request read DTC with service 0x19 86 in Physical Addressing Mode
+127) Wait 7000 ms
+128) Read active session with service 0x22 F1 FD
+129) Change to Extended session with service 0x10 03
+130) Read active session with service 0x22 F1 FD
+131) Request read DTC with service 0x19 86 in Physical Addressing Mode
+132) Wait 7000 ms
+133) Read active session with service 0x22 F1 FD
+134) Change to Programming session with service 0x10 02
+135) Read active session with service 0x22 F1 FD
+136) Request read DTC with service 0x19 86 in Physical Addressing Mode
+137) Wait 7000 ms
+138) Read active session with service 0x22 F1 FD
+139) Change to Default session with service 0x10 01
+140) Read active session with service 0x22 F1 FD
+141) Request read DTC with service 0x19 8A in Physical Addressing Mode
+142) Wait 7000 ms
+143) Read active session with service 0x22 F1 FD
+144) Change to Extended session with service 0x10 03
+145) Read active session with service 0x22 F1 FD
+146) Request read DTC with service 0x19 8A in Physical Addressing Mode
+147) Wait 7000 ms
+148) Read active session with service 0x22 F1 FD
+149) Change to Programming session with service 0x10 02
+150) Read active session with service 0x22 F1 FD
+151) Request read DTC with service 0x19 8A in Physical Addressing Mode
+152) Wait 7000 ms
+153) Read active session with service 0x22 F1 FD
+154) Tester present OFF wait 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 0))
+2) DiagSessionCtrl(Default)
+3) RequestResponse(22f1fd, 62f1fd01, Equal)
+4) FunctionalMessage(1981, , None)
+5) wait(7000)
+6) RequestResponse(22f1fd, 62f1fd01, Equal)
+7) DiagSessionCtrl(Extended)
+8) RequestResponse(22f1fd, 62f1fd03, Equal)
+9) FunctionalMessage(1981, , None)
+10) wait(7000)
+11) RequestResponse(22f1fd, 62f1fd01, Equal)
+12) DiagSessionCtrl(Programming)
+13) RequestResponse(22f1fd, 62f1fd02, Equal)
+14) FunctionalMessage(1981, , None)
+15) wait(7000)
+16) RequestResponse(22f1fd, 62f1fd01, Equal)
+17) DiagSessionCtrl(Default)
+18) RequestResponse(22f1fd, 62f1fd01, Equal)
+19) FunctionalMessage(1982, , None)
+20) wait(7000)
+21) RequestResponse(22f1fd, 62f1fd01, Equal)
+22) DiagSessionCtrl(Extended)
+23) RequestResponse(22f1fd, 62f1fd03, Equal)
+24) FunctionalMessage(1982, , None)
+25) wait(7000)
+26) RequestResponse(22f1fd, 62f1fd01, Equal)
+27) DiagSessionCtrl(Programming)
+28) RequestResponse(22f1fd, 62f1fd02, Equal)
+29) FunctionalMessage(1982, , None)
+30) wait(7000)
+31) RequestResponse(22f1fd, 62f1fd01, Equal)
+32) DiagSessionCtrl(Default)
+33) RequestResponse(22f1fd, 62f1fd01, Equal)
+34) FunctionalMessage(1984, , None)
+35) wait(7000)
+36) RequestResponse(22f1fd, 62f1fd01, Equal)
+37) DiagSessionCtrl(Extended)
+38) RequestResponse(22f1fd, 62f1fd03, Equal)
+39) FunctionalMessage(1984, , None)
+40) wait(7000)
+41) RequestResponse(22f1fd, 62f1fd01, Equal)
+42) DiagSessionCtrl(Programming)
+43) RequestResponse(22f1fd, 62f1fd02, Equal)
+44) FunctionalMessage(1984, , None)
+45) wait(7000)
+46) RequestResponse(22f1fd, 62f1fd01, Equal)
+47) DiagSessionCtrl(Default)
+48) RequestResponse(22f1fd, 62f1fd01, Equal)
+49) FunctionalMessage(1986, , None)
+50) wait(7000)
+51) RequestResponse(22f1fd, 62f1fd01, Equal)
+52) DiagSessionCtrl(Extended)
+53) RequestResponse(22f1fd, 62f1fd03, Equal)
+54) FunctionalMessage(1986, , None)
+55) wait(7000)
+56) RequestResponse(22f1fd, 62f1fd01, Equal)
+57) DiagSessionCtrl(Programming)
+58) RequestResponse(22f1fd, 62f1fd02, Equal)
+59) FunctionalMessage(1986, , None)
+60) wait(7000)
+61) RequestResponse(22f1fd, 62f1fd01, Equal)
+62) DiagSessionCtrl(Default)
+63) RequestResponse(22f1fd, 62f1fd01, Equal)
+64) FunctionalMessage(198a, , None)
+65) wait(7000)
+66) RequestResponse(22f1fd, 62f1fd01, Equal)
+67) DiagSessionCtrl(Extended)
+68) RequestResponse(22f1fd, 62f1fd03, Equal)
+69) FunctionalMessage(198a, , None)
+70) wait(7000)
+71) RequestResponse(22f1fd, 62f1fd01, Equal)
+72) DiagSessionCtrl(Programming)
+73) RequestResponse(22f1fd, 62f1fd02, Equal)
+74) FunctionalMessage(198a, , None)
+75) wait(7000)
+76) RequestResponse(22f1fd, 62f1fd01, Equal)
+77) envvar(EnvTesterPresentOnOff(0; 0))
+78) envvar(EnvTesterPresentOnOff(1; 0))
+79) DiagSessionCtrl(Default)
+80) RequestResponse(22f1fd, 62f1fd01, Equal)
+81) RequestResponse(1981, 7f597f, Equal)
+82) wait(7000)
+83) RequestResponse(22f1fd, 62f1fd01, Equal)
+84) DiagSessionCtrl(Extended)
+85) RequestResponse(22f1fd, 62f1fd03, Equal)
+86) RequestResponse(1981, 7f597f, Equal)
+87) wait(7000)
+88) RequestResponse(22f1fd, 62f1fd01, Equal)
+89) DiagSessionCtrl(Programming)
+90) RequestResponse(22f1fd, 62f1fd02, Equal)
+91) RequestResponse(1981, 7f597f, Equal)
+92) wait(7000)
+93) RequestResponse(22f1fd, 62f1fd01, Equal)
+94) DiagSessionCtrl(Default)
+95) RequestResponse(22f1fd, 62f1fd01, Equal)
+96) RequestResponse(1982, 7f597f, Equal)
+97) wait(7000)
+98) RequestResponse(22f1fd, 62f1fd01, Equal)
+99) DiagSessionCtrl(Extended)
+100) RequestResponse(22f1fd, 62f1fd03, Equal)
+101) RequestResponse(1982, 7f597f, Equal)
+102) wait(7000)
+103) RequestResponse(22f1fd, 62f1fd01, Equal)
+104) DiagSessionCtrl(Programming)
+105) RequestResponse(22f1fd, 62f1fd02, Equal)
+106) RequestResponse(1982, 7f597f, Equal)
+107) wait(7000)
+108) RequestResponse(22f1fd, 62f1fd01, Equal)
+109) DiagSessionCtrl(Default)
+110) RequestResponse(22f1fd, 62f1fd01, Equal)
+111) RequestResponse(1984, 7f597f, Equal)
+112) wait(7000)
+113) RequestResponse(22f1fd, 62f1fd01, Equal)
+114) DiagSessionCtrl(Extended)
+115) RequestResponse(22f1fd, 62f1fd03, Equal)
+116) RequestResponse(1984, 7f597f, Equal)
+117) wait(7000)
+118) RequestResponse(22f1fd, 62f1fd01, Equal)
+119) DiagSessionCtrl(Programming)
+120) RequestResponse(22f1fd, 62f1fd02, Equal)
+121) RequestResponse(1984, 7f597f, Equal)
+122) wait(7000)
+123) RequestResponse(22f1fd, 62f1fd01, Equal)
+124) DiagSessionCtrl(Default)
+125) RequestResponse(22f1fd, 62f1fd01, Equal)
+126) RequestResponse(1986, 7f597f, Equal)
+127) wait(7000)
+128) RequestResponse(22f1fd, 62f1fd01, Equal)
+129) DiagSessionCtrl(Extended)
+130) RequestResponse(22f1fd, 62f1fd03, Equal)
+131) RequestResponse(1986, 7f597f, Equal)
+132) wait(7000)
+133) RequestResponse(22f1fd, 62f1fd01, Equal)
+134) DiagSessionCtrl(Programming)
+135) RequestResponse(22f1fd, 62f1fd02, Equal)
+136) RequestResponse(1986, 7f597f, Equal)
+137) wait(7000)
+138) RequestResponse(22f1fd, 62f1fd01, Equal)
+139) DiagSessionCtrl(Default)
+140) RequestResponse(22f1fd, 62f1fd01, Equal)
+141) RequestResponse(198a, 7f597f, Equal)
+142) wait(7000)
+143) RequestResponse(22f1fd, 62f1fd01, Equal)
+144) DiagSessionCtrl(Extended)
+145) RequestResponse(22f1fd, 62f1fd03, Equal)
+146) RequestResponse(198a, 7f597f, Equal)
+147) wait(7000)
+148) RequestResponse(22f1fd, 62f1fd01, Equal)
+149) DiagSessionCtrl(Programming)
+150) RequestResponse(22f1fd, 62f1fd02, Equal)
+151) RequestResponse(198a, 7f597f, Equal)
+152) wait(7000)
+153) RequestResponse(22f1fd, 62f1fd01, Equal)
+154) envvar(EnvTesterPresentOnOff(0; 0))
+</t>
+  </si>
+  <si>
+    <t>2.6 Service 27h - Security Access</t>
+  </si>
+  <si>
+    <t>2.6.1 Check all allowed diagnostic sessions in service 0x27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 100
+2) Change to Default session with service 0x10 01
+3) Read active session with service 0x22 F1 FD
+4) Request security access with service 0x27 01 in Physical Addressing Mode
+5) Wait 7000 ms
+6) Read active session with service 0x22 F1 FD
+7) Change to Extended session with service 0x10 03
+8) Read active session with service 0x22 F1 FD
+9) Request security access with service 0x27 01 in Physical Addressing Mode
+10) Wait 7000 ms
+11) Read active session with service 0x22 F1 FD
+12) Change to Programming session with service 0x10 02
+13) Read active session with service 0x22 F1 FD
+14) Request security access with service 0x27 01 in Physical Addressing Mode
+15) Wait 7000 ms
+16) Read active session with service 0x22 F1 FD
+17) Change to Default session with service 0x10 01
+18) Read active session with service 0x22 F1 FD
+19) Request security access with service 0x27 02 in Physical Addressing Mode
+20) Wait 7000 ms
+21) Read active session with service 0x22 F1 FD
+22) Change to Extended session with service 0x10 03
+23) Read active session with service 0x22 F1 FD
+24) Request security access with service 0x27 02 in Physical Addressing Mode
+25) Wait 7000 ms
+26) Read active session with service 0x22 F1 FD
+27) Change to Programming session with service 0x10 02
+28) Read active session with service 0x22 F1 FD
+29) Request security access with service 0x27 02 in Physical Addressing Mode
+30) Wait 7000 ms
+31) Read active session with service 0x22 F1 FD
+32) Change to Default session with service 0x10 01
+33) Read active session with service 0x22 F1 FD
+34) Request security access with service 0x27 01 in Physical Addressing Mode
+35) Wait 7000 ms
+36) Read active session with service 0x22 F1 FD
+37) Change to Extended session with service 0x10 03
+38) Read active session with service 0x22 F1 FD
+39) Request security access with service 0x27 01 in Physical Addressing Mode
+40) Wait 7000 ms
+41) Read active session with service 0x22 F1 FD
+42) Change to Programming session with service 0x10 02
+43) Read active session with service 0x22 F1 FD
+44) Request security access with service 0x27 01 in Physical Addressing Mode
+45) Wait 7000 ms
+46) Read active session with service 0x22 F1 FD
+47) Change to Default session with service 0x10 01
+48) Read active session with service 0x22 F1 FD
+49) Request security access with service 0x27 02 in Physical Addressing Mode
+50) Wait 7000 ms
+51) Read active session with service 0x22 F1 FD
+52) Change to Extended session with service 0x10 03
+53) Read active session with service 0x22 F1 FD
+54) Request security access with service 0x27 02 in Physical Addressing Mode
+55) Wait 7000 ms
+56) Read active session with service 0x22 F1 FD
+57) Change to Programming session with service 0x10 02
+58) Read active session with service 0x22 F1 FD
+59) Request security access with service 0x27 02 in Physical Addressing Mode
+60) Wait 7000 ms
+61) Read active session with service 0x22 F1 FD
+62) Tester present OFF wait 100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) -
+2) -
+3) Positive response is received: 0x 62 F1 FD 01
+4) Negative response is received: 0x7F 67 7F
+5) -
+6) Positive response is received: 0x 62 F1 FD 01
+7) -
+8) Positive response is received: 0x 62 F1 FD 03
+9) Positive response is received: 0x67 01
+10) -
+11) Positive response is received: 0x 62 F1 FD 01
+12) -
+13) Positive response is received: 0x 62 F1 FD 02
+14) Negative response is received: 0x7F 67 7F
+15) -
+16) Positive response is received: 0x 62 F1 FD 01
+17) -
+18) Positive response is received: 0x 62 F1 FD 01
+19) Negative response is received: 0x7F 67 7F
+20) -
+21) Positive response is received: 0x 62 F1 FD 01
+22) -
+23) Positive response is received: 0x 62 F1 FD 03
+24) Positive response is received: 0x67 02
+25) -
+26) Positive response is received: 0x 62 F1 FD 01
+27) -
+28) Positive response is received: 0x 62 F1 FD 02
+29) Negative response is received: 0x7F 67 7F
+30) -
+31) Positive response is received: 0x 62 F1 FD 01
+32) -
+33) Positive response is received: 0x 62 F1 FD 01
+34) Negative response is received: 0x7F 67 7F
+35) -
+36) Positive response is received: 0x 62 F1 FD 01
+37) -
+38) Positive response is received: 0x 62 F1 FD 03
+39) Positive response is received: 0x67 01
+40) -
+41) Positive response is received: 0x 62 F1 FD 01
+42) -
+43) Positive response is received: 0x 62 F1 FD 02
+44) Negative response is received: 0x7F 67 7F
+45) -
+46) Positive response is received: 0x 62 F1 FD 01
+47) -
+48) Positive response is received: 0x 62 F1 FD 01
+49) Negative response is received: 0x7F 67 7F
+50) -
+51) Positive response is received: 0x 62 F1 FD 01
+52) -
+53) Positive response is received: 0x 62 F1 FD 03
+54) Positive response is received: 0x67 02
+55) -
+56) Positive response is received: 0x 62 F1 FD 01
+57) -
+58) Positive response is received: 0x 62 F1 FD 02
+59) Negative response is received: 0x7F 67 7F
+60) -
+61) Positive response is received: 0x 62 F1 FD 01
+62) -
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
+2) DiagSessionCtrl(Default)
+3) RequestResponse(22f1fd, 62f1fd01, Equal)
+4) RequestResponse(2701, 7f677f, Equal)
+5) wait(7000)
+6) RequestResponse(22f1fd, 62f1fd01, Equal)
+7) DiagSessionCtrl(Extended)
+8) RequestResponse(22f1fd, 62f1fd03, Equal)
+9) RequestResponse(2701, 6701, Equal)
+10) wait(7000)
+11) RequestResponse(22f1fd, 62f1fd01, Equal)
+12) DiagSessionCtrl(Programming)
+13) RequestResponse(22f1fd, 62f1fd02, Equal)
+14) RequestResponse(2701, 7f677f, Equal)
+15) wait(7000)
+16) RequestResponse(22f1fd, 62f1fd01, Equal)
+17) DiagSessionCtrl(Default)
+18) RequestResponse(22f1fd, 62f1fd01, Equal)
+19) RequestResponse(2702, 7f677f, Equal)
+20) wait(7000)
+21) RequestResponse(22f1fd, 62f1fd01, Equal)
+22) DiagSessionCtrl(Extended)
+23) RequestResponse(22f1fd, 62f1fd03, Equal)
+24) RequestResponse(2702, 6702, Equal)
+25) wait(7000)
+26) RequestResponse(22f1fd, 62f1fd01, Equal)
+27) DiagSessionCtrl(Programming)
+28) RequestResponse(22f1fd, 62f1fd02, Equal)
+29) RequestResponse(2702, 7f677f, Equal)
+30) wait(7000)
+31) RequestResponse(22f1fd, 62f1fd01, Equal)
+32) DiagSessionCtrl(Default)
+33) RequestResponse(22f1fd, 62f1fd01, Equal)
+34) RequestResponse(2701, 7f677f, Equal)
+35) wait(7000)
+36) RequestResponse(22f1fd, 62f1fd01, Equal)
+37) DiagSessionCtrl(Extended)
+38) RequestResponse(22f1fd, 62f1fd03, Equal)
+39) RequestResponse(2701, 6701, Equal)
+40) wait(7000)
+41) RequestResponse(22f1fd, 62f1fd01, Equal)
+42) DiagSessionCtrl(Programming)
+43) RequestResponse(22f1fd, 62f1fd02, Equal)
+44) RequestResponse(2701, 7f677f, Equal)
+45) wait(7000)
+46) RequestResponse(22f1fd, 62f1fd01, Equal)
+47) DiagSessionCtrl(Default)
+48) RequestResponse(22f1fd, 62f1fd01, Equal)
+49) RequestResponse(2702, 7f677f, Equal)
+50) wait(7000)
+51) RequestResponse(22f1fd, 62f1fd01, Equal)
+52) DiagSessionCtrl(Extended)
+53) RequestResponse(22f1fd, 62f1fd03, Equal)
+54) RequestResponse(2702, 6702, Equal)
+55) wait(7000)
+56) RequestResponse(22f1fd, 62f1fd01, Equal)
+57) DiagSessionCtrl(Programming)
+58) RequestResponse(22f1fd, 62f1fd02, Equal)
+59) RequestResponse(2702, 7f677f, Equal)
+60) wait(7000)
+61) RequestResponse(22f1fd, 62f1fd01, Equal)
+62) envvar(EnvTesterPresentOnOff(0; 100))
+</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_31</t>
+  </si>
+  <si>
+    <t>2.6.2 Check all supported addressing mode in service 0x27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 0
+2) Change to Default session with service 0x10 01
+3) Read active session with service 0x22 F1 FD
+4) Request security access with service 0x27 01 in Functional Addressing Mode
+5) Wait 7000 ms
+6) Read active session with service 0x22 F1 FD
+7) Change to Extended session with service 0x10 03
+8) Read active session with service 0x22 F1 FD
+9) Request security access with service 0x27 01 in Functional Addressing Mode
+10) Wait 7000 ms
+11) Read active session with service 0x22 F1 FD
+12) Change to Programming session with service 0x10 02
+13) Read active session with service 0x22 F1 FD
+14) Request security access with service 0x27 01 in Functional Addressing Mode
+15) Wait 7000 ms
+16) Read active session with service 0x22 F1 FD
+17) Change to Default session with service 0x10 01
+18) Read active session with service 0x22 F1 FD
+19) Request security access with service 0x27 02 in Functional Addressing Mode
+20) Wait 7000 ms
+21) Read active session with service 0x22 F1 FD
+22) Change to Extended session with service 0x10 03
+23) Read active session with service 0x22 F1 FD
+24) Request security access with service 0x27 02 in Functional Addressing Mode
+25) Wait 7000 ms
+26) Read active session with service 0x22 F1 FD
+27) Change to Programming session with service 0x10 02
+28) Read active session with service 0x22 F1 FD
+29) Request security access with service 0x27 02 in Functional Addressing Mode
+30) Wait 7000 ms
+31) Read active session with service 0x22 F1 FD
+32) Change to Default session with service 0x10 01
+33) Read active session with service 0x22 F1 FD
+34) Request security access with service 0x27 01 in Functional Addressing Mode
+35) Wait 7000 ms
+36) Read active session with service 0x22 F1 FD
+37) Change to Extended session with service 0x10 03
+38) Read active session with service 0x22 F1 FD
+39) Request security access with service 0x27 01 in Functional Addressing Mode
+40) Wait 7000 ms
+41) Read active session with service 0x22 F1 FD
+42) Change to Programming session with service 0x10 02
+43) Read active session with service 0x22 F1 FD
+44) Request security access with service 0x27 01 in Functional Addressing Mode
+45) Wait 7000 ms
+46) Read active session with service 0x22 F1 FD
+47) Change to Default session with service 0x10 01
+48) Read active session with service 0x22 F1 FD
+49) Request security access with service 0x27 02 in Functional Addressing Mode
+50) Wait 7000 ms
+51) Read active session with service 0x22 F1 FD
+52) Change to Extended session with service 0x10 03
+53) Read active session with service 0x22 F1 FD
+54) Request security access with service 0x27 02 in Functional Addressing Mode
+55) Wait 7000 ms
+56) Read active session with service 0x22 F1 FD
+57) Change to Programming session with service 0x10 02
+58) Read active session with service 0x22 F1 FD
+59) Request security access with service 0x27 02 in Functional Addressing Mode
+60) Wait 7000 ms
+61) Read active session with service 0x22 F1 FD
+62) Tester present OFF wait 0
+63) Tester present ON wait 0
+64) Change to Default session with service 0x10 01
+65) Read active session with service 0x22 F1 FD
+66) Request security access with service 0x27 01 in Physical Addressing Mode
+67) Wait 7000 ms
+68) Read active session with service 0x22 F1 FD
+69) Change to Extended session with service 0x10 03
+70) Read active session with service 0x22 F1 FD
+71) Request security access with service 0x27 01 in Physical Addressing Mode
+72) Wait 7000 ms
+73) Read active session with service 0x22 F1 FD
+74) Change to Programming session with service 0x10 02
+75) Read active session with service 0x22 F1 FD
+76) Request security access with service 0x27 01 in Physical Addressing Mode
+77) Wait 7000 ms
+78) Read active session with service 0x22 F1 FD
+79) Change to Default session with service 0x10 01
+80) Read active session with service 0x22 F1 FD
+81) Request security access with service 0x27 02 in Physical Addressing Mode
+82) Wait 7000 ms
+83) Read active session with service 0x22 F1 FD
+84) Change to Extended session with service 0x10 03
+85) Read active session with service 0x22 F1 FD
+86) Request security access with service 0x27 02 in Physical Addressing Mode
+87) Wait 7000 ms
+88) Read active session with service 0x22 F1 FD
+89) Change to Programming session with service 0x10 02
+90) Read active session with service 0x22 F1 FD
+91) Request security access with service 0x27 02 in Physical Addressing Mode
+92) Wait 7000 ms
+93) Read active session with service 0x22 F1 FD
+94) Change to Default session with service 0x10 01
+95) Read active session with service 0x22 F1 FD
+96) Request security access with service 0x27 01 in Physical Addressing Mode
+97) Wait 7000 ms
+98) Read active session with service 0x22 F1 FD
+99) Change to Extended session with service 0x10 03
+100) Read active session with service 0x22 F1 FD
+101) Request security access with service 0x27 01 in Physical Addressing Mode
+102) Wait 7000 ms
+103) Read active session with service 0x22 F1 FD
+104) Change to Programming session with service 0x10 02
+105) Read active session with service 0x22 F1 FD
+106) Request security access with service 0x27 01 in Physical Addressing Mode
+107) Wait 7000 ms
+108) Read active session with service 0x22 F1 FD
+109) Change to Default session with service 0x10 01
+110) Read active session with service 0x22 F1 FD
+111) Request security access with service 0x27 02 in Physical Addressing Mode
+112) Wait 7000 ms
+113) Read active session with service 0x22 F1 FD
+114) Change to Extended session with service 0x10 03
+115) Read active session with service 0x22 F1 FD
+116) Request security access with service 0x27 02 in Physical Addressing Mode
+117) Wait 7000 ms
+118) Read active session with service 0x22 F1 FD
+119) Change to Programming session with service 0x10 02
+120) Read active session with service 0x22 F1 FD
+121) Request security access with service 0x27 02 in Physical Addressing Mode
+122) Wait 7000 ms
+123) Read active session with service 0x22 F1 FD
+124) Tester present OFF wait 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) -
+2) -
+3) Positive response is received: 0x 62 F1 FD 01
+4) No response is received
+5) -
+6) Positive response is received: 0x 62 F1 FD 01
+7) -
+8) Positive response is received: 0x 62 F1 FD 03
+9) No response is received
+10) -
+11) Positive response is received: 0x 62 F1 FD 01
+12) -
+13) Positive response is received: 0x 62 F1 FD 02
+14) No response is received
+15) -
+16) Positive response is received: 0x 62 F1 FD 01
+17) -
+18) Positive response is received: 0x 62 F1 FD 01
+19) No response is received
+20) -
+21) Positive response is received: 0x 62 F1 FD 01
+22) -
+23) Positive response is received: 0x 62 F1 FD 03
+24) No response is received
+25) -
+26) Positive response is received: 0x 62 F1 FD 01
+27) -
+28) Positive response is received: 0x 62 F1 FD 02
+29) No response is received
+30) -
+31) Positive response is received: 0x 62 F1 FD 01
+32) -
+33) Positive response is received: 0x 62 F1 FD 01
+34) No response is received
+35) -
+36) Positive response is received: 0x 62 F1 FD 01
+37) -
+38) Positive response is received: 0x 62 F1 FD 03
+39) No response is received
+40) -
+41) Positive response is received: 0x 62 F1 FD 01
+42) -
+43) Positive response is received: 0x 62 F1 FD 02
+44) No response is received
+45) -
+46) Positive response is received: 0x 62 F1 FD 01
+47) -
+48) Positive response is received: 0x 62 F1 FD 01
+49) No response is received
+50) -
+51) Positive response is received: 0x 62 F1 FD 01
+52) -
+53) Positive response is received: 0x 62 F1 FD 03
+54) No response is received
+55) -
+56) Positive response is received: 0x 62 F1 FD 01
+57) -
+58) Positive response is received: 0x 62 F1 FD 02
+59) No response is received
+60) -
+61) Positive response is received: 0x 62 F1 FD 01
+62) -
+63) -
+64) -
+65) Positive response is received: 0x 62 F1 FD 01
+66) Negative response is received: 0x7F 67 7F
+67) -
+68) Positive response is received: 0x 62 F1 FD 01
+69) -
+70) Positive response is received: 0x 62 F1 FD 03
+71) Positive response is received: 0x67 01
+72) -
+73) Positive response is received: 0x 62 F1 FD 01
+74) -
+75) Positive response is received: 0x 62 F1 FD 02
+76) Negative response is received: 0x7F 67 7F
+77) -
+78) Positive response is received: 0x 62 F1 FD 01
+79) -
+80) Positive response is received: 0x 62 F1 FD 01
+81) Negative response is received: 0x7F 67 7F
+82) -
+83) Positive response is received: 0x 62 F1 FD 01
+84) -
+85) Positive response is received: 0x 62 F1 FD 03
+86) Positive response is received: 0x67 02
+87) -
+88) Positive response is received: 0x 62 F1 FD 01
+89) -
+90) Positive response is received: 0x 62 F1 FD 02
+91) Negative response is received: 0x7F 67 7F
+92) -
+93) Positive response is received: 0x 62 F1 FD 01
+94) -
+95) Positive response is received: 0x 62 F1 FD 01
+96) Negative response is received: 0x7F 67 7F
+97) -
+98) Positive response is received: 0x 62 F1 FD 01
+99) -
+100) Positive response is received: 0x 62 F1 FD 03
+101) Positive response is received: 0x67 01
+102) -
+103) Positive response is received: 0x 62 F1 FD 01
+104) -
+105) Positive response is received: 0x 62 F1 FD 02
+106) Negative response is received: 0x7F 67 7F
+107) -
+108) Positive response is received: 0x 62 F1 FD 01
+109) -
+110) Positive response is received: 0x 62 F1 FD 01
+111) Negative response is received: 0x7F 67 7F
+112) -
+113) Positive response is received: 0x 62 F1 FD 01
+114) -
+115) Positive response is received: 0x 62 F1 FD 03
+116) Positive response is received: 0x67 02
+117) -
+118) Positive response is received: 0x 62 F1 FD 01
+119) -
+120) Positive response is received: 0x 62 F1 FD 02
+121) Negative response is received: 0x7F 67 7F
+122) -
+123) Positive response is received: 0x 62 F1 FD 01
+124) -
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 0))
+2) DiagSessionCtrl(Default)
+3) RequestResponse(22f1fd, 62f1fd01, Equal)
+4) FunctionalMessage(2701, , None)
+5) wait(7000)
+6) RequestResponse(22f1fd, 62f1fd01, Equal)
+7) DiagSessionCtrl(Extended)
+8) RequestResponse(22f1fd, 62f1fd03, Equal)
+9) FunctionalMessage(2701, , None)
+10) wait(7000)
+11) RequestResponse(22f1fd, 62f1fd01, Equal)
+12) DiagSessionCtrl(Programming)
+13) RequestResponse(22f1fd, 62f1fd02, Equal)
+14) FunctionalMessage(2701, , None)
+15) wait(7000)
+16) RequestResponse(22f1fd, 62f1fd01, Equal)
+17) DiagSessionCtrl(Default)
+18) RequestResponse(22f1fd, 62f1fd01, Equal)
+19) FunctionalMessage(2702, , None)
+20) wait(7000)
+21) RequestResponse(22f1fd, 62f1fd01, Equal)
+22) DiagSessionCtrl(Extended)
+23) RequestResponse(22f1fd, 62f1fd03, Equal)
+24) FunctionalMessage(2702, , None)
+25) wait(7000)
+26) RequestResponse(22f1fd, 62f1fd01, Equal)
+27) DiagSessionCtrl(Programming)
+28) RequestResponse(22f1fd, 62f1fd02, Equal)
+29) FunctionalMessage(2702, , None)
+30) wait(7000)
+31) RequestResponse(22f1fd, 62f1fd01, Equal)
+32) DiagSessionCtrl(Default)
+33) RequestResponse(22f1fd, 62f1fd01, Equal)
+34) FunctionalMessage(2701, , None)
+35) wait(7000)
+36) RequestResponse(22f1fd, 62f1fd01, Equal)
+37) DiagSessionCtrl(Extended)
+38) RequestResponse(22f1fd, 62f1fd03, Equal)
+39) FunctionalMessage(2701, , None)
+40) wait(7000)
+41) RequestResponse(22f1fd, 62f1fd01, Equal)
+42) DiagSessionCtrl(Programming)
+43) RequestResponse(22f1fd, 62f1fd02, Equal)
+44) FunctionalMessage(2701, , None)
+45) wait(7000)
+46) RequestResponse(22f1fd, 62f1fd01, Equal)
+47) DiagSessionCtrl(Default)
+48) RequestResponse(22f1fd, 62f1fd01, Equal)
+49) FunctionalMessage(2702, , None)
+50) wait(7000)
+51) RequestResponse(22f1fd, 62f1fd01, Equal)
+52) DiagSessionCtrl(Extended)
+53) RequestResponse(22f1fd, 62f1fd03, Equal)
+54) FunctionalMessage(2702, , None)
+55) wait(7000)
+56) RequestResponse(22f1fd, 62f1fd01, Equal)
+57) DiagSessionCtrl(Programming)
+58) RequestResponse(22f1fd, 62f1fd02, Equal)
+59) FunctionalMessage(2702, , None)
+60) wait(7000)
+61) RequestResponse(22f1fd, 62f1fd01, Equal)
+62) envvar(EnvTesterPresentOnOff(0; 0))
+63) envvar(EnvTesterPresentOnOff(1; 0))
+64) DiagSessionCtrl(Default)
+65) RequestResponse(22f1fd, 62f1fd01, Equal)
+66) RequestResponse(2701, 7f677f, Equal)
+67) wait(7000)
+68) RequestResponse(22f1fd, 62f1fd01, Equal)
+69) DiagSessionCtrl(Extended)
+70) RequestResponse(22f1fd, 62f1fd03, Equal)
+71) RequestResponse(2701, 6701, Equal)
+72) wait(7000)
+73) RequestResponse(22f1fd, 62f1fd01, Equal)
+74) DiagSessionCtrl(Programming)
+75) RequestResponse(22f1fd, 62f1fd02, Equal)
+76) RequestResponse(2701, 7f677f, Equal)
+77) wait(7000)
+78) RequestResponse(22f1fd, 62f1fd01, Equal)
+79) DiagSessionCtrl(Default)
+80) RequestResponse(22f1fd, 62f1fd01, Equal)
+81) RequestResponse(2702, 7f677f, Equal)
+82) wait(7000)
+83) RequestResponse(22f1fd, 62f1fd01, Equal)
+84) DiagSessionCtrl(Extended)
+85) RequestResponse(22f1fd, 62f1fd03, Equal)
+86) RequestResponse(2702, 6702, Equal)
+87) wait(7000)
+88) RequestResponse(22f1fd, 62f1fd01, Equal)
+89) DiagSessionCtrl(Programming)
+90) RequestResponse(22f1fd, 62f1fd02, Equal)
+91) RequestResponse(2702, 7f677f, Equal)
+92) wait(7000)
+93) RequestResponse(22f1fd, 62f1fd01, Equal)
+94) DiagSessionCtrl(Default)
+95) RequestResponse(22f1fd, 62f1fd01, Equal)
+96) RequestResponse(2701, 7f677f, Equal)
+97) wait(7000)
+98) RequestResponse(22f1fd, 62f1fd01, Equal)
+99) DiagSessionCtrl(Extended)
+100) RequestResponse(22f1fd, 62f1fd03, Equal)
+101) RequestResponse(2701, 6701, Equal)
+102) wait(7000)
+103) RequestResponse(22f1fd, 62f1fd01, Equal)
+104) DiagSessionCtrl(Programming)
+105) RequestResponse(22f1fd, 62f1fd02, Equal)
+106) RequestResponse(2701, 7f677f, Equal)
+107) wait(7000)
+108) RequestResponse(22f1fd, 62f1fd01, Equal)
+109) DiagSessionCtrl(Default)
+110) RequestResponse(22f1fd, 62f1fd01, Equal)
+111) RequestResponse(2702, 7f677f, Equal)
+112) wait(7000)
+113) RequestResponse(22f1fd, 62f1fd01, Equal)
+114) DiagSessionCtrl(Extended)
+115) RequestResponse(22f1fd, 62f1fd03, Equal)
+116) RequestResponse(2702, 6702, Equal)
+117) wait(7000)
+118) RequestResponse(22f1fd, 62f1fd01, Equal)
+119) DiagSessionCtrl(Programming)
+120) RequestResponse(22f1fd, 62f1fd02, Equal)
+121) RequestResponse(2702, 7f677f, Equal)
+122) wait(7000)
+123) RequestResponse(22f1fd, 62f1fd01, Equal)
+124) envvar(EnvTesterPresentOnOff(0; 0))
+</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_32</t>
+  </si>
+  <si>
+    <t>2.6.3 Check suppress bit in service 0x27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 0
+2) Change to Default session with service 0x10 01
+3) Read active session with service 0x22 F1 FD
+4) Request security access with service 0x27 81 in Functional Addressing Mode
+5) Wait 7000 ms
+6) Read active session with service 0x22 F1 FD
+7) Change to Extended session with service 0x10 03
+8) Read active session with service 0x22 F1 FD
+9) Request security access with service 0x27 81 in Functional Addressing Mode
+10) Wait 7000 ms
+11) Read active session with service 0x22 F1 FD
+12) Change to Programming session with service 0x10 02
+13) Read active session with service 0x22 F1 FD
+14) Request security access with service 0x27 81 in Functional Addressing Mode
+15) Wait 7000 ms
+16) Read active session with service 0x22 F1 FD
+17) Change to Default session with service 0x10 01
+18) Read active session with service 0x22 F1 FD
+19) Request security access with service 0x27 82 in Functional Addressing Mode
+20) Wait 7000 ms
+21) Read active session with service 0x22 F1 FD
+22) Change to Extended session with service 0x10 03
+23) Read active session with service 0x22 F1 FD
+24) Request security access with service 0x27 82 in Functional Addressing Mode
+25) Wait 7000 ms
+26) Read active session with service 0x22 F1 FD
+27) Change to Programming session with service 0x10 02
+28) Read active session with service 0x22 F1 FD
+29) Request security access with service 0x27 82 in Functional Addressing Mode
+30) Wait 7000 ms
+31) Read active session with service 0x22 F1 FD
+32) Change to Default session with service 0x10 01
+33) Read active session with service 0x22 F1 FD
+34) Request security access with service 0x27 81 in Functional Addressing Mode
+35) Wait 7000 ms
+36) Read active session with service 0x22 F1 FD
+37) Change to Extended session with service 0x10 03
+38) Read active session with service 0x22 F1 FD
+39) Request security access with service 0x27 81 in Functional Addressing Mode
+40) Wait 7000 ms
+41) Read active session with service 0x22 F1 FD
+42) Change to Programming session with service 0x10 02
+43) Read active session with service 0x22 F1 FD
+44) Request security access with service 0x27 81 in Functional Addressing Mode
+45) Wait 7000 ms
+46) Read active session with service 0x22 F1 FD
+47) Change to Default session with service 0x10 01
+48) Read active session with service 0x22 F1 FD
+49) Request security access with service 0x27 82 in Functional Addressing Mode
+50) Wait 7000 ms
+51) Read active session with service 0x22 F1 FD
+52) Change to Extended session with service 0x10 03
+53) Read active session with service 0x22 F1 FD
+54) Request security access with service 0x27 82 in Functional Addressing Mode
+55) Wait 7000 ms
+56) Read active session with service 0x22 F1 FD
+57) Change to Programming session with service 0x10 02
+58) Read active session with service 0x22 F1 FD
+59) Request security access with service 0x27 82 in Functional Addressing Mode
+60) Wait 7000 ms
+61) Read active session with service 0x22 F1 FD
+62) Tester present OFF wait 0
+63) Tester present ON wait 0
+64) Change to Default session with service 0x10 01
+65) Read active session with service 0x22 F1 FD
+66) Request security access with service 0x27 81 in Physical Addressing Mode
+67) Wait 7000 ms
+68) Read active session with service 0x22 F1 FD
+69) Change to Extended session with service 0x10 03
+70) Read active session with service 0x22 F1 FD
+71) Request security access with service 0x27 81 in Physical Addressing Mode
+72) Wait 7000 ms
+73) Read active session with service 0x22 F1 FD
+74) Change to Programming session with service 0x10 02
+75) Read active session with service 0x22 F1 FD
+76) Request security access with service 0x27 81 in Physical Addressing Mode
+77) Wait 7000 ms
+78) Read active session with service 0x22 F1 FD
+79) Change to Default session with service 0x10 01
+80) Read active session with service 0x22 F1 FD
+81) Request security access with service 0x27 82 in Physical Addressing Mode
+82) Wait 7000 ms
+83) Read active session with service 0x22 F1 FD
+84) Change to Extended session with service 0x10 03
+85) Read active session with service 0x22 F1 FD
+86) Request security access with service 0x27 82 in Physical Addressing Mode
+87) Wait 7000 ms
+88) Read active session with service 0x22 F1 FD
+89) Change to Programming session with service 0x10 02
+90) Read active session with service 0x22 F1 FD
+91) Request security access with service 0x27 82 in Physical Addressing Mode
+92) Wait 7000 ms
+93) Read active session with service 0x22 F1 FD
+94) Change to Default session with service 0x10 01
+95) Read active session with service 0x22 F1 FD
+96) Request security access with service 0x27 81 in Physical Addressing Mode
+97) Wait 7000 ms
+98) Read active session with service 0x22 F1 FD
+99) Change to Extended session with service 0x10 03
+100) Read active session with service 0x22 F1 FD
+101) Request security access with service 0x27 81 in Physical Addressing Mode
+102) Wait 7000 ms
+103) Read active session with service 0x22 F1 FD
+104) Change to Programming session with service 0x10 02
+105) Read active session with service 0x22 F1 FD
+106) Request security access with service 0x27 81 in Physical Addressing Mode
+107) Wait 7000 ms
+108) Read active session with service 0x22 F1 FD
+109) Change to Default session with service 0x10 01
+110) Read active session with service 0x22 F1 FD
+111) Request security access with service 0x27 82 in Physical Addressing Mode
+112) Wait 7000 ms
+113) Read active session with service 0x22 F1 FD
+114) Change to Extended session with service 0x10 03
+115) Read active session with service 0x22 F1 FD
+116) Request security access with service 0x27 82 in Physical Addressing Mode
+117) Wait 7000 ms
+118) Read active session with service 0x22 F1 FD
+119) Change to Programming session with service 0x10 02
+120) Read active session with service 0x22 F1 FD
+121) Request security access with service 0x27 82 in Physical Addressing Mode
+122) Wait 7000 ms
+123) Read active session with service 0x22 F1 FD
+124) Tester present OFF wait 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) -
+2) -
+3) Positive response is received: 0x 62 F1 FD 01
+4) No response is received
+5) -
+6) Positive response is received: 0x 62 F1 FD 01
+7) -
+8) Positive response is received: 0x 62 F1 FD 03
+9) No response is received
+10) -
+11) Positive response is received: 0x 62 F1 FD 01
+12) -
+13) Positive response is received: 0x 62 F1 FD 02
+14) No response is received
+15) -
+16) Positive response is received: 0x 62 F1 FD 01
+17) -
+18) Positive response is received: 0x 62 F1 FD 01
+19) No response is received
+20) -
+21) Positive response is received: 0x 62 F1 FD 01
+22) -
+23) Positive response is received: 0x 62 F1 FD 03
+24) No response is received
+25) -
+26) Positive response is received: 0x 62 F1 FD 01
+27) -
+28) Positive response is received: 0x 62 F1 FD 02
+29) No response is received
+30) -
+31) Positive response is received: 0x 62 F1 FD 01
+32) -
+33) Positive response is received: 0x 62 F1 FD 01
+34) No response is received
+35) -
+36) Positive response is received: 0x 62 F1 FD 01
+37) -
+38) Positive response is received: 0x 62 F1 FD 03
+39) No response is received
+40) -
+41) Positive response is received: 0x 62 F1 FD 01
+42) -
+43) Positive response is received: 0x 62 F1 FD 02
+44) No response is received
+45) -
+46) Positive response is received: 0x 62 F1 FD 01
+47) -
+48) Positive response is received: 0x 62 F1 FD 01
+49) No response is received
+50) -
+51) Positive response is received: 0x 62 F1 FD 01
+52) -
+53) Positive response is received: 0x 62 F1 FD 03
+54) No response is received
+55) -
+56) Positive response is received: 0x 62 F1 FD 01
+57) -
+58) Positive response is received: 0x 62 F1 FD 02
+59) No response is received
+60) -
+61) Positive response is received: 0x 62 F1 FD 01
+62) -
+63) -
+64) -
+65) Positive response is received: 0x 62 F1 FD 01
+66) Negative response is received: 0x7F 67 7F
+67) -
+68) Positive response is received: 0x 62 F1 FD 01
+69) -
+70) Positive response is received: 0x 62 F1 FD 03
+71) No response is received
+72) -
+73) Positive response is received: 0x 62 F1 FD 01
+74) -
+75) Positive response is received: 0x 62 F1 FD 02
+76) Negative response is received: 0x7F 67 7F
+77) -
+78) Positive response is received: 0x 62 F1 FD 01
+79) -
+80) Positive response is received: 0x 62 F1 FD 01
+81) Negative response is received: 0x7F 67 7F
+82) -
+83) Positive response is received: 0x 62 F1 FD 01
+84) -
+85) Positive response is received: 0x 62 F1 FD 03
+86) No response is received
+87) -
+88) Positive response is received: 0x 62 F1 FD 01
+89) -
+90) Positive response is received: 0x 62 F1 FD 02
+91) Negative response is received: 0x7F 67 7F
+92) -
+93) Positive response is received: 0x 62 F1 FD 01
+94) -
+95) Positive response is received: 0x 62 F1 FD 01
+96) Negative response is received: 0x7F 67 7F
+97) -
+98) Positive response is received: 0x 62 F1 FD 01
+99) -
+100) Positive response is received: 0x 62 F1 FD 03
+101) No response is received
+102) -
+103) Positive response is received: 0x 62 F1 FD 01
+104) -
+105) Positive response is received: 0x 62 F1 FD 02
+106) Negative response is received: 0x7F 67 7F
+107) -
+108) Positive response is received: 0x 62 F1 FD 01
+109) -
+110) Positive response is received: 0x 62 F1 FD 01
+111) Negative response is received: 0x7F 67 7F
+112) -
+113) Positive response is received: 0x 62 F1 FD 01
+114) -
+115) Positive response is received: 0x 62 F1 FD 03
+116) No response is received
+117) -
+118) Positive response is received: 0x 62 F1 FD 01
+119) -
+120) Positive response is received: 0x 62 F1 FD 02
+121) Negative response is received: 0x7F 67 7F
+122) -
+123) Positive response is received: 0x 62 F1 FD 01
+124) -
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 0))
+2) DiagSessionCtrl(Default)
+3) RequestResponse(22f1fd, 62f1fd01, Equal)
+4) FunctionalMessage(2781, , None)
+5) wait(7000)
+6) RequestResponse(22f1fd, 62f1fd01, Equal)
+7) DiagSessionCtrl(Extended)
+8) RequestResponse(22f1fd, 62f1fd03, Equal)
+9) FunctionalMessage(2781, , None)
+10) wait(7000)
+11) RequestResponse(22f1fd, 62f1fd01, Equal)
+12) DiagSessionCtrl(Programming)
+13) RequestResponse(22f1fd, 62f1fd02, Equal)
+14) FunctionalMessage(2781, , None)
+15) wait(7000)
+16) RequestResponse(22f1fd, 62f1fd01, Equal)
+17) DiagSessionCtrl(Default)
+18) RequestResponse(22f1fd, 62f1fd01, Equal)
+19) FunctionalMessage(2782, , None)
+20) wait(7000)
+21) RequestResponse(22f1fd, 62f1fd01, Equal)
+22) DiagSessionCtrl(Extended)
+23) RequestResponse(22f1fd, 62f1fd03, Equal)
+24) FunctionalMessage(2782, , None)
+25) wait(7000)
+26) RequestResponse(22f1fd, 62f1fd01, Equal)
+27) DiagSessionCtrl(Programming)
+28) RequestResponse(22f1fd, 62f1fd02, Equal)
+29) FunctionalMessage(2782, , None)
+30) wait(7000)
+31) RequestResponse(22f1fd, 62f1fd01, Equal)
+32) DiagSessionCtrl(Default)
+33) RequestResponse(22f1fd, 62f1fd01, Equal)
+34) FunctionalMessage(2781, , None)
+35) wait(7000)
+36) RequestResponse(22f1fd, 62f1fd01, Equal)
+37) DiagSessionCtrl(Extended)
+38) RequestResponse(22f1fd, 62f1fd03, Equal)
+39) FunctionalMessage(2781, , None)
+40) wait(7000)
+41) RequestResponse(22f1fd, 62f1fd01, Equal)
+42) DiagSessionCtrl(Programming)
+43) RequestResponse(22f1fd, 62f1fd02, Equal)
+44) FunctionalMessage(2781, , None)
+45) wait(7000)
+46) RequestResponse(22f1fd, 62f1fd01, Equal)
+47) DiagSessionCtrl(Default)
+48) RequestResponse(22f1fd, 62f1fd01, Equal)
+49) FunctionalMessage(2782, , None)
+50) wait(7000)
+51) RequestResponse(22f1fd, 62f1fd01, Equal)
+52) DiagSessionCtrl(Extended)
+53) RequestResponse(22f1fd, 62f1fd03, Equal)
+54) FunctionalMessage(2782, , None)
+55) wait(7000)
+56) RequestResponse(22f1fd, 62f1fd01, Equal)
+57) DiagSessionCtrl(Programming)
+58) RequestResponse(22f1fd, 62f1fd02, Equal)
+59) FunctionalMessage(2782, , None)
+60) wait(7000)
+61) RequestResponse(22f1fd, 62f1fd01, Equal)
+62) envvar(EnvTesterPresentOnOff(0; 0))
+63) envvar(EnvTesterPresentOnOff(1; 0))
+64) DiagSessionCtrl(Default)
+65) RequestResponse(22f1fd, 62f1fd01, Equal)
+66) RequestResponse(2781, 7f677f, Equal)
+67) wait(7000)
+68) RequestResponse(22f1fd, 62f1fd01, Equal)
+69) DiagSessionCtrl(Extended)
+70) RequestResponse(22f1fd, 62f1fd03, Equal)
+71) RequestResponse(2781, , None)
+72) wait(7000)
+73) RequestResponse(22f1fd, 62f1fd01, Equal)
+74) DiagSessionCtrl(Programming)
+75) RequestResponse(22f1fd, 62f1fd02, Equal)
+76) RequestResponse(2781, 7f677f, Equal)
+77) wait(7000)
+78) RequestResponse(22f1fd, 62f1fd01, Equal)
+79) DiagSessionCtrl(Default)
+80) RequestResponse(22f1fd, 62f1fd01, Equal)
+81) RequestResponse(2782, 7f677f, Equal)
+82) wait(7000)
+83) RequestResponse(22f1fd, 62f1fd01, Equal)
+84) DiagSessionCtrl(Extended)
+85) RequestResponse(22f1fd, 62f1fd03, Equal)
+86) RequestResponse(2782, , None)
+87) wait(7000)
+88) RequestResponse(22f1fd, 62f1fd01, Equal)
+89) DiagSessionCtrl(Programming)
+90) RequestResponse(22f1fd, 62f1fd02, Equal)
+91) RequestResponse(2782, 7f677f, Equal)
+92) wait(7000)
+93) RequestResponse(22f1fd, 62f1fd01, Equal)
+94) DiagSessionCtrl(Default)
+95) RequestResponse(22f1fd, 62f1fd01, Equal)
+96) RequestResponse(2781, 7f677f, Equal)
+97) wait(7000)
+98) RequestResponse(22f1fd, 62f1fd01, Equal)
+99) DiagSessionCtrl(Extended)
+100) RequestResponse(22f1fd, 62f1fd03, Equal)
+101) RequestResponse(2781, , None)
+102) wait(7000)
+103) RequestResponse(22f1fd, 62f1fd01, Equal)
+104) DiagSessionCtrl(Programming)
+105) RequestResponse(22f1fd, 62f1fd02, Equal)
+106) RequestResponse(2781, 7f677f, Equal)
+107) wait(7000)
+108) RequestResponse(22f1fd, 62f1fd01, Equal)
+109) DiagSessionCtrl(Default)
+110) RequestResponse(22f1fd, 62f1fd01, Equal)
+111) RequestResponse(2782, 7f677f, Equal)
+112) wait(7000)
+113) RequestResponse(22f1fd, 62f1fd01, Equal)
+114) DiagSessionCtrl(Extended)
+115) RequestResponse(22f1fd, 62f1fd03, Equal)
+116) RequestResponse(2782, , None)
+117) wait(7000)
+118) RequestResponse(22f1fd, 62f1fd01, Equal)
+119) DiagSessionCtrl(Programming)
+120) RequestResponse(22f1fd, 62f1fd02, Equal)
+121) RequestResponse(2782, 7f677f, Equal)
+122) wait(7000)
+123) RequestResponse(22f1fd, 62f1fd01, Equal)
+124) envvar(EnvTesterPresentOnOff(0; 0))
+</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_33</t>
+  </si>
+  <si>
+    <t>2.7 Service 28h - Communication Control</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_34</t>
+  </si>
+  <si>
+    <t>2.7.1 Check all allowed diagnostic sessions in service 0x28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 100
+2) Change to Default session with service 0x10 01
+3) Read active session with service 0x22 F1 FD
+4) Request communication control with service 0x28 00 in Physical Addressing Mode
+5) Wait 7000 ms
+6) Read active session with service 0x22 F1 FD
+7) Change to Extended session with service 0x10 03
+8) Read active session with service 0x22 F1 FD
+9) Request communication control with service 0x28 00 in Physical Addressing Mode
+10) Wait 7000 ms
+11) Read active session with service 0x22 F1 FD
+12) Change to Programming session with service 0x10 02
+13) Read active session with service 0x22 F1 FD
+14) Request communication control with service 0x28 00 in Physical Addressing Mode
+15) Wait 7000 ms
+16) Read active session with service 0x22 F1 FD
+17) Change to Default session with service 0x10 01
+18) Read active session with service 0x22 F1 FD
+19) Request communication control with service 0x28 01 in Physical Addressing Mode
+20) Wait 7000 ms
+21) Read active session with service 0x22 F1 FD
+22) Change to Extended session with service 0x10 03
+23) Read active session with service 0x22 F1 FD
+24) Request communication control with service 0x28 01 in Physical Addressing Mode
+25) Wait 7000 ms
+26) Read active session with service 0x22 F1 FD
+27) Change to Programming session with service 0x10 02
+28) Read active session with service 0x22 F1 FD
+29) Request communication control with service 0x28 01 in Physical Addressing Mode
+30) Wait 7000 ms
+31) Read active session with service 0x22 F1 FD
+32) Change to Default session with service 0x10 01
+33) Read active session with service 0x22 F1 FD
+34) Request communication control with service 0x28 02 in Physical Addressing Mode
+35) Wait 7000 ms
+36) Read active session with service 0x22 F1 FD
+37) Change to Extended session with service 0x10 03
+38) Read active session with service 0x22 F1 FD
+39) Request communication control with service 0x28 02 in Physical Addressing Mode
+40) Wait 7000 ms
+41) Read active session with service 0x22 F1 FD
+42) Change to Programming session with service 0x10 02
+43) Read active session with service 0x22 F1 FD
+44) Request communication control with service 0x28 02 in Physical Addressing Mode
+45) Wait 7000 ms
+46) Read active session with service 0x22 F1 FD
+47) Change to Default session with service 0x10 01
+48) Read active session with service 0x22 F1 FD
+49) Request communication control with service 0x28 03 in Physical Addressing Mode
+50) Wait 7000 ms
+51) Read active session with service 0x22 F1 FD
+52) Change to Extended session with service 0x10 03
+53) Read active session with service 0x22 F1 FD
+54) Request communication control with service 0x28 03 in Physical Addressing Mode
+55) Wait 7000 ms
+56) Read active session with service 0x22 F1 FD
+57) Change to Programming session with service 0x10 02
+58) Read active session with service 0x22 F1 FD
+59) Request communication control with service 0x28 03 in Physical Addressing Mode
+60) Wait 7000 ms
+61) Read active session with service 0x22 F1 FD
+62) Tester present OFF wait 100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) -
+2) -
+3) Positive response is received: 0x 62 F1 FD 01
+4) Negative response is received: 0x7F 68 7F
+5) -
+6) Positive response is received: 0x 62 F1 FD 01
+7) -
+8) Positive response is received: 0x 62 F1 FD 03
+9) No response is received
+10) -
+11) Positive response is received: 0x 62 F1 FD 01
+12) -
+13) Positive response is received: 0x 62 F1 FD 02
+14) Negative response is received: 0x7F 68 7F
+15) -
+16) Positive response is received: 0x 62 F1 FD 01
+17) -
+18) Positive response is received: 0x 62 F1 FD 01
+19) Negative response is received: 0x7F 68 7F
+20) -
+21) Positive response is received: 0x 62 F1 FD 01
+22) -
+23) Positive response is received: 0x 62 F1 FD 03
+24) No response is received
+25) -
+26) Positive response is received: 0x 62 F1 FD 01
+27) -
+28) Positive response is received: 0x 62 F1 FD 02
+29) Negative response is received: 0x7F 68 7F
+30) -
+31) Positive response is received: 0x 62 F1 FD 01
+32) -
+33) Positive response is received: 0x 62 F1 FD 01
+34) Negative response is received: 0x7F 68 7F
+35) -
+36) Positive response is received: 0x 62 F1 FD 01
+37) -
+38) Positive response is received: 0x 62 F1 FD 03
+39) No response is received
+40) -
+41) Positive response is received: 0x 62 F1 FD 01
+42) -
+43) Positive response is received: 0x 62 F1 FD 02
+44) Negative response is received: 0x7F 68 7F
+45) -
+46) Positive response is received: 0x 62 F1 FD 01
+47) -
+48) Positive response is received: 0x 62 F1 FD 01
+49) Negative response is received: 0x7F 68 7F
+50) -
+51) Positive response is received: 0x 62 F1 FD 01
+52) -
+53) Positive response is received: 0x 62 F1 FD 03
+54) No response is received
+55) -
+56) Positive response is received: 0x 62 F1 FD 01
+57) -
+58) Positive response is received: 0x 62 F1 FD 02
+59) Negative response is received: 0x7F 68 7F
+60) -
+61) Positive response is received: 0x 62 F1 FD 01
+62) -
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
+2) DiagSessionCtrl(Default)
+3) RequestResponse(22f1fd, 62f1fd01, Equal)
+4) RequestResponse(2800, 7f687f, Equal)
+5) wait(7000)
+6) RequestResponse(22f1fd, 62f1fd01, Equal)
+7) DiagSessionCtrl(Extended)
+8) RequestResponse(22f1fd, 62f1fd03, Equal)
+9) RequestResponse(2800, , None)
+10) wait(7000)
+11) RequestResponse(22f1fd, 62f1fd01, Equal)
+12) DiagSessionCtrl(Programming)
+13) RequestResponse(22f1fd, 62f1fd02, Equal)
+14) RequestResponse(2800, 7f687f, Equal)
+15) wait(7000)
+16) RequestResponse(22f1fd, 62f1fd01, Equal)
+17) DiagSessionCtrl(Default)
+18) RequestResponse(22f1fd, 62f1fd01, Equal)
+19) RequestResponse(2801, 7f687f, Equal)
+20) wait(7000)
+21) RequestResponse(22f1fd, 62f1fd01, Equal)
+22) DiagSessionCtrl(Extended)
+23) RequestResponse(22f1fd, 62f1fd03, Equal)
+24) RequestResponse(2801, , None)
+25) wait(7000)
+26) RequestResponse(22f1fd, 62f1fd01, Equal)
+27) DiagSessionCtrl(Programming)
+28) RequestResponse(22f1fd, 62f1fd02, Equal)
+29) RequestResponse(2801, 7f687f, Equal)
+30) wait(7000)
+31) RequestResponse(22f1fd, 62f1fd01, Equal)
+32) DiagSessionCtrl(Default)
+33) RequestResponse(22f1fd, 62f1fd01, Equal)
+34) RequestResponse(2802, 7f687f, Equal)
+35) wait(7000)
+36) RequestResponse(22f1fd, 62f1fd01, Equal)
+37) DiagSessionCtrl(Extended)
+38) RequestResponse(22f1fd, 62f1fd03, Equal)
+39) RequestResponse(2802, , None)
+40) wait(7000)
+41) RequestResponse(22f1fd, 62f1fd01, Equal)
+42) DiagSessionCtrl(Programming)
+43) RequestResponse(22f1fd, 62f1fd02, Equal)
+44) RequestResponse(2802, 7f687f, Equal)
+45) wait(7000)
+46) RequestResponse(22f1fd, 62f1fd01, Equal)
+47) DiagSessionCtrl(Default)
+48) RequestResponse(22f1fd, 62f1fd01, Equal)
+49) RequestResponse(2803, 7f687f, Equal)
+50) wait(7000)
+51) RequestResponse(22f1fd, 62f1fd01, Equal)
+52) DiagSessionCtrl(Extended)
+53) RequestResponse(22f1fd, 62f1fd03, Equal)
+54) RequestResponse(2803, , None)
+55) wait(7000)
+56) RequestResponse(22f1fd, 62f1fd01, Equal)
+57) DiagSessionCtrl(Programming)
+58) RequestResponse(22f1fd, 62f1fd02, Equal)
+59) RequestResponse(2803, 7f687f, Equal)
+60) wait(7000)
+61) RequestResponse(22f1fd, 62f1fd01, Equal)
+62) envvar(EnvTesterPresentOnOff(0; 100))
+</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_35</t>
+  </si>
+  <si>
+    <t>2.7.2 Check all supported addressing mode in service 0x28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 0
+2) Change to Default session with service 0x10 01
+3) Read active session with service 0x22 F1 FD
+4) Request communication control with service 0x28 00 in Functional Addressing Mode
+5) Wait 7000 ms
+6) Read active session with service 0x22 F1 FD
+7) Change to Extended session with service 0x10 03
+8) Read active session with service 0x22 F1 FD
+9) Request communication control with service 0x28 00 in Functional Addressing Mode
+10) Wait 7000 ms
+11) Read active session with service 0x22 F1 FD
+12) Change to Programming session with service 0x10 02
+13) Read active session with service 0x22 F1 FD
+14) Request communication control with service 0x28 00 in Functional Addressing Mode
+15) Wait 7000 ms
+16) Read active session with service 0x22 F1 FD
+17) Change to Default session with service 0x10 01
+18) Read active session with service 0x22 F1 FD
+19) Request communication control with service 0x28 01 in Functional Addressing Mode
+20) Wait 7000 ms
+21) Read active session with service 0x22 F1 FD
+22) Change to Extended session with service 0x10 03
+23) Read active session with service 0x22 F1 FD
+24) Request communication control with service 0x28 01 in Functional Addressing Mode
+25) Wait 7000 ms
+26) Read active session with service 0x22 F1 FD
+27) Change to Programming session with service 0x10 02
+28) Read active session with service 0x22 F1 FD
+29) Request communication control with service 0x28 01 in Functional Addressing Mode
+30) Wait 7000 ms
+31) Read active session with service 0x22 F1 FD
+32) Change to Default session with service 0x10 01
+33) Read active session with service 0x22 F1 FD
+34) Request communication control with service 0x28 02 in Functional Addressing Mode
+35) Wait 7000 ms
+36) Read active session with service 0x22 F1 FD
+37) Change to Extended session with service 0x10 03
+38) Read active session with service 0x22 F1 FD
+39) Request communication control with service 0x28 02 in Functional Addressing Mode
+40) Wait 7000 ms
+41) Read active session with service 0x22 F1 FD
+42) Change to Programming session with service 0x10 02
+43) Read active session with service 0x22 F1 FD
+44) Request communication control with service 0x28 02 in Functional Addressing Mode
+45) Wait 7000 ms
+46) Read active session with service 0x22 F1 FD
+47) Change to Default session with service 0x10 01
+48) Read active session with service 0x22 F1 FD
+49) Request communication control with service 0x28 03 in Functional Addressing Mode
+50) Wait 7000 ms
+51) Read active session with service 0x22 F1 FD
+52) Change to Extended session with service 0x10 03
+53) Read active session with service 0x22 F1 FD
+54) Request communication control with service 0x28 03 in Functional Addressing Mode
+55) Wait 7000 ms
+56) Read active session with service 0x22 F1 FD
+57) Change to Programming session with service 0x10 02
+58) Read active session with service 0x22 F1 FD
+59) Request communication control with service 0x28 03 in Functional Addressing Mode
+60) Wait 7000 ms
+61) Read active session with service 0x22 F1 FD
+62) Tester present OFF wait 0
+63) Tester present ON wait 0
+64) Change to Default session with service 0x10 01
+65) Read active session with service 0x22 F1 FD
+66) Request communication control with service 0x28 00 in Physical Addressing Mode
+67) Wait 7000 ms
+68) Read active session with service 0x22 F1 FD
+69) Change to Extended session with service 0x10 03
+70) Read active session with service 0x22 F1 FD
+71) Request communication control with service 0x28 00 in Physical Addressing Mode
+72) Wait 7000 ms
+73) Read active session with service 0x22 F1 FD
+74) Change to Programming session with service 0x10 02
+75) Read active session with service 0x22 F1 FD
+76) Request communication control with service 0x28 00 in Physical Addressing Mode
+77) Wait 7000 ms
+78) Read active session with service 0x22 F1 FD
+79) Change to Default session with service 0x10 01
+80) Read active session with service 0x22 F1 FD
+81) Request communication control with service 0x28 01 in Physical Addressing Mode
+82) Wait 7000 ms
+83) Read active session with service 0x22 F1 FD
+84) Change to Extended session with service 0x10 03
+85) Read active session with service 0x22 F1 FD
+86) Request communication control with service 0x28 01 in Physical Addressing Mode
+87) Wait 7000 ms
+88) Read active session with service 0x22 F1 FD
+89) Change to Programming session with service 0x10 02
+90) Read active session with service 0x22 F1 FD
+91) Request communication control with service 0x28 01 in Physical Addressing Mode
+92) Wait 7000 ms
+93) Read active session with service 0x22 F1 FD
+94) Change to Default session with service 0x10 01
+95) Read active session with service 0x22 F1 FD
+96) Request communication control with service 0x28 02 in Physical Addressing Mode
+97) Wait 7000 ms
+98) Read active session with service 0x22 F1 FD
+99) Change to Extended session with service 0x10 03
+100) Read active session with service 0x22 F1 FD
+101) Request communication control with service 0x28 02 in Physical Addressing Mode
+102) Wait 7000 ms
+103) Read active session with service 0x22 F1 FD
+104) Change to Programming session with service 0x10 02
+105) Read active session with service 0x22 F1 FD
+106) Request communication control with service 0x28 02 in Physical Addressing Mode
+107) Wait 7000 ms
+108) Read active session with service 0x22 F1 FD
+109) Change to Default session with service 0x10 01
+110) Read active session with service 0x22 F1 FD
+111) Request communication control with service 0x28 03 in Physical Addressing Mode
+112) Wait 7000 ms
+113) Read active session with service 0x22 F1 FD
+114) Change to Extended session with service 0x10 03
+115) Read active session with service 0x22 F1 FD
+116) Request communication control with service 0x28 03 in Physical Addressing Mode
+117) Wait 7000 ms
+118) Read active session with service 0x22 F1 FD
+119) Change to Programming session with service 0x10 02
+120) Read active session with service 0x22 F1 FD
+121) Request communication control with service 0x28 03 in Physical Addressing Mode
+122) Wait 7000 ms
+123) Read active session with service 0x22 F1 FD
+124) Tester present OFF wait 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) -
+2) -
+3) Positive response is received: 0x 62 F1 FD 01
+4) No response is received
+5) -
+6) Positive response is received: 0x 62 F1 FD 01
+7) -
+8) Positive response is received: 0x 62 F1 FD 03
+9) No response is received
+10) -
+11) Positive response is received: 0x 62 F1 FD 01
+12) -
+13) Positive response is received: 0x 62 F1 FD 02
+14) No response is received
+15) -
+16) Positive response is received: 0x 62 F1 FD 01
+17) -
+18) Positive response is received: 0x 62 F1 FD 01
+19) No response is received
+20) -
+21) Positive response is received: 0x 62 F1 FD 01
+22) -
+23) Positive response is received: 0x 62 F1 FD 03
+24) No response is received
+25) -
+26) Positive response is received: 0x 62 F1 FD 01
+27) -
+28) Positive response is received: 0x 62 F1 FD 02
+29) No response is received
+30) -
+31) Positive response is received: 0x 62 F1 FD 01
+32) -
+33) Positive response is received: 0x 62 F1 FD 01
+34) No response is received
+35) -
+36) Positive response is received: 0x 62 F1 FD 01
+37) -
+38) Positive response is received: 0x 62 F1 FD 03
+39) No response is received
+40) -
+41) Positive response is received: 0x 62 F1 FD 01
+42) -
+43) Positive response is received: 0x 62 F1 FD 02
+44) No response is received
+45) -
+46) Positive response is received: 0x 62 F1 FD 01
+47) -
+48) Positive response is received: 0x 62 F1 FD 01
+49) No response is received
+50) -
+51) Positive response is received: 0x 62 F1 FD 01
+52) -
+53) Positive response is received: 0x 62 F1 FD 03
+54) No response is received
+55) -
+56) Positive response is received: 0x 62 F1 FD 01
+57) -
+58) Positive response is received: 0x 62 F1 FD 02
+59) No response is received
+60) -
+61) Positive response is received: 0x 62 F1 FD 01
+62) -
+63) -
+64) -
+65) Positive response is received: 0x 62 F1 FD 01
+66) Negative response is received: 0x7F 68 7F
+67) -
+68) Positive response is received: 0x 62 F1 FD 01
+69) -
+70) Positive response is received: 0x 62 F1 FD 03
+71) No response is received
+72) -
+73) Positive response is received: 0x 62 F1 FD 01
+74) -
+75) Positive response is received: 0x 62 F1 FD 02
+76) Negative response is received: 0x7F 68 7F
+77) -
+78) Positive response is received: 0x 62 F1 FD 01
+79) -
+80) Positive response is received: 0x 62 F1 FD 01
+81) Negative response is received: 0x7F 68 7F
+82) -
+83) Positive response is received: 0x 62 F1 FD 01
+84) -
+85) Positive response is received: 0x 62 F1 FD 03
+86) No response is received
+87) -
+88) Positive response is received: 0x 62 F1 FD 01
+89) -
+90) Positive response is received: 0x 62 F1 FD 02
+91) Negative response is received: 0x7F 68 7F
+92) -
+93) Positive response is received: 0x 62 F1 FD 01
+94) -
+95) Positive response is received: 0x 62 F1 FD 01
+96) Negative response is received: 0x7F 68 7F
+97) -
+98) Positive response is received: 0x 62 F1 FD 01
+99) -
+100) Positive response is received: 0x 62 F1 FD 03
+101) No response is received
+102) -
+103) Positive response is received: 0x 62 F1 FD 01
+104) -
+105) Positive response is received: 0x 62 F1 FD 02
+106) Negative response is received: 0x7F 68 7F
+107) -
+108) Positive response is received: 0x 62 F1 FD 01
+109) -
+110) Positive response is received: 0x 62 F1 FD 01
+111) Negative response is received: 0x7F 68 7F
+112) -
+113) Positive response is received: 0x 62 F1 FD 01
+114) -
+115) Positive response is received: 0x 62 F1 FD 03
+116) No response is received
+117) -
+118) Positive response is received: 0x 62 F1 FD 01
+119) -
+120) Positive response is received: 0x 62 F1 FD 02
+121) Negative response is received: 0x7F 68 7F
+122) -
+123) Positive response is received: 0x 62 F1 FD 01
+124) -
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 0))
+2) DiagSessionCtrl(Default)
+3) RequestResponse(22f1fd, 62f1fd01, Equal)
+4) FunctionalMessage(2800, , None)
+5) wait(7000)
+6) RequestResponse(22f1fd, 62f1fd01, Equal)
+7) DiagSessionCtrl(Extended)
+8) RequestResponse(22f1fd, 62f1fd03, Equal)
+9) FunctionalMessage(2800, , None)
+10) wait(7000)
+11) RequestResponse(22f1fd, 62f1fd01, Equal)
+12) DiagSessionCtrl(Programming)
+13) RequestResponse(22f1fd, 62f1fd02, Equal)
+14) FunctionalMessage(2800, , None)
+15) wait(7000)
+16) RequestResponse(22f1fd, 62f1fd01, Equal)
+17) DiagSessionCtrl(Default)
+18) RequestResponse(22f1fd, 62f1fd01, Equal)
+19) FunctionalMessage(2801, , None)
+20) wait(7000)
+21) RequestResponse(22f1fd, 62f1fd01, Equal)
+22) DiagSessionCtrl(Extended)
+23) RequestResponse(22f1fd, 62f1fd03, Equal)
+24) FunctionalMessage(2801, , None)
+25) wait(7000)
+26) RequestResponse(22f1fd, 62f1fd01, Equal)
+27) DiagSessionCtrl(Programming)
+28) RequestResponse(22f1fd, 62f1fd02, Equal)
+29) FunctionalMessage(2801, , None)
+30) wait(7000)
+31) RequestResponse(22f1fd, 62f1fd01, Equal)
+32) DiagSessionCtrl(Default)
+33) RequestResponse(22f1fd, 62f1fd01, Equal)
+34) FunctionalMessage(2802, , None)
+35) wait(7000)
+36) RequestResponse(22f1fd, 62f1fd01, Equal)
+37) DiagSessionCtrl(Extended)
+38) RequestResponse(22f1fd, 62f1fd03, Equal)
+39) FunctionalMessage(2802, , None)
+40) wait(7000)
+41) RequestResponse(22f1fd, 62f1fd01, Equal)
+42) DiagSessionCtrl(Programming)
+43) RequestResponse(22f1fd, 62f1fd02, Equal)
+44) FunctionalMessage(2802, , None)
+45) wait(7000)
+46) RequestResponse(22f1fd, 62f1fd01, Equal)
+47) DiagSessionCtrl(Default)
+48) RequestResponse(22f1fd, 62f1fd01, Equal)
+49) FunctionalMessage(2803, , None)
+50) wait(7000)
+51) RequestResponse(22f1fd, 62f1fd01, Equal)
+52) DiagSessionCtrl(Extended)
+53) RequestResponse(22f1fd, 62f1fd03, Equal)
+54) FunctionalMessage(2803, , None)
+55) wait(7000)
+56) RequestResponse(22f1fd, 62f1fd01, Equal)
+57) DiagSessionCtrl(Programming)
+58) RequestResponse(22f1fd, 62f1fd02, Equal)
+59) FunctionalMessage(2803, , None)
+60) wait(7000)
+61) RequestResponse(22f1fd, 62f1fd01, Equal)
+62) envvar(EnvTesterPresentOnOff(0; 0))
+63) envvar(EnvTesterPresentOnOff(1; 0))
+64) DiagSessionCtrl(Default)
+65) RequestResponse(22f1fd, 62f1fd01, Equal)
+66) RequestResponse(2800, 7f687f, Equal)
+67) wait(7000)
+68) RequestResponse(22f1fd, 62f1fd01, Equal)
+69) DiagSessionCtrl(Extended)
+70) RequestResponse(22f1fd, 62f1fd03, Equal)
+71) RequestResponse(2800, , None)
+72) wait(7000)
+73) RequestResponse(22f1fd, 62f1fd01, Equal)
+74) DiagSessionCtrl(Programming)
+75) RequestResponse(22f1fd, 62f1fd02, Equal)
+76) RequestResponse(2800, 7f687f, Equal)
+77) wait(7000)
+78) RequestResponse(22f1fd, 62f1fd01, Equal)
+79) DiagSessionCtrl(Default)
+80) RequestResponse(22f1fd, 62f1fd01, Equal)
+81) RequestResponse(2801, 7f687f, Equal)
+82) wait(7000)
+83) RequestResponse(22f1fd, 62f1fd01, Equal)
+84) DiagSessionCtrl(Extended)
+85) RequestResponse(22f1fd, 62f1fd03, Equal)
+86) RequestResponse(2801, , None)
+87) wait(7000)
+88) RequestResponse(22f1fd, 62f1fd01, Equal)
+89) DiagSessionCtrl(Programming)
+90) RequestResponse(22f1fd, 62f1fd02, Equal)
+91) RequestResponse(2801, 7f687f, Equal)
+92) wait(7000)
+93) RequestResponse(22f1fd, 62f1fd01, Equal)
+94) DiagSessionCtrl(Default)
+95) RequestResponse(22f1fd, 62f1fd01, Equal)
+96) RequestResponse(2802, 7f687f, Equal)
+97) wait(7000)
+98) RequestResponse(22f1fd, 62f1fd01, Equal)
+99) DiagSessionCtrl(Extended)
+100) RequestResponse(22f1fd, 62f1fd03, Equal)
+101) RequestResponse(2802, , None)
+102) wait(7000)
+103) RequestResponse(22f1fd, 62f1fd01, Equal)
+104) DiagSessionCtrl(Programming)
+105) RequestResponse(22f1fd, 62f1fd02, Equal)
+106) RequestResponse(2802, 7f687f, Equal)
+107) wait(7000)
+108) RequestResponse(22f1fd, 62f1fd01, Equal)
+109) DiagSessionCtrl(Default)
+110) RequestResponse(22f1fd, 62f1fd01, Equal)
+111) RequestResponse(2803, 7f687f, Equal)
+112) wait(7000)
+113) RequestResponse(22f1fd, 62f1fd01, Equal)
+114) DiagSessionCtrl(Extended)
+115) RequestResponse(22f1fd, 62f1fd03, Equal)
+116) RequestResponse(2803, , None)
+117) wait(7000)
+118) RequestResponse(22f1fd, 62f1fd01, Equal)
+119) DiagSessionCtrl(Programming)
+120) RequestResponse(22f1fd, 62f1fd02, Equal)
+121) RequestResponse(2803, 7f687f, Equal)
+122) wait(7000)
+123) RequestResponse(22f1fd, 62f1fd01, Equal)
+124) envvar(EnvTesterPresentOnOff(0; 0))
+</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_36</t>
+  </si>
+  <si>
+    <t>2.7.3 Check suppress bit in service 0x28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 0
+2) Change to Default session with service 0x10 01
+3) Read active session with service 0x22 F1 FD
+4) Request communication control with service 0x28 80 in Functional Addressing Mode
+5) Wait 7000 ms
+6) Read active session with service 0x22 F1 FD
+7) Change to Extended session with service 0x10 03
+8) Read active session with service 0x22 F1 FD
+9) Request communication control with service 0x28 80 in Functional Addressing Mode
+10) Wait 7000 ms
+11) Read active session with service 0x22 F1 FD
+12) Change to Programming session with service 0x10 02
+13) Read active session with service 0x22 F1 FD
+14) Request communication control with service 0x28 80 in Functional Addressing Mode
+15) Wait 7000 ms
+16) Read active session with service 0x22 F1 FD
+17) Change to Default session with service 0x10 01
+18) Read active session with service 0x22 F1 FD
+19) Request communication control with service 0x28 81 in Functional Addressing Mode
+20) Wait 7000 ms
+21) Read active session with service 0x22 F1 FD
+22) Change to Extended session with service 0x10 03
+23) Read active session with service 0x22 F1 FD
+24) Request communication control with service 0x28 81 in Functional Addressing Mode
+25) Wait 7000 ms
+26) Read active session with service 0x22 F1 FD
+27) Change to Programming session with service 0x10 02
+28) Read active session with service 0x22 F1 FD
+29) Request communication control with service 0x28 81 in Functional Addressing Mode
+30) Wait 7000 ms
+31) Read active session with service 0x22 F1 FD
+32) Change to Default session with service 0x10 01
+33) Read active session with service 0x22 F1 FD
+34) Request communication control with service 0x28 82 in Functional Addressing Mode
+35) Wait 7000 ms
+36) Read active session with service 0x22 F1 FD
+37) Change to Extended session with service 0x10 03
+38) Read active session with service 0x22 F1 FD
+39) Request communication control with service 0x28 82 in Functional Addressing Mode
+40) Wait 7000 ms
+41) Read active session with service 0x22 F1 FD
+42) Change to Programming session with service 0x10 02
+43) Read active session with service 0x22 F1 FD
+44) Request communication control with service 0x28 82 in Functional Addressing Mode
+45) Wait 7000 ms
+46) Read active session with service 0x22 F1 FD
+47) Change to Default session with service 0x10 01
+48) Read active session with service 0x22 F1 FD
+49) Request communication control with service 0x28 83 in Functional Addressing Mode
+50) Wait 7000 ms
+51) Read active session with service 0x22 F1 FD
+52) Change to Extended session with service 0x10 03
+53) Read active session with service 0x22 F1 FD
+54) Request communication control with service 0x28 83 in Functional Addressing Mode
+55) Wait 7000 ms
+56) Read active session with service 0x22 F1 FD
+57) Change to Programming session with service 0x10 02
+58) Read active session with service 0x22 F1 FD
+59) Request communication control with service 0x28 83 in Functional Addressing Mode
+60) Wait 7000 ms
+61) Read active session with service 0x22 F1 FD
+62) Tester present OFF wait 0
+63) Tester present ON wait 0
+64) Change to Default session with service 0x10 01
+65) Read active session with service 0x22 F1 FD
+66) Request communication control with service 0x28 80 in Physical Addressing Mode
+67) Wait 7000 ms
+68) Read active session with service 0x22 F1 FD
+69) Change to Extended session with service 0x10 03
+70) Read active session with service 0x22 F1 FD
+71) Request communication control with service 0x28 80 in Physical Addressing Mode
+72) Wait 7000 ms
+73) Read active session with service 0x22 F1 FD
+74) Change to Programming session with service 0x10 02
+75) Read active session with service 0x22 F1 FD
+76) Request communication control with service 0x28 80 in Physical Addressing Mode
+77) Wait 7000 ms
+78) Read active session with service 0x22 F1 FD
+79) Change to Default session with service 0x10 01
+80) Read active session with service 0x22 F1 FD
+81) Request communication control with service 0x28 81 in Physical Addressing Mode
+82) Wait 7000 ms
+83) Read active session with service 0x22 F1 FD
+84) Change to Extended session with service 0x10 03
+85) Read active session with service 0x22 F1 FD
+86) Request communication control with service 0x28 81 in Physical Addressing Mode
+87) Wait 7000 ms
+88) Read active session with service 0x22 F1 FD
+89) Change to Programming session with service 0x10 02
+90) Read active session with service 0x22 F1 FD
+91) Request communication control with service 0x28 81 in Physical Addressing Mode
+92) Wait 7000 ms
+93) Read active session with service 0x22 F1 FD
+94) Change to Default session with service 0x10 01
+95) Read active session with service 0x22 F1 FD
+96) Request communication control with service 0x28 82 in Physical Addressing Mode
+97) Wait 7000 ms
+98) Read active session with service 0x22 F1 FD
+99) Change to Extended session with service 0x10 03
+100) Read active session with service 0x22 F1 FD
+101) Request communication control with service 0x28 82 in Physical Addressing Mode
+102) Wait 7000 ms
+103) Read active session with service 0x22 F1 FD
+104) Change to Programming session with service 0x10 02
+105) Read active session with service 0x22 F1 FD
+106) Request communication control with service 0x28 82 in Physical Addressing Mode
+107) Wait 7000 ms
+108) Read active session with service 0x22 F1 FD
+109) Change to Default session with service 0x10 01
+110) Read active session with service 0x22 F1 FD
+111) Request communication control with service 0x28 83 in Physical Addressing Mode
+112) Wait 7000 ms
+113) Read active session with service 0x22 F1 FD
+114) Change to Extended session with service 0x10 03
+115) Read active session with service 0x22 F1 FD
+116) Request communication control with service 0x28 83 in Physical Addressing Mode
+117) Wait 7000 ms
+118) Read active session with service 0x22 F1 FD
+119) Change to Programming session with service 0x10 02
+120) Read active session with service 0x22 F1 FD
+121) Request communication control with service 0x28 83 in Physical Addressing Mode
+122) Wait 7000 ms
+123) Read active session with service 0x22 F1 FD
+124) Tester present OFF wait 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 0))
+2) DiagSessionCtrl(Default)
+3) RequestResponse(22f1fd, 62f1fd01, Equal)
+4) FunctionalMessage(2880, , None)
+5) wait(7000)
+6) RequestResponse(22f1fd, 62f1fd01, Equal)
+7) DiagSessionCtrl(Extended)
+8) RequestResponse(22f1fd, 62f1fd03, Equal)
+9) FunctionalMessage(2880, , None)
+10) wait(7000)
+11) RequestResponse(22f1fd, 62f1fd01, Equal)
+12) DiagSessionCtrl(Programming)
+13) RequestResponse(22f1fd, 62f1fd02, Equal)
+14) FunctionalMessage(2880, , None)
+15) wait(7000)
+16) RequestResponse(22f1fd, 62f1fd01, Equal)
+17) DiagSessionCtrl(Default)
+18) RequestResponse(22f1fd, 62f1fd01, Equal)
+19) FunctionalMessage(2881, , None)
+20) wait(7000)
+21) RequestResponse(22f1fd, 62f1fd01, Equal)
+22) DiagSessionCtrl(Extended)
+23) RequestResponse(22f1fd, 62f1fd03, Equal)
+24) FunctionalMessage(2881, , None)
+25) wait(7000)
+26) RequestResponse(22f1fd, 62f1fd01, Equal)
+27) DiagSessionCtrl(Programming)
+28) RequestResponse(22f1fd, 62f1fd02, Equal)
+29) FunctionalMessage(2881, , None)
+30) wait(7000)
+31) RequestResponse(22f1fd, 62f1fd01, Equal)
+32) DiagSessionCtrl(Default)
+33) RequestResponse(22f1fd, 62f1fd01, Equal)
+34) FunctionalMessage(2882, , None)
+35) wait(7000)
+36) RequestResponse(22f1fd, 62f1fd01, Equal)
+37) DiagSessionCtrl(Extended)
+38) RequestResponse(22f1fd, 62f1fd03, Equal)
+39) FunctionalMessage(2882, , None)
+40) wait(7000)
+41) RequestResponse(22f1fd, 62f1fd01, Equal)
+42) DiagSessionCtrl(Programming)
+43) RequestResponse(22f1fd, 62f1fd02, Equal)
+44) FunctionalMessage(2882, , None)
+45) wait(7000)
+46) RequestResponse(22f1fd, 62f1fd01, Equal)
+47) DiagSessionCtrl(Default)
+48) RequestResponse(22f1fd, 62f1fd01, Equal)
+49) FunctionalMessage(2883, , None)
+50) wait(7000)
+51) RequestResponse(22f1fd, 62f1fd01, Equal)
+52) DiagSessionCtrl(Extended)
+53) RequestResponse(22f1fd, 62f1fd03, Equal)
+54) FunctionalMessage(2883, , None)
+55) wait(7000)
+56) RequestResponse(22f1fd, 62f1fd01, Equal)
+57) DiagSessionCtrl(Programming)
+58) RequestResponse(22f1fd, 62f1fd02, Equal)
+59) FunctionalMessage(2883, , None)
+60) wait(7000)
+61) RequestResponse(22f1fd, 62f1fd01, Equal)
+62) envvar(EnvTesterPresentOnOff(0; 0))
+63) envvar(EnvTesterPresentOnOff(1; 0))
+64) DiagSessionCtrl(Default)
+65) RequestResponse(22f1fd, 62f1fd01, Equal)
+66) RequestResponse(2880, 7f687f, Equal)
+67) wait(7000)
+68) RequestResponse(22f1fd, 62f1fd01, Equal)
+69) DiagSessionCtrl(Extended)
+70) RequestResponse(22f1fd, 62f1fd03, Equal)
+71) RequestResponse(2880, , None)
+72) wait(7000)
+73) RequestResponse(22f1fd, 62f1fd01, Equal)
+74) DiagSessionCtrl(Programming)
+75) RequestResponse(22f1fd, 62f1fd02, Equal)
+76) RequestResponse(2880, 7f687f, Equal)
+77) wait(7000)
+78) RequestResponse(22f1fd, 62f1fd01, Equal)
+79) DiagSessionCtrl(Default)
+80) RequestResponse(22f1fd, 62f1fd01, Equal)
+81) RequestResponse(2881, 7f687f, Equal)
+82) wait(7000)
+83) RequestResponse(22f1fd, 62f1fd01, Equal)
+84) DiagSessionCtrl(Extended)
+85) RequestResponse(22f1fd, 62f1fd03, Equal)
+86) RequestResponse(2881, , None)
+87) wait(7000)
+88) RequestResponse(22f1fd, 62f1fd01, Equal)
+89) DiagSessionCtrl(Programming)
+90) RequestResponse(22f1fd, 62f1fd02, Equal)
+91) RequestResponse(2881, 7f687f, Equal)
+92) wait(7000)
+93) RequestResponse(22f1fd, 62f1fd01, Equal)
+94) DiagSessionCtrl(Default)
+95) RequestResponse(22f1fd, 62f1fd01, Equal)
+96) RequestResponse(2882, 7f687f, Equal)
+97) wait(7000)
+98) RequestResponse(22f1fd, 62f1fd01, Equal)
+99) DiagSessionCtrl(Extended)
+100) RequestResponse(22f1fd, 62f1fd03, Equal)
+101) RequestResponse(2882, , None)
+102) wait(7000)
+103) RequestResponse(22f1fd, 62f1fd01, Equal)
+104) DiagSessionCtrl(Programming)
+105) RequestResponse(22f1fd, 62f1fd02, Equal)
+106) RequestResponse(2882, 7f687f, Equal)
+107) wait(7000)
+108) RequestResponse(22f1fd, 62f1fd01, Equal)
+109) DiagSessionCtrl(Default)
+110) RequestResponse(22f1fd, 62f1fd01, Equal)
+111) RequestResponse(2883, 7f687f, Equal)
+112) wait(7000)
+113) RequestResponse(22f1fd, 62f1fd01, Equal)
+114) DiagSessionCtrl(Extended)
+115) RequestResponse(22f1fd, 62f1fd03, Equal)
+116) RequestResponse(2883, , None)
+117) wait(7000)
+118) RequestResponse(22f1fd, 62f1fd01, Equal)
+119) DiagSessionCtrl(Programming)
+120) RequestResponse(22f1fd, 62f1fd02, Equal)
+121) RequestResponse(2883, 7f687f, Equal)
+122) wait(7000)
+123) RequestResponse(22f1fd, 62f1fd01, Equal)
+124) envvar(EnvTesterPresentOnOff(0; 0))
+</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_37</t>
+  </si>
+  <si>
+    <t>2.8 Service 2Eh - Write Data by Identifier</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_38</t>
+  </si>
+  <si>
+    <t>2.8.1 LabT_DCOM: Service 2E:Check all allowed diagnostic sessions in service 0x2E</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_39</t>
+  </si>
+  <si>
+    <t>2.8.2 LabT_DCOM: Service 2E:Check all supported addressing mode in service 0x2E</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_40</t>
+  </si>
+  <si>
+    <t>2.8.3 Check suppress bit in service 0x2E</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_41</t>
+  </si>
+  <si>
+    <t>2.8.4 LabT_DCOM:Service 2E:Default DID in Extended SessionF120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 100
+2) Change to Default session with service 0x10 01
+3) Wait 1000 ms
+4) Change to Extended session with service 0x10 03
+5) Wait 1000 ms
+6) Set the EnvLogInLevel0 ON Wait 1000 ms
+7) Set the EnvLogInLevel0 OFF Wait 1000 ms
+8) Send 22 F1 20 Using Physical Addressing Mode
+9) Send 22 F1 20 Using Functional Addressing Mode
+10) Change to Default session with service 0x10 01
+11) Tester present OFF wait 100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) -
+2) -
+3) -
+4) -
+5) -
+6) -
+7) -
+8) Negative response is received: 0x7F 22 7F
+9) No response is received
+10) -
+11) -
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
+2) DiagSessionCtrl(Default)
+3) wait(1000)
+4) DiagSessionCtrl(Extended)
+5) wait(1000)
+6) SetEnvVar(string Name EnvLogInLevel0, string Value 1, int WaitTime 1000)
+7) SetEnvVar(string Name EnvLogInLevel0, string Value 0, int WaitTime 1000)
+8) RequestResponse(22f120, 7f227f, Equal)
+9) FunctionalMessage(22f120, , None)
+10) DiagSessionCtrl(Default)
+11) envvar(EnvTesterPresentOnOff(0; 100))
+</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_42</t>
+  </si>
+  <si>
+    <t>2.8.5 LabT_DCOM:Service 2E:Default DID in Extended SessionF121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 100
+2) Change to Default session with service 0x10 01
+3) Wait 1000 ms
+4) Change to Extended session with service 0x10 03
+5) Wait 1000 ms
+6) Set the EnvLogInLevel0 ON Wait 1000 ms
+7) Set the EnvLogInLevel0 OFF Wait 1000 ms
+8) Send 22 F1 21 Using Physical Addressing Mode
+9) Send 22 F1 21 Using Functional Addressing Mode
+10) Change to Default session with service 0x10 01
+11) Tester present OFF wait 100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
+2) DiagSessionCtrl(Default)
+3) wait(1000)
+4) DiagSessionCtrl(Extended)
+5) wait(1000)
+6) SetEnvVar(string Name EnvLogInLevel0, string Value 1, int WaitTime 1000)
+7) SetEnvVar(string Name EnvLogInLevel0, string Value 0, int WaitTime 1000)
+8) RequestResponse(22f121, 7f227f, Equal)
+9) FunctionalMessage(22f121, , None)
+10) DiagSessionCtrl(Default)
+11) envvar(EnvTesterPresentOnOff(0; 100))
+</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_43</t>
+  </si>
+  <si>
+    <t>2.8.6 LabT_DCOM:Service 2E:Default DID in Extended SessionF122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 100
+2) Change to Default session with service 0x10 01
+3) Wait 1000 ms
+4) Change to Extended session with service 0x10 03
+5) Wait 1000 ms
+6) Set the EnvLogInLevel0 ON Wait 1000 ms
+7) Set the EnvLogInLevel0 OFF Wait 1000 ms
+8) Send 22 F1 22 Using Physical Addressing Mode
+9) Send 22 F1 22 Using Functional Addressing Mode
+10) Change to Default session with service 0x10 01
+11) Tester present OFF wait 100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
+2) DiagSessionCtrl(Default)
+3) wait(1000)
+4) DiagSessionCtrl(Extended)
+5) wait(1000)
+6) SetEnvVar(string Name EnvLogInLevel0, string Value 1, int WaitTime 1000)
+7) SetEnvVar(string Name EnvLogInLevel0, string Value 0, int WaitTime 1000)
+8) RequestResponse(22f122, 7f227f, Equal)
+9) FunctionalMessage(22f122, , None)
+10) DiagSessionCtrl(Default)
+11) envvar(EnvTesterPresentOnOff(0; 100))
+</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_44</t>
+  </si>
+  <si>
+    <t>2.8.7 LabT_DCOM:Service 2E:Default DID in Extended SessionF189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 100
+2) Change to Default session with service 0x10 01
+3) Wait 1000 ms
+4) Change to Extended session with service 0x10 03
+5) Wait 1000 ms
+6) Set the EnvLogInLevel0 ON Wait 1000 ms
+7) Set the EnvLogInLevel0 OFF Wait 1000 ms
+8) Send 22 F1 89 Using Physical Addressing Mode
+9) Send 22 F1 89 Using Functional Addressing Mode
+10) Change to Default session with service 0x10 01
+11) Tester present OFF wait 100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
+2) DiagSessionCtrl(Default)
+3) wait(1000)
+4) DiagSessionCtrl(Extended)
+5) wait(1000)
+6) SetEnvVar(string Name EnvLogInLevel0, string Value 1, int WaitTime 1000)
+7) SetEnvVar(string Name EnvLogInLevel0, string Value 0, int WaitTime 1000)
+8) RequestResponse(22f189, 7f227f, Equal)
+9) FunctionalMessage(22f189, , None)
+10) DiagSessionCtrl(Default)
+11) envvar(EnvTesterPresentOnOff(0; 100))
+</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_45</t>
+  </si>
+  <si>
+    <t>2.8.8 LabT_DCOM:Service 2E:Default DID in Extended SessionF089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 100
+2) Change to Default session with service 0x10 01
+3) Wait 1000 ms
+4) Change to Extended session with service 0x10 03
+5) Wait 1000 ms
+6) Set the EnvLogInLevel0 ON Wait 1000 ms
+7) Set the EnvLogInLevel0 OFF Wait 1000 ms
+8) Send 22 F0 89 Using Physical Addressing Mode
+9) Send 22 F0 89 Using Functional Addressing Mode
+10) Change to Default session with service 0x10 01
+11) Tester present OFF wait 100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
+2) DiagSessionCtrl(Default)
+3) wait(1000)
+4) DiagSessionCtrl(Extended)
+5) wait(1000)
+6) SetEnvVar(string Name EnvLogInLevel0, string Value 1, int WaitTime 1000)
+7) SetEnvVar(string Name EnvLogInLevel0, string Value 0, int WaitTime 1000)
+8) RequestResponse(22f089, 7f227f, Equal)
+9) FunctionalMessage(22f089, , None)
+10) DiagSessionCtrl(Default)
+11) envvar(EnvTesterPresentOnOff(0; 100))
+</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_46</t>
+  </si>
+  <si>
+    <t>2.8.9 LabT_DCOM:Service 2E:Default DID in Extended SessionF187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 100
+2) Change to Default session with service 0x10 01
+3) Wait 1000 ms
+4) Change to Extended session with service 0x10 03
+5) Wait 1000 ms
+6) Set the EnvLogInLevel0 ON Wait 1000 ms
+7) Set the EnvLogInLevel0 OFF Wait 1000 ms
+8) Send 22 F1 87 Using Physical Addressing Mode
+9) Send 22 F1 87 Using Functional Addressing Mode
+10) Change to Default session with service 0x10 01
+11) Tester present OFF wait 100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
+2) DiagSessionCtrl(Default)
+3) wait(1000)
+4) DiagSessionCtrl(Extended)
+5) wait(1000)
+6) SetEnvVar(string Name EnvLogInLevel0, string Value 1, int WaitTime 1000)
+7) SetEnvVar(string Name EnvLogInLevel0, string Value 0, int WaitTime 1000)
+8) RequestResponse(22f187, 7f227f, Equal)
+9) FunctionalMessage(22f187, , None)
+10) DiagSessionCtrl(Default)
+11) envvar(EnvTesterPresentOnOff(0; 100))
+</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_47</t>
+  </si>
+  <si>
+    <t>2.8.10 LabT_DCOM:Service 2E:Default DID in Extended SessionF18A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 100
+2) Change to Default session with service 0x10 01
+3) Wait 1000 ms
+4) Change to Extended session with service 0x10 03
+5) Wait 1000 ms
+6) Set the EnvLogInLevel0 ON Wait 1000 ms
+7) Set the EnvLogInLevel0 OFF Wait 1000 ms
+8) Send 22 F1 8A Using Physical Addressing Mode
+9) Send 22 F1 8A Using Functional Addressing Mode
+10) Change to Default session with service 0x10 01
+11) Tester present OFF wait 100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
+2) DiagSessionCtrl(Default)
+3) wait(1000)
+4) DiagSessionCtrl(Extended)
+5) wait(1000)
+6) SetEnvVar(string Name EnvLogInLevel0, string Value 1, int WaitTime 1000)
+7) SetEnvVar(string Name EnvLogInLevel0, string Value 0, int WaitTime 1000)
+8) RequestResponse(22f18a, 7f227f, Equal)
+9) FunctionalMessage(22f18a, , None)
+10) DiagSessionCtrl(Default)
+11) envvar(EnvTesterPresentOnOff(0; 100))
+</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_48</t>
+  </si>
+  <si>
+    <t>2.8.11 LabT_DCOM:Service 2E:Default DID in Extended SessionF18C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 100
+2) Change to Default session with service 0x10 01
+3) Wait 1000 ms
+4) Change to Extended session with service 0x10 03
+5) Wait 1000 ms
+6) Set the EnvLogInLevel0 ON Wait 1000 ms
+7) Set the EnvLogInLevel0 OFF Wait 1000 ms
+8) Send 22 F1 8C Using Physical Addressing Mode
+9) Send 22 F1 8C Using Functional Addressing Mode
+10) Change to Default session with service 0x10 01
+11) Tester present OFF wait 100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
+2) DiagSessionCtrl(Default)
+3) wait(1000)
+4) DiagSessionCtrl(Extended)
+5) wait(1000)
+6) SetEnvVar(string Name EnvLogInLevel0, string Value 1, int WaitTime 1000)
+7) SetEnvVar(string Name EnvLogInLevel0, string Value 0, int WaitTime 1000)
+8) RequestResponse(22f18c, 7f227f, Equal)
+9) FunctionalMessage(22f18c, , None)
+10) DiagSessionCtrl(Default)
+11) envvar(EnvTesterPresentOnOff(0; 100))
+</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_49</t>
+  </si>
+  <si>
+    <t>2.8.12 LabT_DCOM:Service 2E:Default DID in Extended SessionF190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 100
+2) Change to Default session with service 0x10 01
+3) Wait 1000 ms
+4) Change to Extended session with service 0x10 03
+5) Wait 1000 ms
+6) Set the EnvLogInLevel0 ON Wait 1000 ms
+7) Set the EnvLogInLevel0 OFF Wait 1000 ms
+8) Send 22 F1 90 Using Physical Addressing Mode
+9) Send 22 F1 90 Using Functional Addressing Mode
+10) Change to Default session with service 0x10 01
+11) Tester present OFF wait 100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
+2) DiagSessionCtrl(Default)
+3) wait(1000)
+4) DiagSessionCtrl(Extended)
+5) wait(1000)
+6) SetEnvVar(string Name EnvLogInLevel0, string Value 1, int WaitTime 1000)
+7) SetEnvVar(string Name EnvLogInLevel0, string Value 0, int WaitTime 1000)
+8) RequestResponse(22f190, 7f227f, Equal)
+9) FunctionalMessage(22f190, , None)
+10) DiagSessionCtrl(Default)
+11) envvar(EnvTesterPresentOnOff(0; 100))
+</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_50</t>
+  </si>
+  <si>
+    <t>2.8.13 LabT_DCOM:Service 2E:Default DID in Extended SessionF170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 100
+2) Change to Default session with service 0x10 01
+3) Wait 1000 ms
+4) Change to Extended session with service 0x10 03
+5) Wait 1000 ms
+6) Set the EnvLogInLevel0 ON Wait 1000 ms
+7) Set the EnvLogInLevel0 OFF Wait 1000 ms
+8) Send 22 F1 70 Using Physical Addressing Mode
+9) Send 22 F1 70 Using Functional Addressing Mode
+10) Change to Default session with service 0x10 01
+11) Tester present OFF wait 100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
+2) DiagSessionCtrl(Default)
+3) wait(1000)
+4) DiagSessionCtrl(Extended)
+5) wait(1000)
+6) SetEnvVar(string Name EnvLogInLevel0, string Value 1, int WaitTime 1000)
+7) SetEnvVar(string Name EnvLogInLevel0, string Value 0, int WaitTime 1000)
+8) RequestResponse(22f170, 7f227f, Equal)
+9) FunctionalMessage(22f170, , None)
+10) DiagSessionCtrl(Default)
+11) envvar(EnvTesterPresentOnOff(0; 100))
+</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_51</t>
+  </si>
+  <si>
+    <t>2.8.14 LabT_DCOM:Service 2E:Default DID in Extended SessionF171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 100
+2) Change to Default session with service 0x10 01
+3) Wait 1000 ms
+4) Change to Extended session with service 0x10 03
+5) Wait 1000 ms
+6) Set the EnvLogInLevel0 ON Wait 1000 ms
+7) Set the EnvLogInLevel0 OFF Wait 1000 ms
+8) Send 22 F1 71 Using Physical Addressing Mode
+9) Send 22 F1 71 Using Functional Addressing Mode
+10) Change to Default session with service 0x10 01
+11) Tester present OFF wait 100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
+2) DiagSessionCtrl(Default)
+3) wait(1000)
+4) DiagSessionCtrl(Extended)
+5) wait(1000)
+6) SetEnvVar(string Name EnvLogInLevel0, string Value 1, int WaitTime 1000)
+7) SetEnvVar(string Name EnvLogInLevel0, string Value 0, int WaitTime 1000)
+8) RequestResponse(22f171, 7f227f, Equal)
+9) FunctionalMessage(22f171, , None)
+10) DiagSessionCtrl(Default)
+11) envvar(EnvTesterPresentOnOff(0; 100))
+</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_52</t>
+  </si>
+  <si>
+    <t>2.8.15 LabT_DCOM:Service 2E:Default DID in Extended SessionF184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 100
+2) Change to Default session with service 0x10 01
+3) Wait 1000 ms
+4) Change to Extended session with service 0x10 03
+5) Wait 1000 ms
+6) Set the EnvLogInLevel0 ON Wait 1000 ms
+7) Set the EnvLogInLevel0 OFF Wait 1000 ms
+8) Send 22 F1 84 Using Physical Addressing Mode
+9) Send 22 F1 84 Using Functional Addressing Mode
+10) Change to Default session with service 0x10 01
+11) Tester present OFF wait 100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
+2) DiagSessionCtrl(Default)
+3) wait(1000)
+4) DiagSessionCtrl(Extended)
+5) wait(1000)
+6) SetEnvVar(string Name EnvLogInLevel0, string Value 1, int WaitTime 1000)
+7) SetEnvVar(string Name EnvLogInLevel0, string Value 0, int WaitTime 1000)
+8) RequestResponse(22f184, 7f227f, Equal)
+9) FunctionalMessage(22f184, , None)
+10) DiagSessionCtrl(Default)
+11) envvar(EnvTesterPresentOnOff(0; 100))
+</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_53</t>
+  </si>
+  <si>
+    <t>2.8.16 LabT_DCOM:Service 2E:Default DID in Extended SessionF188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 100
+2) Change to Default session with service 0x10 01
+3) Wait 1000 ms
+4) Change to Extended session with service 0x10 03
+5) Wait 1000 ms
+6) Set the EnvLogInLevel0 ON Wait 1000 ms
+7) Set the EnvLogInLevel0 OFF Wait 1000 ms
+8) Send 22 F1 88 Using Physical Addressing Mode
+9) Send 22 F1 88 Using Functional Addressing Mode
+10) Change to Default session with service 0x10 01
+11) Tester present OFF wait 100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
+2) DiagSessionCtrl(Default)
+3) wait(1000)
+4) DiagSessionCtrl(Extended)
+5) wait(1000)
+6) SetEnvVar(string Name EnvLogInLevel0, string Value 1, int WaitTime 1000)
+7) SetEnvVar(string Name EnvLogInLevel0, string Value 0, int WaitTime 1000)
+8) RequestResponse(22f188, 7f227f, Equal)
+9) FunctionalMessage(22f188, , None)
+10) DiagSessionCtrl(Default)
+11) envvar(EnvTesterPresentOnOff(0; 100))
+</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_54</t>
+  </si>
+  <si>
+    <t>2.8.17 LabT_DCOM:Service 2E:Default DID in Extended SessionF123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 100
+2) Change to Default session with service 0x10 01
+3) Wait 1000 ms
+4) Change to Extended session with service 0x10 03
+5) Wait 1000 ms
+6) Set the EnvLogInLevel0 ON Wait 1000 ms
+7) Set the EnvLogInLevel0 OFF Wait 1000 ms
+8) Send 22 F1 23 Using Physical Addressing Mode
+9) Send 22 F1 23 Using Functional Addressing Mode
+10) Change to Default session with service 0x10 01
+11) Tester present OFF wait 100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
+2) DiagSessionCtrl(Default)
+3) wait(1000)
+4) DiagSessionCtrl(Extended)
+5) wait(1000)
+6) SetEnvVar(string Name EnvLogInLevel0, string Value 1, int WaitTime 1000)
+7) SetEnvVar(string Name EnvLogInLevel0, string Value 0, int WaitTime 1000)
+8) RequestResponse(22f123, 7f227f, Equal)
+9) FunctionalMessage(22f123, , None)
+10) DiagSessionCtrl(Default)
+11) envvar(EnvTesterPresentOnOff(0; 100))
+</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_55</t>
+  </si>
+  <si>
+    <t>2.8.18 LabT_DCOM:Service 2E:Default DID in Extended SessionF1F0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 100
+2) Change to Default session with service 0x10 01
+3) Wait 1000 ms
+4) Change to Extended session with service 0x10 03
+5) Wait 1000 ms
+6) Set the EnvLogInLevel0 ON Wait 1000 ms
+7) Set the EnvLogInLevel0 OFF Wait 1000 ms
+8) Send 22 F1 F0 Using Physical Addressing Mode
+9) Send 22 F1 F0 Using Functional Addressing Mode
+10) Change to Default session with service 0x10 01
+11) Tester present OFF wait 100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
+2) DiagSessionCtrl(Default)
+3) wait(1000)
+4) DiagSessionCtrl(Extended)
+5) wait(1000)
+6) SetEnvVar(string Name EnvLogInLevel0, string Value 1, int WaitTime 1000)
+7) SetEnvVar(string Name EnvLogInLevel0, string Value 0, int WaitTime 1000)
+8) RequestResponse(22f1f0, 7f227f, Equal)
+9) FunctionalMessage(22f1f0, , None)
+10) DiagSessionCtrl(Default)
+11) envvar(EnvTesterPresentOnOff(0; 100))
+</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_56</t>
+  </si>
+  <si>
+    <t>2.8.19 LabT_DCOM:Service 2E:Default DID in Extended SessionF1F4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 100
+2) Change to Default session with service 0x10 01
+3) Wait 1000 ms
+4) Change to Extended session with service 0x10 03
+5) Wait 1000 ms
+6) Set the EnvLogInLevel0 ON Wait 1000 ms
+7) Set the EnvLogInLevel0 OFF Wait 1000 ms
+8) Send 22 F1 F4 Using Physical Addressing Mode
+9) Send 22 F1 F4 Using Functional Addressing Mode
+10) Change to Default session with service 0x10 01
+11) Tester present OFF wait 100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
+2) DiagSessionCtrl(Default)
+3) wait(1000)
+4) DiagSessionCtrl(Extended)
+5) wait(1000)
+6) SetEnvVar(string Name EnvLogInLevel0, string Value 1, int WaitTime 1000)
+7) SetEnvVar(string Name EnvLogInLevel0, string Value 0, int WaitTime 1000)
+8) RequestResponse(22f1f4, 7f227f, Equal)
+9) FunctionalMessage(22f1f4, , None)
+10) DiagSessionCtrl(Default)
+11) envvar(EnvTesterPresentOnOff(0; 100))
+</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_57</t>
+  </si>
+  <si>
+    <t>2.8.20 LabT_DCOM:Service 2E:Default DID in Extended SessionF191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 100
+2) Change to Default session with service 0x10 01
+3) Wait 1000 ms
+4) Change to Extended session with service 0x10 03
+5) Wait 1000 ms
+6) Set the EnvLogInLevel0 ON Wait 1000 ms
+7) Set the EnvLogInLevel0 OFF Wait 1000 ms
+8) Send 22 F1 91 Using Physical Addressing Mode
+9) Send 22 F1 91 Using Functional Addressing Mode
+10) Change to Default session with service 0x10 01
+11) Tester present OFF wait 100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
+2) DiagSessionCtrl(Default)
+3) wait(1000)
+4) DiagSessionCtrl(Extended)
+5) wait(1000)
+6) SetEnvVar(string Name EnvLogInLevel0, string Value 1, int WaitTime 1000)
+7) SetEnvVar(string Name EnvLogInLevel0, string Value 0, int WaitTime 1000)
+8) RequestResponse(22f191, 7f227f, Equal)
+9) FunctionalMessage(22f191, , None)
+10) DiagSessionCtrl(Default)
+11) envvar(EnvTesterPresentOnOff(0; 100))
+</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_58</t>
+  </si>
+  <si>
+    <t>2.8.21 LabT_DCOM:Service 2E:Default DID in Extended SessionF194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 100
+2) Change to Default session with service 0x10 01
+3) Wait 1000 ms
+4) Change to Extended session with service 0x10 03
+5) Wait 1000 ms
+6) Set the EnvLogInLevel0 ON Wait 1000 ms
+7) Set the EnvLogInLevel0 OFF Wait 1000 ms
+8) Send 22 F1 94 Using Physical Addressing Mode
+9) Send 22 F1 94 Using Functional Addressing Mode
+10) Change to Default session with service 0x10 01
+11) Tester present OFF wait 100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
+2) DiagSessionCtrl(Default)
+3) wait(1000)
+4) DiagSessionCtrl(Extended)
+5) wait(1000)
+6) SetEnvVar(string Name EnvLogInLevel0, string Value 1, int WaitTime 1000)
+7) SetEnvVar(string Name EnvLogInLevel0, string Value 0, int WaitTime 1000)
+8) RequestResponse(22f194, 7f227f, Equal)
+9) FunctionalMessage(22f194, , None)
+10) DiagSessionCtrl(Default)
+11) envvar(EnvTesterPresentOnOff(0; 100))
+</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_59</t>
+  </si>
+  <si>
+    <t>2.8.22 LabT_DCOM:Service 2E:Default DID in Extended SessionF1F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 100
+2) Change to Default session with service 0x10 01
+3) Wait 1000 ms
+4) Change to Extended session with service 0x10 03
+5) Wait 1000 ms
+6) Set the EnvLogInLevel0 ON Wait 1000 ms
+7) Set the EnvLogInLevel0 OFF Wait 1000 ms
+8) Send 22 F1 F1 Using Physical Addressing Mode
+9) Send 22 F1 F1 Using Functional Addressing Mode
+10) Change to Default session with service 0x10 01
+11) Tester present OFF wait 100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
+2) DiagSessionCtrl(Default)
+3) wait(1000)
+4) DiagSessionCtrl(Extended)
+5) wait(1000)
+6) SetEnvVar(string Name EnvLogInLevel0, string Value 1, int WaitTime 1000)
+7) SetEnvVar(string Name EnvLogInLevel0, string Value 0, int WaitTime 1000)
+8) RequestResponse(22f1f1, 7f227f, Equal)
+9) FunctionalMessage(22f1f1, , None)
+10) DiagSessionCtrl(Default)
+11) envvar(EnvTesterPresentOnOff(0; 100))
+</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_60</t>
+  </si>
+  <si>
+    <t>2.8.23 LabT_DCOM:Service 2E:Default DID in Extended SessionF1F2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 100
+2) Change to Default session with service 0x10 01
+3) Wait 1000 ms
+4) Change to Extended session with service 0x10 03
+5) Wait 1000 ms
+6) Set the EnvLogInLevel0 ON Wait 1000 ms
+7) Set the EnvLogInLevel0 OFF Wait 1000 ms
+8) Send 22 F1 F2 Using Physical Addressing Mode
+9) Send 22 F1 F2 Using Functional Addressing Mode
+10) Change to Default session with service 0x10 01
+11) Tester present OFF wait 100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
+2) DiagSessionCtrl(Default)
+3) wait(1000)
+4) DiagSessionCtrl(Extended)
+5) wait(1000)
+6) SetEnvVar(string Name EnvLogInLevel0, string Value 1, int WaitTime 1000)
+7) SetEnvVar(string Name EnvLogInLevel0, string Value 0, int WaitTime 1000)
+8) RequestResponse(22f1f2, 7f227f, Equal)
+9) FunctionalMessage(22f1f2, , None)
+10) DiagSessionCtrl(Default)
+11) envvar(EnvTesterPresentOnOff(0; 100))
+</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_61</t>
+  </si>
+  <si>
+    <t>2.8.24 LabT_DCOM:Service 2E:Default DID in Extended SessionF1F3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 100
+2) Change to Default session with service 0x10 01
+3) Wait 1000 ms
+4) Change to Extended session with service 0x10 03
+5) Wait 1000 ms
+6) Set the EnvLogInLevel0 ON Wait 1000 ms
+7) Set the EnvLogInLevel0 OFF Wait 1000 ms
+8) Send 22 F1 F3 Using Physical Addressing Mode
+9) Send 22 F1 F3 Using Functional Addressing Mode
+10) Change to Default session with service 0x10 01
+11) Tester present OFF wait 100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
+2) DiagSessionCtrl(Default)
+3) wait(1000)
+4) DiagSessionCtrl(Extended)
+5) wait(1000)
+6) SetEnvVar(string Name EnvLogInLevel0, string Value 1, int WaitTime 1000)
+7) SetEnvVar(string Name EnvLogInLevel0, string Value 0, int WaitTime 1000)
+8) RequestResponse(22f1f3, 7f227f, Equal)
+9) FunctionalMessage(22f1f3, , None)
+10) DiagSessionCtrl(Default)
+11) envvar(EnvTesterPresentOnOff(0; 100))
+</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_62</t>
+  </si>
+  <si>
+    <t>2.8.25 LabT_DCOM:Service 2E:Default DID in Extended SessionF1F5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 100
+2) Change to Default session with service 0x10 01
+3) Wait 1000 ms
+4) Change to Extended session with service 0x10 03
+5) Wait 1000 ms
+6) Set the EnvLogInLevel0 ON Wait 1000 ms
+7) Set the EnvLogInLevel0 OFF Wait 1000 ms
+8) Send 22 F1 F5 Using Physical Addressing Mode
+9) Send 22 F1 F5 Using Functional Addressing Mode
+10) Change to Default session with service 0x10 01
+11) Tester present OFF wait 100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
+2) DiagSessionCtrl(Default)
+3) wait(1000)
+4) DiagSessionCtrl(Extended)
+5) wait(1000)
+6) SetEnvVar(string Name EnvLogInLevel0, string Value 1, int WaitTime 1000)
+7) SetEnvVar(string Name EnvLogInLevel0, string Value 0, int WaitTime 1000)
+8) RequestResponse(22f1f5, 7f227f, Equal)
+9) FunctionalMessage(22f1f5, , None)
+10) DiagSessionCtrl(Default)
+11) envvar(EnvTesterPresentOnOff(0; 100))
+</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_63</t>
+  </si>
+  <si>
+    <t>2.8.26 LabT_DCOM:Service 2E:Default DID in Extended Session3BAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 100
+2) Change to Default session with service 0x10 01
+3) Wait 1000 ms
+4) Change to Extended session with service 0x10 03
+5) Wait 1000 ms
+6) Set the EnvLogInLevel0 ON Wait 1000 ms
+7) Set the EnvLogInLevel0 OFF Wait 1000 ms
+8) Send 22 3B AF Using Physical Addressing Mode
+9) Send 22 3B AF Using Functional Addressing Mode
+10) Change to Default session with service 0x10 01
+11) Tester present OFF wait 100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
+2) DiagSessionCtrl(Default)
+3) wait(1000)
+4) DiagSessionCtrl(Extended)
+5) wait(1000)
+6) SetEnvVar(string Name EnvLogInLevel0, string Value 1, int WaitTime 1000)
+7) SetEnvVar(string Name EnvLogInLevel0, string Value 0, int WaitTime 1000)
+8) RequestResponse(223baf, 7f227f, Equal)
+9) FunctionalMessage(223baf, , None)
+10) DiagSessionCtrl(Default)
+11) envvar(EnvTesterPresentOnOff(0; 100))
+</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_64</t>
+  </si>
+  <si>
+    <t>2.8.27 LabT_DCOM:Service 2E:Default DID in Extended Session0103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 100
+2) Change to Default session with service 0x10 01
+3) Wait 1000 ms
+4) Change to Extended session with service 0x10 03
+5) Wait 1000 ms
+6) Set the EnvLogInLevel0 ON Wait 1000 ms
+7) Set the EnvLogInLevel0 OFF Wait 1000 ms
+8) Send 22 01 03 Using Physical Addressing Mode
+9) Send 22 01 03 Using Functional Addressing Mode
+10) Change to Default session with service 0x10 01
+11) Tester present OFF wait 100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
+2) DiagSessionCtrl(Default)
+3) wait(1000)
+4) DiagSessionCtrl(Extended)
+5) wait(1000)
+6) SetEnvVar(string Name EnvLogInLevel0, string Value 1, int WaitTime 1000)
+7) SetEnvVar(string Name EnvLogInLevel0, string Value 0, int WaitTime 1000)
+8) RequestResponse(220103, 7f227f, Equal)
+9) FunctionalMessage(220103, , None)
+10) DiagSessionCtrl(Default)
+11) envvar(EnvTesterPresentOnOff(0; 100))
+</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_65</t>
+  </si>
+  <si>
+    <t>2.8.28 LabT_DCOM:Service 2E:Default DID in Extended SessionF1F7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 100
+2) Change to Default session with service 0x10 01
+3) Wait 1000 ms
+4) Change to Extended session with service 0x10 03
+5) Wait 1000 ms
+6) Set the EnvLogInLevel0 ON Wait 1000 ms
+7) Set the EnvLogInLevel0 OFF Wait 1000 ms
+8) Send 22 F1 F7 Using Physical Addressing Mode
+9) Send 22 F1 F7 Using Functional Addressing Mode
+10) Change to Default session with service 0x10 01
+11) Tester present OFF wait 100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
+2) DiagSessionCtrl(Default)
+3) wait(1000)
+4) DiagSessionCtrl(Extended)
+5) wait(1000)
+6) SetEnvVar(string Name EnvLogInLevel0, string Value 1, int WaitTime 1000)
+7) SetEnvVar(string Name EnvLogInLevel0, string Value 0, int WaitTime 1000)
+8) RequestResponse(22f1f7, 7f227f, Equal)
+9) FunctionalMessage(22f1f7, , None)
+10) DiagSessionCtrl(Default)
+11) envvar(EnvTesterPresentOnOff(0; 100))
+</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_66</t>
+  </si>
+  <si>
+    <t>2.8.29 LabT_DCOM:Service 2E:Default DID in Extended SessionF1F8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 100
+2) Change to Default session with service 0x10 01
+3) Wait 1000 ms
+4) Change to Extended session with service 0x10 03
+5) Wait 1000 ms
+6) Set the EnvLogInLevel0 ON Wait 1000 ms
+7) Set the EnvLogInLevel0 OFF Wait 1000 ms
+8) Send 22 F1 F8 Using Physical Addressing Mode
+9) Send 22 F1 F8 Using Functional Addressing Mode
+10) Change to Default session with service 0x10 01
+11) Tester present OFF wait 100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
+2) DiagSessionCtrl(Default)
+3) wait(1000)
+4) DiagSessionCtrl(Extended)
+5) wait(1000)
+6) SetEnvVar(string Name EnvLogInLevel0, string Value 1, int WaitTime 1000)
+7) SetEnvVar(string Name EnvLogInLevel0, string Value 0, int WaitTime 1000)
+8) RequestResponse(22f1f8, 7f227f, Equal)
+9) FunctionalMessage(22f1f8, , None)
+10) DiagSessionCtrl(Default)
+11) envvar(EnvTesterPresentOnOff(0; 100))
+</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_67</t>
+  </si>
+  <si>
+    <t>2.8.30 LabT_DCOM:Service 2E:Default DID in Extended SessionF1F9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 100
+2) Change to Default session with service 0x10 01
+3) Wait 1000 ms
+4) Change to Extended session with service 0x10 03
+5) Wait 1000 ms
+6) Set the EnvLogInLevel0 ON Wait 1000 ms
+7) Set the EnvLogInLevel0 OFF Wait 1000 ms
+8) Send 22 F1 F9 Using Physical Addressing Mode
+9) Send 22 F1 F9 Using Functional Addressing Mode
+10) Change to Default session with service 0x10 01
+11) Tester present OFF wait 100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
+2) DiagSessionCtrl(Default)
+3) wait(1000)
+4) DiagSessionCtrl(Extended)
+5) wait(1000)
+6) SetEnvVar(string Name EnvLogInLevel0, string Value 1, int WaitTime 1000)
+7) SetEnvVar(string Name EnvLogInLevel0, string Value 0, int WaitTime 1000)
+8) RequestResponse(22f1f9, 7f227f, Equal)
+9) FunctionalMessage(22f1f9, , None)
+10) DiagSessionCtrl(Default)
+11) envvar(EnvTesterPresentOnOff(0; 100))
+</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_68</t>
+  </si>
+  <si>
+    <t>2.8.31 LabT_DCOM:Service 2E:Default DID in Extended Session11B7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 100
+2) Change to Default session with service 0x10 01
+3) Wait 1000 ms
+4) Change to Extended session with service 0x10 03
+5) Wait 1000 ms
+6) Set the EnvLogInLevel0 ON Wait 1000 ms
+7) Set the EnvLogInLevel0 OFF Wait 1000 ms
+8) Send 22 11 B7 Using Physical Addressing Mode
+9) Send 22 11 B7 Using Functional Addressing Mode
+10) Change to Default session with service 0x10 01
+11) Tester present OFF wait 100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
+2) DiagSessionCtrl(Default)
+3) wait(1000)
+4) DiagSessionCtrl(Extended)
+5) wait(1000)
+6) SetEnvVar(string Name EnvLogInLevel0, string Value 1, int WaitTime 1000)
+7) SetEnvVar(string Name EnvLogInLevel0, string Value 0, int WaitTime 1000)
+8) RequestResponse(2211b7, 7f227f, Equal)
+9) FunctionalMessage(2211b7, , None)
+10) DiagSessionCtrl(Default)
+11) envvar(EnvTesterPresentOnOff(0; 100))
+</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_69</t>
+  </si>
+  <si>
+    <t>2.8.32 LabT_DCOM:Service 2E:Default DID in Extended SessionF1FA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 100
+2) Change to Default session with service 0x10 01
+3) Wait 1000 ms
+4) Change to Extended session with service 0x10 03
+5) Wait 1000 ms
+6) Set the EnvLogInLevel0 ON Wait 1000 ms
+7) Set the EnvLogInLevel0 OFF Wait 1000 ms
+8) Send 22 F1 FA Using Physical Addressing Mode
+9) Send 22 F1 FA Using Functional Addressing Mode
+10) Change to Default session with service 0x10 01
+11) Tester present OFF wait 100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
+2) DiagSessionCtrl(Default)
+3) wait(1000)
+4) DiagSessionCtrl(Extended)
+5) wait(1000)
+6) SetEnvVar(string Name EnvLogInLevel0, string Value 1, int WaitTime 1000)
+7) SetEnvVar(string Name EnvLogInLevel0, string Value 0, int WaitTime 1000)
+8) RequestResponse(22f1fa, 7f227f, Equal)
+9) FunctionalMessage(22f1fa, , None)
+10) DiagSessionCtrl(Default)
+11) envvar(EnvTesterPresentOnOff(0; 100))
+</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_70</t>
+  </si>
+  <si>
+    <t>2.8.33 LabT_DCOM:Service 2E:Default DID in Extended SessionF1FB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 100
+2) Change to Default session with service 0x10 01
+3) Wait 1000 ms
+4) Change to Extended session with service 0x10 03
+5) Wait 1000 ms
+6) Set the EnvLogInLevel0 ON Wait 1000 ms
+7) Set the EnvLogInLevel0 OFF Wait 1000 ms
+8) Send 22 F1 FB Using Physical Addressing Mode
+9) Send 22 F1 FB Using Functional Addressing Mode
+10) Change to Default session with service 0x10 01
+11) Tester present OFF wait 100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
+2) DiagSessionCtrl(Default)
+3) wait(1000)
+4) DiagSessionCtrl(Extended)
+5) wait(1000)
+6) SetEnvVar(string Name EnvLogInLevel0, string Value 1, int WaitTime 1000)
+7) SetEnvVar(string Name EnvLogInLevel0, string Value 0, int WaitTime 1000)
+8) RequestResponse(22f1fb, 7f227f, Equal)
+9) FunctionalMessage(22f1fb, , None)
+10) DiagSessionCtrl(Default)
+11) envvar(EnvTesterPresentOnOff(0; 100))
+</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_71</t>
+  </si>
+  <si>
+    <t>2.8.34 LabT_DCOM:Service 2E:Default DID in Extended Session11B5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 100
+2) Change to Default session with service 0x10 01
+3) Wait 1000 ms
+4) Change to Extended session with service 0x10 03
+5) Wait 1000 ms
+6) Set the EnvLogInLevel0 ON Wait 1000 ms
+7) Set the EnvLogInLevel0 OFF Wait 1000 ms
+8) Send 22 11 B5 Using Physical Addressing Mode
+9) Send 22 11 B5 Using Functional Addressing Mode
+10) Change to Default session with service 0x10 01
+11) Tester present OFF wait 100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
+2) DiagSessionCtrl(Default)
+3) wait(1000)
+4) DiagSessionCtrl(Extended)
+5) wait(1000)
+6) SetEnvVar(string Name EnvLogInLevel0, string Value 1, int WaitTime 1000)
+7) SetEnvVar(string Name EnvLogInLevel0, string Value 0, int WaitTime 1000)
+8) RequestResponse(2211b5, 7f227f, Equal)
+9) FunctionalMessage(2211b5, , None)
+10) DiagSessionCtrl(Default)
+11) envvar(EnvTesterPresentOnOff(0; 100))
+</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_72</t>
+  </si>
+  <si>
+    <t>2.8.35 LabT_DCOM:Service 2E:Default DID in Extended Session0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 100
+2) Change to Default session with service 0x10 01
+3) Wait 1000 ms
+4) Change to Extended session with service 0x10 03
+5) Wait 1000 ms
+6) Set the EnvLogInLevel0 ON Wait 1000 ms
+7) Set the EnvLogInLevel0 OFF Wait 1000 ms
+8) Send 22 02 00 Using Physical Addressing Mode
+9) Send 22 02 00 Using Functional Addressing Mode
+10) Change to Default session with service 0x10 01
+11) Tester present OFF wait 100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
+2) DiagSessionCtrl(Default)
+3) wait(1000)
+4) DiagSessionCtrl(Extended)
+5) wait(1000)
+6) SetEnvVar(string Name EnvLogInLevel0, string Value 1, int WaitTime 1000)
+7) SetEnvVar(string Name EnvLogInLevel0, string Value 0, int WaitTime 1000)
+8) RequestResponse(220200, 7f227f, Equal)
+9) FunctionalMessage(220200, , None)
+10) DiagSessionCtrl(Default)
+11) envvar(EnvTesterPresentOnOff(0; 100))
+</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_73</t>
+  </si>
+  <si>
+    <t>2.8.36 LabT_DCOM:Service 2E:Default DID in Extended Session0201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 100
+2) Change to Default session with service 0x10 01
+3) Wait 1000 ms
+4) Change to Extended session with service 0x10 03
+5) Wait 1000 ms
+6) Set the EnvLogInLevel0 ON Wait 1000 ms
+7) Set the EnvLogInLevel0 OFF Wait 1000 ms
+8) Send 22 02 01 Using Physical Addressing Mode
+9) Send 22 02 01 Using Functional Addressing Mode
+10) Change to Default session with service 0x10 01
+11) Tester present OFF wait 100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
+2) DiagSessionCtrl(Default)
+3) wait(1000)
+4) DiagSessionCtrl(Extended)
+5) wait(1000)
+6) SetEnvVar(string Name EnvLogInLevel0, string Value 1, int WaitTime 1000)
+7) SetEnvVar(string Name EnvLogInLevel0, string Value 0, int WaitTime 1000)
+8) RequestResponse(220201, 7f227f, Equal)
+9) FunctionalMessage(220201, , None)
+10) DiagSessionCtrl(Default)
+11) envvar(EnvTesterPresentOnOff(0; 100))
+</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_74</t>
+  </si>
+  <si>
+    <t>2.8.37 LabT_DCOM:Service 2E:Default DID in Extended SessionF1FD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 100
+2) Change to Default session with service 0x10 01
+3) Wait 1000 ms
+4) Change to Extended session with service 0x10 03
+5) Wait 1000 ms
+6) Set the EnvLogInLevel0 ON Wait 1000 ms
+7) Set the EnvLogInLevel0 OFF Wait 1000 ms
+8) Send 22 F1 FD Using Physical Addressing Mode
+9) Send 22 F1 FD Using Functional Addressing Mode
+10) Change to Default session with service 0x10 01
+11) Tester present OFF wait 100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
+2) DiagSessionCtrl(Default)
+3) wait(1000)
+4) DiagSessionCtrl(Extended)
+5) wait(1000)
+6) SetEnvVar(string Name EnvLogInLevel0, string Value 1, int WaitTime 1000)
+7) SetEnvVar(string Name EnvLogInLevel0, string Value 0, int WaitTime 1000)
+8) RequestResponse(22f1fd, 7f227f, Equal)
+9) FunctionalMessage(22f1fd, , None)
+10) DiagSessionCtrl(Default)
+11) envvar(EnvTesterPresentOnOff(0; 100))
+</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_75</t>
+  </si>
+  <si>
+    <t>2.8.38 LabT_DCOM:Service 2E:Default DID in Extended SessionF1FE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 100
+2) Change to Default session with service 0x10 01
+3) Wait 1000 ms
+4) Change to Extended session with service 0x10 03
+5) Wait 1000 ms
+6) Set the EnvLogInLevel0 ON Wait 1000 ms
+7) Set the EnvLogInLevel0 OFF Wait 1000 ms
+8) Send 22 F1 FE Using Physical Addressing Mode
+9) Send 22 F1 FE Using Functional Addressing Mode
+10) Change to Default session with service 0x10 01
+11) Tester present OFF wait 100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
+2) DiagSessionCtrl(Default)
+3) wait(1000)
+4) DiagSessionCtrl(Extended)
+5) wait(1000)
+6) SetEnvVar(string Name EnvLogInLevel0, string Value 1, int WaitTime 1000)
+7) SetEnvVar(string Name EnvLogInLevel0, string Value 0, int WaitTime 1000)
+8) RequestResponse(22f1fe, 7f227f, Equal)
+9) FunctionalMessage(22f1fe, , None)
+10) DiagSessionCtrl(Default)
+11) envvar(EnvTesterPresentOnOff(0; 100))
+</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_76</t>
+  </si>
+  <si>
+    <t>2.9 Service 31h - Routine Control</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_77</t>
+  </si>
+  <si>
+    <t>2.9.1 Check all allowed diagnostic sessions in service 0x31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 100
+2) Change to Default session with service 0x10 01
+3) Read active session with service 0x22 F1 FD
+4) Request reset the camera with service 0x11 01 in Physical Addressing Mode
+5) Wait 7000 ms
+6) Read active session with service 0x22 F1 FD
+7) Change to Extended session with service 0x10 03
+8) Read active session with service 0x22 F1 FD
+9) Request reset the camera with service 0x11 01 in Physical Addressing Mode
+10) Wait 7000 ms
+11) Read active session with service 0x22 F1 FD
+12) Change to Programming session with service 0x10 02
+13) Read active session with service 0x22 F1 FD
+14) Request reset the camera with service 0x11 01 in Physical Addressing Mode
+15) Wait 7000 ms
+16) Read active session with service 0x22 F1 FD
+17) Change to Default session with service 0x10 01
+18) Read active session with service 0x22 F1 FD
+19) Request reset the camera with service 0x11 02 in Physical Addressing Mode
+20) Wait 7000 ms
+21) Read active session with service 0x22 F1 FD
+22) Change to Extended session with service 0x10 03
+23) Read active session with service 0x22 F1 FD
+24) Request reset the camera with service 0x11 02 in Physical Addressing Mode
+25) Wait 7000 ms
+26) Read active session with service 0x22 F1 FD
+27) Change to Programming session with service 0x10 02
+28) Read active session with service 0x22 F1 FD
+29) Request reset the camera with service 0x11 02 in Physical Addressing Mode
+30) Wait 7000 ms
+31) Read active session with service 0x22 F1 FD
+32) Tester present OFF wait 100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) -
+2) -
+3) Positive response is received: 0x 62 F1 FD 01
+4) Negative response is received: 0x7F 51 7F
+5) -
+6) Positive response is received: 0x 62 F1 FD 01
+7) -
+8) Positive response is received: 0x 62 F1 FD 03
+9) Negative response is received: 0x7F 51 7F
+10) -
+11) Positive response is received: 0x 62 F1 FD 01
+12) -
+13) Positive response is received: 0x 62 F1 FD 02
+14) Negative response is received: 0x7F 51 7F
+15) -
+16) Positive response is received: 0x 62 F1 FD 01
+17) -
+18) Positive response is received: 0x 62 F1 FD 01
+19) Negative response is received: 0x7F 51 7F
+20) -
+21) Positive response is received: 0x 62 F1 FD 01
+22) -
+23) Positive response is received: 0x 62 F1 FD 03
+24) Negative response is received: 0x7F 51 7F
+25) -
+26) Positive response is received: 0x 62 F1 FD 01
+27) -
+28) Positive response is received: 0x 62 F1 FD 02
+29) Negative response is received: 0x7F 51 7F
+30) -
+31) Positive response is received: 0x 62 F1 FD 01
+32) -
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
+2) DiagSessionCtrl(Default)
+3) RequestResponse(22f1fd, 62f1fd01, Equal)
+4) RequestResponse(1101, 7f517f, Equal)
+5) wait(7000)
+6) RequestResponse(22f1fd, 62f1fd01, Equal)
+7) DiagSessionCtrl(Extended)
+8) RequestResponse(22f1fd, 62f1fd03, Equal)
+9) RequestResponse(1101, 7f517f, Equal)
+10) wait(7000)
+11) RequestResponse(22f1fd, 62f1fd01, Equal)
+12) DiagSessionCtrl(Programming)
+13) RequestResponse(22f1fd, 62f1fd02, Equal)
+14) RequestResponse(1101, 7f517f, Equal)
+15) wait(7000)
+16) RequestResponse(22f1fd, 62f1fd01, Equal)
+17) DiagSessionCtrl(Default)
+18) RequestResponse(22f1fd, 62f1fd01, Equal)
+19) RequestResponse(1102, 7f517f, Equal)
+20) wait(7000)
+21) RequestResponse(22f1fd, 62f1fd01, Equal)
+22) DiagSessionCtrl(Extended)
+23) RequestResponse(22f1fd, 62f1fd03, Equal)
+24) RequestResponse(1102, 7f517f, Equal)
+25) wait(7000)
+26) RequestResponse(22f1fd, 62f1fd01, Equal)
+27) DiagSessionCtrl(Programming)
+28) RequestResponse(22f1fd, 62f1fd02, Equal)
+29) RequestResponse(1102, 7f517f, Equal)
+30) wait(7000)
+31) RequestResponse(22f1fd, 62f1fd01, Equal)
+32) envvar(EnvTesterPresentOnOff(0; 100))
+</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_78</t>
+  </si>
+  <si>
+    <t>2.9.2 Check all supported addressing mode in service 0x31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 0
+2) Change to Default session with service 0x10 01
+3) Read active session with service 0x22 F1 FD
+4) Request reset the camera with service 0x11 01 in Functional Addressing Mode
+5) Wait 7000 ms
+6) Read active session with service 0x22 F1 FD
+7) Change to Extended session with service 0x10 03
+8) Read active session with service 0x22 F1 FD
+9) Request reset the camera with service 0x11 01 in Functional Addressing Mode
+10) Wait 7000 ms
+11) Read active session with service 0x22 F1 FD
+12) Change to Programming session with service 0x10 02
+13) Read active session with service 0x22 F1 FD
+14) Request reset the camera with service 0x11 01 in Functional Addressing Mode
+15) Wait 7000 ms
+16) Read active session with service 0x22 F1 FD
+17) Change to Default session with service 0x10 01
+18) Read active session with service 0x22 F1 FD
+19) Request reset the camera with service 0x11 02 in Functional Addressing Mode
+20) Wait 7000 ms
+21) Read active session with service 0x22 F1 FD
+22) Change to Extended session with service 0x10 03
+23) Read active session with service 0x22 F1 FD
+24) Request reset the camera with service 0x11 02 in Functional Addressing Mode
+25) Wait 7000 ms
+26) Read active session with service 0x22 F1 FD
+27) Change to Programming session with service 0x10 02
+28) Read active session with service 0x22 F1 FD
+29) Request reset the camera with service 0x11 02 in Functional Addressing Mode
+30) Wait 7000 ms
+31) Read active session with service 0x22 F1 FD
+32) Tester present OFF wait 0
+33) Tester present ON wait 0
+34) Change to Default session with service 0x10 01
+35) Read active session with service 0x22 F1 FD
+36) Request reset the camera with service 0x11 01 in Physical Addressing Mode
+37) Wait 7000 ms
+38) Read active session with service 0x22 F1 FD
+39) Change to Extended session with service 0x10 03
+40) Read active session with service 0x22 F1 FD
+41) Request reset the camera with service 0x11 01 in Physical Addressing Mode
+42) Wait 7000 ms
+43) Read active session with service 0x22 F1 FD
+44) Change to Programming session with service 0x10 02
+45) Read active session with service 0x22 F1 FD
+46) Request reset the camera with service 0x11 01 in Physical Addressing Mode
+47) Wait 7000 ms
+48) Read active session with service 0x22 F1 FD
+49) Change to Default session with service 0x10 01
+50) Read active session with service 0x22 F1 FD
+51) Request reset the camera with service 0x11 02 in Physical Addressing Mode
+52) Wait 7000 ms
+53) Read active session with service 0x22 F1 FD
+54) Change to Extended session with service 0x10 03
+55) Read active session with service 0x22 F1 FD
+56) Request reset the camera with service 0x11 02 in Physical Addressing Mode
+57) Wait 7000 ms
+58) Read active session with service 0x22 F1 FD
+59) Change to Programming session with service 0x10 02
+60) Read active session with service 0x22 F1 FD
+61) Request reset the camera with service 0x11 02 in Physical Addressing Mode
+62) Wait 7000 ms
+63) Read active session with service 0x22 F1 FD
+64) Tester present OFF wait 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) -
+2) -
+3) Positive response is received: 0x 62 F1 FD 01
+4) No response is received
+5) -
+6) Positive response is received: 0x 62 F1 FD 01
+7) -
+8) Positive response is received: 0x 62 F1 FD 03
+9) No response is received
+10) -
+11) Positive response is received: 0x 62 F1 FD 01
+12) -
+13) Positive response is received: 0x 62 F1 FD 02
+14) No response is received
+15) -
+16) Positive response is received: 0x 62 F1 FD 01
+17) -
+18) Positive response is received: 0x 62 F1 FD 01
+19) No response is received
+20) -
+21) Positive response is received: 0x 62 F1 FD 01
+22) -
+23) Positive response is received: 0x 62 F1 FD 03
+24) No response is received
+25) -
+26) Positive response is received: 0x 62 F1 FD 01
+27) -
+28) Positive response is received: 0x 62 F1 FD 02
+29) No response is received
+30) -
+31) Positive response is received: 0x 62 F1 FD 01
+32) -
+33) -
+34) -
+35) Positive response is received: 0x 62 F1 FD 01
+36) Negative response is received: 0x7F 51 7F
+37) -
+38) Positive response is received: 0x 62 F1 FD 01
+39) -
+40) Positive response is received: 0x 62 F1 FD 03
+41) Negative response is received: 0x7F 51 7F
+42) -
+43) Positive response is received: 0x 62 F1 FD 01
+44) -
+45) Positive response is received: 0x 62 F1 FD 02
+46) Negative response is received: 0x7F 51 7F
+47) -
+48) Positive response is received: 0x 62 F1 FD 01
+49) -
+50) Positive response is received: 0x 62 F1 FD 01
+51) Negative response is received: 0x7F 51 7F
+52) -
+53) Positive response is received: 0x 62 F1 FD 01
+54) -
+55) Positive response is received: 0x 62 F1 FD 03
+56) Negative response is received: 0x7F 51 7F
+57) -
+58) Positive response is received: 0x 62 F1 FD 01
+59) -
+60) Positive response is received: 0x 62 F1 FD 02
+61) Negative response is received: 0x7F 51 7F
+62) -
+63) Positive response is received: 0x 62 F1 FD 01
+64) -
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 0))
+2) DiagSessionCtrl(Default)
+3) RequestResponse(22f1fd, 62f1fd01, Equal)
+4) FunctionalMessage(1101, , None)
+5) wait(7000)
+6) RequestResponse(22f1fd, 62f1fd01, Equal)
+7) DiagSessionCtrl(Extended)
+8) RequestResponse(22f1fd, 62f1fd03, Equal)
+9) FunctionalMessage(1101, , None)
+10) wait(7000)
+11) RequestResponse(22f1fd, 62f1fd01, Equal)
+12) DiagSessionCtrl(Programming)
+13) RequestResponse(22f1fd, 62f1fd02, Equal)
+14) FunctionalMessage(1101, , None)
+15) wait(7000)
+16) RequestResponse(22f1fd, 62f1fd01, Equal)
+17) DiagSessionCtrl(Default)
+18) RequestResponse(22f1fd, 62f1fd01, Equal)
+19) FunctionalMessage(1102, , None)
+20) wait(7000)
+21) RequestResponse(22f1fd, 62f1fd01, Equal)
+22) DiagSessionCtrl(Extended)
+23) RequestResponse(22f1fd, 62f1fd03, Equal)
+24) FunctionalMessage(1102, , None)
+25) wait(7000)
+26) RequestResponse(22f1fd, 62f1fd01, Equal)
+27) DiagSessionCtrl(Programming)
+28) RequestResponse(22f1fd, 62f1fd02, Equal)
+29) FunctionalMessage(1102, , None)
+30) wait(7000)
+31) RequestResponse(22f1fd, 62f1fd01, Equal)
+32) envvar(EnvTesterPresentOnOff(0; 0))
+33) envvar(EnvTesterPresentOnOff(1; 0))
+34) DiagSessionCtrl(Default)
+35) RequestResponse(22f1fd, 62f1fd01, Equal)
+36) RequestResponse(1101, 7f517f, Equal)
+37) wait(7000)
+38) RequestResponse(22f1fd, 62f1fd01, Equal)
+39) DiagSessionCtrl(Extended)
+40) RequestResponse(22f1fd, 62f1fd03, Equal)
+41) RequestResponse(1101, 7f517f, Equal)
+42) wait(7000)
+43) RequestResponse(22f1fd, 62f1fd01, Equal)
+44) DiagSessionCtrl(Programming)
+45) RequestResponse(22f1fd, 62f1fd02, Equal)
+46) RequestResponse(1101, 7f517f, Equal)
+47) wait(7000)
+48) RequestResponse(22f1fd, 62f1fd01, Equal)
+49) DiagSessionCtrl(Default)
+50) RequestResponse(22f1fd, 62f1fd01, Equal)
+51) RequestResponse(1102, 7f517f, Equal)
+52) wait(7000)
+53) RequestResponse(22f1fd, 62f1fd01, Equal)
+54) DiagSessionCtrl(Extended)
+55) RequestResponse(22f1fd, 62f1fd03, Equal)
+56) RequestResponse(1102, 7f517f, Equal)
+57) wait(7000)
+58) RequestResponse(22f1fd, 62f1fd01, Equal)
+59) DiagSessionCtrl(Programming)
+60) RequestResponse(22f1fd, 62f1fd02, Equal)
+61) RequestResponse(1102, 7f517f, Equal)
+62) wait(7000)
+63) RequestResponse(22f1fd, 62f1fd01, Equal)
+64) envvar(EnvTesterPresentOnOff(0; 0))
+</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_79</t>
+  </si>
+  <si>
+    <t>2.9.3 Check suppress bit in service 0x31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 0
+2) Change to Default session with service 0x10 01
+3) Read active session with service 0x22 F1 FD
+4) Request reset the camera with service 0x11 81 in Functional Addressing Mode
+5) Wait 7000 ms
+6) Read active session with service 0x22 F1 FD
+7) Change to Extended session with service 0x10 03
+8) Read active session with service 0x22 F1 FD
+9) Request reset the camera with service 0x11 81 in Functional Addressing Mode
+10) Wait 7000 ms
+11) Read active session with service 0x22 F1 FD
+12) Change to Programming session with service 0x10 02
+13) Read active session with service 0x22 F1 FD
+14) Request reset the camera with service 0x11 81 in Functional Addressing Mode
+15) Wait 7000 ms
+16) Read active session with service 0x22 F1 FD
+17) Change to Default session with service 0x10 01
+18) Read active session with service 0x22 F1 FD
+19) Request reset the camera with service 0x11 82 in Functional Addressing Mode
+20) Wait 7000 ms
+21) Read active session with service 0x22 F1 FD
+22) Change to Extended session with service 0x10 03
+23) Read active session with service 0x22 F1 FD
+24) Request reset the camera with service 0x11 82 in Functional Addressing Mode
+25) Wait 7000 ms
+26) Read active session with service 0x22 F1 FD
+27) Change to Programming session with service 0x10 02
+28) Read active session with service 0x22 F1 FD
+29) Request reset the camera with service 0x11 82 in Functional Addressing Mode
+30) Wait 7000 ms
+31) Read active session with service 0x22 F1 FD
+32) Tester present OFF wait 0
+33) Tester present ON wait 0
+34) Change to Default session with service 0x10 01
+35) Read active session with service 0x22 F1 FD
+36) Request reset the camera with service 0x11 81 in Physical Addressing Mode
+37) Wait 7000 ms
+38) Read active session with service 0x22 F1 FD
+39) Change to Extended session with service 0x10 03
+40) Read active session with service 0x22 F1 FD
+41) Request reset the camera with service 0x11 81 in Physical Addressing Mode
+42) Wait 7000 ms
+43) Read active session with service 0x22 F1 FD
+44) Change to Programming session with service 0x10 02
+45) Read active session with service 0x22 F1 FD
+46) Request reset the camera with service 0x11 81 in Physical Addressing Mode
+47) Wait 7000 ms
+48) Read active session with service 0x22 F1 FD
+49) Change to Default session with service 0x10 01
+50) Read active session with service 0x22 F1 FD
+51) Request reset the camera with service 0x11 82 in Physical Addressing Mode
+52) Wait 7000 ms
+53) Read active session with service 0x22 F1 FD
+54) Change to Extended session with service 0x10 03
+55) Read active session with service 0x22 F1 FD
+56) Request reset the camera with service 0x11 82 in Physical Addressing Mode
+57) Wait 7000 ms
+58) Read active session with service 0x22 F1 FD
+59) Change to Programming session with service 0x10 02
+60) Read active session with service 0x22 F1 FD
+61) Request reset the camera with service 0x11 82 in Physical Addressing Mode
+62) Wait 7000 ms
+63) Read active session with service 0x22 F1 FD
+64) Tester present OFF wait 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 0))
+2) DiagSessionCtrl(Default)
+3) RequestResponse(22f1fd, 62f1fd01, Equal)
+4) FunctionalMessage(1181, , None)
+5) wait(7000)
+6) RequestResponse(22f1fd, 62f1fd01, Equal)
+7) DiagSessionCtrl(Extended)
+8) RequestResponse(22f1fd, 62f1fd03, Equal)
+9) FunctionalMessage(1181, , None)
+10) wait(7000)
+11) RequestResponse(22f1fd, 62f1fd01, Equal)
+12) DiagSessionCtrl(Programming)
+13) RequestResponse(22f1fd, 62f1fd02, Equal)
+14) FunctionalMessage(1181, , None)
+15) wait(7000)
+16) RequestResponse(22f1fd, 62f1fd01, Equal)
+17) DiagSessionCtrl(Default)
+18) RequestResponse(22f1fd, 62f1fd01, Equal)
+19) FunctionalMessage(1182, , None)
+20) wait(7000)
+21) RequestResponse(22f1fd, 62f1fd01, Equal)
+22) DiagSessionCtrl(Extended)
+23) RequestResponse(22f1fd, 62f1fd03, Equal)
+24) FunctionalMessage(1182, , None)
+25) wait(7000)
+26) RequestResponse(22f1fd, 62f1fd01, Equal)
+27) DiagSessionCtrl(Programming)
+28) RequestResponse(22f1fd, 62f1fd02, Equal)
+29) FunctionalMessage(1182, , None)
+30) wait(7000)
+31) RequestResponse(22f1fd, 62f1fd01, Equal)
+32) envvar(EnvTesterPresentOnOff(0; 0))
+33) envvar(EnvTesterPresentOnOff(1; 0))
+34) DiagSessionCtrl(Default)
+35) RequestResponse(22f1fd, 62f1fd01, Equal)
+36) RequestResponse(1181, 7f517f, Equal)
+37) wait(7000)
+38) RequestResponse(22f1fd, 62f1fd01, Equal)
+39) DiagSessionCtrl(Extended)
+40) RequestResponse(22f1fd, 62f1fd03, Equal)
+41) RequestResponse(1181, 7f517f, Equal)
+42) wait(7000)
+43) RequestResponse(22f1fd, 62f1fd01, Equal)
+44) DiagSessionCtrl(Programming)
+45) RequestResponse(22f1fd, 62f1fd02, Equal)
+46) RequestResponse(1181, 7f517f, Equal)
+47) wait(7000)
+48) RequestResponse(22f1fd, 62f1fd01, Equal)
+49) DiagSessionCtrl(Default)
+50) RequestResponse(22f1fd, 62f1fd01, Equal)
+51) RequestResponse(1182, 7f517f, Equal)
+52) wait(7000)
+53) RequestResponse(22f1fd, 62f1fd01, Equal)
+54) DiagSessionCtrl(Extended)
+55) RequestResponse(22f1fd, 62f1fd03, Equal)
+56) RequestResponse(1182, 7f517f, Equal)
+57) wait(7000)
+58) RequestResponse(22f1fd, 62f1fd01, Equal)
+59) DiagSessionCtrl(Programming)
+60) RequestResponse(22f1fd, 62f1fd02, Equal)
+61) RequestResponse(1182, 7f517f, Equal)
+62) wait(7000)
+63) RequestResponse(22f1fd, 62f1fd01, Equal)
+64) envvar(EnvTesterPresentOnOff(0; 0))
+</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_80</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Change to Default session with service 0x10 01
+2) Wait 1000 ms
+3) Read active session with service 0x22 F1 FD
+4) Request tester present with service 0x3E 80 in Physical Addressing Mode
+5) Change to Extended session with service 0x10 03
+6) Wait 1000 ms
+7) Read active session with service 0x22 F1 FD
+8) Request tester present with service 0x3E 80 in Physical Addressing Mode
+9) Change to Programming session with service 0x10 02
+10) Wait 1000 ms
+11) Read active session with service 0x22 F1 FD
+12) Request tester present with service 0x3E 80 in Physical Addressing Mode
+13) Change to Default session with service 0x10 01
+14) Read active session with service 0x22 F1 FD
+15) Change to Default session with service 0x10 01
+16) Wait 1000 ms
+17) Read active session with service 0x22 F1 FD
+18) Request tester present with service 0x3E 80 in Physical Addressing Mode
+19) Change to Extended session with service 0x10 03
+20) Wait 1000 ms
+21) Read active session with service 0x22 F1 FD
+22) Request tester present with service 0x3E 80 in Physical Addressing Mode
+23) Change to Programming session with service 0x10 02
+24) Wait 1000 ms
+25) Read active session with service 0x22 F1 FD
+26) Request tester present with service 0x3E 80 in Physical Addressing Mode
+27) Change to Default session with service 0x10 01
+28) Read active session with service 0x22 F1 FD
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">1) -
 2) -
 3) Positive response is received: 0x 62 F1 FD 01
 4) Positive response is received: 0x7E 80
-5) Positive response is received: 0x7E 80
+5) -
+6) -
+7) Positive response is received: 0x 62 F1 FD 03
+8) Negative response is received: 0x7F 7E 7F
+9) -
+10) -
+11) Positive response is received: 0x 62 F1 FD 02
+12) Positive response is received: 0x7E 80
+13) -
+14) Positive response is received: 0x 62 F1 FD 01
+15) -
+16) -
+17) Positive response is received: 0x 62 F1 FD 01
+18) Positive response is received: 0x7E 80
+19) -
+20) -
+21) Positive response is received: 0x 62 F1 FD 03
+22) Negative response is received: 0x7F 7E 7F
+23) -
+24) -
+25) Positive response is received: 0x 62 F1 FD 02
+26) Positive response is received: 0x7E 80
+27) -
+28) Positive response is received: 0x 62 F1 FD 01
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) DiagSessionCtrl(Default)
+2) wait(1000)
+3) RequestResponse(22f1fd, 62f1fd01, Equal)
+4) RequestResponse(3e80, 7e80, Equal)
+5) DiagSessionCtrl(Extended)
+6) wait(1000)
+7) RequestResponse(22f1fd, 62f1fd03, Equal)
+8) RequestResponse(3e80, 7f7e7f, Equal)
+9) DiagSessionCtrl(Programming)
+10) wait(1000)
+11) RequestResponse(22f1fd, 62f1fd02, Equal)
+12) RequestResponse(3e80, 7e80, Equal)
+13) DiagSessionCtrl(Default)
+14) RequestResponse(22f1fd, 62f1fd01, Equal)
+15) DiagSessionCtrl(Default)
+16) wait(1000)
+17) RequestResponse(22f1fd, 62f1fd01, Equal)
+18) RequestResponse(3e80, 7e80, Equal)
+19) DiagSessionCtrl(Extended)
+20) wait(1000)
+21) RequestResponse(22f1fd, 62f1fd03, Equal)
+22) RequestResponse(3e80, 7f7e7f, Equal)
+23) DiagSessionCtrl(Programming)
+24) wait(1000)
+25) RequestResponse(22f1fd, 62f1fd02, Equal)
+26) RequestResponse(3e80, 7e80, Equal)
+27) DiagSessionCtrl(Default)
+28) RequestResponse(22f1fd, 62f1fd01, Equal)
+</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) -
+2) -
+3) Positive response is received: 0x 62 F1 FD 01
+4) No response is received
+5) -
+6) -
+7) Positive response is received: 0x 62 F1 FD 03
+8) Positive response is received: 0x7E 00
+9) -
+10) -
+11) Positive response is received: 0x 62 F1 FD 02
+12) No response is received
+13) -
+14) -
+15) Positive response is received: 0x 62 F1 FD 01
+16) Positive response is received: 0x7E 00
+17) -
+18) -
+19) Positive response is received: 0x 62 F1 FD 03
+20) Negative response is received: 0x7F 7E 7F
+21) -
+22) -
+23) Positive response is received: 0x 62 F1 FD 02
+24) Positive response is received: 0x7E 00
+25) -
+26) Positive response is received: 0x 62 F1 FD 01
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) DiagSessionCtrl(Default)
+2) wait(1000)
+3) RequestResponse(22f1fd, 62f1fd01, Equal)
+4) FunctionalMessage(3e00, , None)
+5) DiagSessionCtrl(Extended)
+6) wait(1000)
+7) RequestResponse(22f1fd, 62f1fd03, Equal)
+8) FunctionalMessage(3e00, 7e00, Equal)
+9) DiagSessionCtrl(Programming)
+10) wait(1000)
+11) RequestResponse(22f1fd, 62f1fd02, Equal)
+12) FunctionalMessage(3e00, , None)
+13) DiagSessionCtrl(Default)
+14) wait(1000)
+15) RequestResponse(22f1fd, 62f1fd01, Equal)
+16) RequestResponse(3e00, 7e00, Equal)
+17) DiagSessionCtrl(Extended)
+18) wait(1000)
+19) RequestResponse(22f1fd, 62f1fd03, Equal)
+20) RequestResponse(3e00, 7f7e7f, Equal)
+21) DiagSessionCtrl(Programming)
+22) wait(1000)
+23) RequestResponse(22f1fd, 62f1fd02, Equal)
+24) RequestResponse(3e00, 7e00, Equal)
+25) DiagSessionCtrl(Default)
+26) RequestResponse(22f1fd, 62f1fd01, Equal)
+</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) -
+2) -
+3) Positive response is received: 0x 62 F1 FD 01
+4) Positive response is received: 0x7E 80
+5) No response is received
 6) -
 7) -
 8) Positive response is received: 0x 62 F1 FD 03
-9) Positive response is received: 0x7E 80
+9) Negative response is received: 0x7F 7E 7F
 10) Positive response is received: 0x7E 80
 11) -
 12) -
 13) Positive response is received: 0x 62 F1 FD 02
 14) Positive response is received: 0x7E 80
-15) Positive response is received: 0x7E 80
+15) No response is received
 16) -
 17) Positive response is received: 0x 62 F1 FD 01
 </t>
@@ -2515,107 +7144,51 @@
 2) wait(1000)
 3) RequestResponse(22f1fd, 62f1fd01, Equal)
 4) RequestResponse(3e80, 7e80, Equal)
-5) FunctionalMessage(3e80, 7e80, Equal)
+5) FunctionalMessage(3e80, , None)
 6) DiagSessionCtrl(Extended)
 7) wait(1000)
 8) RequestResponse(22f1fd, 62f1fd03, Equal)
-9) RequestResponse(3e80, 7e80, Equal)
+9) RequestResponse(3e80, 7f7e7f, Equal)
 10) FunctionalMessage(3e80, 7e80, Equal)
 11) DiagSessionCtrl(Programming)
 12) wait(1000)
 13) RequestResponse(22f1fd, 62f1fd02, Equal)
 14) RequestResponse(3e80, 7e80, Equal)
-15) FunctionalMessage(3e80, 7e80, Equal)
+15) FunctionalMessage(3e80, , None)
 16) DiagSessionCtrl(Default)
 17) RequestResponse(22f1fd, 62f1fd01, Equal)
 </t>
   </si>
   <si>
-    <t>Testcase_SAIC_AS28_R1.0_DCOM_29</t>
-  </si>
-  <si>
-    <t>2.10.4.4: Check Engine_Status  condition in service 0x3E</t>
-  </si>
-  <si>
-    <t>This testcase check all supported condition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Set the Vehicle_Speed to Value 4.8 Wait 100 ms
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_84</t>
+  </si>
+  <si>
+    <t>2.10.4.4: Check Vehicle_Speed  condition in service 0x3E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Set the Vehicle_Speed to Value 0 Wait 100 ms
 2) Request tester present with service 0x3E 00 in Physical Addressing Mode
 3) Request tester present with service 0x3E 00 in Functional Addressing Mode
 4) Request tester present with service 0x3E 80 in Physical Addressing Mode
 5) Request tester present with service 0x3E 80 in Functional Addressing Mode
-6) Set the Vehicle_Speed to Value 5 Wait 100 ms
-7) Request tester present with service 0x3E 00 in Physical Addressing Mode
-8) Request tester present with service 0x3E 00 in Functional Addressing Mode
-9) Request tester present with service 0x3E 80 in Physical Addressing Mode
-10) Request tester present with service 0x3E 80 in Functional Addressing Mode
-11) Set the Vehicle_Speed to Value 5.2 Wait 100 ms
-12) Request tester present with service 0x3E 00 in Physical Addressing Mode
-13) Request tester present with service 0x3E 00 in Functional Addressing Mode
-14) Request tester present with service 0x3E 80 in Physical Addressing Mode
-15) Request tester present with service 0x3E 80 in Functional Addressing Mode
-16) Set the Vehicle_Speed to Value 0 Wait 100 ms
-17) Request tester present with service 0x3E 00 in Physical Addressing Mode
-18) Request tester present with service 0x3E 00 in Functional Addressing Mode
-19) Request tester present with service 0x3E 80 in Physical Addressing Mode
-20) Request tester present with service 0x3E 80 in Functional Addressing Mode
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) -
-2) Positive response is received: 0x7E 00
-3) Positive response is received: 0x7E 00
-4) Positive response is received: 0x7E 80
-5) Positive response is received: 0x7E 80
-6) -
-7) Positive response is received: 0x7E 00
-8) Positive response is received: 0x7E 00
-9) Positive response is received: 0x7E 80
-10) Positive response is received: 0x7E 80
-11) -
-12) Negative response is received: 0x7F 7E 22
-13) Negative response is received: 0x7F 7E 22
-14) Negative response is received: 0x7F 7E 22
-15) Negative response is received: 0x7F 7E 22
-16) -
-17) Positive response is received: 0x7E 00
-18) Positive response is received: 0x7E 00
-19) Positive response is received: 0x7E 80
-20) Positive response is received: 0x7E 80
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) EnvVar(EnvVehicle_Speed(4.8, 100))
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) EnvVar(EnvVehicle_Speed(0, 100))
 2) RequestResponse(3e00, 7e00, Equal)
 3) FunctionalMessage(3e00, 7e00, Equal)
 4) RequestResponse(3e80, 7e80, Equal)
 5) FunctionalMessage(3e80, 7e80, Equal)
-6) EnvVar(EnvVehicle_Speed(5, 100))
-7) RequestResponse(3e00, 7e00, Equal)
-8) FunctionalMessage(3e00, 7e00, Equal)
-9) RequestResponse(3e80, 7e80, Equal)
-10) FunctionalMessage(3e80, 7e80, Equal)
-11) EnvVar(EnvVehicle_Speed(5.2, 100))
-12) RequestResponse(3e00, 7f7e22, Equal)
-13) FunctionalMessage(3e00, 7f7e22, Equal)
-14) RequestResponse(3e80, 7f7e22, Equal)
-15) FunctionalMessage(3e80, 7f7e22, Equal)
-16) EnvVar(EnvVehicle_Speed(0, 100))
-17) RequestResponse(3e00, 7e00, Equal)
-18) FunctionalMessage(3e00, 7e00, Equal)
-19) RequestResponse(3e80, 7e80, Equal)
-20) FunctionalMessage(3e80, 7e80, Equal)
-</t>
-  </si>
-  <si>
-    <t>Testcase_SAIC_AS28_R1.0_DCOM_30</t>
-  </si>
-  <si>
-    <t>2.10.5.5: Check Vehicle_Speed  condition in service 0x3E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Set the Engine_Status to Value 1 () Wait 100 ms
+</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_85</t>
+  </si>
+  <si>
+    <t>2.10.5.5: Check Engine_Status  condition in service 0x3E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Set the Engine_Status to Value 0 () Wait 100 ms
 2) Request tester present with service 0x3E 00 in Physical Addressing Mode
 3) Request tester present with service 0x3E 00 in Functional Addressing Mode
 4) Request tester present with service 0x3E 80 in Physical Addressing Mode
@@ -2623,19 +7196,879 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1) -
-2) Positive response is received: 0x7E 00
-3) Positive response is received: 0x7E 00
-4) Positive response is received: 0x7E 80
-5) Positive response is received: 0x7E 80
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) EnvVar(EnvEngine_Status(1, 100))
+    <t xml:space="preserve">1) EnvVar(EnvEngine_Status(0, 100))
 2) RequestResponse(3e00, 7e00, Equal)
 3) FunctionalMessage(3e00, 7e00, Equal)
 4) RequestResponse(3e80, 7e80, Equal)
 5) FunctionalMessage(3e80, 7e80, Equal)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Set the Current_Voltage to Value 0 () Wait 100 ms
+2) Request tester present with service 0x3E 00 in Physical Addressing Mode
+3) Request tester present with service 0x3E 00 in Functional Addressing Mode
+4) Request tester present with service 0x3E 80 in Physical Addressing Mode
+5) Request tester present with service 0x3E 80 in Functional Addressing Mode
+</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_87</t>
+  </si>
+  <si>
+    <t>2.10.7.7: Check Voltage  condition in service 0x3E</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_88</t>
+  </si>
+  <si>
+    <t>2.11 Service 85h - Control DTC Setting</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_89</t>
+  </si>
+  <si>
+    <t>2.11.1 Check all allowed diagnostic sessions in service 0x85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 100
+2) Change to Default session with service 0x10 01
+3) Read active session with service 0x22 F1 FD
+4) Request control DTC setting with service 0x85 01 in Physical Addressing Mode
+5) Wait 7000 ms
+6) Read active session with service 0x22 F1 FD
+7) Change to Extended session with service 0x10 03
+8) Read active session with service 0x22 F1 FD
+9) Request control DTC setting with service 0x85 01 in Physical Addressing Mode
+10) Wait 7000 ms
+11) Read active session with service 0x22 F1 FD
+12) Change to Programming session with service 0x10 02
+13) Read active session with service 0x22 F1 FD
+14) Request control DTC setting with service 0x85 01 in Physical Addressing Mode
+15) Wait 7000 ms
+16) Read active session with service 0x22 F1 FD
+17) Change to Default session with service 0x10 01
+18) Read active session with service 0x22 F1 FD
+19) Request control DTC setting with service 0x85 02 in Physical Addressing Mode
+20) Wait 7000 ms
+21) Read active session with service 0x22 F1 FD
+22) Change to Extended session with service 0x10 03
+23) Read active session with service 0x22 F1 FD
+24) Request control DTC setting with service 0x85 02 in Physical Addressing Mode
+25) Wait 7000 ms
+26) Read active session with service 0x22 F1 FD
+27) Change to Programming session with service 0x10 02
+28) Read active session with service 0x22 F1 FD
+29) Request control DTC setting with service 0x85 02 in Physical Addressing Mode
+30) Wait 7000 ms
+31) Read active session with service 0x22 F1 FD
+32) Change to Default session with service 0x10 01
+33) Read active session with service 0x22 F1 FD
+34) Request control DTC setting with service 0x85 01 in Physical Addressing Mode
+35) Wait 7000 ms
+36) Read active session with service 0x22 F1 FD
+37) Change to Extended session with service 0x10 03
+38) Read active session with service 0x22 F1 FD
+39) Request control DTC setting with service 0x85 01 in Physical Addressing Mode
+40) Wait 7000 ms
+41) Read active session with service 0x22 F1 FD
+42) Change to Programming session with service 0x10 02
+43) Read active session with service 0x22 F1 FD
+44) Request control DTC setting with service 0x85 01 in Physical Addressing Mode
+45) Wait 7000 ms
+46) Read active session with service 0x22 F1 FD
+47) Change to Default session with service 0x10 01
+48) Read active session with service 0x22 F1 FD
+49) Request control DTC setting with service 0x85 02 in Physical Addressing Mode
+50) Wait 7000 ms
+51) Read active session with service 0x22 F1 FD
+52) Change to Extended session with service 0x10 03
+53) Read active session with service 0x22 F1 FD
+54) Request control DTC setting with service 0x85 02 in Physical Addressing Mode
+55) Wait 7000 ms
+56) Read active session with service 0x22 F1 FD
+57) Change to Programming session with service 0x10 02
+58) Read active session with service 0x22 F1 FD
+59) Request control DTC setting with service 0x85 02 in Physical Addressing Mode
+60) Wait 7000 ms
+61) Read active session with service 0x22 F1 FD
+62) Tester present OFF wait 100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) -
+2) -
+3) Positive response is received: 0x 62 F1 FD 01
+4) No response is received
+5) -
+6) Positive response is received: 0x 62 F1 FD 01
+7) -
+8) Positive response is received: 0x 62 F1 FD 03
+9) No response is received
+10) -
+11) Positive response is received: 0x 62 F1 FD 01
+12) -
+13) Positive response is received: 0x 62 F1 FD 02
+14) Negative response is received: 0x7F C5 7F
+15) -
+16) Positive response is received: 0x 62 F1 FD 01
+17) -
+18) Positive response is received: 0x 62 F1 FD 01
+19) No response is received
+20) -
+21) Positive response is received: 0x 62 F1 FD 01
+22) -
+23) Positive response is received: 0x 62 F1 FD 03
+24) No response is received
+25) -
+26) Positive response is received: 0x 62 F1 FD 01
+27) -
+28) Positive response is received: 0x 62 F1 FD 02
+29) Negative response is received: 0x7F C5 7F
+30) -
+31) Positive response is received: 0x 62 F1 FD 01
+32) -
+33) Positive response is received: 0x 62 F1 FD 01
+34) No response is received
+35) -
+36) Positive response is received: 0x 62 F1 FD 01
+37) -
+38) Positive response is received: 0x 62 F1 FD 03
+39) No response is received
+40) -
+41) Positive response is received: 0x 62 F1 FD 01
+42) -
+43) Positive response is received: 0x 62 F1 FD 02
+44) Negative response is received: 0x7F C5 7F
+45) -
+46) Positive response is received: 0x 62 F1 FD 01
+47) -
+48) Positive response is received: 0x 62 F1 FD 01
+49) No response is received
+50) -
+51) Positive response is received: 0x 62 F1 FD 01
+52) -
+53) Positive response is received: 0x 62 F1 FD 03
+54) No response is received
+55) -
+56) Positive response is received: 0x 62 F1 FD 01
+57) -
+58) Positive response is received: 0x 62 F1 FD 02
+59) Negative response is received: 0x7F C5 7F
+60) -
+61) Positive response is received: 0x 62 F1 FD 01
+62) -
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
+2) DiagSessionCtrl(Default)
+3) RequestResponse(22f1fd, 62f1fd01, Equal)
+4) RequestResponse(8501, , None)
+5) wait(7000)
+6) RequestResponse(22f1fd, 62f1fd01, Equal)
+7) DiagSessionCtrl(Extended)
+8) RequestResponse(22f1fd, 62f1fd03, Equal)
+9) RequestResponse(8501, , None)
+10) wait(7000)
+11) RequestResponse(22f1fd, 62f1fd01, Equal)
+12) DiagSessionCtrl(Programming)
+13) RequestResponse(22f1fd, 62f1fd02, Equal)
+14) RequestResponse(8501, 7fc57f, Equal)
+15) wait(7000)
+16) RequestResponse(22f1fd, 62f1fd01, Equal)
+17) DiagSessionCtrl(Default)
+18) RequestResponse(22f1fd, 62f1fd01, Equal)
+19) RequestResponse(8502, , None)
+20) wait(7000)
+21) RequestResponse(22f1fd, 62f1fd01, Equal)
+22) DiagSessionCtrl(Extended)
+23) RequestResponse(22f1fd, 62f1fd03, Equal)
+24) RequestResponse(8502, , None)
+25) wait(7000)
+26) RequestResponse(22f1fd, 62f1fd01, Equal)
+27) DiagSessionCtrl(Programming)
+28) RequestResponse(22f1fd, 62f1fd02, Equal)
+29) RequestResponse(8502, 7fc57f, Equal)
+30) wait(7000)
+31) RequestResponse(22f1fd, 62f1fd01, Equal)
+32) DiagSessionCtrl(Default)
+33) RequestResponse(22f1fd, 62f1fd01, Equal)
+34) RequestResponse(8501, , None)
+35) wait(7000)
+36) RequestResponse(22f1fd, 62f1fd01, Equal)
+37) DiagSessionCtrl(Extended)
+38) RequestResponse(22f1fd, 62f1fd03, Equal)
+39) RequestResponse(8501, , None)
+40) wait(7000)
+41) RequestResponse(22f1fd, 62f1fd01, Equal)
+42) DiagSessionCtrl(Programming)
+43) RequestResponse(22f1fd, 62f1fd02, Equal)
+44) RequestResponse(8501, 7fc57f, Equal)
+45) wait(7000)
+46) RequestResponse(22f1fd, 62f1fd01, Equal)
+47) DiagSessionCtrl(Default)
+48) RequestResponse(22f1fd, 62f1fd01, Equal)
+49) RequestResponse(8502, , None)
+50) wait(7000)
+51) RequestResponse(22f1fd, 62f1fd01, Equal)
+52) DiagSessionCtrl(Extended)
+53) RequestResponse(22f1fd, 62f1fd03, Equal)
+54) RequestResponse(8502, , None)
+55) wait(7000)
+56) RequestResponse(22f1fd, 62f1fd01, Equal)
+57) DiagSessionCtrl(Programming)
+58) RequestResponse(22f1fd, 62f1fd02, Equal)
+59) RequestResponse(8502, 7fc57f, Equal)
+60) wait(7000)
+61) RequestResponse(22f1fd, 62f1fd01, Equal)
+62) envvar(EnvTesterPresentOnOff(0; 100))
+</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_90</t>
+  </si>
+  <si>
+    <t>2.11.2 Check all supported addressing mode in service 0x85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 0
+2) Change to Default session with service 0x10 01
+3) Read active session with service 0x22 F1 FD
+4) Request control DTC setting with service 0x85 01 in Functional Addressing Mode
+5) Wait 7000 ms
+6) Read active session with service 0x22 F1 FD
+7) Change to Extended session with service 0x10 03
+8) Read active session with service 0x22 F1 FD
+9) Request control DTC setting with service 0x85 01 in Functional Addressing Mode
+10) Wait 7000 ms
+11) Read active session with service 0x22 F1 FD
+12) Change to Programming session with service 0x10 02
+13) Read active session with service 0x22 F1 FD
+14) Request control DTC setting with service 0x85 01 in Functional Addressing Mode
+15) Wait 7000 ms
+16) Read active session with service 0x22 F1 FD
+17) Change to Default session with service 0x10 01
+18) Read active session with service 0x22 F1 FD
+19) Request control DTC setting with service 0x85 02 in Functional Addressing Mode
+20) Wait 7000 ms
+21) Read active session with service 0x22 F1 FD
+22) Change to Extended session with service 0x10 03
+23) Read active session with service 0x22 F1 FD
+24) Request control DTC setting with service 0x85 02 in Functional Addressing Mode
+25) Wait 7000 ms
+26) Read active session with service 0x22 F1 FD
+27) Change to Programming session with service 0x10 02
+28) Read active session with service 0x22 F1 FD
+29) Request control DTC setting with service 0x85 02 in Functional Addressing Mode
+30) Wait 7000 ms
+31) Read active session with service 0x22 F1 FD
+32) Change to Default session with service 0x10 01
+33) Read active session with service 0x22 F1 FD
+34) Request control DTC setting with service 0x85 01 in Functional Addressing Mode
+35) Wait 7000 ms
+36) Read active session with service 0x22 F1 FD
+37) Change to Extended session with service 0x10 03
+38) Read active session with service 0x22 F1 FD
+39) Request control DTC setting with service 0x85 01 in Functional Addressing Mode
+40) Wait 7000 ms
+41) Read active session with service 0x22 F1 FD
+42) Change to Programming session with service 0x10 02
+43) Read active session with service 0x22 F1 FD
+44) Request control DTC setting with service 0x85 01 in Functional Addressing Mode
+45) Wait 7000 ms
+46) Read active session with service 0x22 F1 FD
+47) Change to Default session with service 0x10 01
+48) Read active session with service 0x22 F1 FD
+49) Request control DTC setting with service 0x85 02 in Functional Addressing Mode
+50) Wait 7000 ms
+51) Read active session with service 0x22 F1 FD
+52) Change to Extended session with service 0x10 03
+53) Read active session with service 0x22 F1 FD
+54) Request control DTC setting with service 0x85 02 in Functional Addressing Mode
+55) Wait 7000 ms
+56) Read active session with service 0x22 F1 FD
+57) Change to Programming session with service 0x10 02
+58) Read active session with service 0x22 F1 FD
+59) Request control DTC setting with service 0x85 02 in Functional Addressing Mode
+60) Wait 7000 ms
+61) Read active session with service 0x22 F1 FD
+62) Tester present OFF wait 0
+63) Tester present ON wait 0
+64) Change to Default session with service 0x10 01
+65) Read active session with service 0x22 F1 FD
+66) Request control DTC setting with service 0x85 01 in Physical Addressing Mode
+67) Wait 7000 ms
+68) Read active session with service 0x22 F1 FD
+69) Change to Extended session with service 0x10 03
+70) Read active session with service 0x22 F1 FD
+71) Request control DTC setting with service 0x85 01 in Physical Addressing Mode
+72) Wait 7000 ms
+73) Read active session with service 0x22 F1 FD
+74) Change to Programming session with service 0x10 02
+75) Read active session with service 0x22 F1 FD
+76) Request control DTC setting with service 0x85 01 in Physical Addressing Mode
+77) Wait 7000 ms
+78) Read active session with service 0x22 F1 FD
+79) Change to Default session with service 0x10 01
+80) Read active session with service 0x22 F1 FD
+81) Request control DTC setting with service 0x85 02 in Physical Addressing Mode
+82) Wait 7000 ms
+83) Read active session with service 0x22 F1 FD
+84) Change to Extended session with service 0x10 03
+85) Read active session with service 0x22 F1 FD
+86) Request control DTC setting with service 0x85 02 in Physical Addressing Mode
+87) Wait 7000 ms
+88) Read active session with service 0x22 F1 FD
+89) Change to Programming session with service 0x10 02
+90) Read active session with service 0x22 F1 FD
+91) Request control DTC setting with service 0x85 02 in Physical Addressing Mode
+92) Wait 7000 ms
+93) Read active session with service 0x22 F1 FD
+94) Change to Default session with service 0x10 01
+95) Read active session with service 0x22 F1 FD
+96) Request control DTC setting with service 0x85 01 in Physical Addressing Mode
+97) Wait 7000 ms
+98) Read active session with service 0x22 F1 FD
+99) Change to Extended session with service 0x10 03
+100) Read active session with service 0x22 F1 FD
+101) Request control DTC setting with service 0x85 01 in Physical Addressing Mode
+102) Wait 7000 ms
+103) Read active session with service 0x22 F1 FD
+104) Change to Programming session with service 0x10 02
+105) Read active session with service 0x22 F1 FD
+106) Request control DTC setting with service 0x85 01 in Physical Addressing Mode
+107) Wait 7000 ms
+108) Read active session with service 0x22 F1 FD
+109) Change to Default session with service 0x10 01
+110) Read active session with service 0x22 F1 FD
+111) Request control DTC setting with service 0x85 02 in Physical Addressing Mode
+112) Wait 7000 ms
+113) Read active session with service 0x22 F1 FD
+114) Change to Extended session with service 0x10 03
+115) Read active session with service 0x22 F1 FD
+116) Request control DTC setting with service 0x85 02 in Physical Addressing Mode
+117) Wait 7000 ms
+118) Read active session with service 0x22 F1 FD
+119) Change to Programming session with service 0x10 02
+120) Read active session with service 0x22 F1 FD
+121) Request control DTC setting with service 0x85 02 in Physical Addressing Mode
+122) Wait 7000 ms
+123) Read active session with service 0x22 F1 FD
+124) Tester present OFF wait 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) -
+2) -
+3) Positive response is received: 0x 62 F1 FD 01
+4) No response is received
+5) -
+6) Positive response is received: 0x 62 F1 FD 01
+7) -
+8) Positive response is received: 0x 62 F1 FD 03
+9) No response is received
+10) -
+11) Positive response is received: 0x 62 F1 FD 01
+12) -
+13) Positive response is received: 0x 62 F1 FD 02
+14) No response is received
+15) -
+16) Positive response is received: 0x 62 F1 FD 01
+17) -
+18) Positive response is received: 0x 62 F1 FD 01
+19) No response is received
+20) -
+21) Positive response is received: 0x 62 F1 FD 01
+22) -
+23) Positive response is received: 0x 62 F1 FD 03
+24) No response is received
+25) -
+26) Positive response is received: 0x 62 F1 FD 01
+27) -
+28) Positive response is received: 0x 62 F1 FD 02
+29) No response is received
+30) -
+31) Positive response is received: 0x 62 F1 FD 01
+32) -
+33) Positive response is received: 0x 62 F1 FD 01
+34) No response is received
+35) -
+36) Positive response is received: 0x 62 F1 FD 01
+37) -
+38) Positive response is received: 0x 62 F1 FD 03
+39) No response is received
+40) -
+41) Positive response is received: 0x 62 F1 FD 01
+42) -
+43) Positive response is received: 0x 62 F1 FD 02
+44) No response is received
+45) -
+46) Positive response is received: 0x 62 F1 FD 01
+47) -
+48) Positive response is received: 0x 62 F1 FD 01
+49) No response is received
+50) -
+51) Positive response is received: 0x 62 F1 FD 01
+52) -
+53) Positive response is received: 0x 62 F1 FD 03
+54) No response is received
+55) -
+56) Positive response is received: 0x 62 F1 FD 01
+57) -
+58) Positive response is received: 0x 62 F1 FD 02
+59) No response is received
+60) -
+61) Positive response is received: 0x 62 F1 FD 01
+62) -
+63) -
+64) -
+65) Positive response is received: 0x 62 F1 FD 01
+66) No response is received
+67) -
+68) Positive response is received: 0x 62 F1 FD 01
+69) -
+70) Positive response is received: 0x 62 F1 FD 03
+71) No response is received
+72) -
+73) Positive response is received: 0x 62 F1 FD 01
+74) -
+75) Positive response is received: 0x 62 F1 FD 02
+76) Negative response is received: 0x7F C5 7F
+77) -
+78) Positive response is received: 0x 62 F1 FD 01
+79) -
+80) Positive response is received: 0x 62 F1 FD 01
+81) No response is received
+82) -
+83) Positive response is received: 0x 62 F1 FD 01
+84) -
+85) Positive response is received: 0x 62 F1 FD 03
+86) No response is received
+87) -
+88) Positive response is received: 0x 62 F1 FD 01
+89) -
+90) Positive response is received: 0x 62 F1 FD 02
+91) Negative response is received: 0x7F C5 7F
+92) -
+93) Positive response is received: 0x 62 F1 FD 01
+94) -
+95) Positive response is received: 0x 62 F1 FD 01
+96) No response is received
+97) -
+98) Positive response is received: 0x 62 F1 FD 01
+99) -
+100) Positive response is received: 0x 62 F1 FD 03
+101) No response is received
+102) -
+103) Positive response is received: 0x 62 F1 FD 01
+104) -
+105) Positive response is received: 0x 62 F1 FD 02
+106) Negative response is received: 0x7F C5 7F
+107) -
+108) Positive response is received: 0x 62 F1 FD 01
+109) -
+110) Positive response is received: 0x 62 F1 FD 01
+111) No response is received
+112) -
+113) Positive response is received: 0x 62 F1 FD 01
+114) -
+115) Positive response is received: 0x 62 F1 FD 03
+116) No response is received
+117) -
+118) Positive response is received: 0x 62 F1 FD 01
+119) -
+120) Positive response is received: 0x 62 F1 FD 02
+121) Negative response is received: 0x7F C5 7F
+122) -
+123) Positive response is received: 0x 62 F1 FD 01
+124) -
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 0))
+2) DiagSessionCtrl(Default)
+3) RequestResponse(22f1fd, 62f1fd01, Equal)
+4) FunctionalMessage(8501, , None)
+5) wait(7000)
+6) RequestResponse(22f1fd, 62f1fd01, Equal)
+7) DiagSessionCtrl(Extended)
+8) RequestResponse(22f1fd, 62f1fd03, Equal)
+9) FunctionalMessage(8501, , None)
+10) wait(7000)
+11) RequestResponse(22f1fd, 62f1fd01, Equal)
+12) DiagSessionCtrl(Programming)
+13) RequestResponse(22f1fd, 62f1fd02, Equal)
+14) FunctionalMessage(8501, , None)
+15) wait(7000)
+16) RequestResponse(22f1fd, 62f1fd01, Equal)
+17) DiagSessionCtrl(Default)
+18) RequestResponse(22f1fd, 62f1fd01, Equal)
+19) FunctionalMessage(8502, , None)
+20) wait(7000)
+21) RequestResponse(22f1fd, 62f1fd01, Equal)
+22) DiagSessionCtrl(Extended)
+23) RequestResponse(22f1fd, 62f1fd03, Equal)
+24) FunctionalMessage(8502, , None)
+25) wait(7000)
+26) RequestResponse(22f1fd, 62f1fd01, Equal)
+27) DiagSessionCtrl(Programming)
+28) RequestResponse(22f1fd, 62f1fd02, Equal)
+29) FunctionalMessage(8502, , None)
+30) wait(7000)
+31) RequestResponse(22f1fd, 62f1fd01, Equal)
+32) DiagSessionCtrl(Default)
+33) RequestResponse(22f1fd, 62f1fd01, Equal)
+34) FunctionalMessage(8501, , None)
+35) wait(7000)
+36) RequestResponse(22f1fd, 62f1fd01, Equal)
+37) DiagSessionCtrl(Extended)
+38) RequestResponse(22f1fd, 62f1fd03, Equal)
+39) FunctionalMessage(8501, , None)
+40) wait(7000)
+41) RequestResponse(22f1fd, 62f1fd01, Equal)
+42) DiagSessionCtrl(Programming)
+43) RequestResponse(22f1fd, 62f1fd02, Equal)
+44) FunctionalMessage(8501, , None)
+45) wait(7000)
+46) RequestResponse(22f1fd, 62f1fd01, Equal)
+47) DiagSessionCtrl(Default)
+48) RequestResponse(22f1fd, 62f1fd01, Equal)
+49) FunctionalMessage(8502, , None)
+50) wait(7000)
+51) RequestResponse(22f1fd, 62f1fd01, Equal)
+52) DiagSessionCtrl(Extended)
+53) RequestResponse(22f1fd, 62f1fd03, Equal)
+54) FunctionalMessage(8502, , None)
+55) wait(7000)
+56) RequestResponse(22f1fd, 62f1fd01, Equal)
+57) DiagSessionCtrl(Programming)
+58) RequestResponse(22f1fd, 62f1fd02, Equal)
+59) FunctionalMessage(8502, , None)
+60) wait(7000)
+61) RequestResponse(22f1fd, 62f1fd01, Equal)
+62) envvar(EnvTesterPresentOnOff(0; 0))
+63) envvar(EnvTesterPresentOnOff(1; 0))
+64) DiagSessionCtrl(Default)
+65) RequestResponse(22f1fd, 62f1fd01, Equal)
+66) RequestResponse(8501, , None)
+67) wait(7000)
+68) RequestResponse(22f1fd, 62f1fd01, Equal)
+69) DiagSessionCtrl(Extended)
+70) RequestResponse(22f1fd, 62f1fd03, Equal)
+71) RequestResponse(8501, , None)
+72) wait(7000)
+73) RequestResponse(22f1fd, 62f1fd01, Equal)
+74) DiagSessionCtrl(Programming)
+75) RequestResponse(22f1fd, 62f1fd02, Equal)
+76) RequestResponse(8501, 7fc57f, Equal)
+77) wait(7000)
+78) RequestResponse(22f1fd, 62f1fd01, Equal)
+79) DiagSessionCtrl(Default)
+80) RequestResponse(22f1fd, 62f1fd01, Equal)
+81) RequestResponse(8502, , None)
+82) wait(7000)
+83) RequestResponse(22f1fd, 62f1fd01, Equal)
+84) DiagSessionCtrl(Extended)
+85) RequestResponse(22f1fd, 62f1fd03, Equal)
+86) RequestResponse(8502, , None)
+87) wait(7000)
+88) RequestResponse(22f1fd, 62f1fd01, Equal)
+89) DiagSessionCtrl(Programming)
+90) RequestResponse(22f1fd, 62f1fd02, Equal)
+91) RequestResponse(8502, 7fc57f, Equal)
+92) wait(7000)
+93) RequestResponse(22f1fd, 62f1fd01, Equal)
+94) DiagSessionCtrl(Default)
+95) RequestResponse(22f1fd, 62f1fd01, Equal)
+96) RequestResponse(8501, , None)
+97) wait(7000)
+98) RequestResponse(22f1fd, 62f1fd01, Equal)
+99) DiagSessionCtrl(Extended)
+100) RequestResponse(22f1fd, 62f1fd03, Equal)
+101) RequestResponse(8501, , None)
+102) wait(7000)
+103) RequestResponse(22f1fd, 62f1fd01, Equal)
+104) DiagSessionCtrl(Programming)
+105) RequestResponse(22f1fd, 62f1fd02, Equal)
+106) RequestResponse(8501, 7fc57f, Equal)
+107) wait(7000)
+108) RequestResponse(22f1fd, 62f1fd01, Equal)
+109) DiagSessionCtrl(Default)
+110) RequestResponse(22f1fd, 62f1fd01, Equal)
+111) RequestResponse(8502, , None)
+112) wait(7000)
+113) RequestResponse(22f1fd, 62f1fd01, Equal)
+114) DiagSessionCtrl(Extended)
+115) RequestResponse(22f1fd, 62f1fd03, Equal)
+116) RequestResponse(8502, , None)
+117) wait(7000)
+118) RequestResponse(22f1fd, 62f1fd01, Equal)
+119) DiagSessionCtrl(Programming)
+120) RequestResponse(22f1fd, 62f1fd02, Equal)
+121) RequestResponse(8502, 7fc57f, Equal)
+122) wait(7000)
+123) RequestResponse(22f1fd, 62f1fd01, Equal)
+124) envvar(EnvTesterPresentOnOff(0; 0))
+</t>
+  </si>
+  <si>
+    <t>Testcase_SAIC_AS28_R1.0_DCOM_91</t>
+  </si>
+  <si>
+    <t>2.11.3 Check suppress bit in service 0x85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 0
+2) Change to Default session with service 0x10 01
+3) Read active session with service 0x22 F1 FD
+4) Request control DTC setting with service 0x85 81 in Functional Addressing Mode
+5) Wait 7000 ms
+6) Read active session with service 0x22 F1 FD
+7) Change to Extended session with service 0x10 03
+8) Read active session with service 0x22 F1 FD
+9) Request control DTC setting with service 0x85 81 in Functional Addressing Mode
+10) Wait 7000 ms
+11) Read active session with service 0x22 F1 FD
+12) Change to Programming session with service 0x10 02
+13) Read active session with service 0x22 F1 FD
+14) Request control DTC setting with service 0x85 81 in Functional Addressing Mode
+15) Wait 7000 ms
+16) Read active session with service 0x22 F1 FD
+17) Change to Default session with service 0x10 01
+18) Read active session with service 0x22 F1 FD
+19) Request control DTC setting with service 0x85 82 in Functional Addressing Mode
+20) Wait 7000 ms
+21) Read active session with service 0x22 F1 FD
+22) Change to Extended session with service 0x10 03
+23) Read active session with service 0x22 F1 FD
+24) Request control DTC setting with service 0x85 82 in Functional Addressing Mode
+25) Wait 7000 ms
+26) Read active session with service 0x22 F1 FD
+27) Change to Programming session with service 0x10 02
+28) Read active session with service 0x22 F1 FD
+29) Request control DTC setting with service 0x85 82 in Functional Addressing Mode
+30) Wait 7000 ms
+31) Read active session with service 0x22 F1 FD
+32) Change to Default session with service 0x10 01
+33) Read active session with service 0x22 F1 FD
+34) Request control DTC setting with service 0x85 81 in Functional Addressing Mode
+35) Wait 7000 ms
+36) Read active session with service 0x22 F1 FD
+37) Change to Extended session with service 0x10 03
+38) Read active session with service 0x22 F1 FD
+39) Request control DTC setting with service 0x85 81 in Functional Addressing Mode
+40) Wait 7000 ms
+41) Read active session with service 0x22 F1 FD
+42) Change to Programming session with service 0x10 02
+43) Read active session with service 0x22 F1 FD
+44) Request control DTC setting with service 0x85 81 in Functional Addressing Mode
+45) Wait 7000 ms
+46) Read active session with service 0x22 F1 FD
+47) Change to Default session with service 0x10 01
+48) Read active session with service 0x22 F1 FD
+49) Request control DTC setting with service 0x85 82 in Functional Addressing Mode
+50) Wait 7000 ms
+51) Read active session with service 0x22 F1 FD
+52) Change to Extended session with service 0x10 03
+53) Read active session with service 0x22 F1 FD
+54) Request control DTC setting with service 0x85 82 in Functional Addressing Mode
+55) Wait 7000 ms
+56) Read active session with service 0x22 F1 FD
+57) Change to Programming session with service 0x10 02
+58) Read active session with service 0x22 F1 FD
+59) Request control DTC setting with service 0x85 82 in Functional Addressing Mode
+60) Wait 7000 ms
+61) Read active session with service 0x22 F1 FD
+62) Tester present OFF wait 0
+63) Tester present ON wait 0
+64) Change to Default session with service 0x10 01
+65) Read active session with service 0x22 F1 FD
+66) Request control DTC setting with service 0x85 81 in Physical Addressing Mode
+67) Wait 7000 ms
+68) Read active session with service 0x22 F1 FD
+69) Change to Extended session with service 0x10 03
+70) Read active session with service 0x22 F1 FD
+71) Request control DTC setting with service 0x85 81 in Physical Addressing Mode
+72) Wait 7000 ms
+73) Read active session with service 0x22 F1 FD
+74) Change to Programming session with service 0x10 02
+75) Read active session with service 0x22 F1 FD
+76) Request control DTC setting with service 0x85 81 in Physical Addressing Mode
+77) Wait 7000 ms
+78) Read active session with service 0x22 F1 FD
+79) Change to Default session with service 0x10 01
+80) Read active session with service 0x22 F1 FD
+81) Request control DTC setting with service 0x85 82 in Physical Addressing Mode
+82) Wait 7000 ms
+83) Read active session with service 0x22 F1 FD
+84) Change to Extended session with service 0x10 03
+85) Read active session with service 0x22 F1 FD
+86) Request control DTC setting with service 0x85 82 in Physical Addressing Mode
+87) Wait 7000 ms
+88) Read active session with service 0x22 F1 FD
+89) Change to Programming session with service 0x10 02
+90) Read active session with service 0x22 F1 FD
+91) Request control DTC setting with service 0x85 82 in Physical Addressing Mode
+92) Wait 7000 ms
+93) Read active session with service 0x22 F1 FD
+94) Change to Default session with service 0x10 01
+95) Read active session with service 0x22 F1 FD
+96) Request control DTC setting with service 0x85 81 in Physical Addressing Mode
+97) Wait 7000 ms
+98) Read active session with service 0x22 F1 FD
+99) Change to Extended session with service 0x10 03
+100) Read active session with service 0x22 F1 FD
+101) Request control DTC setting with service 0x85 81 in Physical Addressing Mode
+102) Wait 7000 ms
+103) Read active session with service 0x22 F1 FD
+104) Change to Programming session with service 0x10 02
+105) Read active session with service 0x22 F1 FD
+106) Request control DTC setting with service 0x85 81 in Physical Addressing Mode
+107) Wait 7000 ms
+108) Read active session with service 0x22 F1 FD
+109) Change to Default session with service 0x10 01
+110) Read active session with service 0x22 F1 FD
+111) Request control DTC setting with service 0x85 82 in Physical Addressing Mode
+112) Wait 7000 ms
+113) Read active session with service 0x22 F1 FD
+114) Change to Extended session with service 0x10 03
+115) Read active session with service 0x22 F1 FD
+116) Request control DTC setting with service 0x85 82 in Physical Addressing Mode
+117) Wait 7000 ms
+118) Read active session with service 0x22 F1 FD
+119) Change to Programming session with service 0x10 02
+120) Read active session with service 0x22 F1 FD
+121) Request control DTC setting with service 0x85 82 in Physical Addressing Mode
+122) Wait 7000 ms
+123) Read active session with service 0x22 F1 FD
+124) Tester present OFF wait 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 0))
+2) DiagSessionCtrl(Default)
+3) RequestResponse(22f1fd, 62f1fd01, Equal)
+4) FunctionalMessage(8581, , None)
+5) wait(7000)
+6) RequestResponse(22f1fd, 62f1fd01, Equal)
+7) DiagSessionCtrl(Extended)
+8) RequestResponse(22f1fd, 62f1fd03, Equal)
+9) FunctionalMessage(8581, , None)
+10) wait(7000)
+11) RequestResponse(22f1fd, 62f1fd01, Equal)
+12) DiagSessionCtrl(Programming)
+13) RequestResponse(22f1fd, 62f1fd02, Equal)
+14) FunctionalMessage(8581, , None)
+15) wait(7000)
+16) RequestResponse(22f1fd, 62f1fd01, Equal)
+17) DiagSessionCtrl(Default)
+18) RequestResponse(22f1fd, 62f1fd01, Equal)
+19) FunctionalMessage(8582, , None)
+20) wait(7000)
+21) RequestResponse(22f1fd, 62f1fd01, Equal)
+22) DiagSessionCtrl(Extended)
+23) RequestResponse(22f1fd, 62f1fd03, Equal)
+24) FunctionalMessage(8582, , None)
+25) wait(7000)
+26) RequestResponse(22f1fd, 62f1fd01, Equal)
+27) DiagSessionCtrl(Programming)
+28) RequestResponse(22f1fd, 62f1fd02, Equal)
+29) FunctionalMessage(8582, , None)
+30) wait(7000)
+31) RequestResponse(22f1fd, 62f1fd01, Equal)
+32) DiagSessionCtrl(Default)
+33) RequestResponse(22f1fd, 62f1fd01, Equal)
+34) FunctionalMessage(8581, , None)
+35) wait(7000)
+36) RequestResponse(22f1fd, 62f1fd01, Equal)
+37) DiagSessionCtrl(Extended)
+38) RequestResponse(22f1fd, 62f1fd03, Equal)
+39) FunctionalMessage(8581, , None)
+40) wait(7000)
+41) RequestResponse(22f1fd, 62f1fd01, Equal)
+42) DiagSessionCtrl(Programming)
+43) RequestResponse(22f1fd, 62f1fd02, Equal)
+44) FunctionalMessage(8581, , None)
+45) wait(7000)
+46) RequestResponse(22f1fd, 62f1fd01, Equal)
+47) DiagSessionCtrl(Default)
+48) RequestResponse(22f1fd, 62f1fd01, Equal)
+49) FunctionalMessage(8582, , None)
+50) wait(7000)
+51) RequestResponse(22f1fd, 62f1fd01, Equal)
+52) DiagSessionCtrl(Extended)
+53) RequestResponse(22f1fd, 62f1fd03, Equal)
+54) FunctionalMessage(8582, , None)
+55) wait(7000)
+56) RequestResponse(22f1fd, 62f1fd01, Equal)
+57) DiagSessionCtrl(Programming)
+58) RequestResponse(22f1fd, 62f1fd02, Equal)
+59) FunctionalMessage(8582, , None)
+60) wait(7000)
+61) RequestResponse(22f1fd, 62f1fd01, Equal)
+62) envvar(EnvTesterPresentOnOff(0; 0))
+63) envvar(EnvTesterPresentOnOff(1; 0))
+64) DiagSessionCtrl(Default)
+65) RequestResponse(22f1fd, 62f1fd01, Equal)
+66) RequestResponse(8581, , None)
+67) wait(7000)
+68) RequestResponse(22f1fd, 62f1fd01, Equal)
+69) DiagSessionCtrl(Extended)
+70) RequestResponse(22f1fd, 62f1fd03, Equal)
+71) RequestResponse(8581, , None)
+72) wait(7000)
+73) RequestResponse(22f1fd, 62f1fd01, Equal)
+74) DiagSessionCtrl(Programming)
+75) RequestResponse(22f1fd, 62f1fd02, Equal)
+76) RequestResponse(8581, 7fc57f, Equal)
+77) wait(7000)
+78) RequestResponse(22f1fd, 62f1fd01, Equal)
+79) DiagSessionCtrl(Default)
+80) RequestResponse(22f1fd, 62f1fd01, Equal)
+81) RequestResponse(8582, , None)
+82) wait(7000)
+83) RequestResponse(22f1fd, 62f1fd01, Equal)
+84) DiagSessionCtrl(Extended)
+85) RequestResponse(22f1fd, 62f1fd03, Equal)
+86) RequestResponse(8582, , None)
+87) wait(7000)
+88) RequestResponse(22f1fd, 62f1fd01, Equal)
+89) DiagSessionCtrl(Programming)
+90) RequestResponse(22f1fd, 62f1fd02, Equal)
+91) RequestResponse(8582, 7fc57f, Equal)
+92) wait(7000)
+93) RequestResponse(22f1fd, 62f1fd01, Equal)
+94) DiagSessionCtrl(Default)
+95) RequestResponse(22f1fd, 62f1fd01, Equal)
+96) RequestResponse(8581, , None)
+97) wait(7000)
+98) RequestResponse(22f1fd, 62f1fd01, Equal)
+99) DiagSessionCtrl(Extended)
+100) RequestResponse(22f1fd, 62f1fd03, Equal)
+101) RequestResponse(8581, , None)
+102) wait(7000)
+103) RequestResponse(22f1fd, 62f1fd01, Equal)
+104) DiagSessionCtrl(Programming)
+105) RequestResponse(22f1fd, 62f1fd02, Equal)
+106) RequestResponse(8581, 7fc57f, Equal)
+107) wait(7000)
+108) RequestResponse(22f1fd, 62f1fd01, Equal)
+109) DiagSessionCtrl(Default)
+110) RequestResponse(22f1fd, 62f1fd01, Equal)
+111) RequestResponse(8582, , None)
+112) wait(7000)
+113) RequestResponse(22f1fd, 62f1fd01, Equal)
+114) DiagSessionCtrl(Extended)
+115) RequestResponse(22f1fd, 62f1fd03, Equal)
+116) RequestResponse(8582, , None)
+117) wait(7000)
+118) RequestResponse(22f1fd, 62f1fd01, Equal)
+119) DiagSessionCtrl(Programming)
+120) RequestResponse(22f1fd, 62f1fd02, Equal)
+121) RequestResponse(8582, 7fc57f, Equal)
+122) wait(7000)
+123) RequestResponse(22f1fd, 62f1fd01, Equal)
+124) envvar(EnvTesterPresentOnOff(0; 0))
 </t>
   </si>
 </sst>
@@ -2723,12 +8156,10 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3043,17 +8474,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117954EB-7A09-4D07-9136-5C779FFBBE99}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="6" width="50.7109375" customWidth="1"/>
-    <col min="7" max="9" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="2" customWidth="1"/>
+    <col min="4" max="6" width="50.7109375" style="2" customWidth="1"/>
+    <col min="7" max="9" width="10.7109375" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3086,64 +8520,64 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="285" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -3155,41 +8589,41 @@
       <c r="F5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="375" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -3201,24 +8635,24 @@
       <c r="F7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -3230,24 +8664,24 @@
       <c r="F8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -3259,574 +8693,2236 @@
       <c r="F9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="C11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="E13" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="B14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="13" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="4" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="C15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="E15" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="E18" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" ht="270" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="F18" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G17" s="3" t="s">
+      <c r="G18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2" t="s">
+      <c r="A19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:9" ht="225" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B20" s="3" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="B22" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G20" s="3" t="s">
+      <c r="D24" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D83" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2" t="s">
+      <c r="E83" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" ht="270" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" s="3" t="s">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G26" s="3" t="s">
+      <c r="D89" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="G89" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H89" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I89" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C27" s="3" t="s">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G27" s="3" t="s">
+      <c r="D90" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H90" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I90" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="375" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G28" s="3" t="s">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H91" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I28" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I30" s="3" t="s">
+      <c r="I91" s="2" t="s">
         <v>25</v>
       </c>
     </row>

--- a/dcomtestcasegeneration/Source/dcom/bin/Debug/Testcase/Testcase_SAIC_AS28_R1.0_DCOM.xlsx
+++ b/dcomtestcasegeneration/Source/dcom/bin/Debug/Testcase/Testcase_SAIC_AS28_R1.0_DCOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BGSV_EDA2_Automation_Tool_LOCALREPO\dcomtestcasegeneration\DCOMTestcaseGenerationR1.1\Source\dcom\bin\Debug\Testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E4E6A9-5119-40FD-B67A-635242E660DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD5530B-CD03-4E58-802F-89EBB4A493B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{21A86AB3-DC83-4198-BD8E-E0E807486B70}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="24855" windowHeight="15315" xr2:uid="{21A86AB3-DC83-4198-BD8E-E0E807486B70}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="309">
   <si>
     <t>ID</t>
   </si>
@@ -379,41 +379,6 @@
   </si>
   <si>
     <t>Testcase_SAIC_AS28_R1.0_DCOM_70</t>
-  </si>
-  <si>
-    <t>Testcase_SAIC_AS28_R1.0_DCOM_71</t>
-  </si>
-  <si>
-    <t>Testcase_SAIC_AS28_R1.0_DCOM_72</t>
-  </si>
-  <si>
-    <t>Testcase_SAIC_AS28_R1.0_DCOM_73</t>
-  </si>
-  <si>
-    <t>Testcase_SAIC_AS28_R1.0_DCOM_74</t>
-  </si>
-  <si>
-    <t>Testcase_SAIC_AS28_R1.0_DCOM_75</t>
-  </si>
-  <si>
-    <t>Testcase_SAIC_AS28_R1.0_DCOM_76</t>
-  </si>
-  <si>
-    <t>Testcase_SAIC_AS28_R1.0_DCOM_77</t>
-  </si>
-  <si>
-    <t>Testcase_SAIC_AS28_R1.0_DCOM_78</t>
-  </si>
-  <si>
-    <t>Testcase_SAIC_AS28_R1.0_DCOM_79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Set the Vehicle_Speed to Value 0 Wait 100 ms
-2) Request tester present with service 0x3E 00 in Physical Addressing Mode
-3) Request tester present with service 0x3E 00 in Functional Addressing Mode
-4) Request tester present with service 0x3E 80 in Physical Addressing Mode
-5) Request tester present with service 0x3E 80 in Functional Addressing Mode
-</t>
   </si>
   <si>
     <t xml:space="preserve">1) Set the (High) Voltage to Value 0 Wait 100 ms
@@ -515,38 +480,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1) Set the Vehicle_Speed to Value 0 Wait 100 ms
-2) Request reset the camera with service 0x11 01 in Physical Addressing Mode
-3) Request reset the camera with service 0x11 01 in Functional Addressing Mode
-4) Request reset the camera with service 0x11 81 in Physical Addressing Mode
-5) Request reset the camera with service 0x11 81 in Functional Addressing Mode
-6) Request reset the camera with service 0x11 01 in Physical Addressing Mode
-7) Request reset the camera with service 0x11 01 in Functional Addressing Mode
-8) Request reset the camera with service 0x11 81 in Physical Addressing Mode
-9) Request reset the camera with service 0x11 81 in Functional Addressing Mode
-10) Request reset the camera with service 0x11 01 in Physical Addressing Mode
-11) Request reset the camera with service 0x11 01 in Functional Addressing Mode
-12) Request reset the camera with service 0x11 81 in Physical Addressing Mode
-13) Request reset the camera with service 0x11 81 in Functional Addressing Mode
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Set the Engine_Status to Value 0 (Stop) Wait 100 ms
-2) Request reset the camera with service 0x11 01 in Physical Addressing Mode
-3) Request reset the camera with service 0x11 01 in Functional Addressing Mode
-4) Request reset the camera with service 0x11 81 in Physical Addressing Mode
-5) Request reset the camera with service 0x11 81 in Functional Addressing Mode
-6) Request reset the camera with service 0x11 01 in Physical Addressing Mode
-7) Request reset the camera with service 0x11 01 in Functional Addressing Mode
-8) Request reset the camera with service 0x11 81 in Physical Addressing Mode
-9) Request reset the camera with service 0x11 81 in Functional Addressing Mode
-10) Request reset the camera with service 0x11 01 in Physical Addressing Mode
-11) Request reset the camera with service 0x11 01 in Functional Addressing Mode
-12) Request reset the camera with service 0x11 81 in Physical Addressing Mode
-13) Request reset the camera with service 0x11 81 in Functional Addressing Mode
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">1) Set the (High) Voltage to Value 0 Wait 100 ms
 2) Request reset the camera with service 0x11 01 in Physical Addressing Mode
 3) Request reset the camera with service 0x11 01 in Functional Addressing Mode
@@ -563,33 +496,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1) Set the Vehicle_Speed to Value 0 Wait 100 ms
-2) Request clear DTC with service 0x14 FF FF FF in Physical Addressing Mode
-3) Request clear DTC with service 0x14 FF FF FF in Functional Addressing Mode
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">1) -
 2) Positive response is received: 0x54
 3) Positive response is received: 0x54
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1) Set the Engine_Status to Value 0 (Stop) Wait 100 ms
-2) Request clear DTC with service 0x14 FF FF FF in Physical Addressing Mode
-3) Request clear DTC with service 0x14 FF FF FF in Functional Addressing Mode
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">1) -
 2) Positive response is received: 0x62 F1 FD .* {1 }
 3) Positive response is received: 0x62 F1 FD .* {1 }
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Set the Engine_Status to Value 0 (Stop) Wait 100 ms
-2) Send 22 F1 FD Using Physical Addressing Mode
-3) Send 22 F1 FD Using Functional Addressing Mode
 </t>
   </si>
   <si>
@@ -654,14 +569,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1) Set the Engine_Status to Value 0 (Stop) Wait 100 ms
-2) Request tester present with service 0x3E 00 in Physical Addressing Mode
-3) Request tester present with service 0x3E 00 in Functional Addressing Mode
-4) Request tester present with service 0x3E 80 in Physical Addressing Mode
-5) Request tester present with service 0x3E 80 in Functional Addressing Mode
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">1) Set the (High) Voltage to Value 0 Wait 100 ms
 2) Request tester present with service 0x3E 00 in Physical Addressing Mode
 3) Request tester present with service 0x3E 00 in Functional Addressing Mode
@@ -683,33 +590,6 @@
   </si>
   <si>
     <t>Testcase_SAIC_AS28_R1.0_DCOM_51</t>
-  </si>
-  <si>
-    <t>Testcase_SAIC_AS28_R1.0_DCOM_80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Set the Engine_Status to Value 1 (Crank) Wait 100 ms
-2) Send 22 F1 FD Using Physical Addressing Mode
-3) Send 22 F1 FD Using Functional Addressing Mode
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) -
-2) Negative response is received: 0x7F 62 22
-3) Negative response is received: 0x7F 62 22
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Set the Engine_Status to Value 2 (Running) Wait 100 ms
-2) Send 22 F1 FD Using Physical Addressing Mode
-3) Send 22 F1 FD Using Functional Addressing Mode
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Set the Engine_Status to Value 3 (Reverse) Wait 100 ms
-2) Send 22 F1 FD Using Physical Addressing Mode
-3) Send 22 F1 FD Using Functional Addressing Mode
-</t>
   </si>
   <si>
     <t xml:space="preserve">1) Request change the diagnostic session with service 0x10 01 in Physical Addressing Mode
@@ -1150,22 +1030,6 @@
   </si>
   <si>
     <t xml:space="preserve">1) -
-2) Positive response is received: 0x50 01 .{ 1} 1
-3) Positive response is received: 0x50 01 .{ 1} 1
-4) Negative response is received: 0x7F 50 12
-5) Negative response is received: 0x7F 50 12
-6) Positive response is received: 0x50 03 .{ 1} 3
-7) Positive response is received: 0x50 03 .{ 1} 3
-8) Negative response is received: 0x7F 50 12
-9) Negative response is received: 0x7F 50 12
-10) Positive response is received: 0x50 02 .{ 1} 2
-11) Positive response is received: 0x50 02 .{ 1} 2
-12) Negative response is received: 0x7F 50 12
-13) Negative response is received: 0x7F 50 12
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) -
 2) Negative response is received: 0x7F 50
 3) Negative response is received: 0x7F 50
 4) Negative response is received: 0x7F 50
@@ -1194,38 +1058,6 @@
 11) FunctionalMessage(1002, 7f50, Equal)
 12) RequestResponse(1082, 7f50, Equal)
 13) FunctionalMessage(1082, 7f50, Equal)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) -
-2) Positive response is received: 0x51 01
-3) Positive response is received: 0x51 01
-4) No response is received
-5) No response is received
-6) Positive response is received: 0x51 01
-7) Positive response is received: 0x51 01
-8) No response is received
-9) No response is received
-10) Positive response is received: 0x51 01
-11) Positive response is received: 0x51 01
-12) No response is received
-13) No response is received
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) envvar(EnvVehicle_Speed(0, 100))
-2) RequestResponse(1101, 5101, Equal)
-3) FunctionalMessage(1101, 5101, Equal)
-4) RequestResponse(1181, , None)
-5) FunctionalMessage(1181, , None)
-6) RequestResponse(1101, 5101, Equal)
-7) FunctionalMessage(1101, 5101, Equal)
-8) RequestResponse(1181, , None)
-9) FunctionalMessage(1181, , None)
-10) RequestResponse(1101, 5101, Equal)
-11) FunctionalMessage(1101, 5101, Equal)
-12) RequestResponse(1181, , None)
-13) FunctionalMessage(1181, , None)
 </t>
   </si>
   <si>
@@ -1340,12 +1172,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1) envvar(EnvVehicle_Speed(0, 100))
-2) RequestResponse(14ffffff, 54, Equal)
-3) FunctionalMessage(14ffffff, 54, Equal)
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">1) Tester present ON wait 100
 2) Change to Default session with service 0x10 01
 3) Wait 2000 ms
@@ -1400,30 +1226,6 @@
 14) DiagSessionCtrl(Default)
 15) wait(2000)
 14) envvar(EnvTesterPresentOnOff(0; 1000))
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) envvar(EnvEngine_Status(1, 100))
-2) RequestResponse(22f1fd, 7f6222, Equal)
-3) FunctionalMessage(22f1fd, 7f6222, Equal)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) envvar(EnvEngine_Status(2, 100))
-2) RequestResponse(22f1fd, 7f6222, Equal)
-3) FunctionalMessage(22f1fd, 7f6222, Equal)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) envvar(EnvEngine_Status(3, 100))
-2) RequestResponse(22f1fd, 7f6222, Equal)
-3) FunctionalMessage(22f1fd, 7f6222, Equal)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) envvar(EnvEngine_Status(0, 100))
-2) RequestResponse(22f1fd, 62f1fd.*{1}, Regexp)
-3) FunctionalMessage(22f1fd, 62f1fd.*{1}, Regexp)
 </t>
   </si>
   <si>
@@ -1714,32 +1516,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1) envvar(EnvVehicle_Speed(0, 100))
-2) RequestResponse(3e00, 7e00, Equal)
-3) FunctionalMessage(3e00, 7e00, Equal)
-4) RequestResponse(3e80, , None)
-5) FunctionalMessage(3e80, , None)
-</t>
-  </si>
-  <si>
-    <t>Testcase_SAIC_AS28_R1.0_DCOM_81</t>
-  </si>
-  <si>
-    <t>Testcase_SAIC_AS28_R1.0_DCOM_82</t>
-  </si>
-  <si>
-    <t>Testcase_SAIC_AS28_R1.0_DCOM_83</t>
-  </si>
-  <si>
-    <t>Testcase_SAIC_AS28_R1.0_DCOM_84</t>
-  </si>
-  <si>
-    <t>Testcase_SAIC_AS28_R1.0_DCOM_85</t>
-  </si>
-  <si>
-    <t>Testcase_SAIC_AS28_R1.0_DCOM_86</t>
-  </si>
-  <si>
     <t xml:space="preserve">1) Tester present ON wait 100
 2) Change to Default session with service 0x10 01
 3) Wait 1000 ms
@@ -1806,38 +1582,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1) Set the Engine_Status to Value 0 (Stop) Wait 100 ms
-2) Request change the diagnostic session with service 0x10 01 in Physical Addressing Mode
-3) Request change the diagnostic session with service 0x10 01 in Functional Addressing Mode
-4) Request change the diagnostic session with service 0x10 81 in Physical Addressing Mode
-5) Request change the diagnostic session with service 0x10 81 in Functional Addressing Mode
-6) Request change the diagnostic session with service 0x10 03 in Physical Addressing Mode
-7) Request change the diagnostic session with service 0x10 03 in Functional Addressing Mode
-8) Request change the diagnostic session with service 0x10 83 in Physical Addressing Mode
-9) Request change the diagnostic session with service 0x10 83 in Functional Addressing Mode
-10) Request change the diagnostic session with service 0x10 02 in Physical Addressing Mode
-11) Request change the diagnostic session with service 0x10 02 in Functional Addressing Mode
-12) Request change the diagnostic session with service 0x10 82 in Physical Addressing Mode
-13) Request change the diagnostic session with service 0x10 82 in Functional Addressing Mode
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) envvar(EnvEngine_Status(0, 100))
-2) RequestResponse(1001, 5001.{1}1, Regexp)
-3) FunctionalMessage(1001, 5001.{1}1, Regexp)
-4) RequestResponse(1081, 7f5012, Equal)
-5) FunctionalMessage(1081, 7f5012, Equal)
-6) RequestResponse(1003, 5003.{1}3, Regexp)
-7) FunctionalMessage(1003, 5003.{1}3, Regexp)
-8) RequestResponse(1083, 7f5012, Equal)
-9) FunctionalMessage(1083, 7f5012, Equal)
-10) RequestResponse(1002, 5002.{1}2, Regexp)
-11) FunctionalMessage(1002, 5002.{1}2, Regexp)
-12) RequestResponse(1082, 7f5012, Equal)
-13) FunctionalMessage(1082, 7f5012, Equal)
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">1) Positive response is received: 0x51 01
 2) -
 3) Positive response is received: 0x 62 F1 FD 01
@@ -1938,22 +1682,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1) envvar(EnvEngine_Status(0, 100))
-2) RequestResponse(1101, 5101, Equal)
-3) FunctionalMessage(1101, 5101, Equal)
-4) RequestResponse(1181, , None)
-5) FunctionalMessage(1181, , None)
-6) RequestResponse(1101, 5101, Equal)
-7) FunctionalMessage(1101, 5101, Equal)
-8) RequestResponse(1181, , None)
-9) FunctionalMessage(1181, , None)
-10) RequestResponse(1101, 5101, Equal)
-11) FunctionalMessage(1101, 5101, Equal)
-12) RequestResponse(1181, , None)
-13) FunctionalMessage(1181, , None)
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">1) -
 2) Negative response is received: 0x7F 51
 3) Negative response is received: 0x7F 51
@@ -2052,119 +1780,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1) envvar(EnvEngine_Status(0, 100))
-2) RequestResponse(3e00, 7e00, Equal)
-3) FunctionalMessage(3e00, 7e00, Equal)
-4) RequestResponse(3e80, , None)
-5) FunctionalMessage(3e80, , None)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Set the Vehicle_Speed to Value 0 Wait 100 ms
-2) Request change the diagnostic session with service 0x10 01 in Physical Addressing Mode
-3) Request change the diagnostic session with service 0x10 01 in Functional Addressing Mode
-4) Request change the diagnostic session with service 0x10 81 in Physical Addressing Mode
-5) Request change the diagnostic session with service 0x10 81 in Functional Addressing Mode
-6) Request change the diagnostic session with service 0x10 03 in Physical Addressing Mode
-7) Request change the diagnostic session with service 0x10 03 in Functional Addressing Mode
-8) Request change the diagnostic session with service 0x10 83 in Physical Addressing Mode
-9) Request change the diagnostic session with service 0x10 83 in Functional Addressing Mode
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) -
-2) Positive response is received: 0x50 01 .{ 1} 1
-3) Positive response is received: 0x50 01 .{ 1} 1
-4) Negative response is received: 0x7F 50 12
-5) Negative response is received: 0x7F 50 12
-6) Positive response is received: 0x50 03 .{ 1} 3
-7) Positive response is received: 0x50 03 .{ 1} 3
-8) Negative response is received: 0x7F 50 12
-9) Negative response is received: 0x7F 50 12
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) envvar(EnvVehicle_Speed(0, 100))
-2) RequestResponse(1001, 5001.{1}1, Regexp)
-3) FunctionalMessage(1001, 5001.{1}1, Regexp)
-4) RequestResponse(1081, 7f5012, Equal)
-5) FunctionalMessage(1081, 7f5012, Equal)
-6) RequestResponse(1003, 5003.{1}3, Regexp)
-7) FunctionalMessage(1003, 5003.{1}3, Regexp)
-8) RequestResponse(1083, 7f5012, Equal)
-9) FunctionalMessage(1083, 7f5012, Equal)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) envvar(EnvEngine_Status(0, 100))
-2) RequestResponse(14ffffff, 54, Equal)
-3) FunctionalMessage(14ffffff, 54, Equal)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Set the Vehicle_Speed to Value 2.8 Wait 100 ms
-2) Send 22 F1 FD Using Physical Addressing Mode
-3) Send 22 F1 FD Using Functional Addressing Mode
-4) Set the Vehicle_Speed to Value 0 Wait 100 ms
-5) Send 22 F1 FD Using Physical Addressing Mode
-6) Send 22 F1 FD Using Functional Addressing Mode
-7) Set the Vehicle_Speed to Value 3 Wait 100 ms
-8) Send 22 F1 FD Using Physical Addressing Mode
-9) Send 22 F1 FD Using Functional Addressing Mode
-10) Set the Vehicle_Speed to Value 0 Wait 100 ms
-11) Send 22 F1 FD Using Physical Addressing Mode
-12) Send 22 F1 FD Using Functional Addressing Mode
-13) Set the Vehicle_Speed to Value 3.2 Wait 100 ms
-14) Send 22 F1 FD Using Physical Addressing Mode
-15) Send 22 F1 FD Using Functional Addressing Mode
-16) Set the Vehicle_Speed to Value 0 Wait 100 ms
-17) Send 22 F1 FD Using Physical Addressing Mode
-18) Send 22 F1 FD Using Functional Addressing Mode
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) -
-2) Negative response is received: 0x7F 62 22
-3) Negative response is received: 0x7F 62 22
-4) -
-5) Positive response is received: 0x62 F1 FD .* {1 }
-6) Positive response is received: 0x62 F1 FD .* {1 }
-7) -
-8) Negative response is received: 0x7F 62 22
-9) Negative response is received: 0x7F 62 22
-10) -
-11) Positive response is received: 0x62 F1 FD .* {1 }
-12) Positive response is received: 0x62 F1 FD .* {1 }
-13) -
-14) Negative response is received: 0x7F 62 22
-15) Negative response is received: 0x7F 62 22
-16) -
-17) Positive response is received: 0x62 F1 FD .* {1 }
-18) Positive response is received: 0x62 F1 FD .* {1 }
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) envvar(EnvVehicle_Speed(2.8, 100))
-2) RequestResponse(22f1fd, 7f6222, Equal)
-3) FunctionalMessage(22f1fd, 7f6222, Equal)
-4) envvar(EnvVehicle_Speed(0, 100))
-5) RequestResponse(22f1fd, 62f1fd.*{1}, Regexp)
-6) FunctionalMessage(22f1fd, 62f1fd.*{1}, Regexp)
-7) envvar(EnvVehicle_Speed(3, 100))
-8) RequestResponse(22f1fd, 7f6222, Equal)
-9) FunctionalMessage(22f1fd, 7f6222, Equal)
-10) envvar(EnvVehicle_Speed(0, 100))
-11) RequestResponse(22f1fd, 62f1fd.*{1}, Regexp)
-12) FunctionalMessage(22f1fd, 62f1fd.*{1}, Regexp)
-13) envvar(EnvVehicle_Speed(3.2, 100))
-14) RequestResponse(22f1fd, 7f6222, Equal)
-15) FunctionalMessage(22f1fd, 7f6222, Equal)
-16) envvar(EnvVehicle_Speed(0, 100))
-17) RequestResponse(22f1fd, 62f1fd.*{1}, Regexp)
-18) FunctionalMessage(22f1fd, 62f1fd.*{1}, Regexp)
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">1) -
 2) Positive response is received: 0x62 F1 FD .* {1 }
 3) Positive response is received: 0x62 F1 FD .* {1 }
@@ -2189,54 +1804,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1) Set the Vehicle_Speed to Value 0 Wait 100 ms
-2) Request security access with service 0x27 01 in Physical Addressing Mode
-3) Request security access with service 0x27 01 in Functional Addressing Mode
-4) Request security access with service 0x27 81 in Physical Addressing Mode
-5) Request security access with service 0x27 81 in Functional Addressing Mode
-6) Request security access with service 0x27 01 in Physical Addressing Mode
-7) Request security access with service 0x27 01 in Functional Addressing Mode
-8) Request security access with service 0x27 81 in Physical Addressing Mode
-9) Request security access with service 0x27 81 in Functional Addressing Mode
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) -
-2) Positive response is received: 0x67 01 .*
-3) Positive response is received: 0x67 01 .*
-4) Negative response is received: 0x7F 67 12
-5) Negative response is received: 0x7F 67 12
-6) Positive response is received: 0x67 01 .*
-7) Positive response is received: 0x67 01 .*
-8) Negative response is received: 0x7F 67 12
-9) Negative response is received: 0x7F 67 12
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) envvar(EnvVehicle_Speed(0, 100))
-2) RequestResponse(2701, 6701.*, Regexp)
-3) FunctionalMessage(2701, 6701.*, Regexp)
-4) RequestResponse(2781, 7f6712, Equal)
-5) FunctionalMessage(2781, 7f6712, Equal)
-6) RequestResponse(2701, 6701.*, Regexp)
-7) FunctionalMessage(2701, 6701.*, Regexp)
-8) RequestResponse(2781, 7f6712, Equal)
-9) FunctionalMessage(2781, 7f6712, Equal)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Set the Engine_Status to Value 0 (Stop) Wait 100 ms
-2) Request security access with service 0x27 01 in Physical Addressing Mode
-3) Request security access with service 0x27 01 in Functional Addressing Mode
-4) Request security access with service 0x27 81 in Physical Addressing Mode
-5) Request security access with service 0x27 81 in Functional Addressing Mode
-6) Request security access with service 0x27 01 in Physical Addressing Mode
-7) Request security access with service 0x27 01 in Functional Addressing Mode
-8) Request security access with service 0x27 81 in Physical Addressing Mode
-9) Request security access with service 0x27 81 in Functional Addressing Mode
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">1) Set the (High) Voltage to Value 0 Wait 100 ms
 2) Request security access with service 0x27 01 in Physical Addressing Mode
 3) Request security access with service 0x27 01 in Functional Addressing Mode
@@ -2245,24 +1812,6 @@
 </t>
   </si>
   <si>
-    <t>Testcase_SAIC_AS28_R1.0_DCOM_87</t>
-  </si>
-  <si>
-    <t>Testcase_SAIC_AS28_R1.0_DCOM_88</t>
-  </si>
-  <si>
-    <t>Testcase_SAIC_AS28_R1.0_DCOM_89</t>
-  </si>
-  <si>
-    <t>Testcase_SAIC_AS28_R1.0_DCOM_90</t>
-  </si>
-  <si>
-    <t>Testcase_SAIC_AS28_R1.0_DCOM_91</t>
-  </si>
-  <si>
-    <t>Testcase_SAIC_AS28_R1.0_DCOM_92</t>
-  </si>
-  <si>
     <t xml:space="preserve">1) envvar(EnvVoltage(0, 100))
 2) RequestResponse(3e00, 7e00, Equal)
 3) FunctionalMessage(3e00, 7e00, Equal)
@@ -2271,16 +1820,7 @@
 </t>
   </si>
   <si>
-    <t>Testcase_SAIC_AS28_R1.0_DCOM_93</t>
-  </si>
-  <si>
-    <t>Testcase_SAIC_AS28_R1.0_DCOM_94</t>
-  </si>
-  <si>
     <t>2.11 Service 85h - Control DTC Setting</t>
-  </si>
-  <si>
-    <t>Testcase_SAIC_AS28_R1.0_DCOM_95</t>
   </si>
   <si>
     <t xml:space="preserve">1) Tester present ON wait 100
@@ -2344,9 +1884,6 @@
 17) DiagSessionCtrl(Default)
 18) envvar(EnvTesterPresentOnOff(0; 100))
 </t>
-  </si>
-  <si>
-    <t>Testcase_SAIC_AS28_R1.0_DCOM_96</t>
   </si>
   <si>
     <t xml:space="preserve">1) -
@@ -2394,9 +1931,6 @@
 </t>
   </si>
   <si>
-    <t>Testcase_SAIC_AS28_R1.0_DCOM_97</t>
-  </si>
-  <si>
     <t xml:space="preserve">1) -
 2) -
 3) Positive response is received: 0x 62 F1 FD 01
@@ -2442,9 +1976,6 @@
 </t>
   </si>
   <si>
-    <t>Testcase_SAIC_AS28_R1.0_DCOM_98</t>
-  </si>
-  <si>
     <t xml:space="preserve">1) -
 2) -
 3) Positive response is received: 0x 62 F1 FD 01
@@ -2490,9 +2021,6 @@
 </t>
   </si>
   <si>
-    <t>Testcase_SAIC_AS28_R1.0_DCOM_99</t>
-  </si>
-  <si>
     <t xml:space="preserve">1) -
 2) -
 3) Positive response is received: 0x 62 F1 FD 01
@@ -2538,59 +2066,6 @@
 </t>
   </si>
   <si>
-    <t>Testcase_SAIC_AS28_R1.0_DCOM_100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Set the Vehicle_Speed to Value 0 Wait 100 ms
-2) Request control DTC setting with service 0x85 01 in Physical Addressing Mode
-3) Request control DTC setting with service 0x85 01 in Functional Addressing Mode
-4) Request control DTC setting with service 0x85 81 in Physical Addressing Mode
-5) Request control DTC setting with service 0x85 81 in Functional Addressing Mode
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) -
-2) Positive response is received: 0xC5 01
-3) Positive response is received: 0xC5 01
-4) No response is received
-5) No response is received
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) envvar(EnvVehicle_Speed(0, 100))
-2) RequestResponse(8501, c501, Equal)
-3) FunctionalMessage(8501, c501, Equal)
-4) RequestResponse(8581, , None)
-5) FunctionalMessage(8581, , None)
-</t>
-  </si>
-  <si>
-    <t>Testcase_SAIC_AS28_R1.0_DCOM_101</t>
-  </si>
-  <si>
-    <t>Testcase_SAIC_AS28_R1.0_DCOM_102</t>
-  </si>
-  <si>
-    <t>Testcase_SAIC_AS28_R1.0_DCOM_103</t>
-  </si>
-  <si>
-    <t>Testcase_SAIC_AS28_R1.0_DCOM_104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Set the Engine_Status to Value 0 (Stop) Wait 100 ms
-2) Request control DTC setting with service 0x85 01 in Physical Addressing Mode
-3) Request control DTC setting with service 0x85 01 in Functional Addressing Mode
-4) Request control DTC setting with service 0x85 81 in Physical Addressing Mode
-5) Request control DTC setting with service 0x85 81 in Functional Addressing Mode
-</t>
-  </si>
-  <si>
-    <t>Testcase_SAIC_AS28_R1.0_DCOM_105</t>
-  </si>
-  <si>
-    <t>Testcase_SAIC_AS28_R1.0_DCOM_106</t>
-  </si>
-  <si>
     <t xml:space="preserve">1) Set the (High) Voltage to Value 0 Wait 100 ms
 2) Request control DTC setting with service 0x85 01 in Physical Addressing Mode
 3) Request control DTC setting with service 0x85 01 in Functional Addressing Mode
@@ -2599,18 +2074,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1) envvar(EnvEngine_Status(0, 100))
-2) RequestResponse(2701, 6701.*, Regexp)
-3) FunctionalMessage(2701, 6701.*, Regexp)
-4) RequestResponse(2781, 7f6712, Equal)
-5) FunctionalMessage(2781, 7f6712, Equal)
-6) RequestResponse(2701, 6701.*, Regexp)
-7) FunctionalMessage(2701, 6701.*, Regexp)
-8) RequestResponse(2781, 7f6712, Equal)
-9) FunctionalMessage(2781, 7f6712, Equal)
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">1) -
 2) Negative response is received: 0x7F 67 7F
 3) No response is received
@@ -2627,14 +2090,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1) envvar(EnvEngine_Status(0, 100))
-2) RequestResponse(8501, c501, Equal)
-3) FunctionalMessage(8501, c501, Equal)
-4) RequestResponse(8581, , None)
-5) FunctionalMessage(8581, , None)
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">1) -
 2) Negative response is received: 0x7F C5 7F
 3) No response is received
@@ -2648,6 +2103,401 @@
 3) FunctionalMessage(8501, , None)
 4) RequestResponse(8581, 7fc57f, Equal)
 5) FunctionalMessage(8581, , None)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Set the (Low) Voltage to Value 0 Wait 100 ms
+2) Send 22 F1 FD Using Physical Addressing Mode
+3) Send 22 F1 FD Using Functional Addressing Mode
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvVoltage(0, 100))
+2) RequestResponse(22f1fd, 62f1fd.*{1}, Regexp)
+3) FunctionalMessage(22f1fd, 62f1fd.*{1}, Regexp)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Set the (High) Voltage to Value 0 Wait 100 ms
+2) Send 22 F1 FD Using Physical Addressing Mode
+3) Send 22 F1 FD Using Functional Addressing Mode
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 100
+2) Change to Default session with service 0x10 01
+3) Wait 2000 ms
+4) Read active session with service 0x22 F1 FD
+5) Request communication control with service 0x28 00 1 in Physical Addressing Mode
+6) Request communication control with service 0x28 01 1 in Physical Addressing Mode
+7) Request communication control with service 0x28 02 1 in Physical Addressing Mode
+8) Request communication control with service 0x28 03 1 in Physical Addressing Mode
+9) Request communication control with service 0x28 00 1 in Physical Addressing Mode
+10) Request communication control with service 0x28 01 1 in Physical Addressing Mode
+11) Request communication control with service 0x28 02 1 in Physical Addressing Mode
+12) Request communication control with service 0x28 03 1 in Physical Addressing Mode
+13) Change to Extended session with service 0x10 03
+14) Wait 2000 ms
+15) Read active session with service 0x22 F1 FD
+16) Request communication control with service 0x28 00 1 in Physical Addressing Mode
+17) Request communication control with service 0x28 01 1 in Physical Addressing Mode
+18) Request communication control with service 0x28 02 1 in Physical Addressing Mode
+19) Request communication control with service 0x28 03 1 in Physical Addressing Mode
+20) Request communication control with service 0x28 00 1 in Physical Addressing Mode
+21) Request communication control with service 0x28 01 1 in Physical Addressing Mode
+22) Request communication control with service 0x28 02 1 in Physical Addressing Mode
+23) Request communication control with service 0x28 03 1 in Physical Addressing Mode
+24) Change to Default session with service 0x10 01
+25) Wait 2000 ms
+26) Tester present OFF wait 1000
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) -
+2) -
+3) -
+4) Positive response is received: 0x 62 F1 FD 01
+5) Negative response is received: 0x7F 68 7F
+6) Negative response is received: 0x7F 68 7F
+7) Negative response is received: 0x7F 68 7F
+8) Negative response is received: 0x7F 68 7F
+9) Negative response is received: 0x7F 68 7F
+10) Negative response is received: 0x7F 68 7F
+11) Negative response is received: 0x7F 68 7F
+12) Negative response is received: 0x7F 68 7F
+13) -
+14) -
+15) Positive response is received: 0x 62 F1 FD 03
+16) Positive response is received: 0x68 00
+17) Positive response is received: 0x68 01
+18) Positive response is received: 0x68 02
+19) Positive response is received: 0x68 03
+20) Positive response is received: 0x68 00
+21) Positive response is received: 0x68 01
+22) Positive response is received: 0x68 02
+23) Positive response is received: 0x68 03
+24) -
+25) -
+26) -
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
+2) DiagSessionCtrl(Default)
+3) wait(2000)
+4) RequestResponse(22f1fd, 62f1fd01, Equal)
+5) RequestResponse(28001, 7f687f, Equal)
+6) RequestResponse(28011, 7f687f, Equal)
+7) RequestResponse(28021, 7f687f, Equal)
+8) RequestResponse(28031, 7f687f, Equal)
+9) RequestResponse(28001, 7f687f, Equal)
+10) RequestResponse(28011, 7f687f, Equal)
+11) RequestResponse(28021, 7f687f, Equal)
+12) RequestResponse(28031, 7f687f, Equal)
+13) DiagSessionCtrl(Extended)
+14) wait(2000)
+15) RequestResponse(22f1fd, 62f1fd03, Equal)
+16) RequestResponse(28001, 6800, Equal)
+17) RequestResponse(28011, 6801, Equal)
+18) RequestResponse(28021, 6802, Equal)
+19) RequestResponse(28031, 6803, Equal)
+20) RequestResponse(28001, 6800, Equal)
+21) RequestResponse(28011, 6801, Equal)
+22) RequestResponse(28021, 6802, Equal)
+23) RequestResponse(28031, 6803, Equal)
+24) DiagSessionCtrl(Default)
+25) wait(2000)
+26) envvar(EnvTesterPresentOnOff(0; 1000))
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 100
+2) Change to Default session with service 0x10 01
+3) Wait 2000 ms
+4) Read active session with service 0x22 F1 FD
+5) Request communication control with service 0x28 00 1 in Physical Addressing Mode
+6) Request communication control with service 0x28 01 1 in Physical Addressing Mode
+7) Request communication control with service 0x28 02 1 in Physical Addressing Mode
+8) Request communication control with service 0x28 03 1 in Physical Addressing Mode
+9) Change to Extended session with service 0x10 03
+10) Wait 2000 ms
+11) Read active session with service 0x22 F1 FD
+12) Request communication control with service 0x28 00 1 in Physical Addressing Mode
+13) Request communication control with service 0x28 01 1 in Physical Addressing Mode
+14) Request communication control with service 0x28 02 1 in Physical Addressing Mode
+15) Request communication control with service 0x28 03 1 in Physical Addressing Mode
+16) Change to Programming session with service 0x10 02
+17) Wait 2000 ms
+18) Read active session with service 0x22 F1 FD
+19) Request communication control with service 0x28 00 1 in Physical Addressing Mode
+20) Request communication control with service 0x28 01 1 in Physical Addressing Mode
+21) Request communication control with service 0x28 02 1 in Physical Addressing Mode
+22) Request communication control with service 0x28 03 1 in Physical Addressing Mode
+23) Change to Default session with service 0x10 01
+24) Wait 2000 ms
+25) Tester present OFF wait 1000
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) -
+2) -
+3) -
+4) Positive response is received: 0x 62 F1 FD 01
+5) Negative response is received: 0x7F 68 7F
+6) Negative response is received: 0x7F 68 7F
+7) Negative response is received: 0x7F 68 7F
+8) Negative response is received: 0x7F 68 7F
+9) -
+10) -
+11) Positive response is received: 0x 62 F1 FD 03
+12) Positive response is received: 0x68 00
+13) Positive response is received: 0x68 01
+14) Positive response is received: 0x68 02
+15) Positive response is received: 0x68 03
+16) -
+17) -
+18) Positive response is received: 0x 62 F1 FD 02
+19) Negative response is received: 0x7F 68 7F
+20) Negative response is received: 0x7F 68 7F
+21) Negative response is received: 0x7F 68 7F
+22) Negative response is received: 0x7F 68 7F
+23) -
+24) -
+25) -
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
+2) DiagSessionCtrl(Default)
+3) wait(2000)
+4) RequestResponse(22f1fd, 62f1fd01, Equal)
+5) RequestResponse(28001, 7f687f, Equal)
+6) RequestResponse(28011, 7f687f, Equal)
+7) RequestResponse(28021, 7f687f, Equal)
+8) RequestResponse(28031, 7f687f, Equal)
+9) DiagSessionCtrl(Extended)
+10) wait(2000)
+11) RequestResponse(22f1fd, 62f1fd03, Equal)
+12) RequestResponse(28001, 6800, Equal)
+13) RequestResponse(28011, 6801, Equal)
+14) RequestResponse(28021, 6802, Equal)
+15) RequestResponse(28031, 6803, Equal)
+16) DiagSessionCtrl(Programming)
+17) wait(2000)
+18) RequestResponse(22f1fd, 62f1fd02, Equal)
+19) RequestResponse(28001, 7f687f, Equal)
+20) RequestResponse(28011, 7f687f, Equal)
+21) RequestResponse(28021, 7f687f, Equal)
+22) RequestResponse(28031, 7f687f, Equal)
+23) DiagSessionCtrl(Default)
+24) wait(2000)
+25) envvar(EnvTesterPresentOnOff(0; 1000))
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 100
+2) Change to Default session with service 0x10 01
+3) Wait 2000 ms
+4) Read active session with service 0x22 F1 FD
+5) Request communication control with service 0x28 00 1 in Functional Addressing Mode
+6) Request communication control with service 0x28 01 1 in Functional Addressing Mode
+7) Request communication control with service 0x28 02 1 in Functional Addressing Mode
+8) Request communication control with service 0x28 03 1 in Functional Addressing Mode
+9) Change to Extended session with service 0x10 03
+10) Wait 2000 ms
+11) Read active session with service 0x22 F1 FD
+12) Request communication control with service 0x28 00 1 in Functional Addressing Mode
+13) Request communication control with service 0x28 01 1 in Functional Addressing Mode
+14) Request communication control with service 0x28 02 1 in Functional Addressing Mode
+15) Request communication control with service 0x28 03 1 in Functional Addressing Mode
+16) Change to Programming session with service 0x10 02
+17) Wait 2000 ms
+18) Read active session with service 0x22 F1 FD
+19) Request communication control with service 0x28 00 1 in Functional Addressing Mode
+20) Request communication control with service 0x28 01 1 in Functional Addressing Mode
+21) Request communication control with service 0x28 02 1 in Functional Addressing Mode
+22) Request communication control with service 0x28 03 1 in Functional Addressing Mode
+23) Change to Default session with service 0x10 01
+24) Wait 2000 ms
+25) Tester present OFF wait 1000
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) -
+2) -
+3) -
+4) Positive response is received: 0x 62 F1 FD 01
+5) No response is received
+6) No response is received
+7) No response is received
+8) No response is received
+9) -
+10) -
+11) Positive response is received: 0x 62 F1 FD 03
+12) Positive response is received: 0x68 00
+13) Positive response is received: 0x68 01
+14) Positive response is received: 0x68 02
+15) Positive response is received: 0x68 03
+16) -
+17) -
+18) Positive response is received: 0x 62 F1 FD 02
+19) No response is received
+20) No response is received
+21) No response is received
+22) No response is received
+23) -
+24) -
+25) -
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
+2) DiagSessionCtrl(Default)
+3) wait(2000)
+4) RequestResponse(22f1fd, 62f1fd01, Equal)
+5) FunctionalMessage(28001, , None)
+6) FunctionalMessage(28011, , None)
+7) FunctionalMessage(28021, , None)
+8) FunctionalMessage(28031, , None)
+9) DiagSessionCtrl(Extended)
+10) wait(2000)
+11) RequestResponse(22f1fd, 62f1fd03, Equal)
+12) FunctionalMessage(28001, 6800, Equal)
+13) FunctionalMessage(28011, 6801, Equal)
+14) FunctionalMessage(28021, 6802, Equal)
+15) FunctionalMessage(28031, 6803, Equal)
+16) DiagSessionCtrl(Programming)
+17) wait(2000)
+18) RequestResponse(22f1fd, 62f1fd02, Equal)
+19) FunctionalMessage(28001, , None)
+20) FunctionalMessage(28011, , None)
+21) FunctionalMessage(28021, , None)
+22) FunctionalMessage(28031, , None)
+23) DiagSessionCtrl(Default)
+24) wait(2000)
+25) envvar(EnvTesterPresentOnOff(0; 1000))
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) -
+2) Negative response is received: 0x7F 68 7F
+3) Negative response is received: 0x7F 68 7F
+4) Negative response is received: 0x7F 68 7F
+5) Negative response is received: 0x7F 68 7F
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Set the (High) Voltage to Value 0 Wait 100 ms
+2) Request communication control with service 0x28 00 1 in Physical Addressing Mode
+3) Request communication control with service 0x28 01 1 in Physical Addressing Mode
+4) Request communication control with service 0x28 02 1 in Physical Addressing Mode
+5) Request communication control with service 0x28 03 1 in Physical Addressing Mode
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvVoltage(0, 100))
+2) RequestResponse(28001, 7f687f, Equal)
+3) RequestResponse(28011, 7f687f, Equal)
+4) RequestResponse(28021, 7f687f, Equal)
+5) RequestResponse(28031, 7f687f, Equal)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Set the (High) Voltage to Value 0 Wait 100 ms
+2) Request clear DTC with service 0x14 FF FF FF in Physical Addressing Mode
+3) Request clear DTC with service 0x14 FF FF FF in Functional Addressing Mode
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvVoltage(0, 100))
+2) RequestResponse(14ffffff, 54, Equal)
+3) FunctionalMessage(14ffffff, 54, Equal)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Set the (Low) Voltage to Value 0 Wait 100 ms
+2) Request change the diagnostic session with service 0x10 01 in Physical Addressing Mode
+3) Request change the diagnostic session with service 0x10 01 in Functional Addressing Mode
+4) Request change the diagnostic session with service 0x10 81 in Physical Addressing Mode
+5) Request change the diagnostic session with service 0x10 81 in Functional Addressing Mode
+6) Request change the diagnostic session with service 0x10 03 in Physical Addressing Mode
+7) Request change the diagnostic session with service 0x10 03 in Functional Addressing Mode
+8) Request change the diagnostic session with service 0x10 83 in Physical Addressing Mode
+9) Request change the diagnostic session with service 0x10 83 in Functional Addressing Mode
+10) Request change the diagnostic session with service 0x10 02 in Physical Addressing Mode
+11) Request change the diagnostic session with service 0x10 02 in Functional Addressing Mode
+12) Request change the diagnostic session with service 0x10 82 in Physical Addressing Mode
+13) Request change the diagnostic session with service 0x10 82 in Functional Addressing Mode
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Set the (Low) Voltage to Value 0 Wait 100 ms
+2) Request reset the camera with service 0x11 01 in Physical Addressing Mode
+3) Request reset the camera with service 0x11 01 in Functional Addressing Mode
+4) Request reset the camera with service 0x11 81 in Physical Addressing Mode
+5) Request reset the camera with service 0x11 81 in Functional Addressing Mode
+6) Request reset the camera with service 0x11 03 in Physical Addressing Mode
+7) Request reset the camera with service 0x11 03 in Functional Addressing Mode
+8) Request reset the camera with service 0x11 83 in Physical Addressing Mode
+9) Request reset the camera with service 0x11 83 in Functional Addressing Mode
+10) Request reset the camera with service 0x11 02 in Physical Addressing Mode
+11) Request reset the camera with service 0x11 02 in Functional Addressing Mode
+12) Request reset the camera with service 0x11 82 in Physical Addressing Mode
+13) Request reset the camera with service 0x11 82 in Functional Addressing Mode
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Set the (Low) Voltage to Value 0 Wait 100 ms
+2) Request clear DTC with service 0x14 FF FF FF in Physical Addressing Mode
+3) Request clear DTC with service 0x14 FF FF FF in Functional Addressing Mode
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Set the (Low) Voltage to Value 5 Wait 100 ms
+2) Send 22 F1 FD Using Physical Addressing Mode
+3) Send 22 F1 FD Using Functional Addressing Mode
+4) Send 22 F1 FD Using Physical Addressing Mode
+5) Send 22 F1 FD Using Functional Addressing Mode
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvVoltage(5, 100))
+2) RequestResponse(22f1fd, 62f1fd.*{1}, Regexp)
+3) FunctionalMessage(22f1fd, 62f1fd.*{1}, Regexp)
+4) RequestResponse(22f1fd, 62f1fd.*{1}, Regexp)
+5) FunctionalMessage(22f1fd, 62f1fd.*{1}, Regexp)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Set the (Low) Voltage to Value 0 Wait 100 ms
+2) Request security access with service 0x27 01 in Physical Addressing Mode
+3) Request security access with service 0x27 01 in Functional Addressing Mode
+4) Request security access with service 0x27 81 in Physical Addressing Mode
+5) Request security access with service 0x27 81 in Functional Addressing Mode
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Set the (Low) Voltage to Value 0 Wait 100 ms
+2) Request communication control with service 0x28 00 1 in Physical Addressing Mode
+3) Request communication control with service 0x28 01 1 in Physical Addressing Mode
+4) Request communication control with service 0x28 02 1 in Physical Addressing Mode
+5) Request communication control with service 0x28 03 1 in Physical Addressing Mode
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Set the (Low) Voltage to Value 0 Wait 100 ms
+2) Request tester present with service 0x3E 00 in Physical Addressing Mode
+3) Request tester present with service 0x3E 00 in Functional Addressing Mode
+4) Request tester present with service 0x3E 80 in Physical Addressing Mode
+5) Request tester present with service 0x3E 80 in Functional Addressing Mode
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Set the (Low) Voltage to Value 0 Wait 100 ms
+2) Request control DTC setting with service 0x85 01 in Physical Addressing Mode
+3) Request control DTC setting with service 0x85 01 in Functional Addressing Mode
+4) Request control DTC setting with service 0x85 81 in Physical Addressing Mode
+5) Request control DTC setting with service 0x85 81 in Functional Addressing Mode
 </t>
   </si>
   <si>
@@ -2707,417 +2557,6 @@
 </t>
   </si>
   <si>
-    <t>2.1.1 LabT_DCOM: Service 10: Check all allowed diagnostic sessions</t>
-  </si>
-  <si>
-    <t>2.2.1 LabT_DCOM: Service 11: Check all allowed diagnostic sessions</t>
-  </si>
-  <si>
-    <t>2.2.2 LabT_DCOM: Service 11: Check all supported addressing mode</t>
-  </si>
-  <si>
-    <t>2.2.3 LabT_DCOM: Service 11: Check all supported suppress bit</t>
-  </si>
-  <si>
-    <t>2.3.1 LabT_DCOM: Service 14: Check all allowed diagnostic sessions</t>
-  </si>
-  <si>
-    <t>2.3.2 LabT_DCOM: Service 14: Check all supported addressing mode</t>
-  </si>
-  <si>
-    <t>2.5.1 LabT_DCOM: Service 22: Check all allowed diagnostic sessions</t>
-  </si>
-  <si>
-    <t>2.5.2 LabT_DCOM: Service 22: Check all supported addressing mode</t>
-  </si>
-  <si>
-    <t>2.5.3 LabT_DCOM:Service 22:Default DID in Default Session</t>
-  </si>
-  <si>
-    <t>2.5.4 LabT_DCOM:Service 22:Default DID in Extended Session</t>
-  </si>
-  <si>
-    <t>2.5.5 LabT_DCOM:Service 22:Default DID in Programming Session</t>
-  </si>
-  <si>
-    <t>2.6.1 LabT_DCOM: Service 27: Check all allowed diagnostic sessions</t>
-  </si>
-  <si>
-    <t>2.6.2 LabT_DCOM: Service 27: Check all supported addressing mode</t>
-  </si>
-  <si>
-    <t>2.6.3 LabT_DCOM: Service 27: Check all supported suppress bit</t>
-  </si>
-  <si>
-    <t>2.7.1 LabT_DCOM: Service 28: Check all allowed diagnostic sessions</t>
-  </si>
-  <si>
-    <t>2.8.1 LabT_DCOM: Service 2E: Check all allowed diagnostic sessions</t>
-  </si>
-  <si>
-    <t>2.8.2 LabT_DCOM: Service 2E:Check all supported addressing mode in service 0x2E</t>
-  </si>
-  <si>
-    <t>2.8.3 LabT_DCOM:Service 2E:Default DID in Extended Session0140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Tester present ON wait 100
-2) Change to Default session with service 0x10 01
-3) Wait 1000 ms
-4) Change to Extended session with service 0x10 03
-5) Wait 1000 ms
-6) Set the EnvLogInLevel 1 ON Wait 1000 ms
-7) Set the EnvLogInLevel 1 OFF Wait 1000 ms
-8) Send 22 01 40 Using Physical Addressing Mode
-9) Send 22 01 40 Using Functional Addressing Mode
-10) Send 22 01 40 Using Physical Addressing Mode
-11) Send 22 01 40 Using Functional Addressing Mode
-12) Send 22 01 40 Using Physical Addressing Mode
-13) Send 22 01 40 Using Functional Addressing Mode
-14) Send 22 01 40 Using Physical Addressing Mode
-15) Send 22 01 40 Using Functional Addressing Mode
-16) Change to Default session with service 0x10 01
-17) Tester present OFF wait 100
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) -
-2) -
-3) -
-4) -
-5) -
-6) -
-7) -
-8) Positive response is received: 0x62 01 40 01
-9) Positive response is received: 0x62 01 40 01
-10) Positive response is received: 0x62 01 40 02
-11) Positive response is received: 0x62 01 40 02
-12) Positive response is received: 0x62 01 40 03
-13) Positive response is received: 0x62 01 40 03
-14) Positive response is received: 0x62 01 40 31 31 31 31 31 31 31 31 31 31 31 31 31 31 31 31 31
-15) Positive response is received: 0x62 01 40 31 31 31 31 31 31 31 31 31 31 31 31 31 31 31 31 31
-16) -
-17) -
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
-2) DiagSessionCtrl(Default)
-3) wait(1000)
-4) DiagSessionCtrl(Extended)
-5) wait(1000)
-6) SetEnvVar(string Name EnvLogInLevel 1, string Value 1, int WaitTime 1000)
-7) SetEnvVar(string Name EnvLogInLevel 1, string Value 0, int WaitTime 1000)
-8) RequestResponse(220140, 62014001, Equal)
-9) FunctionalMessage(220140, 62014001, Equal)
-10) RequestResponse(220140, 62014002, Equal)
-11) FunctionalMessage(220140, 62014002, Equal)
-12) RequestResponse(220140, 62014003, Equal)
-13) FunctionalMessage(220140, 62014003, Equal)
-14) RequestResponse(220140, 6201403131313131313131313131313131313131, Equal)
-15) FunctionalMessage(220140, 6201403131313131313131313131313131313131, Equal)
-16) DiagSessionCtrl(Default)
-17) envvar(EnvTesterPresentOnOff(0; 100))
-</t>
-  </si>
-  <si>
-    <t>2.8.4 LabT_DCOM:Service 2E:Default DID in Extended SessionF102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Tester present ON wait 100
-2) Change to Default session with service 0x10 01
-3) Wait 1000 ms
-4) Change to Extended session with service 0x10 03
-5) Wait 1000 ms
-6) Set the EnvLogInLevel 1 ON Wait 1000 ms
-7) Set the EnvLogInLevel 1 OFF Wait 1000 ms
-8) Send 22 F1 02 Using Physical Addressing Mode
-9) Send 22 F1 02 Using Functional Addressing Mode
-10) Change to Default session with service 0x10 01
-11) Tester present OFF wait 100
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) -
-2) -
-3) -
-4) -
-5) -
-6) -
-7) -
-8) Positive response is received: 0x62 F1 02 31 31 31 31 31 31 31 31 31 31 31 31 31 31 31 31 31
-9) Positive response is received: 0x62 F1 02 31 31 31 31 31 31 31 31 31 31 31 31 31 31 31 31 31
-10) -
-11) -
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
-2) DiagSessionCtrl(Default)
-3) wait(1000)
-4) DiagSessionCtrl(Extended)
-5) wait(1000)
-6) SetEnvVar(string Name EnvLogInLevel 1, string Value 1, int WaitTime 1000)
-7) SetEnvVar(string Name EnvLogInLevel 1, string Value 0, int WaitTime 1000)
-8) RequestResponse(22f102, 62f1023131313131313131313131313131313131, Equal)
-9) FunctionalMessage(22f102, 62f1023131313131313131313131313131313131, Equal)
-10) DiagSessionCtrl(Default)
-11) envvar(EnvTesterPresentOnOff(0; 100))
-</t>
-  </si>
-  <si>
-    <t>2.8.5 LabT_DCOM:Service 2E:Default DID in Extended Session0308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Tester present ON wait 100
-2) Change to Default session with service 0x10 01
-3) Wait 1000 ms
-4) Change to Extended session with service 0x10 03
-5) Wait 1000 ms
-6) Set the EnvLogInLevel 1 ON Wait 1000 ms
-7) Set the EnvLogInLevel 1 OFF Wait 1000 ms
-8) Send 22 03 08 Using Physical Addressing Mode
-9) Send 22 03 08 Using Functional Addressing Mode
-10) Change to Default session with service 0x10 01
-11) Tester present OFF wait 100
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) -
-2) -
-3) -
-4) -
-5) -
-6) -
-7) -
-8) Positive response is received: 0x62 03 08 FF FF
-9) Positive response is received: 0x62 03 08 FF FF
-10) -
-11) -
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
-2) DiagSessionCtrl(Default)
-3) wait(1000)
-4) DiagSessionCtrl(Extended)
-5) wait(1000)
-6) SetEnvVar(string Name EnvLogInLevel 1, string Value 1, int WaitTime 1000)
-7) SetEnvVar(string Name EnvLogInLevel 1, string Value 0, int WaitTime 1000)
-8) RequestResponse(220308, 620308ffff, Equal)
-9) FunctionalMessage(220308, 620308ffff, Equal)
-10) DiagSessionCtrl(Default)
-11) envvar(EnvTesterPresentOnOff(0; 100))
-</t>
-  </si>
-  <si>
-    <t>2.8.6 LabT_DCOM:Service 2E:Default DID in Extended Session0101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Tester present ON wait 100
-2) Change to Default session with service 0x10 01
-3) Wait 1000 ms
-4) Change to Extended session with service 0x10 03
-5) Wait 1000 ms
-6) Set the EnvLogInLevel 1 ON Wait 1000 ms
-7) Set the EnvLogInLevel 1 OFF Wait 1000 ms
-8) Send 22 01 01 Using Physical Addressing Mode
-9) Send 22 01 01 Using Functional Addressing Mode
-10) Change to Default session with service 0x10 01
-11) Tester present OFF wait 100
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) -
-2) -
-3) -
-4) -
-5) -
-6) -
-7) -
-8) Positive response is received: 0x62 01 01 06
-9) Positive response is received: 0x62 01 01 06
-10) -
-11) -
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
-2) DiagSessionCtrl(Default)
-3) wait(1000)
-4) DiagSessionCtrl(Extended)
-5) wait(1000)
-6) SetEnvVar(string Name EnvLogInLevel 1, string Value 1, int WaitTime 1000)
-7) SetEnvVar(string Name EnvLogInLevel 1, string Value 0, int WaitTime 1000)
-8) RequestResponse(220101, 62010106, Equal)
-9) FunctionalMessage(220101, 62010106, Equal)
-10) DiagSessionCtrl(Default)
-11) envvar(EnvTesterPresentOnOff(0; 100))
-</t>
-  </si>
-  <si>
-    <t>2.8.7 LabT_DCOM:Service 2E:Default DID in Extended Session0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Tester present ON wait 100
-2) Change to Default session with service 0x10 01
-3) Wait 1000 ms
-4) Change to Extended session with service 0x10 03
-5) Wait 1000 ms
-6) Set the EnvLogInLevel 1 ON Wait 1000 ms
-7) Set the EnvLogInLevel 1 OFF Wait 1000 ms
-8) Send 22 01 00 Using Physical Addressing Mode
-9) Send 22 01 00 Using Functional Addressing Mode
-10) Change to Default session with service 0x10 01
-11) Tester present OFF wait 100
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) -
-2) -
-3) -
-4) -
-5) -
-6) -
-7) -
-8) Positive response is received: 0x62 01 00 FF FF
-9) Positive response is received: 0x62 01 00 FF FF
-10) -
-11) -
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
-2) DiagSessionCtrl(Default)
-3) wait(1000)
-4) DiagSessionCtrl(Extended)
-5) wait(1000)
-6) SetEnvVar(string Name EnvLogInLevel 1, string Value 1, int WaitTime 1000)
-7) SetEnvVar(string Name EnvLogInLevel 1, string Value 0, int WaitTime 1000)
-8) RequestResponse(220100, 620100ffff, Equal)
-9) FunctionalMessage(220100, 620100ffff, Equal)
-10) DiagSessionCtrl(Default)
-11) envvar(EnvTesterPresentOnOff(0; 100))
-</t>
-  </si>
-  <si>
-    <t>2.8.8 LabT_DCOM:Service 2E:Default DID in Extended Session0110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Tester present ON wait 100
-2) Change to Default session with service 0x10 01
-3) Wait 1000 ms
-4) Change to Extended session with service 0x10 03
-5) Wait 1000 ms
-6) Set the EnvLogInLevel 1 ON Wait 1000 ms
-7) Set the EnvLogInLevel 1 OFF Wait 1000 ms
-8) Send 22 01 10 Using Physical Addressing Mode
-9) Send 22 01 10 Using Functional Addressing Mode
-10) Send 22 01 10 Using Physical Addressing Mode
-11) Send 22 01 10 Using Functional Addressing Mode
-12) Send 22 01 10 Using Physical Addressing Mode
-13) Send 22 01 10 Using Functional Addressing Mode
-14) Change to Default session with service 0x10 01
-15) Tester present OFF wait 100
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) -
-2) -
-3) -
-4) -
-5) -
-6) -
-7) -
-8) Positive response is received: 0x62 01 10 00
-9) Positive response is received: 0x62 01 10 00
-10) Positive response is received: 0x62 01 10 01
-11) Positive response is received: 0x62 01 10 01
-12) Positive response is received: 0x62 01 10 02
-13) Positive response is received: 0x62 01 10 02
-14) -
-15) -
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
-2) DiagSessionCtrl(Default)
-3) wait(1000)
-4) DiagSessionCtrl(Extended)
-5) wait(1000)
-6) SetEnvVar(string Name EnvLogInLevel 1, string Value 1, int WaitTime 1000)
-7) SetEnvVar(string Name EnvLogInLevel 1, string Value 0, int WaitTime 1000)
-8) RequestResponse(220110, 62011000, Equal)
-9) FunctionalMessage(220110, 62011000, Equal)
-10) RequestResponse(220110, 62011001, Equal)
-11) FunctionalMessage(220110, 62011001, Equal)
-12) RequestResponse(220110, 62011002, Equal)
-13) FunctionalMessage(220110, 62011002, Equal)
-14) DiagSessionCtrl(Default)
-15) envvar(EnvTesterPresentOnOff(0; 100))
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Set the Vehicle_Speed to Value 0 Wait 100 ms
-2) Send 22 F1 FD Using Physical Addressing Mode
-3) Send 22 F1 FD Using Functional Addressing Mode
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) envvar(EnvVehicle_Speed(0, 100))
-2) RequestResponse(22f1fd, 62f1fd.*{1}, Regexp)
-3) FunctionalMessage(22f1fd, 62f1fd.*{1}, Regexp)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Set the (Low) Voltage to Value 0 Wait 100 ms
-2) Send 22 F1 FD Using Physical Addressing Mode
-3) Send 22 F1 FD Using Functional Addressing Mode
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) envvar(EnvVoltage(0, 100))
-2) RequestResponse(22f1fd, 62f1fd.*{1}, Regexp)
-3) FunctionalMessage(22f1fd, 62f1fd.*{1}, Regexp)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Set the (High) Voltage to Value 0 Wait 100 ms
-2) Send 22 F1 FD Using Physical Addressing Mode
-3) Send 22 F1 FD Using Functional Addressing Mode
-</t>
-  </si>
-  <si>
-    <t>2.10.1 LabT_DCOM: Service 3E: Check all allowed diagnostic sessions</t>
-  </si>
-  <si>
-    <t>2.10.2 LabT_DCOM: Service 3E: Check all supported addressing mode</t>
-  </si>
-  <si>
-    <t>2.10.3 LabT_DCOM: Service 3E: Check all supported suppress bit</t>
-  </si>
-  <si>
-    <t>2.11.1 LabT_DCOM: Service 85: Check all allowed diagnostic sessions</t>
-  </si>
-  <si>
-    <t>Testcase_SAIC_AS28_R1.0_DCOM_107</t>
-  </si>
-  <si>
-    <t>Testcase_SAIC_AS28_R1.0_DCOM_108</t>
-  </si>
-  <si>
-    <t>Testcase_SAIC_AS28_R1.0_DCOM_109</t>
-  </si>
-  <si>
-    <t>2.1.2 LabT_DCOM: Service 10: Check Session transitions - From Default Session</t>
-  </si>
-  <si>
-    <t>2.1.3 LabT_DCOM: Service 10: Check Session transitions - From Programming Session</t>
-  </si>
-  <si>
-    <t>2.1.4 LabT_DCOM: Service 10: Check Session transitions - From Extended Session</t>
-  </si>
-  <si>
     <t xml:space="preserve">1) Tester present ON wait 0
 2) Change to Default session with service 0x10 01
 3) Wait 2000 ms
@@ -3163,479 +2602,6 @@
 43) Read active session with service 0x22 F1 FD
 44) Tester present OFF wait 0
 </t>
-  </si>
-  <si>
-    <t>2.1.5 LabT_DCOM: Service 10: Check all supported addressing mode</t>
-  </si>
-  <si>
-    <t>2.1.6 LabT_DCOM: Service 10: Check all supported suppress bit</t>
-  </si>
-  <si>
-    <t>2.1.7 LabT_DCOM: Service 10: Check Vehicle_Speed condition</t>
-  </si>
-  <si>
-    <t>2.1.11 LabT_DCOM: Service 10: Check Engine_Status (Stop) condition in service 0x10</t>
-  </si>
-  <si>
-    <t>2.1.13 LabT_DCOM: Service 10: Check Voltage (High) condition</t>
-  </si>
-  <si>
-    <t>2.2.4 LabT_DCOM: Service 11: Check Vehicle_Speed condition</t>
-  </si>
-  <si>
-    <t>2.2.8 LabT_DCOM: Service 11: Check Engine_Status (Stop) condition in service 0x11</t>
-  </si>
-  <si>
-    <t>2.2.10 LabT_DCOM: Service 11: Check Voltage (High) condition</t>
-  </si>
-  <si>
-    <t>2.3.3 LabT_DCOM: Service 14: Check Vehicle_Speed condition</t>
-  </si>
-  <si>
-    <t>2.3.7 LabT_DCOM: Service 14: Check Engine_Status (Stop) condition in service 0x14</t>
-  </si>
-  <si>
-    <t>2.3.9 LabT_DCOM: Service 14: Check Voltage (High) condition</t>
-  </si>
-  <si>
-    <t>2.5.6 LabT_DCOM: Service 22: Check Vehicle_Speed condition</t>
-  </si>
-  <si>
-    <t>2.5.10 LabT_DCOM: Service 22: Check Engine_Status (Stop) condition in service 0x22</t>
-  </si>
-  <si>
-    <t>2.5.12 LabT_DCOM: Service 22: Check Voltage (High) condition</t>
-  </si>
-  <si>
-    <t>2.6.4 LabT_DCOM: Service 27: Check Vehicle_Speed condition</t>
-  </si>
-  <si>
-    <t>2.6.8 LabT_DCOM: Service 27: Check Engine_Status (Stop) condition in service 0x27</t>
-  </si>
-  <si>
-    <t>2.6.10 LabT_DCOM: Service 27: Check Voltage (High) condition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Tester present ON wait 100
-2) Change to Default session with service 0x10 01
-3) Wait 2000 ms
-4) Read active session with service 0x22 F1 FD
-5) Request communication control with service 0x28 00 1 in Physical Addressing Mode
-6) Request communication control with service 0x28 01 1 in Physical Addressing Mode
-7) Request communication control with service 0x28 02 1 in Physical Addressing Mode
-8) Request communication control with service 0x28 03 1 in Physical Addressing Mode
-9) Request communication control with service 0x28 00 1 in Physical Addressing Mode
-10) Request communication control with service 0x28 01 1 in Physical Addressing Mode
-11) Request communication control with service 0x28 02 1 in Physical Addressing Mode
-12) Request communication control with service 0x28 03 1 in Physical Addressing Mode
-13) Change to Extended session with service 0x10 03
-14) Wait 2000 ms
-15) Read active session with service 0x22 F1 FD
-16) Request communication control with service 0x28 00 1 in Physical Addressing Mode
-17) Request communication control with service 0x28 01 1 in Physical Addressing Mode
-18) Request communication control with service 0x28 02 1 in Physical Addressing Mode
-19) Request communication control with service 0x28 03 1 in Physical Addressing Mode
-20) Request communication control with service 0x28 00 1 in Physical Addressing Mode
-21) Request communication control with service 0x28 01 1 in Physical Addressing Mode
-22) Request communication control with service 0x28 02 1 in Physical Addressing Mode
-23) Request communication control with service 0x28 03 1 in Physical Addressing Mode
-24) Change to Default session with service 0x10 01
-25) Wait 2000 ms
-26) Tester present OFF wait 1000
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) -
-2) -
-3) -
-4) Positive response is received: 0x 62 F1 FD 01
-5) Negative response is received: 0x7F 68 7F
-6) Negative response is received: 0x7F 68 7F
-7) Negative response is received: 0x7F 68 7F
-8) Negative response is received: 0x7F 68 7F
-9) Negative response is received: 0x7F 68 7F
-10) Negative response is received: 0x7F 68 7F
-11) Negative response is received: 0x7F 68 7F
-12) Negative response is received: 0x7F 68 7F
-13) -
-14) -
-15) Positive response is received: 0x 62 F1 FD 03
-16) Positive response is received: 0x68 00
-17) Positive response is received: 0x68 01
-18) Positive response is received: 0x68 02
-19) Positive response is received: 0x68 03
-20) Positive response is received: 0x68 00
-21) Positive response is received: 0x68 01
-22) Positive response is received: 0x68 02
-23) Positive response is received: 0x68 03
-24) -
-25) -
-26) -
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
-2) DiagSessionCtrl(Default)
-3) wait(2000)
-4) RequestResponse(22f1fd, 62f1fd01, Equal)
-5) RequestResponse(28001, 7f687f, Equal)
-6) RequestResponse(28011, 7f687f, Equal)
-7) RequestResponse(28021, 7f687f, Equal)
-8) RequestResponse(28031, 7f687f, Equal)
-9) RequestResponse(28001, 7f687f, Equal)
-10) RequestResponse(28011, 7f687f, Equal)
-11) RequestResponse(28021, 7f687f, Equal)
-12) RequestResponse(28031, 7f687f, Equal)
-13) DiagSessionCtrl(Extended)
-14) wait(2000)
-15) RequestResponse(22f1fd, 62f1fd03, Equal)
-16) RequestResponse(28001, 6800, Equal)
-17) RequestResponse(28011, 6801, Equal)
-18) RequestResponse(28021, 6802, Equal)
-19) RequestResponse(28031, 6803, Equal)
-20) RequestResponse(28001, 6800, Equal)
-21) RequestResponse(28011, 6801, Equal)
-22) RequestResponse(28021, 6802, Equal)
-23) RequestResponse(28031, 6803, Equal)
-24) DiagSessionCtrl(Default)
-25) wait(2000)
-26) envvar(EnvTesterPresentOnOff(0; 1000))
-</t>
-  </si>
-  <si>
-    <t>2.7.2 LabT_DCOM:Service 28: Communication Type 0x01 Check the service using Physical addressing modes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Tester present ON wait 100
-2) Change to Default session with service 0x10 01
-3) Wait 2000 ms
-4) Read active session with service 0x22 F1 FD
-5) Request communication control with service 0x28 00 1 in Physical Addressing Mode
-6) Request communication control with service 0x28 01 1 in Physical Addressing Mode
-7) Request communication control with service 0x28 02 1 in Physical Addressing Mode
-8) Request communication control with service 0x28 03 1 in Physical Addressing Mode
-9) Change to Extended session with service 0x10 03
-10) Wait 2000 ms
-11) Read active session with service 0x22 F1 FD
-12) Request communication control with service 0x28 00 1 in Physical Addressing Mode
-13) Request communication control with service 0x28 01 1 in Physical Addressing Mode
-14) Request communication control with service 0x28 02 1 in Physical Addressing Mode
-15) Request communication control with service 0x28 03 1 in Physical Addressing Mode
-16) Change to Programming session with service 0x10 02
-17) Wait 2000 ms
-18) Read active session with service 0x22 F1 FD
-19) Request communication control with service 0x28 00 1 in Physical Addressing Mode
-20) Request communication control with service 0x28 01 1 in Physical Addressing Mode
-21) Request communication control with service 0x28 02 1 in Physical Addressing Mode
-22) Request communication control with service 0x28 03 1 in Physical Addressing Mode
-23) Change to Default session with service 0x10 01
-24) Wait 2000 ms
-25) Tester present OFF wait 1000
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) -
-2) -
-3) -
-4) Positive response is received: 0x 62 F1 FD 01
-5) Negative response is received: 0x7F 68 7F
-6) Negative response is received: 0x7F 68 7F
-7) Negative response is received: 0x7F 68 7F
-8) Negative response is received: 0x7F 68 7F
-9) -
-10) -
-11) Positive response is received: 0x 62 F1 FD 03
-12) Positive response is received: 0x68 00
-13) Positive response is received: 0x68 01
-14) Positive response is received: 0x68 02
-15) Positive response is received: 0x68 03
-16) -
-17) -
-18) Positive response is received: 0x 62 F1 FD 02
-19) Negative response is received: 0x7F 68 7F
-20) Negative response is received: 0x7F 68 7F
-21) Negative response is received: 0x7F 68 7F
-22) Negative response is received: 0x7F 68 7F
-23) -
-24) -
-25) -
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
-2) DiagSessionCtrl(Default)
-3) wait(2000)
-4) RequestResponse(22f1fd, 62f1fd01, Equal)
-5) RequestResponse(28001, 7f687f, Equal)
-6) RequestResponse(28011, 7f687f, Equal)
-7) RequestResponse(28021, 7f687f, Equal)
-8) RequestResponse(28031, 7f687f, Equal)
-9) DiagSessionCtrl(Extended)
-10) wait(2000)
-11) RequestResponse(22f1fd, 62f1fd03, Equal)
-12) RequestResponse(28001, 6800, Equal)
-13) RequestResponse(28011, 6801, Equal)
-14) RequestResponse(28021, 6802, Equal)
-15) RequestResponse(28031, 6803, Equal)
-16) DiagSessionCtrl(Programming)
-17) wait(2000)
-18) RequestResponse(22f1fd, 62f1fd02, Equal)
-19) RequestResponse(28001, 7f687f, Equal)
-20) RequestResponse(28011, 7f687f, Equal)
-21) RequestResponse(28021, 7f687f, Equal)
-22) RequestResponse(28031, 7f687f, Equal)
-23) DiagSessionCtrl(Default)
-24) wait(2000)
-25) envvar(EnvTesterPresentOnOff(0; 1000))
-</t>
-  </si>
-  <si>
-    <t>2.7.3 LabT_DCOM:Service 28: Communication Type 0x01 Check the service using Functional addressing modes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Tester present ON wait 100
-2) Change to Default session with service 0x10 01
-3) Wait 2000 ms
-4) Read active session with service 0x22 F1 FD
-5) Request communication control with service 0x28 00 1 in Functional Addressing Mode
-6) Request communication control with service 0x28 01 1 in Functional Addressing Mode
-7) Request communication control with service 0x28 02 1 in Functional Addressing Mode
-8) Request communication control with service 0x28 03 1 in Functional Addressing Mode
-9) Change to Extended session with service 0x10 03
-10) Wait 2000 ms
-11) Read active session with service 0x22 F1 FD
-12) Request communication control with service 0x28 00 1 in Functional Addressing Mode
-13) Request communication control with service 0x28 01 1 in Functional Addressing Mode
-14) Request communication control with service 0x28 02 1 in Functional Addressing Mode
-15) Request communication control with service 0x28 03 1 in Functional Addressing Mode
-16) Change to Programming session with service 0x10 02
-17) Wait 2000 ms
-18) Read active session with service 0x22 F1 FD
-19) Request communication control with service 0x28 00 1 in Functional Addressing Mode
-20) Request communication control with service 0x28 01 1 in Functional Addressing Mode
-21) Request communication control with service 0x28 02 1 in Functional Addressing Mode
-22) Request communication control with service 0x28 03 1 in Functional Addressing Mode
-23) Change to Default session with service 0x10 01
-24) Wait 2000 ms
-25) Tester present OFF wait 1000
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) -
-2) -
-3) -
-4) Positive response is received: 0x 62 F1 FD 01
-5) No response is received
-6) No response is received
-7) No response is received
-8) No response is received
-9) -
-10) -
-11) Positive response is received: 0x 62 F1 FD 03
-12) Positive response is received: 0x68 00
-13) Positive response is received: 0x68 01
-14) Positive response is received: 0x68 02
-15) Positive response is received: 0x68 03
-16) -
-17) -
-18) Positive response is received: 0x 62 F1 FD 02
-19) No response is received
-20) No response is received
-21) No response is received
-22) No response is received
-23) -
-24) -
-25) -
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
-2) DiagSessionCtrl(Default)
-3) wait(2000)
-4) RequestResponse(22f1fd, 62f1fd01, Equal)
-5) FunctionalMessage(28001, , None)
-6) FunctionalMessage(28011, , None)
-7) FunctionalMessage(28021, , None)
-8) FunctionalMessage(28031, , None)
-9) DiagSessionCtrl(Extended)
-10) wait(2000)
-11) RequestResponse(22f1fd, 62f1fd03, Equal)
-12) FunctionalMessage(28001, 6800, Equal)
-13) FunctionalMessage(28011, 6801, Equal)
-14) FunctionalMessage(28021, 6802, Equal)
-15) FunctionalMessage(28031, 6803, Equal)
-16) DiagSessionCtrl(Programming)
-17) wait(2000)
-18) RequestResponse(22f1fd, 62f1fd02, Equal)
-19) FunctionalMessage(28001, , None)
-20) FunctionalMessage(28011, , None)
-21) FunctionalMessage(28021, , None)
-22) FunctionalMessage(28031, , None)
-23) DiagSessionCtrl(Default)
-24) wait(2000)
-25) envvar(EnvTesterPresentOnOff(0; 1000))
-</t>
-  </si>
-  <si>
-    <t>2.7.4 LabT_DCOM:Service 28: Communication Type 0x03 Check the service using Physical addressing modes</t>
-  </si>
-  <si>
-    <t>2.7.5 LabT_DCOM:Service 28: Communication Type 0x03 Check the service using Functional addressing modes</t>
-  </si>
-  <si>
-    <t>2.7.6 LabT_DCOM: Service 28: Communication Type 0x01 Check Vehicle_Speed condition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Set the Vehicle_Speed to Value 0 Wait 100 ms
-2) Request communication control with service 0x28 00 1 in Physical Addressing Mode
-3) Request communication control with service 0x28 01 1 in Physical Addressing Mode
-4) Request communication control with service 0x28 02 1 in Physical Addressing Mode
-5) Request communication control with service 0x28 03 1 in Physical Addressing Mode
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) -
-2) Negative response is received: 0x7F 68 7F
-3) Negative response is received: 0x7F 68 7F
-4) Negative response is received: 0x7F 68 7F
-5) Negative response is received: 0x7F 68 7F
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) envvar(EnvVehicle_Speed(0, 100))
-2) RequestResponse(28001, 7f687f, Equal)
-3) RequestResponse(28011, 7f687f, Equal)
-4) RequestResponse(28021, 7f687f, Equal)
-5) RequestResponse(28031, 7f687f, Equal)
-</t>
-  </si>
-  <si>
-    <t>2.7.7 LabT_DCOM: Service 28: Communication Type 0x03 Check Vehicle_Speed condition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Set the Engine_Status to Value 0 (Stop) Wait 100 ms
-2) Request communication control with service 0x28 00 1 in Physical Addressing Mode
-3) Request communication control with service 0x28 01 1 in Physical Addressing Mode
-4) Request communication control with service 0x28 02 1 in Physical Addressing Mode
-5) Request communication control with service 0x28 03 1 in Physical Addressing Mode
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) envvar(EnvEngine_Status(0, 100))
-2) RequestResponse(28001, 7f687f, Equal)
-3) RequestResponse(28011, 7f687f, Equal)
-4) RequestResponse(28021, 7f687f, Equal)
-5) RequestResponse(28031, 7f687f, Equal)
-</t>
-  </si>
-  <si>
-    <t>2.7.14 LabT_DCOM: Service 28: Communication Type 0x01 Check Engine_Status (Stop) condition in service 0x28</t>
-  </si>
-  <si>
-    <t>2.7.15 LabT_DCOM: Service 28: Communication Type 0x03 Check Engine_Status (Stop) condition in service 0x28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Set the (High) Voltage to Value 0 Wait 100 ms
-2) Request communication control with service 0x28 00 1 in Physical Addressing Mode
-3) Request communication control with service 0x28 01 1 in Physical Addressing Mode
-4) Request communication control with service 0x28 02 1 in Physical Addressing Mode
-5) Request communication control with service 0x28 03 1 in Physical Addressing Mode
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) envvar(EnvVoltage(0, 100))
-2) RequestResponse(28001, 7f687f, Equal)
-3) RequestResponse(28011, 7f687f, Equal)
-4) RequestResponse(28021, 7f687f, Equal)
-5) RequestResponse(28031, 7f687f, Equal)
-</t>
-  </si>
-  <si>
-    <t>2.7.17 LabT_DCOM: Service 28: Check Voltage (High) condition</t>
-  </si>
-  <si>
-    <t>2.8.9 LabT_DCOM: Service 0x2E: Check Vehicle_Speed condition</t>
-  </si>
-  <si>
-    <t>2.8.10 LabT_DCOM: Service 0x2E: Check Engine_Status (Crank) condition in service 0x2E</t>
-  </si>
-  <si>
-    <t>2.8.11 LabT_DCOM: Service 0x2E: Check Engine_Status (Running) condition in service 0x2E</t>
-  </si>
-  <si>
-    <t>2.8.12 LabT_DCOM: Service 0x2E: Check Engine_Status (Reverse) condition in service 0x2E</t>
-  </si>
-  <si>
-    <t>2.8.13 LabT_DCOM: Service 0x2E: Check Engine_Status (Stop) condition in service 0x2E</t>
-  </si>
-  <si>
-    <t>2.8.14 LabT_DCOM: Service 0x2E: Check Voltage (Low) condition</t>
-  </si>
-  <si>
-    <t>2.8.15 LabT_DCOM: Service 0x2E: Check Voltage (High) condition</t>
-  </si>
-  <si>
-    <t>2.10.4 LabT_DCOM: Service 3E: Check Vehicle_Speed condition</t>
-  </si>
-  <si>
-    <t>2.10.8 LabT_DCOM: Service 3E: Check Engine_Status (Stop) condition in service 0x3E</t>
-  </si>
-  <si>
-    <t>2.10.10 LabT_DCOM: Service 3E: Check Voltage (High) condition</t>
-  </si>
-  <si>
-    <t>Testcase_SAIC_AS28_R1.0_DCOM_110</t>
-  </si>
-  <si>
-    <t>2.11.2 LabT_DCOM: Service 85: Check all supported in Physical addressing modes</t>
-  </si>
-  <si>
-    <t>Testcase_SAIC_AS28_R1.0_DCOM_111</t>
-  </si>
-  <si>
-    <t>2.11.3 LabT_DCOM: Service 85: Check all supported in Fuctional addressing modes</t>
-  </si>
-  <si>
-    <t>Testcase_SAIC_AS28_R1.0_DCOM_112</t>
-  </si>
-  <si>
-    <t>2.11.4 LabT_DCOM: Service 85: Check suppress bit in Physical</t>
-  </si>
-  <si>
-    <t>Testcase_SAIC_AS28_R1.0_DCOM_113</t>
-  </si>
-  <si>
-    <t>2.11.5 LabT_DCOM: Service 85: Check suppress bit in Fuctional</t>
-  </si>
-  <si>
-    <t>Testcase_SAIC_AS28_R1.0_DCOM_114</t>
-  </si>
-  <si>
-    <t>2.11.6 LabT_DCOM: Service 85: Check Vehicle_Speed condition</t>
-  </si>
-  <si>
-    <t>Testcase_SAIC_AS28_R1.0_DCOM_115</t>
-  </si>
-  <si>
-    <t>Testcase_SAIC_AS28_R1.0_DCOM_116</t>
-  </si>
-  <si>
-    <t>Testcase_SAIC_AS28_R1.0_DCOM_117</t>
-  </si>
-  <si>
-    <t>Testcase_SAIC_AS28_R1.0_DCOM_118</t>
-  </si>
-  <si>
-    <t>2.11.10 LabT_DCOM: Service 85: Check Engine_Status (Stop) condition in service 0x85</t>
-  </si>
-  <si>
-    <t>Testcase_SAIC_AS28_R1.0_DCOM_119</t>
-  </si>
-  <si>
-    <t>Testcase_SAIC_AS28_R1.0_DCOM_120</t>
-  </si>
-  <si>
-    <t>2.11.12 LabT_DCOM: Service 85: Check Voltage (High) condition</t>
   </si>
   <si>
     <t xml:space="preserve">1) Tester present ON wait 100
@@ -4715,121 +3681,592 @@
 </t>
   </si>
   <si>
-    <t>2.1.8 LabT_DCOM: Service 10: Check Engine_Status (Stop) condition in service 0x10</t>
-  </si>
-  <si>
-    <t>2.1.9 LabT_DCOM: Service 10: Check Engine_Status (Stop) condition in service 0x10</t>
-  </si>
-  <si>
-    <t>2.1.10 LabT_DCOM: Service 10: Check Engine_Status (Stop) condition in service 0x10</t>
-  </si>
-  <si>
-    <t>2.1.12 LabT_DCOM: Service 10: Check Voltage (High) condition</t>
-  </si>
-  <si>
-    <t>2.2.5 LabT_DCOM: Service 11: Check Engine_Status (Stop) condition in service 0x11</t>
-  </si>
-  <si>
-    <t>2.2.6 LabT_DCOM: Service 11: Check Engine_Status (Stop) condition in service 0x11</t>
-  </si>
-  <si>
-    <t>2.2.7 LabT_DCOM: Service 11: Check Engine_Status (Stop) condition in service 0x11</t>
-  </si>
-  <si>
-    <t>2.2.9 LabT_DCOM: Service 11: Check Voltage (High) condition</t>
-  </si>
-  <si>
-    <t>2.3.4 LabT_DCOM: Service 14: Check Engine_Status (Stop) condition in service 0x14</t>
-  </si>
-  <si>
-    <t>2.3.5 LabT_DCOM: Service 14: Check Engine_Status (Stop) condition in service 0x14</t>
-  </si>
-  <si>
-    <t>2.3.6 LabT_DCOM: Service 14: Check Engine_Status (Stop) condition in service 0x14</t>
-  </si>
-  <si>
-    <t>2.3.8 LabT_DCOM: Service 14: Check Voltage (High) condition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Set the (High) Voltage to Value 0 Wait 100 ms
-2) Request clear DTC with service 0x14 FF FF FF in Physical Addressing Mode
-3) Request clear DTC with service 0x14 FF FF FF in Functional Addressing Mode
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) envvar(EnvVoltage(0, 100))
-2) RequestResponse(14ffffff, 54, Equal)
-3) FunctionalMessage(14ffffff, 54, Equal)
-</t>
-  </si>
-  <si>
-    <t>2.5.7 LabT_DCOM: Service 22: Check Engine_Status (Stop) condition in service 0x22</t>
-  </si>
-  <si>
-    <t>2.5.8 LabT_DCOM: Service 22: Check Engine_Status (Stop) condition in service 0x22</t>
-  </si>
-  <si>
-    <t>2.5.9 LabT_DCOM: Service 22: Check Engine_Status (Stop) condition in service 0x22</t>
-  </si>
-  <si>
-    <t>2.5.11 LabT_DCOM: Service 22: Check Voltage (High) condition</t>
-  </si>
-  <si>
-    <t>2.6.5 LabT_DCOM: Service 27: Check Engine_Status (Stop) condition in service 0x27</t>
-  </si>
-  <si>
-    <t>2.6.6 LabT_DCOM: Service 27: Check Engine_Status (Stop) condition in service 0x27</t>
-  </si>
-  <si>
-    <t>2.6.7 LabT_DCOM: Service 27: Check Engine_Status (Stop) condition in service 0x27</t>
-  </si>
-  <si>
-    <t>2.6.9 LabT_DCOM: Service 27: Check Voltage (High) condition</t>
-  </si>
-  <si>
-    <t>2.7.8 LabT_DCOM: Service 28: Communication Type 0x01 Check Engine_Status (Stop) condition in service 0x28</t>
-  </si>
-  <si>
-    <t>2.7.9 LabT_DCOM: Service 28: Communication Type 0x03 Check Engine_Status (Stop) condition in service 0x28</t>
-  </si>
-  <si>
-    <t>2.7.10 LabT_DCOM: Service 28: Communication Type 0x01 Check Engine_Status (Stop) condition in service 0x28</t>
-  </si>
-  <si>
-    <t>2.7.11 LabT_DCOM: Service 28: Communication Type 0x03 Check Engine_Status (Stop) condition in service 0x28</t>
-  </si>
-  <si>
-    <t>2.7.12 LabT_DCOM: Service 28: Communication Type 0x01 Check Engine_Status (Stop) condition in service 0x28</t>
-  </si>
-  <si>
-    <t>2.7.13 LabT_DCOM: Service 28: Communication Type 0x03 Check Engine_Status (Stop) condition in service 0x28</t>
-  </si>
-  <si>
-    <t>2.7.16 LabT_DCOM: Service 28: Check Voltage (High) condition</t>
-  </si>
-  <si>
-    <t>2.10.5 LabT_DCOM: Service 3E: Check Engine_Status (Stop) condition in service 0x3E</t>
-  </si>
-  <si>
-    <t>2.10.6 LabT_DCOM: Service 3E: Check Engine_Status (Stop) condition in service 0x3E</t>
-  </si>
-  <si>
-    <t>2.10.7 LabT_DCOM: Service 3E: Check Engine_Status (Stop) condition in service 0x3E</t>
-  </si>
-  <si>
-    <t>2.10.9 LabT_DCOM: Service 3E: Check Voltage (High) condition</t>
-  </si>
-  <si>
-    <t>2.11.7 LabT_DCOM: Service 85: Check Engine_Status (Stop) condition in service 0x85</t>
-  </si>
-  <si>
-    <t>2.11.8 LabT_DCOM: Service 85: Check Engine_Status (Stop) condition in service 0x85</t>
-  </si>
-  <si>
-    <t>2.11.9 LabT_DCOM: Service 85: Check Engine_Status (Stop) condition in service 0x85</t>
-  </si>
-  <si>
-    <t>2.11.11 LabT_DCOM: Service 85: Check Voltage (High) condition</t>
+    <t>2.1.26 LabT_DCOM: Service 10: Check all allowed diagnostic sessions</t>
+  </si>
+  <si>
+    <t>2.1.27 LabT_DCOM: Service 10: Check Session transitions - From Default Session</t>
+  </si>
+  <si>
+    <t>2.1.28 LabT_DCOM: Service 10: Check Session transitions - From Programming Session</t>
+  </si>
+  <si>
+    <t>2.1.29 LabT_DCOM: Service 10: Check Session transitions - From Extended Session</t>
+  </si>
+  <si>
+    <t>2.1.30 LabT_DCOM: Service 10: Check all supported addressing mode</t>
+  </si>
+  <si>
+    <t>2.1.31 LabT_DCOM: Service 10: Check all supported suppress bit</t>
+  </si>
+  <si>
+    <t>2.1.32 LabT_DCOM: Service 10: Check Voltage (Low) condition</t>
+  </si>
+  <si>
+    <t>2.1.33 LabT_DCOM: Service 10: Check Voltage (High) condition</t>
+  </si>
+  <si>
+    <t>2.2.20 LabT_DCOM: Service 11: Check all allowed diagnostic sessions</t>
+  </si>
+  <si>
+    <t>2.2.21 LabT_DCOM: Service 11: Check all supported addressing mode</t>
+  </si>
+  <si>
+    <t>2.2.22 LabT_DCOM: Service 11: Check all supported suppress bit</t>
+  </si>
+  <si>
+    <t>2.2.23 LabT_DCOM: Service 11: Check Voltage (Low) condition</t>
+  </si>
+  <si>
+    <t>2.2.24 LabT_DCOM: Service 11: Check Voltage (High) condition</t>
+  </si>
+  <si>
+    <t>2.3.18 LabT_DCOM: Service 14: Check all allowed diagnostic sessions</t>
+  </si>
+  <si>
+    <t>2.3.19 LabT_DCOM: Service 14: Check all supported addressing mode</t>
+  </si>
+  <si>
+    <t>2.3.20 LabT_DCOM: Service 14: Check Voltage (Low) condition</t>
+  </si>
+  <si>
+    <t>2.3.21 LabT_DCOM: Service 14: Check Voltage (High) condition</t>
+  </si>
+  <si>
+    <t>2.5.24 LabT_DCOM: Service 22: Check all allowed diagnostic sessions</t>
+  </si>
+  <si>
+    <t>2.5.25 LabT_DCOM: Service 22: Check all supported addressing mode</t>
+  </si>
+  <si>
+    <t>2.5.26 LabT_DCOM:Service 22:Default DID in Default Session</t>
+  </si>
+  <si>
+    <t>2.5.27 LabT_DCOM:Service 22:Default DID in Extended Session</t>
+  </si>
+  <si>
+    <t>2.5.28 LabT_DCOM:Service 22:Default DID in Programming Session</t>
+  </si>
+  <si>
+    <t>2.5.29 LabT_DCOM: Service 22: Check Voltage (Low) condition</t>
+  </si>
+  <si>
+    <t>2.5.30 LabT_DCOM: Service 22: Check Voltage (High) condition</t>
+  </si>
+  <si>
+    <t>2.6.20 LabT_DCOM: Service 27: Check all allowed diagnostic sessions</t>
+  </si>
+  <si>
+    <t>2.6.21 LabT_DCOM: Service 27: Check all supported addressing mode</t>
+  </si>
+  <si>
+    <t>2.6.22 LabT_DCOM: Service 27: Check all supported suppress bit</t>
+  </si>
+  <si>
+    <t>2.6.23 LabT_DCOM: Service 27: Check Voltage (Low) condition</t>
+  </si>
+  <si>
+    <t>2.6.24 LabT_DCOM: Service 27: Check Voltage (High) condition</t>
+  </si>
+  <si>
+    <t>2.7.33 LabT_DCOM: Service 28: Check all allowed diagnostic sessions</t>
+  </si>
+  <si>
+    <t>2.7.34 LabT_DCOM:Service 28: Communication Type 0x01 Check the service using Physical addressing modes</t>
+  </si>
+  <si>
+    <t>2.7.35 LabT_DCOM:Service 28: Communication Type 0x01 Check the service using Functional addressing modes</t>
+  </si>
+  <si>
+    <t>2.7.36 LabT_DCOM:Service 28: Communication Type 0x03 Check the service using Physical addressing modes</t>
+  </si>
+  <si>
+    <t>2.7.37 LabT_DCOM:Service 28: Communication Type 0x03 Check the service using Functional addressing modes</t>
+  </si>
+  <si>
+    <t>2.7.38 LabT_DCOM: Service 28: Check Voltage (Low) condition</t>
+  </si>
+  <si>
+    <t>2.7.39 LabT_DCOM: Service 28: Check Voltage (High) condition</t>
+  </si>
+  <si>
+    <t>2.8.30 LabT_DCOM: Service 2E: Check all allowed diagnostic sessions</t>
+  </si>
+  <si>
+    <t>2.8.31 LabT_DCOM: Service 2E:Check all supported addressing mode in service 0x2E</t>
+  </si>
+  <si>
+    <t>2.8.32 LabT_DCOM:Service 2E:Default DID in Extended Session0140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 100
+2) Change to Default session with service 0x10 01
+3) Wait 1000 ms
+4) Change to Extended session with service 0x10 03
+5) Wait 1000 ms
+6) Set the EnvLogInLevel 1 ON Wait 1000 ms
+7) Set the EnvLogInLevel 1 OFF Wait 1000 ms
+8) Send 22 01 40 Using Physical Addressing Mode
+9) Send 22 01 40 Using Functional Addressing Mode
+10) Send 22 01 40 Using Physical Addressing Mode
+11) Send 22 01 40 Using Functional Addressing Mode
+12) Send 22 01 40 Using Physical Addressing Mode
+13) Send 22 01 40 Using Functional Addressing Mode
+14) Send 22 01 40 Using Physical Addressing Mode
+15) Send 22 01 40 Using Functional Addressing Mode
+16) Send 22 01 40 Using Physical Addressing Mode
+17) Send 22 01 40 Using Functional Addressing Mode
+18) Send 22 01 40 Using Physical Addressing Mode
+19) Send 22 01 40 Using Functional Addressing Mode
+20) Send 22 01 40 Using Physical Addressing Mode
+21) Send 22 01 40 Using Functional Addressing Mode
+22) Send 22 01 40 Using Physical Addressing Mode
+23) Send 22 01 40 Using Functional Addressing Mode
+24) Send 22 01 40 Using Physical Addressing Mode
+25) Send 22 01 40 Using Functional Addressing Mode
+26) Send 22 01 40 Using Physical Addressing Mode
+27) Send 22 01 40 Using Functional Addressing Mode
+28) Send 22 01 40 Using Physical Addressing Mode
+29) Send 22 01 40 Using Functional Addressing Mode
+30) Send 22 01 40 Using Physical Addressing Mode
+31) Send 22 01 40 Using Functional Addressing Mode
+32) Change to Default session with service 0x10 01
+33) Tester present OFF wait 100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) -
+2) -
+3) -
+4) -
+5) -
+6) -
+7) -
+8) Positive response is received: 0x62 01 40 01
+9) Positive response is received: 0x62 01 40 01
+10) Positive response is received: 0x62 01 40 02
+11) Positive response is received: 0x62 01 40 02
+12) Positive response is received: 0x62 01 40 03
+13) Positive response is received: 0x62 01 40 03
+14) Positive response is received: 0x62 01 40 31 31 31 31 31 31 31 31 31 31 31 31 31 31 31 31 31
+15) Positive response is received: 0x62 01 40 31 31 31 31 31 31 31 31 31 31 31 31 31 31 31 31 31
+16) Positive response is received: 0x62 01 40 01
+17) Positive response is received: 0x62 01 40 01
+18) Positive response is received: 0x62 01 40 02
+19) Positive response is received: 0x62 01 40 02
+20) Positive response is received: 0x62 01 40 03
+21) Positive response is received: 0x62 01 40 03
+22) Positive response is received: 0x62 01 40 31 31 31 31 31 31 31 31 31 31 31 31 31 31 31 31 31
+23) Positive response is received: 0x62 01 40 31 31 31 31 31 31 31 31 31 31 31 31 31 31 31 31 31
+24) Positive response is received: 0x62 01 40 01
+25) Positive response is received: 0x62 01 40 01
+26) Positive response is received: 0x62 01 40 02
+27) Positive response is received: 0x62 01 40 02
+28) Positive response is received: 0x62 01 40 03
+29) Positive response is received: 0x62 01 40 03
+30) Positive response is received: 0x62 01 40 31 31 31 31 31 31 31 31 31 31 31 31 31 31 31 31 31
+31) Positive response is received: 0x62 01 40 31 31 31 31 31 31 31 31 31 31 31 31 31 31 31 31 31
+32) -
+33) -
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
+2) DiagSessionCtrl(Default)
+3) wait(1000)
+4) DiagSessionCtrl(Extended)
+5) wait(1000)
+6) SetEnvVar(string Name EnvLogInLevel 1, string Value 1, int WaitTime 1000)
+7) SetEnvVar(string Name EnvLogInLevel 1, string Value 0, int WaitTime 1000)
+8) RequestResponse(220140, 62014001, Equal)
+9) FunctionalMessage(220140, 62014001, Equal)
+10) RequestResponse(220140, 62014002, Equal)
+11) FunctionalMessage(220140, 62014002, Equal)
+12) RequestResponse(220140, 62014003, Equal)
+13) FunctionalMessage(220140, 62014003, Equal)
+14) RequestResponse(220140, 6201403131313131313131313131313131313131, Equal)
+15) FunctionalMessage(220140, 6201403131313131313131313131313131313131, Equal)
+16) RequestResponse(220140, 62014001, Equal)
+17) FunctionalMessage(220140, 62014001, Equal)
+18) RequestResponse(220140, 62014002, Equal)
+19) FunctionalMessage(220140, 62014002, Equal)
+20) RequestResponse(220140, 62014003, Equal)
+21) FunctionalMessage(220140, 62014003, Equal)
+22) RequestResponse(220140, 6201403131313131313131313131313131313131, Equal)
+23) FunctionalMessage(220140, 6201403131313131313131313131313131313131, Equal)
+24) RequestResponse(220140, 62014001, Equal)
+25) FunctionalMessage(220140, 62014001, Equal)
+26) RequestResponse(220140, 62014002, Equal)
+27) FunctionalMessage(220140, 62014002, Equal)
+28) RequestResponse(220140, 62014003, Equal)
+29) FunctionalMessage(220140, 62014003, Equal)
+30) RequestResponse(220140, 6201403131313131313131313131313131313131, Equal)
+31) FunctionalMessage(220140, 6201403131313131313131313131313131313131, Equal)
+32) DiagSessionCtrl(Default)
+33) envvar(EnvTesterPresentOnOff(0; 100))
+</t>
+  </si>
+  <si>
+    <t>2.8.33 LabT_DCOM:Service 2E:Default DID in Extended SessionF102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 100
+2) Change to Default session with service 0x10 01
+3) Wait 1000 ms
+4) Change to Extended session with service 0x10 03
+5) Wait 1000 ms
+6) Set the EnvLogInLevel 1 ON Wait 1000 ms
+7) Set the EnvLogInLevel 1 OFF Wait 1000 ms
+8) Send 22 F1 02 Using Physical Addressing Mode
+9) Send 22 F1 02 Using Functional Addressing Mode
+10) Send 22 F1 02 Using Physical Addressing Mode
+11) Send 22 F1 02 Using Functional Addressing Mode
+12) Send 22 F1 02 Using Physical Addressing Mode
+13) Send 22 F1 02 Using Functional Addressing Mode
+14) Change to Default session with service 0x10 01
+15) Tester present OFF wait 100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) -
+2) -
+3) -
+4) -
+5) -
+6) -
+7) -
+8) Positive response is received: 0x62 F1 02 31 31 31 31 31 31 31 31 31 31 31 31 31 31 31 31 31
+9) Positive response is received: 0x62 F1 02 31 31 31 31 31 31 31 31 31 31 31 31 31 31 31 31 31
+10) Positive response is received: 0x62 F1 02 31 31 31 31 31 31 31 31 31 31 31 31 31 31 31 31 31
+11) Positive response is received: 0x62 F1 02 31 31 31 31 31 31 31 31 31 31 31 31 31 31 31 31 31
+12) Positive response is received: 0x62 F1 02 31 31 31 31 31 31 31 31 31 31 31 31 31 31 31 31 31
+13) Positive response is received: 0x62 F1 02 31 31 31 31 31 31 31 31 31 31 31 31 31 31 31 31 31
+14) -
+15) -
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
+2) DiagSessionCtrl(Default)
+3) wait(1000)
+4) DiagSessionCtrl(Extended)
+5) wait(1000)
+6) SetEnvVar(string Name EnvLogInLevel 1, string Value 1, int WaitTime 1000)
+7) SetEnvVar(string Name EnvLogInLevel 1, string Value 0, int WaitTime 1000)
+8) RequestResponse(22f102, 62f1023131313131313131313131313131313131, Equal)
+9) FunctionalMessage(22f102, 62f1023131313131313131313131313131313131, Equal)
+10) RequestResponse(22f102, 62f1023131313131313131313131313131313131, Equal)
+11) FunctionalMessage(22f102, 62f1023131313131313131313131313131313131, Equal)
+12) RequestResponse(22f102, 62f1023131313131313131313131313131313131, Equal)
+13) FunctionalMessage(22f102, 62f1023131313131313131313131313131313131, Equal)
+14) DiagSessionCtrl(Default)
+15) envvar(EnvTesterPresentOnOff(0; 100))
+</t>
+  </si>
+  <si>
+    <t>2.8.34 LabT_DCOM:Service 2E:Default DID in Extended Session0308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 100
+2) Change to Default session with service 0x10 01
+3) Wait 1000 ms
+4) Change to Extended session with service 0x10 03
+5) Wait 1000 ms
+6) Set the EnvLogInLevel 1 ON Wait 1000 ms
+7) Set the EnvLogInLevel 1 OFF Wait 1000 ms
+8) Send 22 03 08 Using Physical Addressing Mode
+9) Send 22 03 08 Using Functional Addressing Mode
+10) Send 22 03 08 Using Physical Addressing Mode
+11) Send 22 03 08 Using Functional Addressing Mode
+12) Send 22 03 08 Using Physical Addressing Mode
+13) Send 22 03 08 Using Functional Addressing Mode
+14) Change to Default session with service 0x10 01
+15) Tester present OFF wait 100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) -
+2) -
+3) -
+4) -
+5) -
+6) -
+7) -
+8) Positive response is received: 0x62 03 08 FF FF
+9) Positive response is received: 0x62 03 08 FF FF
+10) Positive response is received: 0x62 03 08 FF FF
+11) Positive response is received: 0x62 03 08 FF FF
+12) Positive response is received: 0x62 03 08 FF FF
+13) Positive response is received: 0x62 03 08 FF FF
+14) -
+15) -
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
+2) DiagSessionCtrl(Default)
+3) wait(1000)
+4) DiagSessionCtrl(Extended)
+5) wait(1000)
+6) SetEnvVar(string Name EnvLogInLevel 1, string Value 1, int WaitTime 1000)
+7) SetEnvVar(string Name EnvLogInLevel 1, string Value 0, int WaitTime 1000)
+8) RequestResponse(220308, 620308ffff, Equal)
+9) FunctionalMessage(220308, 620308ffff, Equal)
+10) RequestResponse(220308, 620308ffff, Equal)
+11) FunctionalMessage(220308, 620308ffff, Equal)
+12) RequestResponse(220308, 620308ffff, Equal)
+13) FunctionalMessage(220308, 620308ffff, Equal)
+14) DiagSessionCtrl(Default)
+15) envvar(EnvTesterPresentOnOff(0; 100))
+</t>
+  </si>
+  <si>
+    <t>2.8.35 LabT_DCOM:Service 2E:Default DID in Extended Session0101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 100
+2) Change to Default session with service 0x10 01
+3) Wait 1000 ms
+4) Change to Extended session with service 0x10 03
+5) Wait 1000 ms
+6) Set the EnvLogInLevel 1 ON Wait 1000 ms
+7) Set the EnvLogInLevel 1 OFF Wait 1000 ms
+8) Send 22 01 01 Using Physical Addressing Mode
+9) Send 22 01 01 Using Functional Addressing Mode
+10) Send 22 01 01 Using Physical Addressing Mode
+11) Send 22 01 01 Using Functional Addressing Mode
+12) Send 22 01 01 Using Physical Addressing Mode
+13) Send 22 01 01 Using Functional Addressing Mode
+14) Change to Default session with service 0x10 01
+15) Tester present OFF wait 100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) -
+2) -
+3) -
+4) -
+5) -
+6) -
+7) -
+8) Positive response is received: 0x62 01 01 06
+9) Positive response is received: 0x62 01 01 06
+10) Positive response is received: 0x62 01 01 06
+11) Positive response is received: 0x62 01 01 06
+12) Positive response is received: 0x62 01 01 06
+13) Positive response is received: 0x62 01 01 06
+14) -
+15) -
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
+2) DiagSessionCtrl(Default)
+3) wait(1000)
+4) DiagSessionCtrl(Extended)
+5) wait(1000)
+6) SetEnvVar(string Name EnvLogInLevel 1, string Value 1, int WaitTime 1000)
+7) SetEnvVar(string Name EnvLogInLevel 1, string Value 0, int WaitTime 1000)
+8) RequestResponse(220101, 62010106, Equal)
+9) FunctionalMessage(220101, 62010106, Equal)
+10) RequestResponse(220101, 62010106, Equal)
+11) FunctionalMessage(220101, 62010106, Equal)
+12) RequestResponse(220101, 62010106, Equal)
+13) FunctionalMessage(220101, 62010106, Equal)
+14) DiagSessionCtrl(Default)
+15) envvar(EnvTesterPresentOnOff(0; 100))
+</t>
+  </si>
+  <si>
+    <t>2.8.36 LabT_DCOM:Service 2E:Default DID in Extended Session0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 100
+2) Change to Default session with service 0x10 01
+3) Wait 1000 ms
+4) Change to Extended session with service 0x10 03
+5) Wait 1000 ms
+6) Set the EnvLogInLevel 1 ON Wait 1000 ms
+7) Set the EnvLogInLevel 1 OFF Wait 1000 ms
+8) Send 22 01 00 Using Physical Addressing Mode
+9) Send 22 01 00 Using Functional Addressing Mode
+10) Send 22 01 00 Using Physical Addressing Mode
+11) Send 22 01 00 Using Functional Addressing Mode
+12) Send 22 01 00 Using Physical Addressing Mode
+13) Send 22 01 00 Using Functional Addressing Mode
+14) Change to Default session with service 0x10 01
+15) Tester present OFF wait 100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) -
+2) -
+3) -
+4) -
+5) -
+6) -
+7) -
+8) Positive response is received: 0x62 01 00 FF FF
+9) Positive response is received: 0x62 01 00 FF FF
+10) Positive response is received: 0x62 01 00 FF FF
+11) Positive response is received: 0x62 01 00 FF FF
+12) Positive response is received: 0x62 01 00 FF FF
+13) Positive response is received: 0x62 01 00 FF FF
+14) -
+15) -
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
+2) DiagSessionCtrl(Default)
+3) wait(1000)
+4) DiagSessionCtrl(Extended)
+5) wait(1000)
+6) SetEnvVar(string Name EnvLogInLevel 1, string Value 1, int WaitTime 1000)
+7) SetEnvVar(string Name EnvLogInLevel 1, string Value 0, int WaitTime 1000)
+8) RequestResponse(220100, 620100ffff, Equal)
+9) FunctionalMessage(220100, 620100ffff, Equal)
+10) RequestResponse(220100, 620100ffff, Equal)
+11) FunctionalMessage(220100, 620100ffff, Equal)
+12) RequestResponse(220100, 620100ffff, Equal)
+13) FunctionalMessage(220100, 620100ffff, Equal)
+14) DiagSessionCtrl(Default)
+15) envvar(EnvTesterPresentOnOff(0; 100))
+</t>
+  </si>
+  <si>
+    <t>2.8.37 LabT_DCOM:Service 2E:Default DID in Extended Session0110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON wait 100
+2) Change to Default session with service 0x10 01
+3) Wait 1000 ms
+4) Change to Extended session with service 0x10 03
+5) Wait 1000 ms
+6) Set the EnvLogInLevel 1 ON Wait 1000 ms
+7) Set the EnvLogInLevel 1 OFF Wait 1000 ms
+8) Send 22 01 10 Using Physical Addressing Mode
+9) Send 22 01 10 Using Functional Addressing Mode
+10) Send 22 01 10 Using Physical Addressing Mode
+11) Send 22 01 10 Using Functional Addressing Mode
+12) Send 22 01 10 Using Physical Addressing Mode
+13) Send 22 01 10 Using Functional Addressing Mode
+14) Send 22 01 10 Using Physical Addressing Mode
+15) Send 22 01 10 Using Functional Addressing Mode
+16) Send 22 01 10 Using Physical Addressing Mode
+17) Send 22 01 10 Using Functional Addressing Mode
+18) Send 22 01 10 Using Physical Addressing Mode
+19) Send 22 01 10 Using Functional Addressing Mode
+20) Send 22 01 10 Using Physical Addressing Mode
+21) Send 22 01 10 Using Functional Addressing Mode
+22) Send 22 01 10 Using Physical Addressing Mode
+23) Send 22 01 10 Using Functional Addressing Mode
+24) Send 22 01 10 Using Physical Addressing Mode
+25) Send 22 01 10 Using Functional Addressing Mode
+26) Change to Default session with service 0x10 01
+27) Tester present OFF wait 100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) -
+2) -
+3) -
+4) -
+5) -
+6) -
+7) -
+8) Positive response is received: 0x62 01 10 00
+9) Positive response is received: 0x62 01 10 00
+10) Positive response is received: 0x62 01 10 01
+11) Positive response is received: 0x62 01 10 01
+12) Positive response is received: 0x62 01 10 02
+13) Positive response is received: 0x62 01 10 02
+14) Positive response is received: 0x62 01 10 00
+15) Positive response is received: 0x62 01 10 00
+16) Positive response is received: 0x62 01 10 01
+17) Positive response is received: 0x62 01 10 01
+18) Positive response is received: 0x62 01 10 02
+19) Positive response is received: 0x62 01 10 02
+20) Positive response is received: 0x62 01 10 00
+21) Positive response is received: 0x62 01 10 00
+22) Positive response is received: 0x62 01 10 01
+23) Positive response is received: 0x62 01 10 01
+24) Positive response is received: 0x62 01 10 02
+25) Positive response is received: 0x62 01 10 02
+26) -
+27) -
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1; 100))
+2) DiagSessionCtrl(Default)
+3) wait(1000)
+4) DiagSessionCtrl(Extended)
+5) wait(1000)
+6) SetEnvVar(string Name EnvLogInLevel 1, string Value 1, int WaitTime 1000)
+7) SetEnvVar(string Name EnvLogInLevel 1, string Value 0, int WaitTime 1000)
+8) RequestResponse(220110, 62011000, Equal)
+9) FunctionalMessage(220110, 62011000, Equal)
+10) RequestResponse(220110, 62011001, Equal)
+11) FunctionalMessage(220110, 62011001, Equal)
+12) RequestResponse(220110, 62011002, Equal)
+13) FunctionalMessage(220110, 62011002, Equal)
+14) RequestResponse(220110, 62011000, Equal)
+15) FunctionalMessage(220110, 62011000, Equal)
+16) RequestResponse(220110, 62011001, Equal)
+17) FunctionalMessage(220110, 62011001, Equal)
+18) RequestResponse(220110, 62011002, Equal)
+19) FunctionalMessage(220110, 62011002, Equal)
+20) RequestResponse(220110, 62011000, Equal)
+21) FunctionalMessage(220110, 62011000, Equal)
+22) RequestResponse(220110, 62011001, Equal)
+23) FunctionalMessage(220110, 62011001, Equal)
+24) RequestResponse(220110, 62011002, Equal)
+25) FunctionalMessage(220110, 62011002, Equal)
+26) DiagSessionCtrl(Default)
+27) envvar(EnvTesterPresentOnOff(0; 100))
+</t>
+  </si>
+  <si>
+    <t>2.8.38 LabT_DCOM: Service 0x2E: Check Voltage (Low) condition</t>
+  </si>
+  <si>
+    <t>2.8.39 LabT_DCOM: Service 0x2E: Check Voltage (High) condition</t>
+  </si>
+  <si>
+    <t>2.10.20 LabT_DCOM: Service 3E: Check all allowed diagnostic sessions</t>
+  </si>
+  <si>
+    <t>2.10.21 LabT_DCOM: Service 3E: Check all supported addressing mode</t>
+  </si>
+  <si>
+    <t>2.10.22 LabT_DCOM: Service 3E: Check all supported suppress bit</t>
+  </si>
+  <si>
+    <t>2.10.23 LabT_DCOM: Service 3E: Check Voltage (Low) condition</t>
+  </si>
+  <si>
+    <t>2.10.24 LabT_DCOM: Service 3E: Check Voltage (High) condition</t>
+  </si>
+  <si>
+    <t>2.11.24 LabT_DCOM: Service 85: Check all allowed diagnostic sessions</t>
+  </si>
+  <si>
+    <t>2.11.25 LabT_DCOM: Service 85: Check all supported in Physical addressing modes</t>
+  </si>
+  <si>
+    <t>2.11.26 LabT_DCOM: Service 85: Check all supported in Fuctional addressing modes</t>
+  </si>
+  <si>
+    <t>2.11.27 LabT_DCOM: Service 85: Check suppress bit in Physical</t>
+  </si>
+  <si>
+    <t>2.11.28 LabT_DCOM: Service 85: Check suppress bit in Fuctional</t>
+  </si>
+  <si>
+    <t>2.11.29 LabT_DCOM: Service 85: Check Voltage (Low) condition</t>
+  </si>
+  <si>
+    <t>2.11.30 LabT_DCOM: Service 85: Check Voltage (High) condition</t>
   </si>
 </sst>
 </file>
@@ -5234,10 +4671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117954EB-7A09-4D07-9136-5C779FFBBE99}">
-  <dimension ref="A1:I120"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5335,19 +4772,19 @@
         <v>17</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>19</v>
@@ -5364,19 +4801,19 @@
         <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>319</v>
+        <v>234</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>19</v>
@@ -5393,19 +4830,19 @@
         <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>320</v>
+        <v>235</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>265</v>
+        <v>214</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>19</v>
@@ -5422,19 +4859,19 @@
         <v>25</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>321</v>
+        <v>236</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>322</v>
+        <v>215</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>19</v>
@@ -5451,19 +4888,19 @@
         <v>27</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>323</v>
+        <v>237</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>19</v>
@@ -5480,19 +4917,19 @@
         <v>29</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>19</v>
@@ -5509,19 +4946,19 @@
         <v>31</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>325</v>
+        <v>239</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>19</v>
@@ -5538,19 +4975,19 @@
         <v>33</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>410</v>
+        <v>240</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>196</v>
+        <v>101</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>197</v>
+        <v>132</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>19</v>
@@ -5563,52 +5000,40 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A13" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>412</v>
+        <v>241</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>196</v>
+        <v>102</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>19</v>
@@ -5622,22 +5047,22 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>326</v>
+        <v>242</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>19</v>
@@ -5654,19 +5079,19 @@
         <v>35</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>413</v>
+        <v>243</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>19</v>
@@ -5680,22 +5105,22 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>327</v>
+        <v>244</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>111</v>
+        <v>206</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>19</v>
@@ -5708,69 +5133,69 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3" t="s">
+      <c r="B18" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>201</v>
+        <v>134</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>202</v>
+        <v>135</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>19</v>
@@ -5787,19 +5212,19 @@
         <v>44</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>19</v>
@@ -5816,19 +5241,19 @@
         <v>45</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>328</v>
+        <v>248</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>116</v>
+        <v>207</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>19</v>
@@ -5845,19 +5270,19 @@
         <v>47</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>414</v>
+        <v>249</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>117</v>
+        <v>203</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>19</v>
@@ -5870,52 +5295,40 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="B24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>416</v>
+        <v>250</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>155</v>
+        <v>42</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>203</v>
+        <v>43</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>19</v>
@@ -5932,19 +5345,19 @@
         <v>53</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>329</v>
+        <v>251</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>203</v>
+        <v>141</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>19</v>
@@ -5961,19 +5374,19 @@
         <v>54</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>417</v>
+        <v>252</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>118</v>
+        <v>216</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>19</v>
@@ -5990,19 +5403,19 @@
         <v>55</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>330</v>
+        <v>253</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>118</v>
+        <v>219</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>19</v>
@@ -6015,40 +5428,52 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="B29" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>159</v>
+        <v>209</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>19</v>
@@ -6065,19 +5490,19 @@
         <v>60</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>19</v>
@@ -6090,52 +5515,40 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="B32" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>418</v>
+        <v>257</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>213</v>
+        <v>144</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>19</v>
@@ -6152,19 +5565,19 @@
         <v>64</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>419</v>
+        <v>258</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>213</v>
+        <v>147</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>19</v>
@@ -6181,19 +5594,19 @@
         <v>65</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>420</v>
+        <v>259</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>213</v>
+        <v>150</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>19</v>
@@ -6210,19 +5623,19 @@
         <v>66</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>332</v>
+        <v>260</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>121</v>
+        <v>210</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>120</v>
+        <v>184</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>19</v>
@@ -6239,19 +5652,19 @@
         <v>67</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>421</v>
+        <v>261</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>422</v>
+        <v>173</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>120</v>
+        <v>184</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>423</v>
+        <v>185</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>19</v>
@@ -6264,69 +5677,69 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="G38" s="4" t="s">
+      <c r="B38" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H39" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I38" s="4" t="s">
+      <c r="I39" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>41</v>
+        <v>194</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>42</v>
+        <v>195</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>43</v>
+        <v>196</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>19</v>
@@ -6343,19 +5756,19 @@
         <v>72</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>19</v>
@@ -6372,19 +5785,19 @@
         <v>73</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>393</v>
+        <v>194</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>394</v>
+        <v>195</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>395</v>
+        <v>196</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>19</v>
@@ -6401,19 +5814,19 @@
         <v>74</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>396</v>
+        <v>197</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>397</v>
+        <v>198</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>398</v>
+        <v>199</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>19</v>
@@ -6430,19 +5843,19 @@
         <v>75</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>399</v>
+        <v>211</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>401</v>
+        <v>202</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>19</v>
@@ -6459,19 +5872,19 @@
         <v>76</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>334</v>
+        <v>268</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>19</v>
@@ -6484,52 +5897,40 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="B46" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>78</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>425</v>
+        <v>269</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>19</v>
@@ -6546,19 +5947,19 @@
         <v>79</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>426</v>
+        <v>270</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>19</v>
@@ -6575,19 +5976,19 @@
         <v>80</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>335</v>
+        <v>271</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>123</v>
+        <v>272</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>122</v>
+        <v>273</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>170</v>
+        <v>274</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>19</v>
@@ -6604,19 +6005,19 @@
         <v>81</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>427</v>
+        <v>275</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>218</v>
+        <v>276</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>219</v>
+        <v>278</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>19</v>
@@ -6630,22 +6031,22 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>336</v>
+        <v>279</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>218</v>
+        <v>280</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>217</v>
+        <v>281</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>219</v>
+        <v>282</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>19</v>
@@ -6658,40 +6059,52 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
+      <c r="B52" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>83</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>171</v>
+        <v>288</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>172</v>
+        <v>289</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>173</v>
+        <v>290</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>19</v>
@@ -6708,19 +6121,19 @@
         <v>84</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>174</v>
+        <v>292</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>175</v>
+        <v>293</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>176</v>
+        <v>294</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>19</v>
@@ -6737,19 +6150,19 @@
         <v>85</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>19</v>
@@ -6766,19 +6179,19 @@
         <v>86</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>337</v>
+        <v>296</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>221</v>
+        <v>108</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>19</v>
@@ -6791,52 +6204,40 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="B57" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>429</v>
+        <v>297</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>223</v>
+        <v>109</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>221</v>
+        <v>154</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>259</v>
+        <v>155</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>19</v>
@@ -6853,19 +6254,19 @@
         <v>89</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>430</v>
+        <v>298</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>223</v>
+        <v>167</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>221</v>
+        <v>168</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>259</v>
+        <v>169</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>19</v>
@@ -6882,19 +6283,19 @@
         <v>90</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>338</v>
+        <v>299</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>223</v>
+        <v>110</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>221</v>
+        <v>104</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>259</v>
+        <v>111</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>19</v>
@@ -6911,19 +6312,19 @@
         <v>91</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>431</v>
+        <v>300</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>260</v>
+        <v>156</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>261</v>
+        <v>174</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>19</v>
@@ -6940,19 +6341,19 @@
         <v>92</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>339</v>
+        <v>301</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>224</v>
+        <v>112</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>260</v>
+        <v>156</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>261</v>
+        <v>174</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>19</v>
@@ -6969,7 +6370,7 @@
         <v>93</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>63</v>
+        <v>175</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -6986,19 +6387,19 @@
         <v>94</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>340</v>
+        <v>176</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>341</v>
+        <v>177</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>342</v>
+        <v>178</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>19</v>
@@ -7015,19 +6416,19 @@
         <v>95</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>344</v>
+        <v>225</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>345</v>
+        <v>179</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>346</v>
+        <v>226</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>19</v>
@@ -7044,19 +6445,19 @@
         <v>96</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>347</v>
+        <v>304</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>348</v>
+        <v>227</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>349</v>
+        <v>180</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>350</v>
+        <v>228</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>19</v>
@@ -7073,19 +6474,19 @@
         <v>97</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>351</v>
+        <v>305</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>344</v>
+        <v>229</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>345</v>
+        <v>181</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>346</v>
+        <v>230</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>19</v>
@@ -7102,19 +6503,19 @@
         <v>98</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>352</v>
+        <v>306</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>348</v>
+        <v>231</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>349</v>
+        <v>182</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>350</v>
+        <v>232</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>19</v>
@@ -7131,19 +6532,19 @@
         <v>99</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>353</v>
+        <v>307</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>354</v>
+        <v>213</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>355</v>
+        <v>186</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>356</v>
+        <v>187</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>19</v>
@@ -7160,19 +6561,19 @@
         <v>100</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>357</v>
+        <v>308</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>354</v>
+        <v>183</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>355</v>
+        <v>186</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>356</v>
+        <v>187</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>19</v>
@@ -7181,1420 +6582,6 @@
         <v>20</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I71" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I72" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I73" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I74" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I75" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I76" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I77" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I78" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I79" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H80" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I80" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I82" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I83" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I84" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I85" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H86" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I86" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H87" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I87" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H88" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I88" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I89" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H90" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I90" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H91" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I91" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H92" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I92" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I93" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="G94" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H94" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I94" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I95" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="G96" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H96" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I96" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="G98" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H98" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I98" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="F99" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="G99" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H99" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I99" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F100" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G100" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H100" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I100" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H101" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I101" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="G102" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H102" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I102" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="G103" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H103" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I103" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F104" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="G104" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H104" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I104" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="G105" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H105" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I105" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="G106" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H106" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I106" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="G107" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H107" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I107" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H108" s="3"/>
-      <c r="I108" s="3"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G109" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H109" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I109" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="G110" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H110" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I110" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="G111" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H111" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I111" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="G112" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H112" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I112" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="G113" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H113" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I113" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="G114" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H114" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I114" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="E115" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="F115" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="G115" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H115" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I115" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="G116" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H116" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I116" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="F117" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="G117" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H117" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I117" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="F118" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="G118" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H118" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I118" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="F119" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="G119" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H119" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I119" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="G120" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H120" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I120" s="4" t="s">
         <v>21</v>
       </c>
     </row>
